--- a/01_基本設計書/20200220リリース/SC-K21_その他出庫参照・取消.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21_その他出庫参照・取消.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9657C3-4512-424D-9C17-AEC8CCF60314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF2D45D-5A1B-44C9-8AC8-8A8A1D9DDBF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1038,10 +1038,6 @@
     <rPh sb="12" eb="14">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>SC-K21</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2527,6 +2523,10 @@
     <t>・受払データ.振替区分</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>K-21</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -3478,6 +3478,12 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3487,91 +3493,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3599,6 +3520,103 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3617,22 +3635,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3670,12 +3676,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5810,108 +5810,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="161"/>
-      <c r="T32" s="161"/>
-      <c r="U32" s="161"/>
-      <c r="V32" s="161"/>
-      <c r="W32" s="161"/>
-      <c r="X32" s="161"/>
-      <c r="Y32" s="161"/>
-      <c r="Z32" s="161"/>
-      <c r="AA32" s="161"/>
-      <c r="AB32" s="161"/>
-      <c r="AC32" s="161"/>
-      <c r="AD32" s="161"/>
-      <c r="AE32" s="161"/>
-      <c r="AF32" s="161"/>
-      <c r="AG32" s="161"/>
-      <c r="AH32" s="161"/>
-      <c r="AI32" s="161"/>
-      <c r="AJ32" s="161"/>
-      <c r="AK32" s="161"/>
-      <c r="AL32" s="161"/>
-      <c r="AM32" s="161"/>
-      <c r="AN32" s="161"/>
-      <c r="AO32" s="161"/>
-      <c r="AP32" s="161"/>
-      <c r="AQ32" s="161"/>
-      <c r="AR32" s="161"/>
-      <c r="AS32" s="161"/>
-      <c r="AT32" s="161"/>
-      <c r="AU32" s="161"/>
-      <c r="AV32" s="161"/>
-      <c r="AW32" s="161"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="163"/>
+      <c r="R32" s="163"/>
+      <c r="S32" s="163"/>
+      <c r="T32" s="163"/>
+      <c r="U32" s="163"/>
+      <c r="V32" s="163"/>
+      <c r="W32" s="163"/>
+      <c r="X32" s="163"/>
+      <c r="Y32" s="163"/>
+      <c r="Z32" s="163"/>
+      <c r="AA32" s="163"/>
+      <c r="AB32" s="163"/>
+      <c r="AC32" s="163"/>
+      <c r="AD32" s="163"/>
+      <c r="AE32" s="163"/>
+      <c r="AF32" s="163"/>
+      <c r="AG32" s="163"/>
+      <c r="AH32" s="163"/>
+      <c r="AI32" s="163"/>
+      <c r="AJ32" s="163"/>
+      <c r="AK32" s="163"/>
+      <c r="AL32" s="163"/>
+      <c r="AM32" s="163"/>
+      <c r="AN32" s="163"/>
+      <c r="AO32" s="163"/>
+      <c r="AP32" s="163"/>
+      <c r="AQ32" s="163"/>
+      <c r="AR32" s="163"/>
+      <c r="AS32" s="163"/>
+      <c r="AT32" s="163"/>
+      <c r="AU32" s="163"/>
+      <c r="AV32" s="163"/>
+      <c r="AW32" s="163"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="162"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="162"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="162"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="162"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="162"/>
-      <c r="T33" s="162"/>
-      <c r="U33" s="162"/>
-      <c r="V33" s="162"/>
-      <c r="W33" s="162"/>
-      <c r="X33" s="162"/>
-      <c r="Y33" s="162"/>
-      <c r="Z33" s="162"/>
-      <c r="AA33" s="162"/>
-      <c r="AB33" s="162"/>
-      <c r="AC33" s="162"/>
-      <c r="AD33" s="162"/>
-      <c r="AE33" s="162"/>
-      <c r="AF33" s="162"/>
-      <c r="AG33" s="162"/>
-      <c r="AH33" s="162"/>
-      <c r="AI33" s="162"/>
-      <c r="AJ33" s="162"/>
-      <c r="AK33" s="162"/>
-      <c r="AL33" s="162"/>
-      <c r="AM33" s="162"/>
-      <c r="AN33" s="162"/>
-      <c r="AO33" s="162"/>
-      <c r="AP33" s="162"/>
-      <c r="AQ33" s="162"/>
-      <c r="AR33" s="162"/>
-      <c r="AS33" s="162"/>
-      <c r="AT33" s="162"/>
-      <c r="AU33" s="162"/>
-      <c r="AV33" s="162"/>
-      <c r="AW33" s="162"/>
+      <c r="A33" s="164"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="164"/>
+      <c r="U33" s="164"/>
+      <c r="V33" s="164"/>
+      <c r="W33" s="164"/>
+      <c r="X33" s="164"/>
+      <c r="Y33" s="164"/>
+      <c r="Z33" s="164"/>
+      <c r="AA33" s="164"/>
+      <c r="AB33" s="164"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="164"/>
+      <c r="AE33" s="164"/>
+      <c r="AF33" s="164"/>
+      <c r="AG33" s="164"/>
+      <c r="AH33" s="164"/>
+      <c r="AI33" s="164"/>
+      <c r="AJ33" s="164"/>
+      <c r="AK33" s="164"/>
+      <c r="AL33" s="164"/>
+      <c r="AM33" s="164"/>
+      <c r="AN33" s="164"/>
+      <c r="AO33" s="164"/>
+      <c r="AP33" s="164"/>
+      <c r="AQ33" s="164"/>
+      <c r="AR33" s="164"/>
+      <c r="AS33" s="164"/>
+      <c r="AT33" s="164"/>
+      <c r="AU33" s="164"/>
+      <c r="AV33" s="164"/>
+      <c r="AW33" s="164"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -5949,55 +5949,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="163"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="163"/>
-      <c r="K35" s="163"/>
-      <c r="L35" s="163"/>
-      <c r="M35" s="163"/>
-      <c r="N35" s="163"/>
-      <c r="O35" s="163"/>
-      <c r="P35" s="163"/>
-      <c r="Q35" s="163"/>
-      <c r="R35" s="163"/>
-      <c r="S35" s="163"/>
-      <c r="T35" s="163"/>
-      <c r="U35" s="163"/>
-      <c r="V35" s="163"/>
-      <c r="W35" s="163"/>
-      <c r="X35" s="163"/>
-      <c r="Y35" s="163"/>
-      <c r="Z35" s="163"/>
-      <c r="AA35" s="163"/>
-      <c r="AB35" s="163"/>
-      <c r="AC35" s="163"/>
-      <c r="AD35" s="163"/>
-      <c r="AE35" s="163"/>
-      <c r="AF35" s="163"/>
-      <c r="AG35" s="163"/>
-      <c r="AH35" s="163"/>
-      <c r="AI35" s="163"/>
-      <c r="AJ35" s="163"/>
-      <c r="AK35" s="163"/>
-      <c r="AL35" s="163"/>
-      <c r="AM35" s="163"/>
-      <c r="AN35" s="163"/>
-      <c r="AO35" s="163"/>
-      <c r="AP35" s="163"/>
-      <c r="AQ35" s="163"/>
-      <c r="AR35" s="163"/>
-      <c r="AS35" s="163"/>
-      <c r="AT35" s="163"/>
-      <c r="AU35" s="163"/>
-      <c r="AV35" s="163"/>
-      <c r="AW35" s="163"/>
+      <c r="A35" s="165"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="165"/>
+      <c r="O35" s="165"/>
+      <c r="P35" s="165"/>
+      <c r="Q35" s="165"/>
+      <c r="R35" s="165"/>
+      <c r="S35" s="165"/>
+      <c r="T35" s="165"/>
+      <c r="U35" s="165"/>
+      <c r="V35" s="165"/>
+      <c r="W35" s="165"/>
+      <c r="X35" s="165"/>
+      <c r="Y35" s="165"/>
+      <c r="Z35" s="165"/>
+      <c r="AA35" s="165"/>
+      <c r="AB35" s="165"/>
+      <c r="AC35" s="165"/>
+      <c r="AD35" s="165"/>
+      <c r="AE35" s="165"/>
+      <c r="AF35" s="165"/>
+      <c r="AG35" s="165"/>
+      <c r="AH35" s="165"/>
+      <c r="AI35" s="165"/>
+      <c r="AJ35" s="165"/>
+      <c r="AK35" s="165"/>
+      <c r="AL35" s="165"/>
+      <c r="AM35" s="165"/>
+      <c r="AN35" s="165"/>
+      <c r="AO35" s="165"/>
+      <c r="AP35" s="165"/>
+      <c r="AQ35" s="165"/>
+      <c r="AR35" s="165"/>
+      <c r="AS35" s="165"/>
+      <c r="AT35" s="165"/>
+      <c r="AU35" s="165"/>
+      <c r="AV35" s="165"/>
+      <c r="AW35" s="165"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -6032,1779 +6032,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="195"/>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="195"/>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="195"/>
-      <c r="AN1" s="195"/>
-      <c r="AO1" s="195"/>
-      <c r="AP1" s="195"/>
-      <c r="AQ1" s="195"/>
-      <c r="AR1" s="195"/>
-      <c r="AS1" s="195"/>
-      <c r="AT1" s="195"/>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="166"/>
+      <c r="AG1" s="166"/>
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="166"/>
+      <c r="AJ1" s="166"/>
+      <c r="AK1" s="166"/>
+      <c r="AL1" s="166"/>
+      <c r="AM1" s="166"/>
+      <c r="AN1" s="166"/>
+      <c r="AO1" s="166"/>
+      <c r="AP1" s="166"/>
+      <c r="AQ1" s="166"/>
+      <c r="AR1" s="166"/>
+      <c r="AS1" s="166"/>
+      <c r="AT1" s="166"/>
+      <c r="AU1" s="166"/>
+      <c r="AV1" s="166"/>
+      <c r="AW1" s="166"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="196"/>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="196"/>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="196"/>
-      <c r="AJ2" s="196"/>
-      <c r="AK2" s="196"/>
-      <c r="AL2" s="196"/>
-      <c r="AM2" s="196"/>
-      <c r="AN2" s="196"/>
-      <c r="AO2" s="196"/>
-      <c r="AP2" s="196"/>
-      <c r="AQ2" s="196"/>
-      <c r="AR2" s="196"/>
-      <c r="AS2" s="196"/>
-      <c r="AT2" s="196"/>
-      <c r="AU2" s="196"/>
-      <c r="AV2" s="196"/>
-      <c r="AW2" s="196"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="167"/>
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="167"/>
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="167"/>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="167"/>
+      <c r="AJ2" s="167"/>
+      <c r="AK2" s="167"/>
+      <c r="AL2" s="167"/>
+      <c r="AM2" s="167"/>
+      <c r="AN2" s="167"/>
+      <c r="AO2" s="167"/>
+      <c r="AP2" s="167"/>
+      <c r="AQ2" s="167"/>
+      <c r="AR2" s="167"/>
+      <c r="AS2" s="167"/>
+      <c r="AT2" s="167"/>
+      <c r="AU2" s="167"/>
+      <c r="AV2" s="167"/>
+      <c r="AW2" s="167"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197" t="s">
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="198" t="s">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="199"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="198" t="s">
+      <c r="K3" s="170"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="200"/>
-      <c r="S3" s="197" t="s">
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197" t="s">
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="197"/>
-      <c r="AJ3" s="197"/>
-      <c r="AK3" s="197"/>
-      <c r="AL3" s="197"/>
-      <c r="AM3" s="197"/>
-      <c r="AN3" s="197" t="s">
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="168"/>
+      <c r="AM3" s="168"/>
+      <c r="AN3" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="197"/>
-      <c r="AP3" s="197"/>
-      <c r="AQ3" s="197"/>
-      <c r="AR3" s="197"/>
-      <c r="AS3" s="197" t="s">
+      <c r="AO3" s="168"/>
+      <c r="AP3" s="168"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="197"/>
-      <c r="AU3" s="197"/>
-      <c r="AV3" s="197"/>
-      <c r="AW3" s="197"/>
+      <c r="AT3" s="168"/>
+      <c r="AU3" s="168"/>
+      <c r="AV3" s="168"/>
+      <c r="AW3" s="168"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="201"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="201"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="203"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="197"/>
-      <c r="AA4" s="197"/>
-      <c r="AB4" s="197"/>
-      <c r="AC4" s="197"/>
-      <c r="AD4" s="197"/>
-      <c r="AE4" s="197"/>
-      <c r="AF4" s="197"/>
-      <c r="AG4" s="197"/>
-      <c r="AH4" s="197"/>
-      <c r="AI4" s="197"/>
-      <c r="AJ4" s="197"/>
-      <c r="AK4" s="197"/>
-      <c r="AL4" s="197"/>
-      <c r="AM4" s="197"/>
-      <c r="AN4" s="197"/>
-      <c r="AO4" s="197"/>
-      <c r="AP4" s="197"/>
-      <c r="AQ4" s="197"/>
-      <c r="AR4" s="197"/>
-      <c r="AS4" s="197"/>
-      <c r="AT4" s="197"/>
-      <c r="AU4" s="197"/>
-      <c r="AV4" s="197"/>
-      <c r="AW4" s="197"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="174"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="168"/>
+      <c r="AA4" s="168"/>
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="168"/>
+      <c r="AD4" s="168"/>
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="168"/>
+      <c r="AH4" s="168"/>
+      <c r="AI4" s="168"/>
+      <c r="AJ4" s="168"/>
+      <c r="AK4" s="168"/>
+      <c r="AL4" s="168"/>
+      <c r="AM4" s="168"/>
+      <c r="AN4" s="168"/>
+      <c r="AO4" s="168"/>
+      <c r="AP4" s="168"/>
+      <c r="AQ4" s="168"/>
+      <c r="AR4" s="168"/>
+      <c r="AS4" s="168"/>
+      <c r="AT4" s="168"/>
+      <c r="AU4" s="168"/>
+      <c r="AV4" s="168"/>
+      <c r="AW4" s="168"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
-      <c r="B5" s="189">
+      <c r="B5" s="176">
         <v>1</v>
       </c>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="170">
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177">
         <v>43720</v>
       </c>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="171" t="s">
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="172"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="171" t="s">
+      <c r="K5" s="179"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="172"/>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="177" t="s">
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="177"/>
-      <c r="U5" s="177"/>
-      <c r="V5" s="188" t="s">
+      <c r="T5" s="175"/>
+      <c r="U5" s="175"/>
+      <c r="V5" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="188"/>
-      <c r="X5" s="188"/>
-      <c r="Y5" s="188"/>
-      <c r="Z5" s="188"/>
-      <c r="AA5" s="188"/>
-      <c r="AB5" s="188"/>
-      <c r="AC5" s="188"/>
-      <c r="AD5" s="188"/>
-      <c r="AE5" s="188"/>
-      <c r="AF5" s="188"/>
-      <c r="AG5" s="188"/>
-      <c r="AH5" s="188"/>
-      <c r="AI5" s="188"/>
-      <c r="AJ5" s="188"/>
-      <c r="AK5" s="188"/>
-      <c r="AL5" s="188"/>
-      <c r="AM5" s="188"/>
-      <c r="AN5" s="177" t="s">
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="184"/>
+      <c r="AC5" s="184"/>
+      <c r="AD5" s="184"/>
+      <c r="AE5" s="184"/>
+      <c r="AF5" s="184"/>
+      <c r="AG5" s="184"/>
+      <c r="AH5" s="184"/>
+      <c r="AI5" s="184"/>
+      <c r="AJ5" s="184"/>
+      <c r="AK5" s="184"/>
+      <c r="AL5" s="184"/>
+      <c r="AM5" s="184"/>
+      <c r="AN5" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="AO5" s="177"/>
-      <c r="AP5" s="177"/>
-      <c r="AQ5" s="177"/>
-      <c r="AR5" s="177"/>
-      <c r="AS5" s="177"/>
-      <c r="AT5" s="177"/>
-      <c r="AU5" s="177"/>
-      <c r="AV5" s="177"/>
-      <c r="AW5" s="177"/>
+      <c r="AO5" s="175"/>
+      <c r="AP5" s="175"/>
+      <c r="AQ5" s="175"/>
+      <c r="AR5" s="175"/>
+      <c r="AS5" s="175"/>
+      <c r="AT5" s="175"/>
+      <c r="AU5" s="175"/>
+      <c r="AV5" s="175"/>
+      <c r="AW5" s="175"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="192"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="177"/>
-      <c r="U6" s="177"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="188"/>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="188"/>
-      <c r="AA6" s="188"/>
-      <c r="AB6" s="188"/>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="188"/>
-      <c r="AE6" s="188"/>
-      <c r="AF6" s="188"/>
-      <c r="AG6" s="188"/>
-      <c r="AH6" s="188"/>
-      <c r="AI6" s="188"/>
-      <c r="AJ6" s="188"/>
-      <c r="AK6" s="188"/>
-      <c r="AL6" s="188"/>
-      <c r="AM6" s="188"/>
-      <c r="AN6" s="177"/>
-      <c r="AO6" s="177"/>
-      <c r="AP6" s="177"/>
-      <c r="AQ6" s="177"/>
-      <c r="AR6" s="177"/>
-      <c r="AS6" s="177"/>
-      <c r="AT6" s="177"/>
-      <c r="AU6" s="177"/>
-      <c r="AV6" s="177"/>
-      <c r="AW6" s="177"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="184"/>
+      <c r="W6" s="184"/>
+      <c r="X6" s="184"/>
+      <c r="Y6" s="184"/>
+      <c r="Z6" s="184"/>
+      <c r="AA6" s="184"/>
+      <c r="AB6" s="184"/>
+      <c r="AC6" s="184"/>
+      <c r="AD6" s="184"/>
+      <c r="AE6" s="184"/>
+      <c r="AF6" s="184"/>
+      <c r="AG6" s="184"/>
+      <c r="AH6" s="184"/>
+      <c r="AI6" s="184"/>
+      <c r="AJ6" s="184"/>
+      <c r="AK6" s="184"/>
+      <c r="AL6" s="184"/>
+      <c r="AM6" s="184"/>
+      <c r="AN6" s="175"/>
+      <c r="AO6" s="175"/>
+      <c r="AP6" s="175"/>
+      <c r="AQ6" s="175"/>
+      <c r="AR6" s="175"/>
+      <c r="AS6" s="175"/>
+      <c r="AT6" s="175"/>
+      <c r="AU6" s="175"/>
+      <c r="AV6" s="175"/>
+      <c r="AW6" s="175"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="194"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="188"/>
-      <c r="W7" s="188"/>
-      <c r="X7" s="188"/>
-      <c r="Y7" s="188"/>
-      <c r="Z7" s="188"/>
-      <c r="AA7" s="188"/>
-      <c r="AB7" s="188"/>
-      <c r="AC7" s="188"/>
-      <c r="AD7" s="188"/>
-      <c r="AE7" s="188"/>
-      <c r="AF7" s="188"/>
-      <c r="AG7" s="188"/>
-      <c r="AH7" s="188"/>
-      <c r="AI7" s="188"/>
-      <c r="AJ7" s="188"/>
-      <c r="AK7" s="188"/>
-      <c r="AL7" s="188"/>
-      <c r="AM7" s="188"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177"/>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="183"/>
+      <c r="S7" s="175"/>
+      <c r="T7" s="175"/>
+      <c r="U7" s="175"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184"/>
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184"/>
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184"/>
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="175"/>
+      <c r="AO7" s="175"/>
+      <c r="AP7" s="175"/>
+      <c r="AQ7" s="175"/>
+      <c r="AR7" s="175"/>
+      <c r="AS7" s="175"/>
+      <c r="AT7" s="175"/>
+      <c r="AU7" s="175"/>
+      <c r="AV7" s="175"/>
+      <c r="AW7" s="175"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="193"/>
-      <c r="P8" s="193"/>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="194"/>
-      <c r="S8" s="177"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
-      <c r="V8" s="188"/>
-      <c r="W8" s="188"/>
-      <c r="X8" s="188"/>
-      <c r="Y8" s="188"/>
-      <c r="Z8" s="188"/>
-      <c r="AA8" s="188"/>
-      <c r="AB8" s="188"/>
-      <c r="AC8" s="188"/>
-      <c r="AD8" s="188"/>
-      <c r="AE8" s="188"/>
-      <c r="AF8" s="188"/>
-      <c r="AG8" s="188"/>
-      <c r="AH8" s="188"/>
-      <c r="AI8" s="188"/>
-      <c r="AJ8" s="188"/>
-      <c r="AK8" s="188"/>
-      <c r="AL8" s="188"/>
-      <c r="AM8" s="188"/>
-      <c r="AN8" s="177"/>
-      <c r="AO8" s="177"/>
-      <c r="AP8" s="177"/>
-      <c r="AQ8" s="177"/>
-      <c r="AR8" s="177"/>
-      <c r="AS8" s="177"/>
-      <c r="AT8" s="177"/>
-      <c r="AU8" s="177"/>
-      <c r="AV8" s="177"/>
-      <c r="AW8" s="177"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="182"/>
+      <c r="P8" s="182"/>
+      <c r="Q8" s="182"/>
+      <c r="R8" s="183"/>
+      <c r="S8" s="175"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="175"/>
+      <c r="V8" s="184"/>
+      <c r="W8" s="184"/>
+      <c r="X8" s="184"/>
+      <c r="Y8" s="184"/>
+      <c r="Z8" s="184"/>
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="184"/>
+      <c r="AC8" s="184"/>
+      <c r="AD8" s="184"/>
+      <c r="AE8" s="184"/>
+      <c r="AF8" s="184"/>
+      <c r="AG8" s="184"/>
+      <c r="AH8" s="184"/>
+      <c r="AI8" s="184"/>
+      <c r="AJ8" s="184"/>
+      <c r="AK8" s="184"/>
+      <c r="AL8" s="184"/>
+      <c r="AM8" s="184"/>
+      <c r="AN8" s="175"/>
+      <c r="AO8" s="175"/>
+      <c r="AP8" s="175"/>
+      <c r="AQ8" s="175"/>
+      <c r="AR8" s="175"/>
+      <c r="AS8" s="175"/>
+      <c r="AT8" s="175"/>
+      <c r="AU8" s="175"/>
+      <c r="AV8" s="175"/>
+      <c r="AW8" s="175"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="194"/>
-      <c r="S9" s="177"/>
-      <c r="T9" s="177"/>
-      <c r="U9" s="177"/>
-      <c r="V9" s="188"/>
-      <c r="W9" s="188"/>
-      <c r="X9" s="188"/>
-      <c r="Y9" s="188"/>
-      <c r="Z9" s="188"/>
-      <c r="AA9" s="188"/>
-      <c r="AB9" s="188"/>
-      <c r="AC9" s="188"/>
-      <c r="AD9" s="188"/>
-      <c r="AE9" s="188"/>
-      <c r="AF9" s="188"/>
-      <c r="AG9" s="188"/>
-      <c r="AH9" s="188"/>
-      <c r="AI9" s="188"/>
-      <c r="AJ9" s="188"/>
-      <c r="AK9" s="188"/>
-      <c r="AL9" s="188"/>
-      <c r="AM9" s="188"/>
-      <c r="AN9" s="177"/>
-      <c r="AO9" s="177"/>
-      <c r="AP9" s="177"/>
-      <c r="AQ9" s="177"/>
-      <c r="AR9" s="177"/>
-      <c r="AS9" s="177"/>
-      <c r="AT9" s="177"/>
-      <c r="AU9" s="177"/>
-      <c r="AV9" s="177"/>
-      <c r="AW9" s="177"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="182"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="182"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="175"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="184"/>
+      <c r="Y9" s="184"/>
+      <c r="Z9" s="184"/>
+      <c r="AA9" s="184"/>
+      <c r="AB9" s="184"/>
+      <c r="AC9" s="184"/>
+      <c r="AD9" s="184"/>
+      <c r="AE9" s="184"/>
+      <c r="AF9" s="184"/>
+      <c r="AG9" s="184"/>
+      <c r="AH9" s="184"/>
+      <c r="AI9" s="184"/>
+      <c r="AJ9" s="184"/>
+      <c r="AK9" s="184"/>
+      <c r="AL9" s="184"/>
+      <c r="AM9" s="184"/>
+      <c r="AN9" s="175"/>
+      <c r="AO9" s="175"/>
+      <c r="AP9" s="175"/>
+      <c r="AQ9" s="175"/>
+      <c r="AR9" s="175"/>
+      <c r="AS9" s="175"/>
+      <c r="AT9" s="175"/>
+      <c r="AU9" s="175"/>
+      <c r="AV9" s="175"/>
+      <c r="AW9" s="175"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="193"/>
-      <c r="R10" s="194"/>
-      <c r="S10" s="177"/>
-      <c r="T10" s="177"/>
-      <c r="U10" s="177"/>
-      <c r="V10" s="188"/>
-      <c r="W10" s="188"/>
-      <c r="X10" s="188"/>
-      <c r="Y10" s="188"/>
-      <c r="Z10" s="188"/>
-      <c r="AA10" s="188"/>
-      <c r="AB10" s="188"/>
-      <c r="AC10" s="188"/>
-      <c r="AD10" s="188"/>
-      <c r="AE10" s="188"/>
-      <c r="AF10" s="188"/>
-      <c r="AG10" s="188"/>
-      <c r="AH10" s="188"/>
-      <c r="AI10" s="188"/>
-      <c r="AJ10" s="188"/>
-      <c r="AK10" s="188"/>
-      <c r="AL10" s="188"/>
-      <c r="AM10" s="188"/>
-      <c r="AN10" s="177"/>
-      <c r="AO10" s="177"/>
-      <c r="AP10" s="177"/>
-      <c r="AQ10" s="177"/>
-      <c r="AR10" s="177"/>
-      <c r="AS10" s="177"/>
-      <c r="AT10" s="177"/>
-      <c r="AU10" s="177"/>
-      <c r="AV10" s="177"/>
-      <c r="AW10" s="177"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="184"/>
+      <c r="Y10" s="184"/>
+      <c r="Z10" s="184"/>
+      <c r="AA10" s="184"/>
+      <c r="AB10" s="184"/>
+      <c r="AC10" s="184"/>
+      <c r="AD10" s="184"/>
+      <c r="AE10" s="184"/>
+      <c r="AF10" s="184"/>
+      <c r="AG10" s="184"/>
+      <c r="AH10" s="184"/>
+      <c r="AI10" s="184"/>
+      <c r="AJ10" s="184"/>
+      <c r="AK10" s="184"/>
+      <c r="AL10" s="184"/>
+      <c r="AM10" s="184"/>
+      <c r="AN10" s="175"/>
+      <c r="AO10" s="175"/>
+      <c r="AP10" s="175"/>
+      <c r="AQ10" s="175"/>
+      <c r="AR10" s="175"/>
+      <c r="AS10" s="175"/>
+      <c r="AT10" s="175"/>
+      <c r="AU10" s="175"/>
+      <c r="AV10" s="175"/>
+      <c r="AW10" s="175"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="182"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="182"/>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="177"/>
-      <c r="T11" s="177"/>
-      <c r="U11" s="177"/>
-      <c r="V11" s="178"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="190"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="190"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="190"/>
-      <c r="AF11" s="190"/>
-      <c r="AG11" s="190"/>
-      <c r="AH11" s="190"/>
-      <c r="AI11" s="190"/>
-      <c r="AJ11" s="190"/>
-      <c r="AK11" s="190"/>
-      <c r="AL11" s="190"/>
-      <c r="AM11" s="191"/>
-      <c r="AN11" s="177"/>
-      <c r="AO11" s="177"/>
-      <c r="AP11" s="177"/>
-      <c r="AQ11" s="177"/>
-      <c r="AR11" s="177"/>
-      <c r="AS11" s="177"/>
-      <c r="AT11" s="177"/>
-      <c r="AU11" s="177"/>
-      <c r="AV11" s="177"/>
-      <c r="AW11" s="177"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="188"/>
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="189"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="191"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="197"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="197"/>
+      <c r="AH11" s="197"/>
+      <c r="AI11" s="197"/>
+      <c r="AJ11" s="197"/>
+      <c r="AK11" s="197"/>
+      <c r="AL11" s="197"/>
+      <c r="AM11" s="198"/>
+      <c r="AN11" s="175"/>
+      <c r="AO11" s="175"/>
+      <c r="AP11" s="175"/>
+      <c r="AQ11" s="175"/>
+      <c r="AR11" s="175"/>
+      <c r="AS11" s="175"/>
+      <c r="AT11" s="175"/>
+      <c r="AU11" s="175"/>
+      <c r="AV11" s="175"/>
+      <c r="AW11" s="175"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
-      <c r="B12" s="167"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="182"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="183"/>
-      <c r="S12" s="177"/>
-      <c r="T12" s="177"/>
-      <c r="U12" s="177"/>
-      <c r="V12" s="178"/>
-      <c r="W12" s="179"/>
-      <c r="X12" s="179"/>
-      <c r="Y12" s="179"/>
-      <c r="Z12" s="179"/>
-      <c r="AA12" s="179"/>
-      <c r="AB12" s="179"/>
-      <c r="AC12" s="179"/>
-      <c r="AD12" s="179"/>
-      <c r="AE12" s="179"/>
-      <c r="AF12" s="179"/>
-      <c r="AG12" s="179"/>
-      <c r="AH12" s="179"/>
-      <c r="AI12" s="179"/>
-      <c r="AJ12" s="179"/>
-      <c r="AK12" s="179"/>
-      <c r="AL12" s="179"/>
-      <c r="AM12" s="180"/>
-      <c r="AN12" s="164"/>
-      <c r="AO12" s="165"/>
-      <c r="AP12" s="165"/>
-      <c r="AQ12" s="165"/>
-      <c r="AR12" s="166"/>
-      <c r="AS12" s="164"/>
-      <c r="AT12" s="165"/>
-      <c r="AU12" s="165"/>
-      <c r="AV12" s="165"/>
-      <c r="AW12" s="166"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="175"/>
+      <c r="U12" s="175"/>
+      <c r="V12" s="191"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="192"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
+      <c r="AF12" s="192"/>
+      <c r="AG12" s="192"/>
+      <c r="AH12" s="192"/>
+      <c r="AI12" s="192"/>
+      <c r="AJ12" s="192"/>
+      <c r="AK12" s="192"/>
+      <c r="AL12" s="192"/>
+      <c r="AM12" s="193"/>
+      <c r="AN12" s="194"/>
+      <c r="AO12" s="195"/>
+      <c r="AP12" s="195"/>
+      <c r="AQ12" s="195"/>
+      <c r="AR12" s="196"/>
+      <c r="AS12" s="194"/>
+      <c r="AT12" s="195"/>
+      <c r="AU12" s="195"/>
+      <c r="AV12" s="195"/>
+      <c r="AW12" s="196"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="182"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="183"/>
-      <c r="S13" s="177"/>
-      <c r="T13" s="177"/>
-      <c r="U13" s="177"/>
-      <c r="V13" s="178"/>
-      <c r="W13" s="179"/>
-      <c r="X13" s="179"/>
-      <c r="Y13" s="179"/>
-      <c r="Z13" s="179"/>
-      <c r="AA13" s="179"/>
-      <c r="AB13" s="179"/>
-      <c r="AC13" s="179"/>
-      <c r="AD13" s="179"/>
-      <c r="AE13" s="179"/>
-      <c r="AF13" s="179"/>
-      <c r="AG13" s="179"/>
-      <c r="AH13" s="179"/>
-      <c r="AI13" s="179"/>
-      <c r="AJ13" s="179"/>
-      <c r="AK13" s="179"/>
-      <c r="AL13" s="179"/>
-      <c r="AM13" s="180"/>
-      <c r="AN13" s="164"/>
-      <c r="AO13" s="165"/>
-      <c r="AP13" s="165"/>
-      <c r="AQ13" s="165"/>
-      <c r="AR13" s="166"/>
-      <c r="AS13" s="164"/>
-      <c r="AT13" s="165"/>
-      <c r="AU13" s="165"/>
-      <c r="AV13" s="165"/>
-      <c r="AW13" s="166"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="175"/>
+      <c r="V13" s="191"/>
+      <c r="W13" s="192"/>
+      <c r="X13" s="192"/>
+      <c r="Y13" s="192"/>
+      <c r="Z13" s="192"/>
+      <c r="AA13" s="192"/>
+      <c r="AB13" s="192"/>
+      <c r="AC13" s="192"/>
+      <c r="AD13" s="192"/>
+      <c r="AE13" s="192"/>
+      <c r="AF13" s="192"/>
+      <c r="AG13" s="192"/>
+      <c r="AH13" s="192"/>
+      <c r="AI13" s="192"/>
+      <c r="AJ13" s="192"/>
+      <c r="AK13" s="192"/>
+      <c r="AL13" s="192"/>
+      <c r="AM13" s="193"/>
+      <c r="AN13" s="194"/>
+      <c r="AO13" s="195"/>
+      <c r="AP13" s="195"/>
+      <c r="AQ13" s="195"/>
+      <c r="AR13" s="196"/>
+      <c r="AS13" s="194"/>
+      <c r="AT13" s="195"/>
+      <c r="AU13" s="195"/>
+      <c r="AV13" s="195"/>
+      <c r="AW13" s="196"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="167"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="182"/>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="183"/>
-      <c r="S14" s="177"/>
-      <c r="T14" s="177"/>
-      <c r="U14" s="177"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="188"/>
-      <c r="X14" s="188"/>
-      <c r="Y14" s="188"/>
-      <c r="Z14" s="188"/>
-      <c r="AA14" s="188"/>
-      <c r="AB14" s="188"/>
-      <c r="AC14" s="188"/>
-      <c r="AD14" s="188"/>
-      <c r="AE14" s="188"/>
-      <c r="AF14" s="188"/>
-      <c r="AG14" s="188"/>
-      <c r="AH14" s="188"/>
-      <c r="AI14" s="188"/>
-      <c r="AJ14" s="188"/>
-      <c r="AK14" s="188"/>
-      <c r="AL14" s="188"/>
-      <c r="AM14" s="188"/>
-      <c r="AN14" s="177"/>
-      <c r="AO14" s="177"/>
-      <c r="AP14" s="177"/>
-      <c r="AQ14" s="177"/>
-      <c r="AR14" s="177"/>
-      <c r="AS14" s="164"/>
-      <c r="AT14" s="165"/>
-      <c r="AU14" s="165"/>
-      <c r="AV14" s="165"/>
-      <c r="AW14" s="166"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="190"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="175"/>
+      <c r="U14" s="175"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="184"/>
+      <c r="X14" s="184"/>
+      <c r="Y14" s="184"/>
+      <c r="Z14" s="184"/>
+      <c r="AA14" s="184"/>
+      <c r="AB14" s="184"/>
+      <c r="AC14" s="184"/>
+      <c r="AD14" s="184"/>
+      <c r="AE14" s="184"/>
+      <c r="AF14" s="184"/>
+      <c r="AG14" s="184"/>
+      <c r="AH14" s="184"/>
+      <c r="AI14" s="184"/>
+      <c r="AJ14" s="184"/>
+      <c r="AK14" s="184"/>
+      <c r="AL14" s="184"/>
+      <c r="AM14" s="184"/>
+      <c r="AN14" s="175"/>
+      <c r="AO14" s="175"/>
+      <c r="AP14" s="175"/>
+      <c r="AQ14" s="175"/>
+      <c r="AR14" s="175"/>
+      <c r="AS14" s="194"/>
+      <c r="AT14" s="195"/>
+      <c r="AU14" s="195"/>
+      <c r="AV14" s="195"/>
+      <c r="AW14" s="196"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="182"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="183"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="177"/>
-      <c r="U15" s="177"/>
-      <c r="V15" s="178"/>
-      <c r="W15" s="179"/>
-      <c r="X15" s="179"/>
-      <c r="Y15" s="179"/>
-      <c r="Z15" s="179"/>
-      <c r="AA15" s="179"/>
-      <c r="AB15" s="179"/>
-      <c r="AC15" s="179"/>
-      <c r="AD15" s="179"/>
-      <c r="AE15" s="179"/>
-      <c r="AF15" s="179"/>
-      <c r="AG15" s="179"/>
-      <c r="AH15" s="179"/>
-      <c r="AI15" s="179"/>
-      <c r="AJ15" s="179"/>
-      <c r="AK15" s="179"/>
-      <c r="AL15" s="179"/>
-      <c r="AM15" s="180"/>
-      <c r="AN15" s="164"/>
-      <c r="AO15" s="165"/>
-      <c r="AP15" s="165"/>
-      <c r="AQ15" s="165"/>
-      <c r="AR15" s="166"/>
-      <c r="AS15" s="164"/>
-      <c r="AT15" s="165"/>
-      <c r="AU15" s="165"/>
-      <c r="AV15" s="165"/>
-      <c r="AW15" s="166"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="190"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="175"/>
+      <c r="U15" s="175"/>
+      <c r="V15" s="191"/>
+      <c r="W15" s="192"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="192"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="192"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="192"/>
+      <c r="AE15" s="192"/>
+      <c r="AF15" s="192"/>
+      <c r="AG15" s="192"/>
+      <c r="AH15" s="192"/>
+      <c r="AI15" s="192"/>
+      <c r="AJ15" s="192"/>
+      <c r="AK15" s="192"/>
+      <c r="AL15" s="192"/>
+      <c r="AM15" s="193"/>
+      <c r="AN15" s="194"/>
+      <c r="AO15" s="195"/>
+      <c r="AP15" s="195"/>
+      <c r="AQ15" s="195"/>
+      <c r="AR15" s="196"/>
+      <c r="AS15" s="194"/>
+      <c r="AT15" s="195"/>
+      <c r="AU15" s="195"/>
+      <c r="AV15" s="195"/>
+      <c r="AW15" s="196"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="184"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="182"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="177"/>
-      <c r="U16" s="177"/>
-      <c r="V16" s="178"/>
-      <c r="W16" s="179"/>
-      <c r="X16" s="179"/>
-      <c r="Y16" s="179"/>
-      <c r="Z16" s="179"/>
-      <c r="AA16" s="179"/>
-      <c r="AB16" s="179"/>
-      <c r="AC16" s="179"/>
-      <c r="AD16" s="179"/>
-      <c r="AE16" s="179"/>
-      <c r="AF16" s="179"/>
-      <c r="AG16" s="179"/>
-      <c r="AH16" s="179"/>
-      <c r="AI16" s="179"/>
-      <c r="AJ16" s="179"/>
-      <c r="AK16" s="179"/>
-      <c r="AL16" s="179"/>
-      <c r="AM16" s="180"/>
-      <c r="AN16" s="164"/>
-      <c r="AO16" s="165"/>
-      <c r="AP16" s="165"/>
-      <c r="AQ16" s="165"/>
-      <c r="AR16" s="166"/>
-      <c r="AS16" s="164"/>
-      <c r="AT16" s="165"/>
-      <c r="AU16" s="165"/>
-      <c r="AV16" s="165"/>
-      <c r="AW16" s="166"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="190"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="175"/>
+      <c r="U16" s="175"/>
+      <c r="V16" s="191"/>
+      <c r="W16" s="192"/>
+      <c r="X16" s="192"/>
+      <c r="Y16" s="192"/>
+      <c r="Z16" s="192"/>
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="192"/>
+      <c r="AF16" s="192"/>
+      <c r="AG16" s="192"/>
+      <c r="AH16" s="192"/>
+      <c r="AI16" s="192"/>
+      <c r="AJ16" s="192"/>
+      <c r="AK16" s="192"/>
+      <c r="AL16" s="192"/>
+      <c r="AM16" s="193"/>
+      <c r="AN16" s="194"/>
+      <c r="AO16" s="195"/>
+      <c r="AP16" s="195"/>
+      <c r="AQ16" s="195"/>
+      <c r="AR16" s="196"/>
+      <c r="AS16" s="194"/>
+      <c r="AT16" s="195"/>
+      <c r="AU16" s="195"/>
+      <c r="AV16" s="195"/>
+      <c r="AW16" s="196"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="182"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="186"/>
-      <c r="T17" s="186"/>
-      <c r="U17" s="186"/>
-      <c r="V17" s="178"/>
-      <c r="W17" s="179"/>
-      <c r="X17" s="179"/>
-      <c r="Y17" s="179"/>
-      <c r="Z17" s="179"/>
-      <c r="AA17" s="179"/>
-      <c r="AB17" s="179"/>
-      <c r="AC17" s="179"/>
-      <c r="AD17" s="179"/>
-      <c r="AE17" s="179"/>
-      <c r="AF17" s="179"/>
-      <c r="AG17" s="179"/>
-      <c r="AH17" s="179"/>
-      <c r="AI17" s="179"/>
-      <c r="AJ17" s="179"/>
-      <c r="AK17" s="179"/>
-      <c r="AL17" s="179"/>
-      <c r="AM17" s="180"/>
-      <c r="AN17" s="164"/>
-      <c r="AO17" s="165"/>
-      <c r="AP17" s="165"/>
-      <c r="AQ17" s="165"/>
-      <c r="AR17" s="166"/>
-      <c r="AS17" s="164"/>
-      <c r="AT17" s="165"/>
-      <c r="AU17" s="165"/>
-      <c r="AV17" s="165"/>
-      <c r="AW17" s="166"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="189"/>
+      <c r="O17" s="189"/>
+      <c r="P17" s="189"/>
+      <c r="Q17" s="189"/>
+      <c r="R17" s="201"/>
+      <c r="S17" s="202"/>
+      <c r="T17" s="202"/>
+      <c r="U17" s="202"/>
+      <c r="V17" s="191"/>
+      <c r="W17" s="192"/>
+      <c r="X17" s="192"/>
+      <c r="Y17" s="192"/>
+      <c r="Z17" s="192"/>
+      <c r="AA17" s="192"/>
+      <c r="AB17" s="192"/>
+      <c r="AC17" s="192"/>
+      <c r="AD17" s="192"/>
+      <c r="AE17" s="192"/>
+      <c r="AF17" s="192"/>
+      <c r="AG17" s="192"/>
+      <c r="AH17" s="192"/>
+      <c r="AI17" s="192"/>
+      <c r="AJ17" s="192"/>
+      <c r="AK17" s="192"/>
+      <c r="AL17" s="192"/>
+      <c r="AM17" s="193"/>
+      <c r="AN17" s="194"/>
+      <c r="AO17" s="195"/>
+      <c r="AP17" s="195"/>
+      <c r="AQ17" s="195"/>
+      <c r="AR17" s="196"/>
+      <c r="AS17" s="194"/>
+      <c r="AT17" s="195"/>
+      <c r="AU17" s="195"/>
+      <c r="AV17" s="195"/>
+      <c r="AW17" s="196"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="167"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="182"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="177"/>
-      <c r="T18" s="177"/>
-      <c r="U18" s="177"/>
-      <c r="V18" s="178"/>
-      <c r="W18" s="179"/>
-      <c r="X18" s="179"/>
-      <c r="Y18" s="179"/>
-      <c r="Z18" s="179"/>
-      <c r="AA18" s="179"/>
-      <c r="AB18" s="179"/>
-      <c r="AC18" s="179"/>
-      <c r="AD18" s="179"/>
-      <c r="AE18" s="179"/>
-      <c r="AF18" s="179"/>
-      <c r="AG18" s="179"/>
-      <c r="AH18" s="179"/>
-      <c r="AI18" s="179"/>
-      <c r="AJ18" s="179"/>
-      <c r="AK18" s="179"/>
-      <c r="AL18" s="179"/>
-      <c r="AM18" s="180"/>
-      <c r="AN18" s="164"/>
-      <c r="AO18" s="165"/>
-      <c r="AP18" s="165"/>
-      <c r="AQ18" s="165"/>
-      <c r="AR18" s="166"/>
-      <c r="AS18" s="164"/>
-      <c r="AT18" s="165"/>
-      <c r="AU18" s="165"/>
-      <c r="AV18" s="165"/>
-      <c r="AW18" s="166"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="190"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="175"/>
+      <c r="U18" s="175"/>
+      <c r="V18" s="191"/>
+      <c r="W18" s="192"/>
+      <c r="X18" s="192"/>
+      <c r="Y18" s="192"/>
+      <c r="Z18" s="192"/>
+      <c r="AA18" s="192"/>
+      <c r="AB18" s="192"/>
+      <c r="AC18" s="192"/>
+      <c r="AD18" s="192"/>
+      <c r="AE18" s="192"/>
+      <c r="AF18" s="192"/>
+      <c r="AG18" s="192"/>
+      <c r="AH18" s="192"/>
+      <c r="AI18" s="192"/>
+      <c r="AJ18" s="192"/>
+      <c r="AK18" s="192"/>
+      <c r="AL18" s="192"/>
+      <c r="AM18" s="193"/>
+      <c r="AN18" s="194"/>
+      <c r="AO18" s="195"/>
+      <c r="AP18" s="195"/>
+      <c r="AQ18" s="195"/>
+      <c r="AR18" s="196"/>
+      <c r="AS18" s="194"/>
+      <c r="AT18" s="195"/>
+      <c r="AU18" s="195"/>
+      <c r="AV18" s="195"/>
+      <c r="AW18" s="196"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="184"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="182"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="183"/>
-      <c r="S19" s="177"/>
-      <c r="T19" s="177"/>
-      <c r="U19" s="177"/>
-      <c r="V19" s="178"/>
-      <c r="W19" s="179"/>
-      <c r="X19" s="179"/>
-      <c r="Y19" s="179"/>
-      <c r="Z19" s="179"/>
-      <c r="AA19" s="179"/>
-      <c r="AB19" s="179"/>
-      <c r="AC19" s="179"/>
-      <c r="AD19" s="179"/>
-      <c r="AE19" s="179"/>
-      <c r="AF19" s="179"/>
-      <c r="AG19" s="179"/>
-      <c r="AH19" s="179"/>
-      <c r="AI19" s="179"/>
-      <c r="AJ19" s="179"/>
-      <c r="AK19" s="179"/>
-      <c r="AL19" s="179"/>
-      <c r="AM19" s="180"/>
-      <c r="AN19" s="177"/>
-      <c r="AO19" s="177"/>
-      <c r="AP19" s="177"/>
-      <c r="AQ19" s="177"/>
-      <c r="AR19" s="177"/>
-      <c r="AS19" s="164"/>
-      <c r="AT19" s="165"/>
-      <c r="AU19" s="165"/>
-      <c r="AV19" s="165"/>
-      <c r="AW19" s="166"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="189"/>
+      <c r="O19" s="189"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="189"/>
+      <c r="R19" s="190"/>
+      <c r="S19" s="175"/>
+      <c r="T19" s="175"/>
+      <c r="U19" s="175"/>
+      <c r="V19" s="191"/>
+      <c r="W19" s="192"/>
+      <c r="X19" s="192"/>
+      <c r="Y19" s="192"/>
+      <c r="Z19" s="192"/>
+      <c r="AA19" s="192"/>
+      <c r="AB19" s="192"/>
+      <c r="AC19" s="192"/>
+      <c r="AD19" s="192"/>
+      <c r="AE19" s="192"/>
+      <c r="AF19" s="192"/>
+      <c r="AG19" s="192"/>
+      <c r="AH19" s="192"/>
+      <c r="AI19" s="192"/>
+      <c r="AJ19" s="192"/>
+      <c r="AK19" s="192"/>
+      <c r="AL19" s="192"/>
+      <c r="AM19" s="193"/>
+      <c r="AN19" s="175"/>
+      <c r="AO19" s="175"/>
+      <c r="AP19" s="175"/>
+      <c r="AQ19" s="175"/>
+      <c r="AR19" s="175"/>
+      <c r="AS19" s="194"/>
+      <c r="AT19" s="195"/>
+      <c r="AU19" s="195"/>
+      <c r="AV19" s="195"/>
+      <c r="AW19" s="196"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="184"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="164"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="178"/>
-      <c r="W20" s="179"/>
-      <c r="X20" s="179"/>
-      <c r="Y20" s="179"/>
-      <c r="Z20" s="179"/>
-      <c r="AA20" s="179"/>
-      <c r="AB20" s="179"/>
-      <c r="AC20" s="179"/>
-      <c r="AD20" s="179"/>
-      <c r="AE20" s="179"/>
-      <c r="AF20" s="179"/>
-      <c r="AG20" s="179"/>
-      <c r="AH20" s="179"/>
-      <c r="AI20" s="179"/>
-      <c r="AJ20" s="179"/>
-      <c r="AK20" s="179"/>
-      <c r="AL20" s="179"/>
-      <c r="AM20" s="180"/>
-      <c r="AN20" s="164"/>
-      <c r="AO20" s="165"/>
-      <c r="AP20" s="165"/>
-      <c r="AQ20" s="165"/>
-      <c r="AR20" s="166"/>
-      <c r="AS20" s="164"/>
-      <c r="AT20" s="165"/>
-      <c r="AU20" s="165"/>
-      <c r="AV20" s="165"/>
-      <c r="AW20" s="166"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="189"/>
+      <c r="O20" s="189"/>
+      <c r="P20" s="189"/>
+      <c r="Q20" s="189"/>
+      <c r="R20" s="190"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="195"/>
+      <c r="U20" s="196"/>
+      <c r="V20" s="191"/>
+      <c r="W20" s="192"/>
+      <c r="X20" s="192"/>
+      <c r="Y20" s="192"/>
+      <c r="Z20" s="192"/>
+      <c r="AA20" s="192"/>
+      <c r="AB20" s="192"/>
+      <c r="AC20" s="192"/>
+      <c r="AD20" s="192"/>
+      <c r="AE20" s="192"/>
+      <c r="AF20" s="192"/>
+      <c r="AG20" s="192"/>
+      <c r="AH20" s="192"/>
+      <c r="AI20" s="192"/>
+      <c r="AJ20" s="192"/>
+      <c r="AK20" s="192"/>
+      <c r="AL20" s="192"/>
+      <c r="AM20" s="193"/>
+      <c r="AN20" s="194"/>
+      <c r="AO20" s="195"/>
+      <c r="AP20" s="195"/>
+      <c r="AQ20" s="195"/>
+      <c r="AR20" s="196"/>
+      <c r="AS20" s="194"/>
+      <c r="AT20" s="195"/>
+      <c r="AU20" s="195"/>
+      <c r="AV20" s="195"/>
+      <c r="AW20" s="196"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="167"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="177"/>
-      <c r="T21" s="177"/>
-      <c r="U21" s="177"/>
-      <c r="V21" s="178"/>
-      <c r="W21" s="179"/>
-      <c r="X21" s="179"/>
-      <c r="Y21" s="179"/>
-      <c r="Z21" s="179"/>
-      <c r="AA21" s="179"/>
-      <c r="AB21" s="179"/>
-      <c r="AC21" s="179"/>
-      <c r="AD21" s="179"/>
-      <c r="AE21" s="179"/>
-      <c r="AF21" s="179"/>
-      <c r="AG21" s="179"/>
-      <c r="AH21" s="179"/>
-      <c r="AI21" s="179"/>
-      <c r="AJ21" s="179"/>
-      <c r="AK21" s="179"/>
-      <c r="AL21" s="179"/>
-      <c r="AM21" s="180"/>
-      <c r="AN21" s="164"/>
-      <c r="AO21" s="165"/>
-      <c r="AP21" s="165"/>
-      <c r="AQ21" s="165"/>
-      <c r="AR21" s="166"/>
-      <c r="AS21" s="164"/>
-      <c r="AT21" s="165"/>
-      <c r="AU21" s="165"/>
-      <c r="AV21" s="165"/>
-      <c r="AW21" s="166"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="189"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="190"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
+      <c r="U21" s="175"/>
+      <c r="V21" s="191"/>
+      <c r="W21" s="192"/>
+      <c r="X21" s="192"/>
+      <c r="Y21" s="192"/>
+      <c r="Z21" s="192"/>
+      <c r="AA21" s="192"/>
+      <c r="AB21" s="192"/>
+      <c r="AC21" s="192"/>
+      <c r="AD21" s="192"/>
+      <c r="AE21" s="192"/>
+      <c r="AF21" s="192"/>
+      <c r="AG21" s="192"/>
+      <c r="AH21" s="192"/>
+      <c r="AI21" s="192"/>
+      <c r="AJ21" s="192"/>
+      <c r="AK21" s="192"/>
+      <c r="AL21" s="192"/>
+      <c r="AM21" s="193"/>
+      <c r="AN21" s="194"/>
+      <c r="AO21" s="195"/>
+      <c r="AP21" s="195"/>
+      <c r="AQ21" s="195"/>
+      <c r="AR21" s="196"/>
+      <c r="AS21" s="194"/>
+      <c r="AT21" s="195"/>
+      <c r="AU21" s="195"/>
+      <c r="AV21" s="195"/>
+      <c r="AW21" s="196"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="167"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="173"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="177"/>
-      <c r="T22" s="177"/>
-      <c r="U22" s="177"/>
-      <c r="V22" s="178"/>
-      <c r="W22" s="179"/>
-      <c r="X22" s="179"/>
-      <c r="Y22" s="179"/>
-      <c r="Z22" s="179"/>
-      <c r="AA22" s="179"/>
-      <c r="AB22" s="179"/>
-      <c r="AC22" s="179"/>
-      <c r="AD22" s="179"/>
-      <c r="AE22" s="179"/>
-      <c r="AF22" s="179"/>
-      <c r="AG22" s="179"/>
-      <c r="AH22" s="179"/>
-      <c r="AI22" s="179"/>
-      <c r="AJ22" s="179"/>
-      <c r="AK22" s="179"/>
-      <c r="AL22" s="179"/>
-      <c r="AM22" s="180"/>
-      <c r="AN22" s="164"/>
-      <c r="AO22" s="165"/>
-      <c r="AP22" s="165"/>
-      <c r="AQ22" s="165"/>
-      <c r="AR22" s="166"/>
-      <c r="AS22" s="164"/>
-      <c r="AT22" s="165"/>
-      <c r="AU22" s="165"/>
-      <c r="AV22" s="165"/>
-      <c r="AW22" s="166"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="189"/>
+      <c r="O22" s="189"/>
+      <c r="P22" s="189"/>
+      <c r="Q22" s="189"/>
+      <c r="R22" s="190"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="175"/>
+      <c r="U22" s="175"/>
+      <c r="V22" s="191"/>
+      <c r="W22" s="192"/>
+      <c r="X22" s="192"/>
+      <c r="Y22" s="192"/>
+      <c r="Z22" s="192"/>
+      <c r="AA22" s="192"/>
+      <c r="AB22" s="192"/>
+      <c r="AC22" s="192"/>
+      <c r="AD22" s="192"/>
+      <c r="AE22" s="192"/>
+      <c r="AF22" s="192"/>
+      <c r="AG22" s="192"/>
+      <c r="AH22" s="192"/>
+      <c r="AI22" s="192"/>
+      <c r="AJ22" s="192"/>
+      <c r="AK22" s="192"/>
+      <c r="AL22" s="192"/>
+      <c r="AM22" s="193"/>
+      <c r="AN22" s="194"/>
+      <c r="AO22" s="195"/>
+      <c r="AP22" s="195"/>
+      <c r="AQ22" s="195"/>
+      <c r="AR22" s="196"/>
+      <c r="AS22" s="194"/>
+      <c r="AT22" s="195"/>
+      <c r="AU22" s="195"/>
+      <c r="AV22" s="195"/>
+      <c r="AW22" s="196"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="167"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="172"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="182"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="177"/>
-      <c r="T23" s="177"/>
-      <c r="U23" s="177"/>
-      <c r="V23" s="178"/>
-      <c r="W23" s="179"/>
-      <c r="X23" s="179"/>
-      <c r="Y23" s="179"/>
-      <c r="Z23" s="179"/>
-      <c r="AA23" s="179"/>
-      <c r="AB23" s="179"/>
-      <c r="AC23" s="179"/>
-      <c r="AD23" s="179"/>
-      <c r="AE23" s="179"/>
-      <c r="AF23" s="179"/>
-      <c r="AG23" s="179"/>
-      <c r="AH23" s="179"/>
-      <c r="AI23" s="179"/>
-      <c r="AJ23" s="179"/>
-      <c r="AK23" s="179"/>
-      <c r="AL23" s="179"/>
-      <c r="AM23" s="180"/>
-      <c r="AN23" s="164"/>
-      <c r="AO23" s="165"/>
-      <c r="AP23" s="165"/>
-      <c r="AQ23" s="165"/>
-      <c r="AR23" s="166"/>
-      <c r="AS23" s="164"/>
-      <c r="AT23" s="165"/>
-      <c r="AU23" s="165"/>
-      <c r="AV23" s="165"/>
-      <c r="AW23" s="166"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="188"/>
+      <c r="N23" s="189"/>
+      <c r="O23" s="189"/>
+      <c r="P23" s="189"/>
+      <c r="Q23" s="189"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="191"/>
+      <c r="W23" s="192"/>
+      <c r="X23" s="192"/>
+      <c r="Y23" s="192"/>
+      <c r="Z23" s="192"/>
+      <c r="AA23" s="192"/>
+      <c r="AB23" s="192"/>
+      <c r="AC23" s="192"/>
+      <c r="AD23" s="192"/>
+      <c r="AE23" s="192"/>
+      <c r="AF23" s="192"/>
+      <c r="AG23" s="192"/>
+      <c r="AH23" s="192"/>
+      <c r="AI23" s="192"/>
+      <c r="AJ23" s="192"/>
+      <c r="AK23" s="192"/>
+      <c r="AL23" s="192"/>
+      <c r="AM23" s="193"/>
+      <c r="AN23" s="194"/>
+      <c r="AO23" s="195"/>
+      <c r="AP23" s="195"/>
+      <c r="AQ23" s="195"/>
+      <c r="AR23" s="196"/>
+      <c r="AS23" s="194"/>
+      <c r="AT23" s="195"/>
+      <c r="AU23" s="195"/>
+      <c r="AV23" s="195"/>
+      <c r="AW23" s="196"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
-      <c r="B24" s="167"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="182"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="183"/>
-      <c r="S24" s="177"/>
-      <c r="T24" s="177"/>
-      <c r="U24" s="177"/>
-      <c r="V24" s="178"/>
-      <c r="W24" s="179"/>
-      <c r="X24" s="179"/>
-      <c r="Y24" s="179"/>
-      <c r="Z24" s="179"/>
-      <c r="AA24" s="179"/>
-      <c r="AB24" s="179"/>
-      <c r="AC24" s="179"/>
-      <c r="AD24" s="179"/>
-      <c r="AE24" s="179"/>
-      <c r="AF24" s="179"/>
-      <c r="AG24" s="179"/>
-      <c r="AH24" s="179"/>
-      <c r="AI24" s="179"/>
-      <c r="AJ24" s="179"/>
-      <c r="AK24" s="179"/>
-      <c r="AL24" s="179"/>
-      <c r="AM24" s="180"/>
-      <c r="AN24" s="164"/>
-      <c r="AO24" s="165"/>
-      <c r="AP24" s="165"/>
-      <c r="AQ24" s="165"/>
-      <c r="AR24" s="166"/>
-      <c r="AS24" s="164"/>
-      <c r="AT24" s="165"/>
-      <c r="AU24" s="165"/>
-      <c r="AV24" s="165"/>
-      <c r="AW24" s="166"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="188"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="189"/>
+      <c r="P24" s="189"/>
+      <c r="Q24" s="189"/>
+      <c r="R24" s="190"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="175"/>
+      <c r="V24" s="191"/>
+      <c r="W24" s="192"/>
+      <c r="X24" s="192"/>
+      <c r="Y24" s="192"/>
+      <c r="Z24" s="192"/>
+      <c r="AA24" s="192"/>
+      <c r="AB24" s="192"/>
+      <c r="AC24" s="192"/>
+      <c r="AD24" s="192"/>
+      <c r="AE24" s="192"/>
+      <c r="AF24" s="192"/>
+      <c r="AG24" s="192"/>
+      <c r="AH24" s="192"/>
+      <c r="AI24" s="192"/>
+      <c r="AJ24" s="192"/>
+      <c r="AK24" s="192"/>
+      <c r="AL24" s="192"/>
+      <c r="AM24" s="193"/>
+      <c r="AN24" s="194"/>
+      <c r="AO24" s="195"/>
+      <c r="AP24" s="195"/>
+      <c r="AQ24" s="195"/>
+      <c r="AR24" s="196"/>
+      <c r="AS24" s="194"/>
+      <c r="AT24" s="195"/>
+      <c r="AU24" s="195"/>
+      <c r="AV24" s="195"/>
+      <c r="AW24" s="196"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="173"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="182"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="177"/>
-      <c r="T25" s="177"/>
-      <c r="U25" s="177"/>
-      <c r="V25" s="178"/>
-      <c r="W25" s="179"/>
-      <c r="X25" s="179"/>
-      <c r="Y25" s="179"/>
-      <c r="Z25" s="179"/>
-      <c r="AA25" s="179"/>
-      <c r="AB25" s="179"/>
-      <c r="AC25" s="179"/>
-      <c r="AD25" s="179"/>
-      <c r="AE25" s="179"/>
-      <c r="AF25" s="179"/>
-      <c r="AG25" s="179"/>
-      <c r="AH25" s="179"/>
-      <c r="AI25" s="179"/>
-      <c r="AJ25" s="179"/>
-      <c r="AK25" s="179"/>
-      <c r="AL25" s="179"/>
-      <c r="AM25" s="180"/>
-      <c r="AN25" s="164"/>
-      <c r="AO25" s="165"/>
-      <c r="AP25" s="165"/>
-      <c r="AQ25" s="165"/>
-      <c r="AR25" s="166"/>
-      <c r="AS25" s="164"/>
-      <c r="AT25" s="165"/>
-      <c r="AU25" s="165"/>
-      <c r="AV25" s="165"/>
-      <c r="AW25" s="166"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="179"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="199"/>
+      <c r="N25" s="189"/>
+      <c r="O25" s="189"/>
+      <c r="P25" s="189"/>
+      <c r="Q25" s="189"/>
+      <c r="R25" s="190"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
+      <c r="V25" s="191"/>
+      <c r="W25" s="192"/>
+      <c r="X25" s="192"/>
+      <c r="Y25" s="192"/>
+      <c r="Z25" s="192"/>
+      <c r="AA25" s="192"/>
+      <c r="AB25" s="192"/>
+      <c r="AC25" s="192"/>
+      <c r="AD25" s="192"/>
+      <c r="AE25" s="192"/>
+      <c r="AF25" s="192"/>
+      <c r="AG25" s="192"/>
+      <c r="AH25" s="192"/>
+      <c r="AI25" s="192"/>
+      <c r="AJ25" s="192"/>
+      <c r="AK25" s="192"/>
+      <c r="AL25" s="192"/>
+      <c r="AM25" s="193"/>
+      <c r="AN25" s="194"/>
+      <c r="AO25" s="195"/>
+      <c r="AP25" s="195"/>
+      <c r="AQ25" s="195"/>
+      <c r="AR25" s="196"/>
+      <c r="AS25" s="194"/>
+      <c r="AT25" s="195"/>
+      <c r="AU25" s="195"/>
+      <c r="AV25" s="195"/>
+      <c r="AW25" s="196"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
-      <c r="B26" s="167"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="173"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="182"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="177"/>
-      <c r="T26" s="177"/>
-      <c r="U26" s="177"/>
-      <c r="V26" s="178"/>
-      <c r="W26" s="179"/>
-      <c r="X26" s="179"/>
-      <c r="Y26" s="179"/>
-      <c r="Z26" s="179"/>
-      <c r="AA26" s="179"/>
-      <c r="AB26" s="179"/>
-      <c r="AC26" s="179"/>
-      <c r="AD26" s="179"/>
-      <c r="AE26" s="179"/>
-      <c r="AF26" s="179"/>
-      <c r="AG26" s="179"/>
-      <c r="AH26" s="179"/>
-      <c r="AI26" s="179"/>
-      <c r="AJ26" s="179"/>
-      <c r="AK26" s="179"/>
-      <c r="AL26" s="179"/>
-      <c r="AM26" s="180"/>
-      <c r="AN26" s="164"/>
-      <c r="AO26" s="165"/>
-      <c r="AP26" s="165"/>
-      <c r="AQ26" s="165"/>
-      <c r="AR26" s="166"/>
-      <c r="AS26" s="164"/>
-      <c r="AT26" s="165"/>
-      <c r="AU26" s="165"/>
-      <c r="AV26" s="165"/>
-      <c r="AW26" s="166"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="199"/>
+      <c r="N26" s="189"/>
+      <c r="O26" s="189"/>
+      <c r="P26" s="189"/>
+      <c r="Q26" s="189"/>
+      <c r="R26" s="190"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="175"/>
+      <c r="V26" s="191"/>
+      <c r="W26" s="192"/>
+      <c r="X26" s="192"/>
+      <c r="Y26" s="192"/>
+      <c r="Z26" s="192"/>
+      <c r="AA26" s="192"/>
+      <c r="AB26" s="192"/>
+      <c r="AC26" s="192"/>
+      <c r="AD26" s="192"/>
+      <c r="AE26" s="192"/>
+      <c r="AF26" s="192"/>
+      <c r="AG26" s="192"/>
+      <c r="AH26" s="192"/>
+      <c r="AI26" s="192"/>
+      <c r="AJ26" s="192"/>
+      <c r="AK26" s="192"/>
+      <c r="AL26" s="192"/>
+      <c r="AM26" s="193"/>
+      <c r="AN26" s="194"/>
+      <c r="AO26" s="195"/>
+      <c r="AP26" s="195"/>
+      <c r="AQ26" s="195"/>
+      <c r="AR26" s="196"/>
+      <c r="AS26" s="194"/>
+      <c r="AT26" s="195"/>
+      <c r="AU26" s="195"/>
+      <c r="AV26" s="195"/>
+      <c r="AW26" s="196"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="182"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="177"/>
-      <c r="T27" s="177"/>
-      <c r="U27" s="177"/>
-      <c r="V27" s="178"/>
-      <c r="W27" s="179"/>
-      <c r="X27" s="179"/>
-      <c r="Y27" s="179"/>
-      <c r="Z27" s="179"/>
-      <c r="AA27" s="179"/>
-      <c r="AB27" s="179"/>
-      <c r="AC27" s="179"/>
-      <c r="AD27" s="179"/>
-      <c r="AE27" s="179"/>
-      <c r="AF27" s="179"/>
-      <c r="AG27" s="179"/>
-      <c r="AH27" s="179"/>
-      <c r="AI27" s="179"/>
-      <c r="AJ27" s="179"/>
-      <c r="AK27" s="179"/>
-      <c r="AL27" s="179"/>
-      <c r="AM27" s="180"/>
-      <c r="AN27" s="164"/>
-      <c r="AO27" s="165"/>
-      <c r="AP27" s="165"/>
-      <c r="AQ27" s="165"/>
-      <c r="AR27" s="166"/>
-      <c r="AS27" s="164"/>
-      <c r="AT27" s="165"/>
-      <c r="AU27" s="165"/>
-      <c r="AV27" s="165"/>
-      <c r="AW27" s="166"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="199"/>
+      <c r="N27" s="189"/>
+      <c r="O27" s="189"/>
+      <c r="P27" s="189"/>
+      <c r="Q27" s="189"/>
+      <c r="R27" s="190"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="175"/>
+      <c r="V27" s="191"/>
+      <c r="W27" s="192"/>
+      <c r="X27" s="192"/>
+      <c r="Y27" s="192"/>
+      <c r="Z27" s="192"/>
+      <c r="AA27" s="192"/>
+      <c r="AB27" s="192"/>
+      <c r="AC27" s="192"/>
+      <c r="AD27" s="192"/>
+      <c r="AE27" s="192"/>
+      <c r="AF27" s="192"/>
+      <c r="AG27" s="192"/>
+      <c r="AH27" s="192"/>
+      <c r="AI27" s="192"/>
+      <c r="AJ27" s="192"/>
+      <c r="AK27" s="192"/>
+      <c r="AL27" s="192"/>
+      <c r="AM27" s="193"/>
+      <c r="AN27" s="194"/>
+      <c r="AO27" s="195"/>
+      <c r="AP27" s="195"/>
+      <c r="AQ27" s="195"/>
+      <c r="AR27" s="196"/>
+      <c r="AS27" s="194"/>
+      <c r="AT27" s="195"/>
+      <c r="AU27" s="195"/>
+      <c r="AV27" s="195"/>
+      <c r="AW27" s="196"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="182"/>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="183"/>
-      <c r="S28" s="177"/>
-      <c r="T28" s="177"/>
-      <c r="U28" s="177"/>
-      <c r="V28" s="178"/>
-      <c r="W28" s="179"/>
-      <c r="X28" s="179"/>
-      <c r="Y28" s="179"/>
-      <c r="Z28" s="179"/>
-      <c r="AA28" s="179"/>
-      <c r="AB28" s="179"/>
-      <c r="AC28" s="179"/>
-      <c r="AD28" s="179"/>
-      <c r="AE28" s="179"/>
-      <c r="AF28" s="179"/>
-      <c r="AG28" s="179"/>
-      <c r="AH28" s="179"/>
-      <c r="AI28" s="179"/>
-      <c r="AJ28" s="179"/>
-      <c r="AK28" s="179"/>
-      <c r="AL28" s="179"/>
-      <c r="AM28" s="180"/>
-      <c r="AN28" s="164"/>
-      <c r="AO28" s="165"/>
-      <c r="AP28" s="165"/>
-      <c r="AQ28" s="165"/>
-      <c r="AR28" s="166"/>
-      <c r="AS28" s="164"/>
-      <c r="AT28" s="165"/>
-      <c r="AU28" s="165"/>
-      <c r="AV28" s="165"/>
-      <c r="AW28" s="166"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="189"/>
+      <c r="O28" s="189"/>
+      <c r="P28" s="189"/>
+      <c r="Q28" s="189"/>
+      <c r="R28" s="190"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="191"/>
+      <c r="W28" s="192"/>
+      <c r="X28" s="192"/>
+      <c r="Y28" s="192"/>
+      <c r="Z28" s="192"/>
+      <c r="AA28" s="192"/>
+      <c r="AB28" s="192"/>
+      <c r="AC28" s="192"/>
+      <c r="AD28" s="192"/>
+      <c r="AE28" s="192"/>
+      <c r="AF28" s="192"/>
+      <c r="AG28" s="192"/>
+      <c r="AH28" s="192"/>
+      <c r="AI28" s="192"/>
+      <c r="AJ28" s="192"/>
+      <c r="AK28" s="192"/>
+      <c r="AL28" s="192"/>
+      <c r="AM28" s="193"/>
+      <c r="AN28" s="194"/>
+      <c r="AO28" s="195"/>
+      <c r="AP28" s="195"/>
+      <c r="AQ28" s="195"/>
+      <c r="AR28" s="196"/>
+      <c r="AS28" s="194"/>
+      <c r="AT28" s="195"/>
+      <c r="AU28" s="195"/>
+      <c r="AV28" s="195"/>
+      <c r="AW28" s="196"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="182"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="183"/>
-      <c r="S29" s="177"/>
-      <c r="T29" s="177"/>
-      <c r="U29" s="177"/>
-      <c r="V29" s="178"/>
-      <c r="W29" s="179"/>
-      <c r="X29" s="179"/>
-      <c r="Y29" s="179"/>
-      <c r="Z29" s="179"/>
-      <c r="AA29" s="179"/>
-      <c r="AB29" s="179"/>
-      <c r="AC29" s="179"/>
-      <c r="AD29" s="179"/>
-      <c r="AE29" s="179"/>
-      <c r="AF29" s="179"/>
-      <c r="AG29" s="179"/>
-      <c r="AH29" s="179"/>
-      <c r="AI29" s="179"/>
-      <c r="AJ29" s="179"/>
-      <c r="AK29" s="179"/>
-      <c r="AL29" s="179"/>
-      <c r="AM29" s="180"/>
-      <c r="AN29" s="164"/>
-      <c r="AO29" s="165"/>
-      <c r="AP29" s="165"/>
-      <c r="AQ29" s="165"/>
-      <c r="AR29" s="166"/>
-      <c r="AS29" s="164"/>
-      <c r="AT29" s="165"/>
-      <c r="AU29" s="165"/>
-      <c r="AV29" s="165"/>
-      <c r="AW29" s="166"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="178"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="189"/>
+      <c r="O29" s="189"/>
+      <c r="P29" s="189"/>
+      <c r="Q29" s="189"/>
+      <c r="R29" s="190"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="191"/>
+      <c r="W29" s="192"/>
+      <c r="X29" s="192"/>
+      <c r="Y29" s="192"/>
+      <c r="Z29" s="192"/>
+      <c r="AA29" s="192"/>
+      <c r="AB29" s="192"/>
+      <c r="AC29" s="192"/>
+      <c r="AD29" s="192"/>
+      <c r="AE29" s="192"/>
+      <c r="AF29" s="192"/>
+      <c r="AG29" s="192"/>
+      <c r="AH29" s="192"/>
+      <c r="AI29" s="192"/>
+      <c r="AJ29" s="192"/>
+      <c r="AK29" s="192"/>
+      <c r="AL29" s="192"/>
+      <c r="AM29" s="193"/>
+      <c r="AN29" s="194"/>
+      <c r="AO29" s="195"/>
+      <c r="AP29" s="195"/>
+      <c r="AQ29" s="195"/>
+      <c r="AR29" s="196"/>
+      <c r="AS29" s="194"/>
+      <c r="AT29" s="195"/>
+      <c r="AU29" s="195"/>
+      <c r="AV29" s="195"/>
+      <c r="AW29" s="196"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="173"/>
-      <c r="M30" s="181"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="182"/>
-      <c r="R30" s="183"/>
-      <c r="S30" s="177"/>
-      <c r="T30" s="177"/>
-      <c r="U30" s="177"/>
-      <c r="V30" s="178"/>
-      <c r="W30" s="179"/>
-      <c r="X30" s="179"/>
-      <c r="Y30" s="179"/>
-      <c r="Z30" s="179"/>
-      <c r="AA30" s="179"/>
-      <c r="AB30" s="179"/>
-      <c r="AC30" s="179"/>
-      <c r="AD30" s="179"/>
-      <c r="AE30" s="179"/>
-      <c r="AF30" s="179"/>
-      <c r="AG30" s="179"/>
-      <c r="AH30" s="179"/>
-      <c r="AI30" s="179"/>
-      <c r="AJ30" s="179"/>
-      <c r="AK30" s="179"/>
-      <c r="AL30" s="179"/>
-      <c r="AM30" s="180"/>
-      <c r="AN30" s="164"/>
-      <c r="AO30" s="165"/>
-      <c r="AP30" s="165"/>
-      <c r="AQ30" s="165"/>
-      <c r="AR30" s="166"/>
-      <c r="AS30" s="164"/>
-      <c r="AT30" s="165"/>
-      <c r="AU30" s="165"/>
-      <c r="AV30" s="165"/>
-      <c r="AW30" s="166"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="199"/>
+      <c r="N30" s="189"/>
+      <c r="O30" s="189"/>
+      <c r="P30" s="189"/>
+      <c r="Q30" s="189"/>
+      <c r="R30" s="190"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="175"/>
+      <c r="V30" s="191"/>
+      <c r="W30" s="192"/>
+      <c r="X30" s="192"/>
+      <c r="Y30" s="192"/>
+      <c r="Z30" s="192"/>
+      <c r="AA30" s="192"/>
+      <c r="AB30" s="192"/>
+      <c r="AC30" s="192"/>
+      <c r="AD30" s="192"/>
+      <c r="AE30" s="192"/>
+      <c r="AF30" s="192"/>
+      <c r="AG30" s="192"/>
+      <c r="AH30" s="192"/>
+      <c r="AI30" s="192"/>
+      <c r="AJ30" s="192"/>
+      <c r="AK30" s="192"/>
+      <c r="AL30" s="192"/>
+      <c r="AM30" s="193"/>
+      <c r="AN30" s="194"/>
+      <c r="AO30" s="195"/>
+      <c r="AP30" s="195"/>
+      <c r="AQ30" s="195"/>
+      <c r="AR30" s="196"/>
+      <c r="AS30" s="194"/>
+      <c r="AT30" s="195"/>
+      <c r="AU30" s="195"/>
+      <c r="AV30" s="195"/>
+      <c r="AW30" s="196"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
-      <c r="B31" s="167"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="182"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="177"/>
-      <c r="T31" s="177"/>
-      <c r="U31" s="177"/>
-      <c r="V31" s="178"/>
-      <c r="W31" s="179"/>
-      <c r="X31" s="179"/>
-      <c r="Y31" s="179"/>
-      <c r="Z31" s="179"/>
-      <c r="AA31" s="179"/>
-      <c r="AB31" s="179"/>
-      <c r="AC31" s="179"/>
-      <c r="AD31" s="179"/>
-      <c r="AE31" s="179"/>
-      <c r="AF31" s="179"/>
-      <c r="AG31" s="179"/>
-      <c r="AH31" s="179"/>
-      <c r="AI31" s="179"/>
-      <c r="AJ31" s="179"/>
-      <c r="AK31" s="179"/>
-      <c r="AL31" s="179"/>
-      <c r="AM31" s="180"/>
-      <c r="AN31" s="164"/>
-      <c r="AO31" s="165"/>
-      <c r="AP31" s="165"/>
-      <c r="AQ31" s="165"/>
-      <c r="AR31" s="166"/>
-      <c r="AS31" s="164"/>
-      <c r="AT31" s="165"/>
-      <c r="AU31" s="165"/>
-      <c r="AV31" s="165"/>
-      <c r="AW31" s="166"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="199"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="189"/>
+      <c r="P31" s="189"/>
+      <c r="Q31" s="189"/>
+      <c r="R31" s="190"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="175"/>
+      <c r="U31" s="175"/>
+      <c r="V31" s="191"/>
+      <c r="W31" s="192"/>
+      <c r="X31" s="192"/>
+      <c r="Y31" s="192"/>
+      <c r="Z31" s="192"/>
+      <c r="AA31" s="192"/>
+      <c r="AB31" s="192"/>
+      <c r="AC31" s="192"/>
+      <c r="AD31" s="192"/>
+      <c r="AE31" s="192"/>
+      <c r="AF31" s="192"/>
+      <c r="AG31" s="192"/>
+      <c r="AH31" s="192"/>
+      <c r="AI31" s="192"/>
+      <c r="AJ31" s="192"/>
+      <c r="AK31" s="192"/>
+      <c r="AL31" s="192"/>
+      <c r="AM31" s="193"/>
+      <c r="AN31" s="194"/>
+      <c r="AO31" s="195"/>
+      <c r="AP31" s="195"/>
+      <c r="AQ31" s="195"/>
+      <c r="AR31" s="196"/>
+      <c r="AS31" s="194"/>
+      <c r="AT31" s="195"/>
+      <c r="AU31" s="195"/>
+      <c r="AV31" s="195"/>
+      <c r="AW31" s="196"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="183"/>
-      <c r="S32" s="177"/>
-      <c r="T32" s="177"/>
-      <c r="U32" s="177"/>
-      <c r="V32" s="178"/>
-      <c r="W32" s="179"/>
-      <c r="X32" s="179"/>
-      <c r="Y32" s="179"/>
-      <c r="Z32" s="179"/>
-      <c r="AA32" s="179"/>
-      <c r="AB32" s="179"/>
-      <c r="AC32" s="179"/>
-      <c r="AD32" s="179"/>
-      <c r="AE32" s="179"/>
-      <c r="AF32" s="179"/>
-      <c r="AG32" s="179"/>
-      <c r="AH32" s="179"/>
-      <c r="AI32" s="179"/>
-      <c r="AJ32" s="179"/>
-      <c r="AK32" s="179"/>
-      <c r="AL32" s="179"/>
-      <c r="AM32" s="180"/>
-      <c r="AN32" s="164"/>
-      <c r="AO32" s="165"/>
-      <c r="AP32" s="165"/>
-      <c r="AQ32" s="165"/>
-      <c r="AR32" s="166"/>
-      <c r="AS32" s="164"/>
-      <c r="AT32" s="165"/>
-      <c r="AU32" s="165"/>
-      <c r="AV32" s="165"/>
-      <c r="AW32" s="166"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="199"/>
+      <c r="N32" s="189"/>
+      <c r="O32" s="189"/>
+      <c r="P32" s="189"/>
+      <c r="Q32" s="189"/>
+      <c r="R32" s="190"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="175"/>
+      <c r="U32" s="175"/>
+      <c r="V32" s="191"/>
+      <c r="W32" s="192"/>
+      <c r="X32" s="192"/>
+      <c r="Y32" s="192"/>
+      <c r="Z32" s="192"/>
+      <c r="AA32" s="192"/>
+      <c r="AB32" s="192"/>
+      <c r="AC32" s="192"/>
+      <c r="AD32" s="192"/>
+      <c r="AE32" s="192"/>
+      <c r="AF32" s="192"/>
+      <c r="AG32" s="192"/>
+      <c r="AH32" s="192"/>
+      <c r="AI32" s="192"/>
+      <c r="AJ32" s="192"/>
+      <c r="AK32" s="192"/>
+      <c r="AL32" s="192"/>
+      <c r="AM32" s="193"/>
+      <c r="AN32" s="194"/>
+      <c r="AO32" s="195"/>
+      <c r="AP32" s="195"/>
+      <c r="AQ32" s="195"/>
+      <c r="AR32" s="196"/>
+      <c r="AS32" s="194"/>
+      <c r="AT32" s="195"/>
+      <c r="AU32" s="195"/>
+      <c r="AV32" s="195"/>
+      <c r="AW32" s="196"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="167"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="182"/>
-      <c r="Q33" s="182"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="177"/>
-      <c r="T33" s="177"/>
-      <c r="U33" s="177"/>
-      <c r="V33" s="178"/>
-      <c r="W33" s="179"/>
-      <c r="X33" s="179"/>
-      <c r="Y33" s="179"/>
-      <c r="Z33" s="179"/>
-      <c r="AA33" s="179"/>
-      <c r="AB33" s="179"/>
-      <c r="AC33" s="179"/>
-      <c r="AD33" s="179"/>
-      <c r="AE33" s="179"/>
-      <c r="AF33" s="179"/>
-      <c r="AG33" s="179"/>
-      <c r="AH33" s="179"/>
-      <c r="AI33" s="179"/>
-      <c r="AJ33" s="179"/>
-      <c r="AK33" s="179"/>
-      <c r="AL33" s="179"/>
-      <c r="AM33" s="180"/>
-      <c r="AN33" s="164"/>
-      <c r="AO33" s="165"/>
-      <c r="AP33" s="165"/>
-      <c r="AQ33" s="165"/>
-      <c r="AR33" s="166"/>
-      <c r="AS33" s="164"/>
-      <c r="AT33" s="165"/>
-      <c r="AU33" s="165"/>
-      <c r="AV33" s="165"/>
-      <c r="AW33" s="166"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="178"/>
+      <c r="K33" s="179"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="199"/>
+      <c r="N33" s="189"/>
+      <c r="O33" s="189"/>
+      <c r="P33" s="189"/>
+      <c r="Q33" s="189"/>
+      <c r="R33" s="190"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="175"/>
+      <c r="V33" s="191"/>
+      <c r="W33" s="192"/>
+      <c r="X33" s="192"/>
+      <c r="Y33" s="192"/>
+      <c r="Z33" s="192"/>
+      <c r="AA33" s="192"/>
+      <c r="AB33" s="192"/>
+      <c r="AC33" s="192"/>
+      <c r="AD33" s="192"/>
+      <c r="AE33" s="192"/>
+      <c r="AF33" s="192"/>
+      <c r="AG33" s="192"/>
+      <c r="AH33" s="192"/>
+      <c r="AI33" s="192"/>
+      <c r="AJ33" s="192"/>
+      <c r="AK33" s="192"/>
+      <c r="AL33" s="192"/>
+      <c r="AM33" s="193"/>
+      <c r="AN33" s="194"/>
+      <c r="AO33" s="195"/>
+      <c r="AP33" s="195"/>
+      <c r="AQ33" s="195"/>
+      <c r="AR33" s="196"/>
+      <c r="AS33" s="194"/>
+      <c r="AT33" s="195"/>
+      <c r="AU33" s="195"/>
+      <c r="AV33" s="195"/>
+      <c r="AW33" s="196"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="167"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="172"/>
-      <c r="L34" s="173"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="175"/>
-      <c r="R34" s="176"/>
-      <c r="S34" s="177"/>
-      <c r="T34" s="177"/>
-      <c r="U34" s="177"/>
-      <c r="V34" s="178"/>
-      <c r="W34" s="179"/>
-      <c r="X34" s="179"/>
-      <c r="Y34" s="179"/>
-      <c r="Z34" s="179"/>
-      <c r="AA34" s="179"/>
-      <c r="AB34" s="179"/>
-      <c r="AC34" s="179"/>
-      <c r="AD34" s="179"/>
-      <c r="AE34" s="179"/>
-      <c r="AF34" s="179"/>
-      <c r="AG34" s="179"/>
-      <c r="AH34" s="179"/>
-      <c r="AI34" s="179"/>
-      <c r="AJ34" s="179"/>
-      <c r="AK34" s="179"/>
-      <c r="AL34" s="179"/>
-      <c r="AM34" s="180"/>
-      <c r="AN34" s="164"/>
-      <c r="AO34" s="165"/>
-      <c r="AP34" s="165"/>
-      <c r="AQ34" s="165"/>
-      <c r="AR34" s="166"/>
-      <c r="AS34" s="164"/>
-      <c r="AT34" s="165"/>
-      <c r="AU34" s="165"/>
-      <c r="AV34" s="165"/>
-      <c r="AW34" s="166"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="178"/>
+      <c r="K34" s="179"/>
+      <c r="L34" s="180"/>
+      <c r="M34" s="203"/>
+      <c r="N34" s="204"/>
+      <c r="O34" s="204"/>
+      <c r="P34" s="204"/>
+      <c r="Q34" s="204"/>
+      <c r="R34" s="205"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="175"/>
+      <c r="U34" s="175"/>
+      <c r="V34" s="191"/>
+      <c r="W34" s="192"/>
+      <c r="X34" s="192"/>
+      <c r="Y34" s="192"/>
+      <c r="Z34" s="192"/>
+      <c r="AA34" s="192"/>
+      <c r="AB34" s="192"/>
+      <c r="AC34" s="192"/>
+      <c r="AD34" s="192"/>
+      <c r="AE34" s="192"/>
+      <c r="AF34" s="192"/>
+      <c r="AG34" s="192"/>
+      <c r="AH34" s="192"/>
+      <c r="AI34" s="192"/>
+      <c r="AJ34" s="192"/>
+      <c r="AK34" s="192"/>
+      <c r="AL34" s="192"/>
+      <c r="AM34" s="193"/>
+      <c r="AN34" s="194"/>
+      <c r="AO34" s="195"/>
+      <c r="AP34" s="195"/>
+      <c r="AQ34" s="195"/>
+      <c r="AR34" s="196"/>
+      <c r="AS34" s="194"/>
+      <c r="AT34" s="195"/>
+      <c r="AU34" s="195"/>
+      <c r="AV34" s="195"/>
+      <c r="AW34" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7821,230 +8036,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8176,14 +8176,14 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="88" t="s">
-        <v>132</v>
+        <v>357</v>
       </c>
       <c r="S2" s="89"/>
       <c r="T2" s="89"/>
       <c r="U2" s="89"/>
       <c r="V2" s="90"/>
       <c r="W2" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
@@ -8204,11 +8204,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="204"/>
-      <c r="AP2" s="205"/>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="205"/>
-      <c r="AS2" s="206"/>
+      <c r="AO2" s="210"/>
+      <c r="AP2" s="211"/>
+      <c r="AQ2" s="211"/>
+      <c r="AR2" s="211"/>
+      <c r="AS2" s="212"/>
       <c r="AT2" s="33" t="s">
         <v>26</v>
       </c>
@@ -8217,14 +8217,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="207"/>
-      <c r="BA2" s="208"/>
-      <c r="BB2" s="208"/>
-      <c r="BC2" s="208"/>
-      <c r="BD2" s="208"/>
-      <c r="BE2" s="208"/>
-      <c r="BF2" s="208"/>
-      <c r="BG2" s="209"/>
+      <c r="AZ2" s="213"/>
+      <c r="BA2" s="214"/>
+      <c r="BB2" s="214"/>
+      <c r="BC2" s="214"/>
+      <c r="BD2" s="214"/>
+      <c r="BE2" s="214"/>
+      <c r="BF2" s="214"/>
+      <c r="BG2" s="215"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -9351,7 +9351,7 @@
       <c r="AK34" s="11"/>
       <c r="AL34" s="11"/>
       <c r="AM34" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN34" s="11"/>
       <c r="AO34" s="11"/>
@@ -9390,7 +9390,7 @@
       <c r="AK35" s="11"/>
       <c r="AL35" s="11"/>
       <c r="AM35" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN35" s="11"/>
       <c r="AO35" s="11"/>
@@ -9491,7 +9491,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="P38" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
@@ -9499,7 +9499,7 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -9508,7 +9508,7 @@
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
       <c r="AH38" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI38" s="9"/>
       <c r="AJ38" s="11"/>
@@ -10040,10 +10040,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="28"/>
-      <c r="B50" s="212" t="s">
+      <c r="B50" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="213"/>
+      <c r="C50" s="217"/>
       <c r="D50" s="82" t="s">
         <v>78</v>
       </c>
@@ -10126,10 +10126,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
-      <c r="B51" s="214">
+      <c r="B51" s="206">
         <v>1</v>
       </c>
-      <c r="C51" s="215"/>
+      <c r="C51" s="207"/>
       <c r="D51" s="76" t="s">
         <v>105</v>
       </c>
@@ -10161,16 +10161,16 @@
       <c r="AB51" s="80"/>
       <c r="AC51" s="80"/>
       <c r="AD51" s="81"/>
-      <c r="AE51" s="210" t="s">
+      <c r="AE51" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="AF51" s="211"/>
-      <c r="AG51" s="210"/>
-      <c r="AH51" s="211"/>
-      <c r="AI51" s="210"/>
-      <c r="AJ51" s="211"/>
-      <c r="AK51" s="210"/>
-      <c r="AL51" s="211"/>
+      <c r="AF51" s="209"/>
+      <c r="AG51" s="208"/>
+      <c r="AH51" s="209"/>
+      <c r="AI51" s="208"/>
+      <c r="AJ51" s="209"/>
+      <c r="AK51" s="208"/>
+      <c r="AL51" s="209"/>
       <c r="AM51" s="77" t="s">
         <v>128</v>
       </c>
@@ -10204,10 +10204,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
-      <c r="B52" s="214">
+      <c r="B52" s="206">
         <v>2</v>
       </c>
-      <c r="C52" s="215"/>
+      <c r="C52" s="207"/>
       <c r="D52" s="111" t="s">
         <v>105</v>
       </c>
@@ -10239,16 +10239,16 @@
       <c r="AB52" s="80"/>
       <c r="AC52" s="80"/>
       <c r="AD52" s="112"/>
-      <c r="AE52" s="210" t="s">
+      <c r="AE52" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="AF52" s="211"/>
-      <c r="AG52" s="210"/>
-      <c r="AH52" s="211"/>
-      <c r="AI52" s="210"/>
-      <c r="AJ52" s="211"/>
-      <c r="AK52" s="210"/>
-      <c r="AL52" s="211"/>
+      <c r="AF52" s="209"/>
+      <c r="AG52" s="208"/>
+      <c r="AH52" s="209"/>
+      <c r="AI52" s="208"/>
+      <c r="AJ52" s="209"/>
+      <c r="AK52" s="208"/>
+      <c r="AL52" s="209"/>
       <c r="AM52" s="77" t="s">
         <v>129</v>
       </c>
@@ -10282,10 +10282,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="28"/>
-      <c r="B53" s="214">
+      <c r="B53" s="206">
         <v>3</v>
       </c>
-      <c r="C53" s="215"/>
+      <c r="C53" s="207"/>
       <c r="D53" s="111" t="s">
         <v>106</v>
       </c>
@@ -10296,7 +10296,7 @@
       <c r="I53" s="80"/>
       <c r="J53" s="112"/>
       <c r="K53" s="111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L53" s="80"/>
       <c r="M53" s="80"/>
@@ -10317,18 +10317,18 @@
       <c r="AB53" s="80"/>
       <c r="AC53" s="80"/>
       <c r="AD53" s="112"/>
-      <c r="AE53" s="210" t="s">
+      <c r="AE53" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="AF53" s="211"/>
-      <c r="AG53" s="210"/>
-      <c r="AH53" s="211"/>
-      <c r="AI53" s="210" t="s">
+      <c r="AF53" s="209"/>
+      <c r="AG53" s="208"/>
+      <c r="AH53" s="209"/>
+      <c r="AI53" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="AJ53" s="211"/>
-      <c r="AK53" s="210"/>
-      <c r="AL53" s="211"/>
+      <c r="AJ53" s="209"/>
+      <c r="AK53" s="208"/>
+      <c r="AL53" s="209"/>
       <c r="AM53" s="77" t="s">
         <v>130</v>
       </c>
@@ -10362,10 +10362,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="28"/>
-      <c r="B54" s="214">
+      <c r="B54" s="206">
         <v>4</v>
       </c>
-      <c r="C54" s="215"/>
+      <c r="C54" s="207"/>
       <c r="D54" s="111" t="s">
         <v>106</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="I54" s="80"/>
       <c r="J54" s="112"/>
       <c r="K54" s="111" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L54" s="80"/>
       <c r="M54" s="80"/>
@@ -10397,18 +10397,18 @@
       <c r="AB54" s="80"/>
       <c r="AC54" s="80"/>
       <c r="AD54" s="112"/>
-      <c r="AE54" s="210" t="s">
+      <c r="AE54" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="AF54" s="211"/>
-      <c r="AG54" s="210" t="s">
+      <c r="AF54" s="209"/>
+      <c r="AG54" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="AH54" s="211"/>
-      <c r="AI54" s="210"/>
-      <c r="AJ54" s="211"/>
-      <c r="AK54" s="210"/>
-      <c r="AL54" s="211"/>
+      <c r="AH54" s="209"/>
+      <c r="AI54" s="208"/>
+      <c r="AJ54" s="209"/>
+      <c r="AK54" s="208"/>
+      <c r="AL54" s="209"/>
       <c r="AM54" s="77" t="s">
         <v>131</v>
       </c>
@@ -10442,21 +10442,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK51:AL51"/>
@@ -10465,6 +10450,21 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10588,20 +10588,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="218">
+      <c r="CD1" s="220">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="CE1" s="219"/>
-      <c r="CF1" s="219"/>
-      <c r="CG1" s="219"/>
-      <c r="CH1" s="219"/>
-      <c r="CI1" s="219"/>
-      <c r="CJ1" s="219"/>
-      <c r="CK1" s="219"/>
-      <c r="CL1" s="219"/>
-      <c r="CM1" s="219"/>
-      <c r="CN1" s="220"/>
+      <c r="CE1" s="221"/>
+      <c r="CF1" s="221"/>
+      <c r="CG1" s="221"/>
+      <c r="CH1" s="221"/>
+      <c r="CI1" s="221"/>
+      <c r="CJ1" s="221"/>
+      <c r="CK1" s="221"/>
+      <c r="CL1" s="221"/>
+      <c r="CM1" s="221"/>
+      <c r="CN1" s="222"/>
       <c r="CO1" s="33" t="s">
         <v>25</v>
       </c>
@@ -10610,23 +10610,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="207" t="str">
+      <c r="CU1" s="213" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="216"/>
-      <c r="CW1" s="216"/>
-      <c r="CX1" s="216"/>
-      <c r="CY1" s="216"/>
-      <c r="CZ1" s="216"/>
-      <c r="DA1" s="216"/>
-      <c r="DB1" s="216"/>
-      <c r="DC1" s="216"/>
-      <c r="DD1" s="216"/>
-      <c r="DE1" s="216"/>
-      <c r="DF1" s="216"/>
-      <c r="DG1" s="216"/>
-      <c r="DH1" s="217"/>
+      <c r="CV1" s="218"/>
+      <c r="CW1" s="218"/>
+      <c r="CX1" s="218"/>
+      <c r="CY1" s="218"/>
+      <c r="CZ1" s="218"/>
+      <c r="DA1" s="218"/>
+      <c r="DB1" s="218"/>
+      <c r="DC1" s="218"/>
+      <c r="DD1" s="218"/>
+      <c r="DE1" s="218"/>
+      <c r="DF1" s="218"/>
+      <c r="DG1" s="218"/>
+      <c r="DH1" s="219"/>
     </row>
     <row r="2" spans="1:113" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -10668,7 +10668,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="88" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21</v>
+        <v>K-21</v>
       </c>
       <c r="AI2" s="89"/>
       <c r="AJ2" s="89"/>
@@ -10681,39 +10681,39 @@
       <c r="AQ2" s="89"/>
       <c r="AR2" s="89"/>
       <c r="AS2" s="90"/>
-      <c r="AT2" s="222" t="str">
+      <c r="AT2" s="224" t="str">
         <f>'１．機能概要'!W2</f>
         <v>その他出庫参照・取消</v>
       </c>
-      <c r="AU2" s="223"/>
-      <c r="AV2" s="223"/>
-      <c r="AW2" s="223"/>
-      <c r="AX2" s="223"/>
-      <c r="AY2" s="223"/>
-      <c r="AZ2" s="223"/>
-      <c r="BA2" s="223"/>
-      <c r="BB2" s="223"/>
-      <c r="BC2" s="223"/>
-      <c r="BD2" s="223"/>
-      <c r="BE2" s="223"/>
-      <c r="BF2" s="223"/>
-      <c r="BG2" s="223"/>
-      <c r="BH2" s="223"/>
-      <c r="BI2" s="223"/>
-      <c r="BJ2" s="223"/>
-      <c r="BK2" s="223"/>
-      <c r="BL2" s="223"/>
-      <c r="BM2" s="223"/>
-      <c r="BN2" s="223"/>
-      <c r="BO2" s="223"/>
-      <c r="BP2" s="223"/>
-      <c r="BQ2" s="223"/>
-      <c r="BR2" s="223"/>
-      <c r="BS2" s="223"/>
-      <c r="BT2" s="223"/>
-      <c r="BU2" s="223"/>
-      <c r="BV2" s="223"/>
-      <c r="BW2" s="224"/>
+      <c r="AU2" s="225"/>
+      <c r="AV2" s="225"/>
+      <c r="AW2" s="225"/>
+      <c r="AX2" s="225"/>
+      <c r="AY2" s="225"/>
+      <c r="AZ2" s="225"/>
+      <c r="BA2" s="225"/>
+      <c r="BB2" s="225"/>
+      <c r="BC2" s="225"/>
+      <c r="BD2" s="225"/>
+      <c r="BE2" s="225"/>
+      <c r="BF2" s="225"/>
+      <c r="BG2" s="225"/>
+      <c r="BH2" s="225"/>
+      <c r="BI2" s="225"/>
+      <c r="BJ2" s="225"/>
+      <c r="BK2" s="225"/>
+      <c r="BL2" s="225"/>
+      <c r="BM2" s="225"/>
+      <c r="BN2" s="225"/>
+      <c r="BO2" s="225"/>
+      <c r="BP2" s="225"/>
+      <c r="BQ2" s="225"/>
+      <c r="BR2" s="225"/>
+      <c r="BS2" s="225"/>
+      <c r="BT2" s="225"/>
+      <c r="BU2" s="225"/>
+      <c r="BV2" s="225"/>
+      <c r="BW2" s="226"/>
       <c r="BX2" s="33" t="s">
         <v>24</v>
       </c>
@@ -10722,17 +10722,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="221"/>
-      <c r="CE2" s="216"/>
-      <c r="CF2" s="216"/>
-      <c r="CG2" s="216"/>
-      <c r="CH2" s="216"/>
-      <c r="CI2" s="216"/>
-      <c r="CJ2" s="216"/>
-      <c r="CK2" s="216"/>
-      <c r="CL2" s="216"/>
-      <c r="CM2" s="216"/>
-      <c r="CN2" s="217"/>
+      <c r="CD2" s="223"/>
+      <c r="CE2" s="218"/>
+      <c r="CF2" s="218"/>
+      <c r="CG2" s="218"/>
+      <c r="CH2" s="218"/>
+      <c r="CI2" s="218"/>
+      <c r="CJ2" s="218"/>
+      <c r="CK2" s="218"/>
+      <c r="CL2" s="218"/>
+      <c r="CM2" s="218"/>
+      <c r="CN2" s="219"/>
       <c r="CO2" s="33" t="s">
         <v>26</v>
       </c>
@@ -10741,20 +10741,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="207"/>
-      <c r="CV2" s="216"/>
-      <c r="CW2" s="216"/>
-      <c r="CX2" s="216"/>
-      <c r="CY2" s="216"/>
-      <c r="CZ2" s="216"/>
-      <c r="DA2" s="216"/>
-      <c r="DB2" s="216"/>
-      <c r="DC2" s="216"/>
-      <c r="DD2" s="216"/>
-      <c r="DE2" s="216"/>
-      <c r="DF2" s="216"/>
-      <c r="DG2" s="216"/>
-      <c r="DH2" s="217"/>
+      <c r="CU2" s="213"/>
+      <c r="CV2" s="218"/>
+      <c r="CW2" s="218"/>
+      <c r="CX2" s="218"/>
+      <c r="CY2" s="218"/>
+      <c r="CZ2" s="218"/>
+      <c r="DA2" s="218"/>
+      <c r="DB2" s="218"/>
+      <c r="DC2" s="218"/>
+      <c r="DD2" s="218"/>
+      <c r="DE2" s="218"/>
+      <c r="DF2" s="218"/>
+      <c r="DG2" s="218"/>
+      <c r="DH2" s="219"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="51"/>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="F2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21</v>
+        <v>K-21</v>
       </c>
       <c r="G2" s="36" t="str">
         <f>'１．機能概要'!W2</f>
@@ -10957,37 +10957,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="197" t="s">
+      <c r="C6" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="197" t="s">
+      <c r="D6" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="197" t="s">
+      <c r="E6" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="197" t="s">
+      <c r="F6" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="197" t="s">
+      <c r="G6" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="197" t="s">
+      <c r="H6" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="225" t="s">
+      <c r="I6" s="227" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="225" t="s">
+      <c r="J6" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="197" t="s">
+      <c r="K6" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="197" t="s">
+      <c r="L6" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="197" t="s">
+      <c r="M6" s="168" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="64" t="s">
@@ -10995,24 +10995,24 @@
       </c>
       <c r="O6" s="64"/>
       <c r="P6" s="64"/>
-      <c r="Q6" s="225" t="s">
+      <c r="Q6" s="227" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
       <c r="N7" s="42" t="s">
         <v>60</v>
       </c>
@@ -11022,7 +11022,7 @@
       <c r="P7" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="225"/>
+      <c r="Q7" s="227"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -11031,13 +11031,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>107</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>88</v>
@@ -11070,7 +11070,7 @@
         <v>34</v>
       </c>
       <c r="Q8" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11080,7 +11080,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>108</v>
@@ -11119,7 +11119,7 @@
         <v>34</v>
       </c>
       <c r="Q9" s="105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11129,13 +11129,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>88</v>
@@ -11168,7 +11168,7 @@
         <v>34</v>
       </c>
       <c r="Q10" s="105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11178,13 +11178,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>88</v>
@@ -11217,7 +11217,7 @@
         <v>34</v>
       </c>
       <c r="Q11" s="105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11227,7 +11227,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>110</v>
@@ -11266,7 +11266,7 @@
         <v>34</v>
       </c>
       <c r="Q12" s="105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11276,13 +11276,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>111</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>88</v>
@@ -11315,7 +11315,7 @@
         <v>34</v>
       </c>
       <c r="Q13" s="105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11325,13 +11325,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>112</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>88</v>
@@ -11364,7 +11364,7 @@
         <v>34</v>
       </c>
       <c r="Q14" s="105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11374,13 +11374,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>88</v>
@@ -11413,7 +11413,7 @@
         <v>34</v>
       </c>
       <c r="Q15" s="105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
@@ -11423,7 +11423,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>96</v>
@@ -11462,7 +11462,7 @@
         <v>34</v>
       </c>
       <c r="Q16" s="105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -11478,37 +11478,37 @@
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="197" t="s">
+      <c r="C19" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="197" t="s">
+      <c r="D19" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="197" t="s">
+      <c r="E19" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="197" t="s">
+      <c r="F19" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="197" t="s">
+      <c r="G19" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="197" t="s">
+      <c r="H19" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="226" t="s">
+      <c r="I19" s="228" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="225" t="s">
+      <c r="J19" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="197" t="s">
+      <c r="K19" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="197" t="s">
+      <c r="L19" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="197" t="s">
+      <c r="M19" s="168" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="64" t="s">
@@ -11516,24 +11516,24 @@
       </c>
       <c r="O19" s="64"/>
       <c r="P19" s="64"/>
-      <c r="Q19" s="226" t="s">
+      <c r="Q19" s="228" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="227"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="197"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="197"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="227"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
       <c r="N20" s="42" t="s">
         <v>60</v>
       </c>
@@ -11543,7 +11543,7 @@
       <c r="P20" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="Q20" s="227"/>
+      <c r="Q20" s="229"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
@@ -11558,7 +11558,7 @@
         <v>114</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G21" s="141" t="s">
         <v>89</v>
@@ -11573,7 +11573,7 @@
         <v>36</v>
       </c>
       <c r="K21" s="140" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>118</v>
@@ -11607,7 +11607,7 @@
         <v>99</v>
       </c>
       <c r="F22" s="140" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>89</v>
@@ -11625,19 +11625,19 @@
         <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -11671,37 +11671,37 @@
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="57"/>
-      <c r="C25" s="197" t="s">
+      <c r="C25" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="197" t="s">
+      <c r="D25" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="197" t="s">
+      <c r="E25" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="197" t="s">
+      <c r="F25" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="197" t="s">
+      <c r="G25" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="197" t="s">
+      <c r="H25" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="225" t="s">
+      <c r="I25" s="227" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="225" t="s">
+      <c r="J25" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="197" t="s">
+      <c r="K25" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="197" t="s">
+      <c r="L25" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="197" t="s">
+      <c r="M25" s="168" t="s">
         <v>33</v>
       </c>
       <c r="N25" s="64" t="s">
@@ -11709,24 +11709,24 @@
       </c>
       <c r="O25" s="64"/>
       <c r="P25" s="64"/>
-      <c r="Q25" s="225" t="s">
+      <c r="Q25" s="227" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="57"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="225"/>
-      <c r="J26" s="225"/>
-      <c r="K26" s="197"/>
-      <c r="L26" s="197"/>
-      <c r="M26" s="197"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="227"/>
+      <c r="J26" s="227"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="168"/>
       <c r="N26" s="87" t="s">
         <v>60</v>
       </c>
@@ -11736,7 +11736,7 @@
       <c r="P26" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="Q26" s="225"/>
+      <c r="Q26" s="227"/>
     </row>
     <row r="27" spans="1:17" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
@@ -11765,19 +11765,19 @@
         <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="134" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="134" t="s">
+      <c r="F28" s="133" t="s">
         <v>255</v>
       </c>
-      <c r="F28" s="133" t="s">
+      <c r="G28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>35</v>
@@ -11795,7 +11795,7 @@
         <v>34</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>34</v>
@@ -11804,7 +11804,7 @@
         <v>35</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11814,16 +11814,16 @@
         <v>2</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E29" s="141" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F29" s="142" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>124</v>
@@ -11835,7 +11835,7 @@
         <v>35</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>35</v>
@@ -11850,7 +11850,7 @@
         <v>35</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>35</v>
@@ -11863,7 +11863,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E30" s="134" t="s">
         <v>120</v>
@@ -11872,7 +11872,7 @@
         <v>121</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>124</v>
@@ -11899,7 +11899,7 @@
         <v>35</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>35</v>
@@ -11912,7 +11912,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E31" s="134" t="s">
         <v>122</v>
@@ -11921,7 +11921,7 @@
         <v>123</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>124</v>
@@ -11948,7 +11948,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>35</v>
@@ -11961,16 +11961,16 @@
         <v>5</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E32" s="134" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F32" s="132" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>124</v>
@@ -11997,7 +11997,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -12010,16 +12010,16 @@
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E33" s="134" t="s">
         <v>98</v>
       </c>
       <c r="F33" s="132" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>124</v>
@@ -12046,7 +12046,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="140" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -12059,16 +12059,16 @@
         <v>7</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E34" s="141" t="s">
         <v>100</v>
       </c>
       <c r="F34" s="142" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>124</v>
@@ -12080,7 +12080,7 @@
         <v>35</v>
       </c>
       <c r="K34" s="140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>35</v>
@@ -12098,7 +12098,7 @@
         <v>35</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -12108,7 +12108,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E35" s="134" t="s">
         <v>32</v>
@@ -12117,7 +12117,7 @@
         <v>101</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>124</v>
@@ -12144,7 +12144,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>35</v>
@@ -12157,16 +12157,16 @@
         <v>9</v>
       </c>
       <c r="D36" s="140" t="s">
+        <v>331</v>
+      </c>
+      <c r="E36" s="141" t="s">
+        <v>333</v>
+      </c>
+      <c r="F36" s="142" t="s">
         <v>332</v>
       </c>
-      <c r="E36" s="141" t="s">
-        <v>334</v>
-      </c>
-      <c r="F36" s="142" t="s">
-        <v>333</v>
-      </c>
       <c r="G36" s="141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H36" s="140" t="s">
         <v>124</v>
@@ -12193,10 +12193,10 @@
         <v>35</v>
       </c>
       <c r="P36" s="140" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q36" s="140" t="s">
         <v>336</v>
-      </c>
-      <c r="Q36" s="140" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
@@ -12218,6 +12218,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
@@ -12230,30 +12254,6 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M25:M26"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12329,14 +12329,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="204">
+      <c r="AI1" s="210">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="223"/>
-      <c r="AK1" s="223"/>
-      <c r="AL1" s="223"/>
-      <c r="AM1" s="224"/>
+      <c r="AJ1" s="225"/>
+      <c r="AK1" s="225"/>
+      <c r="AL1" s="225"/>
+      <c r="AM1" s="226"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -12345,16 +12345,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="207" t="str">
+      <c r="AT1" s="213" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="216"/>
-      <c r="AV1" s="216"/>
-      <c r="AW1" s="216"/>
-      <c r="AX1" s="216"/>
-      <c r="AY1" s="216"/>
-      <c r="AZ1" s="217"/>
+      <c r="AU1" s="218"/>
+      <c r="AV1" s="218"/>
+      <c r="AW1" s="218"/>
+      <c r="AX1" s="218"/>
+      <c r="AY1" s="218"/>
+      <c r="AZ1" s="219"/>
     </row>
     <row r="2" spans="1:52" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -12376,38 +12376,38 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21</v>
+        <v>K-21</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="222" t="str">
+      <c r="S2" s="224" t="str">
         <f>'１．機能概要'!W2</f>
         <v>その他出庫参照・取消</v>
       </c>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="223"/>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="223"/>
-      <c r="AD2" s="224"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="225"/>
+      <c r="AC2" s="225"/>
+      <c r="AD2" s="226"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="221"/>
-      <c r="AJ2" s="216"/>
-      <c r="AK2" s="216"/>
-      <c r="AL2" s="216"/>
-      <c r="AM2" s="217"/>
+      <c r="AI2" s="223"/>
+      <c r="AJ2" s="218"/>
+      <c r="AK2" s="218"/>
+      <c r="AL2" s="218"/>
+      <c r="AM2" s="219"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -12416,13 +12416,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="216"/>
-      <c r="AV2" s="216"/>
-      <c r="AW2" s="216"/>
-      <c r="AX2" s="216"/>
-      <c r="AY2" s="216"/>
-      <c r="AZ2" s="217"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="218"/>
+      <c r="AV2" s="218"/>
+      <c r="AW2" s="218"/>
+      <c r="AX2" s="218"/>
+      <c r="AY2" s="218"/>
+      <c r="AZ2" s="219"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="56"/>
@@ -12667,7 +12667,7 @@
       <c r="J9" s="23"/>
       <c r="K9" s="68"/>
       <c r="L9" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
@@ -12773,7 +12773,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="22"/>
       <c r="L11" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -12826,7 +12826,7 @@
       <c r="J12" s="23"/>
       <c r="K12" s="68"/>
       <c r="L12" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V12" s="109"/>
       <c r="W12" s="109"/>
@@ -12868,7 +12868,7 @@
       <c r="J13" s="23"/>
       <c r="K13" s="68"/>
       <c r="L13" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V13" s="109"/>
       <c r="W13" s="109"/>
@@ -12944,10 +12944,10 @@
       <c r="F15" s="68"/>
       <c r="G15" s="67"/>
       <c r="L15" s="67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M15" s="120" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N15" s="120"/>
       <c r="O15" s="120"/>
@@ -12987,7 +12987,7 @@
       <c r="G16" s="67"/>
       <c r="L16" s="67"/>
       <c r="M16" s="120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N16" s="120"/>
       <c r="O16" s="120"/>
@@ -13027,7 +13027,7 @@
       <c r="L17" s="67"/>
       <c r="M17" s="120"/>
       <c r="N17" s="120" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL17" s="120"/>
       <c r="AM17" s="120"/>
@@ -13043,7 +13043,7 @@
       <c r="L18" s="67"/>
       <c r="M18" s="120"/>
       <c r="N18" s="120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL18" s="120"/>
       <c r="AM18" s="120"/>
@@ -13095,7 +13095,7 @@
       <c r="G20" s="67"/>
       <c r="L20" s="67"/>
       <c r="M20" s="120" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N20" s="120"/>
       <c r="O20" s="120"/>
@@ -13134,7 +13134,7 @@
       <c r="G21" s="67"/>
       <c r="L21" s="67"/>
       <c r="N21" s="120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O21" s="120"/>
       <c r="P21" s="120"/>
@@ -13212,7 +13212,7 @@
       <c r="G23" s="67"/>
       <c r="K23" s="68"/>
       <c r="L23" s="122" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M23" s="131"/>
       <c r="N23" s="131"/>
@@ -13254,7 +13254,7 @@
       <c r="G24" s="67"/>
       <c r="L24" s="67"/>
       <c r="M24" s="120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N24" s="120"/>
       <c r="O24" s="120"/>
@@ -13277,7 +13277,7 @@
       <c r="L25" s="124"/>
       <c r="M25" s="120"/>
       <c r="N25" s="120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O25" s="120"/>
       <c r="P25" s="120"/>
@@ -13302,7 +13302,7 @@
       <c r="L26" s="124"/>
       <c r="M26" s="120"/>
       <c r="N26" s="129" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O26" s="129"/>
       <c r="P26" s="129"/>
@@ -13327,7 +13327,7 @@
       <c r="L27" s="124"/>
       <c r="M27" s="120"/>
       <c r="N27" s="129" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O27" s="129"/>
       <c r="P27" s="129"/>
@@ -13352,7 +13352,7 @@
       <c r="L28" s="124"/>
       <c r="M28" s="120"/>
       <c r="N28" s="120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O28" s="120"/>
       <c r="P28" s="120"/>
@@ -13377,7 +13377,7 @@
       <c r="L29" s="124"/>
       <c r="M29" s="120"/>
       <c r="N29" s="120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
@@ -13402,7 +13402,7 @@
       <c r="L30" s="124"/>
       <c r="M30" s="120"/>
       <c r="N30" s="125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O30" s="120"/>
       <c r="P30" s="120"/>
@@ -13427,7 +13427,7 @@
       <c r="L31" s="124"/>
       <c r="M31" s="120"/>
       <c r="N31" s="120" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O31" s="120"/>
       <c r="P31" s="120"/>
@@ -13452,7 +13452,7 @@
       <c r="L32" s="124"/>
       <c r="M32" s="120"/>
       <c r="N32" s="120" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O32" s="120"/>
       <c r="P32" s="120"/>
@@ -13477,7 +13477,7 @@
       <c r="L33" s="124"/>
       <c r="M33" s="120"/>
       <c r="N33" s="120" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O33" s="120"/>
       <c r="P33" s="120"/>
@@ -13502,7 +13502,7 @@
       <c r="L34" s="124"/>
       <c r="M34" s="120"/>
       <c r="N34" s="120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O34" s="120"/>
       <c r="P34" s="120"/>
@@ -13527,7 +13527,7 @@
       <c r="L35" s="124"/>
       <c r="M35" s="120"/>
       <c r="N35" s="120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O35" s="120"/>
       <c r="P35" s="120"/>
@@ -13552,7 +13552,7 @@
       <c r="L36" s="124"/>
       <c r="M36" s="120"/>
       <c r="N36" s="120" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O36" s="120"/>
       <c r="P36" s="120"/>
@@ -13574,19 +13574,19 @@
       <c r="F37" s="68"/>
       <c r="G37" s="67"/>
       <c r="L37" s="126"/>
-      <c r="M37" s="228"/>
-      <c r="N37" s="229" t="s">
-        <v>357</v>
-      </c>
-      <c r="O37" s="229"/>
-      <c r="P37" s="229"/>
-      <c r="Q37" s="229"/>
-      <c r="R37" s="229"/>
-      <c r="S37" s="229"/>
-      <c r="T37" s="229"/>
-      <c r="U37" s="228"/>
-      <c r="V37" s="228"/>
-      <c r="W37" s="228"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="162" t="s">
+        <v>356</v>
+      </c>
+      <c r="O37" s="162"/>
+      <c r="P37" s="162"/>
+      <c r="Q37" s="162"/>
+      <c r="R37" s="162"/>
+      <c r="S37" s="162"/>
+      <c r="T37" s="162"/>
+      <c r="U37" s="161"/>
+      <c r="V37" s="161"/>
+      <c r="W37" s="161"/>
       <c r="X37" s="139"/>
       <c r="Y37" s="139"/>
       <c r="Z37" s="139"/>
@@ -13602,7 +13602,7 @@
       <c r="L38" s="124"/>
       <c r="M38" s="120"/>
       <c r="N38" s="120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O38" s="120"/>
       <c r="P38" s="120"/>
@@ -13649,7 +13649,7 @@
       <c r="K40" s="68"/>
       <c r="L40" s="124"/>
       <c r="M40" s="120" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N40" s="120"/>
       <c r="O40" s="120"/>
@@ -13687,7 +13687,7 @@
       <c r="K41" s="68"/>
       <c r="L41" s="124"/>
       <c r="N41" s="120" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O41" s="120"/>
       <c r="P41" s="120"/>
@@ -13724,7 +13724,7 @@
       <c r="K42" s="68"/>
       <c r="L42" s="124"/>
       <c r="N42" s="120" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O42" s="120"/>
       <c r="P42" s="120"/>
@@ -13762,7 +13762,7 @@
       <c r="L43" s="124"/>
       <c r="N43" s="120"/>
       <c r="O43" s="120" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P43" s="120"/>
       <c r="Q43" s="120"/>
@@ -13774,10 +13774,10 @@
       <c r="W43" s="120"/>
       <c r="X43" s="120"/>
       <c r="Y43" s="120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z43" s="130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA43" s="120"/>
       <c r="AB43" s="120"/>
@@ -13803,7 +13803,7 @@
       <c r="L44" s="124"/>
       <c r="N44" s="120"/>
       <c r="O44" s="120" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P44" s="120"/>
       <c r="Q44" s="120"/>
@@ -13815,10 +13815,10 @@
       <c r="W44" s="120"/>
       <c r="X44" s="120"/>
       <c r="Y44" s="120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z44" s="120" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AA44" s="120"/>
       <c r="AB44" s="120"/>
@@ -13843,7 +13843,7 @@
       <c r="K45" s="68"/>
       <c r="L45" s="124"/>
       <c r="N45" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y45" s="120"/>
       <c r="AV45" s="68"/>
@@ -13856,13 +13856,13 @@
       <c r="K46" s="68"/>
       <c r="L46" s="124"/>
       <c r="O46" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y46" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z46" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="Y46" s="120" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z46" s="16" t="s">
-        <v>301</v>
       </c>
       <c r="AV46" s="68"/>
     </row>
@@ -13873,7 +13873,7 @@
       <c r="G47" s="67"/>
       <c r="L47" s="67"/>
       <c r="N47" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O47" s="125"/>
       <c r="P47" s="125"/>
@@ -13903,7 +13903,7 @@
       <c r="L48" s="67"/>
       <c r="N48" s="125"/>
       <c r="O48" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P48" s="125"/>
       <c r="Q48" s="125"/>
@@ -13915,10 +13915,10 @@
       <c r="W48" s="160"/>
       <c r="X48" s="160"/>
       <c r="Y48" s="125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z48" s="160" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AA48" s="160"/>
       <c r="AB48" s="160"/>
@@ -13936,7 +13936,7 @@
       <c r="L49" s="67"/>
       <c r="N49" s="125"/>
       <c r="O49" s="125" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P49" s="125"/>
       <c r="Q49" s="125"/>
@@ -13948,10 +13948,10 @@
       <c r="W49" s="160"/>
       <c r="X49" s="160"/>
       <c r="Y49" s="125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z49" s="160" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA49" s="160"/>
       <c r="AB49" s="160"/>
@@ -13969,7 +13969,7 @@
       <c r="L50" s="67"/>
       <c r="N50" s="125"/>
       <c r="O50" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P50" s="125"/>
       <c r="Q50" s="125"/>
@@ -13981,10 +13981,10 @@
       <c r="W50" s="160"/>
       <c r="X50" s="160"/>
       <c r="Y50" s="125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z50" s="160" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA50" s="160"/>
       <c r="AB50" s="160"/>
@@ -14002,7 +14002,7 @@
       <c r="L51" s="67"/>
       <c r="N51" s="125"/>
       <c r="O51" s="125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P51" s="125"/>
       <c r="Q51" s="125"/>
@@ -14014,10 +14014,10 @@
       <c r="W51" s="160"/>
       <c r="X51" s="160"/>
       <c r="Y51" s="125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z51" s="160" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA51" s="160"/>
       <c r="AB51" s="160"/>
@@ -14035,7 +14035,7 @@
       <c r="L52" s="67"/>
       <c r="N52" s="125"/>
       <c r="O52" s="125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P52" s="125"/>
       <c r="Q52" s="125"/>
@@ -14047,10 +14047,10 @@
       <c r="W52" s="160"/>
       <c r="X52" s="160"/>
       <c r="Y52" s="125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z52" s="160" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AA52" s="160"/>
       <c r="AB52" s="160"/>
@@ -14077,7 +14077,7 @@
       <c r="K54" s="68"/>
       <c r="L54" s="124"/>
       <c r="M54" s="120" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N54" s="120"/>
       <c r="O54" s="120"/>
@@ -14112,7 +14112,7 @@
       <c r="K55" s="68"/>
       <c r="L55" s="124"/>
       <c r="N55" s="120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O55" s="120"/>
       <c r="P55" s="120"/>
@@ -14124,10 +14124,10 @@
       <c r="V55" s="120"/>
       <c r="W55" s="120"/>
       <c r="Y55" s="120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z55" s="120" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA55" s="120"/>
       <c r="AB55" s="120"/>
@@ -14146,7 +14146,7 @@
       <c r="K56" s="68"/>
       <c r="L56" s="124"/>
       <c r="N56" s="120" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
@@ -14158,10 +14158,10 @@
       <c r="V56" s="120"/>
       <c r="W56" s="120"/>
       <c r="Y56" s="120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z56" s="130" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA56" s="120"/>
       <c r="AB56" s="120"/>
@@ -14180,7 +14180,7 @@
       <c r="K57" s="68"/>
       <c r="L57" s="124"/>
       <c r="N57" s="120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
@@ -14192,16 +14192,16 @@
       <c r="V57" s="120"/>
       <c r="W57" s="120"/>
       <c r="Y57" s="120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z57" s="120" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA57" s="120"/>
       <c r="AB57" s="120"/>
       <c r="AC57" s="120"/>
       <c r="AF57" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG57" s="120"/>
       <c r="AH57" s="120"/>
@@ -14217,7 +14217,7 @@
       <c r="K58" s="68"/>
       <c r="L58" s="124"/>
       <c r="N58" s="120" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O58" s="120"/>
       <c r="P58" s="120"/>
@@ -14229,16 +14229,16 @@
       <c r="V58" s="120"/>
       <c r="W58" s="120"/>
       <c r="Y58" s="120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z58" s="120" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA58" s="120"/>
       <c r="AB58" s="120"/>
       <c r="AC58" s="120"/>
       <c r="AF58" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG58" s="120"/>
       <c r="AH58" s="120"/>
@@ -14263,7 +14263,7 @@
       <c r="K60" s="68"/>
       <c r="L60" s="124"/>
       <c r="M60" s="120" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N60" s="120"/>
       <c r="O60" s="120"/>
@@ -14299,7 +14299,7 @@
       <c r="L61" s="124"/>
       <c r="M61" s="120"/>
       <c r="N61" s="120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O61" s="120"/>
       <c r="P61" s="120"/>
@@ -14324,7 +14324,7 @@
       <c r="L62" s="124"/>
       <c r="M62" s="120"/>
       <c r="N62" s="129" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O62" s="129"/>
       <c r="P62" s="129"/>
@@ -14349,7 +14349,7 @@
       <c r="L63" s="124"/>
       <c r="M63" s="120"/>
       <c r="N63" s="129" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O63" s="129"/>
       <c r="P63" s="129"/>
@@ -14374,7 +14374,7 @@
       <c r="L64" s="124"/>
       <c r="M64" s="120"/>
       <c r="N64" s="120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O64" s="120"/>
       <c r="P64" s="120"/>
@@ -14399,7 +14399,7 @@
       <c r="L65" s="124"/>
       <c r="M65" s="120"/>
       <c r="N65" s="120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
@@ -14424,7 +14424,7 @@
       <c r="L66" s="124"/>
       <c r="M66" s="120"/>
       <c r="N66" s="125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O66" s="120"/>
       <c r="P66" s="120"/>
@@ -14449,7 +14449,7 @@
       <c r="L67" s="124"/>
       <c r="M67" s="120"/>
       <c r="N67" s="120" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O67" s="120"/>
       <c r="P67" s="120"/>
@@ -14474,7 +14474,7 @@
       <c r="L68" s="124"/>
       <c r="M68" s="120"/>
       <c r="N68" s="120" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O68" s="120"/>
       <c r="P68" s="120"/>
@@ -14499,7 +14499,7 @@
       <c r="L69" s="124"/>
       <c r="M69" s="120"/>
       <c r="N69" s="120" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O69" s="120"/>
       <c r="P69" s="120"/>
@@ -14524,7 +14524,7 @@
       <c r="L70" s="124"/>
       <c r="M70" s="120"/>
       <c r="N70" s="120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O70" s="120"/>
       <c r="P70" s="120"/>
@@ -14549,7 +14549,7 @@
       <c r="L71" s="124"/>
       <c r="M71" s="120"/>
       <c r="N71" s="120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O71" s="120"/>
       <c r="P71" s="120"/>
@@ -14571,19 +14571,19 @@
       <c r="F72" s="68"/>
       <c r="G72" s="67"/>
       <c r="L72" s="126"/>
-      <c r="M72" s="228"/>
-      <c r="N72" s="229" t="s">
-        <v>357</v>
-      </c>
-      <c r="O72" s="229"/>
-      <c r="P72" s="229"/>
-      <c r="Q72" s="229"/>
-      <c r="R72" s="229"/>
-      <c r="S72" s="229"/>
-      <c r="T72" s="229"/>
-      <c r="U72" s="228"/>
-      <c r="V72" s="228"/>
-      <c r="W72" s="228"/>
+      <c r="M72" s="161"/>
+      <c r="N72" s="162" t="s">
+        <v>356</v>
+      </c>
+      <c r="O72" s="162"/>
+      <c r="P72" s="162"/>
+      <c r="Q72" s="162"/>
+      <c r="R72" s="162"/>
+      <c r="S72" s="162"/>
+      <c r="T72" s="162"/>
+      <c r="U72" s="161"/>
+      <c r="V72" s="161"/>
+      <c r="W72" s="161"/>
       <c r="X72" s="139"/>
       <c r="Y72" s="139"/>
       <c r="Z72" s="139"/>
@@ -14599,7 +14599,7 @@
       <c r="L73" s="124"/>
       <c r="M73" s="120"/>
       <c r="N73" s="120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O73" s="120"/>
       <c r="P73" s="120"/>
@@ -14636,7 +14636,7 @@
       <c r="K75" s="68"/>
       <c r="L75" s="124"/>
       <c r="M75" s="120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK75" s="120"/>
       <c r="AL75" s="120"/>
@@ -14651,7 +14651,7 @@
       <c r="K76" s="68"/>
       <c r="L76" s="124"/>
       <c r="N76" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK76" s="120"/>
       <c r="AL76" s="120"/>
@@ -14666,7 +14666,7 @@
       <c r="K77" s="68"/>
       <c r="L77" s="124"/>
       <c r="N77" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK77" s="120"/>
       <c r="AL77" s="120"/>
@@ -14682,7 +14682,7 @@
       <c r="L78" s="124"/>
       <c r="M78" s="120"/>
       <c r="N78" s="120" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O78" s="120"/>
       <c r="P78" s="120"/>
@@ -14765,20 +14765,20 @@
         <v>3</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
       <c r="F80" s="22"/>
       <c r="G80" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
       <c r="K80" s="22"/>
       <c r="L80" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M80" s="21"/>
       <c r="N80" s="21"/>
@@ -14831,7 +14831,7 @@
       <c r="J81" s="23"/>
       <c r="K81" s="68"/>
       <c r="L81" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M81" s="23"/>
       <c r="N81" s="23"/>
@@ -14882,7 +14882,7 @@
       <c r="J82" s="23"/>
       <c r="K82" s="68"/>
       <c r="L82" s="67" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N82" s="23"/>
       <c r="O82" s="23"/>
@@ -14933,7 +14933,7 @@
       <c r="K83" s="68"/>
       <c r="L83" s="67"/>
       <c r="M83" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N83" s="23"/>
       <c r="O83" s="23"/>
@@ -15025,20 +15025,20 @@
         <v>4</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
       <c r="F85" s="22"/>
       <c r="G85" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
       <c r="K85" s="22"/>
       <c r="L85" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M85" s="21"/>
       <c r="N85" s="21"/>
@@ -15091,7 +15091,7 @@
       <c r="J86" s="23"/>
       <c r="K86" s="68"/>
       <c r="L86" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M86" s="23"/>
       <c r="N86" s="23"/>
@@ -15142,7 +15142,7 @@
       <c r="J87" s="23"/>
       <c r="K87" s="68"/>
       <c r="L87" s="67" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N87" s="23"/>
       <c r="O87" s="23"/>
@@ -15193,7 +15193,7 @@
       <c r="K88" s="68"/>
       <c r="L88" s="67"/>
       <c r="M88" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N88" s="23"/>
       <c r="O88" s="23"/>
@@ -15285,20 +15285,20 @@
         <v>5</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
       <c r="F90" s="22"/>
       <c r="G90" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
       <c r="K90" s="22"/>
       <c r="L90" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M90" s="21"/>
       <c r="N90" s="21"/>
@@ -15351,7 +15351,7 @@
       <c r="J91" s="23"/>
       <c r="K91" s="68"/>
       <c r="L91" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M91" s="23"/>
       <c r="N91" s="23"/>
@@ -15402,7 +15402,7 @@
       <c r="J92" s="23"/>
       <c r="K92" s="68"/>
       <c r="L92" s="67" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N92" s="23"/>
       <c r="O92" s="23"/>
@@ -15453,7 +15453,7 @@
       <c r="K93" s="68"/>
       <c r="L93" s="67"/>
       <c r="M93" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N93" s="23"/>
       <c r="O93" s="23"/>
@@ -15558,7 +15558,7 @@
       <c r="J95" s="21"/>
       <c r="K95" s="21"/>
       <c r="L95" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M95" s="21"/>
       <c r="N95" s="21"/>
@@ -15693,7 +15693,7 @@
       <c r="F98" s="68"/>
       <c r="G98" s="67"/>
       <c r="L98" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M98" s="23"/>
       <c r="N98" s="23"/>
@@ -15738,10 +15738,10 @@
       <c r="F99" s="68"/>
       <c r="G99" s="67"/>
       <c r="L99" s="122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M99" s="123" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N99" s="123"/>
       <c r="O99" s="123"/>
@@ -15829,7 +15829,7 @@
       <c r="G101" s="67"/>
       <c r="L101" s="122"/>
       <c r="M101" s="109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N101" s="109"/>
       <c r="O101" s="109"/>
@@ -15875,7 +15875,7 @@
       <c r="L102" s="122"/>
       <c r="M102" s="109"/>
       <c r="N102" s="109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O102" s="109"/>
       <c r="P102" s="23"/>
@@ -15919,7 +15919,7 @@
       <c r="G103" s="67"/>
       <c r="L103" s="122"/>
       <c r="M103" s="109" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N103" s="109"/>
       <c r="O103" s="109"/>
@@ -15965,7 +15965,7 @@
       <c r="L104" s="122"/>
       <c r="M104" s="23"/>
       <c r="N104" s="109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O104" s="109"/>
       <c r="P104" s="109"/>
@@ -15973,7 +15973,7 @@
       <c r="R104" s="109"/>
       <c r="S104" s="109"/>
       <c r="T104" s="127" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U104" s="109"/>
       <c r="V104" s="123"/>
@@ -16013,7 +16013,7 @@
       <c r="L105" s="126"/>
       <c r="M105" s="109"/>
       <c r="N105" s="109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O105" s="109"/>
       <c r="P105" s="109"/>
@@ -16021,7 +16021,7 @@
       <c r="R105" s="109"/>
       <c r="S105" s="109"/>
       <c r="T105" s="109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U105" s="109"/>
       <c r="V105" s="109"/>
@@ -16060,7 +16060,7 @@
       <c r="L106" s="122"/>
       <c r="M106" s="23"/>
       <c r="N106" s="109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O106" s="109"/>
       <c r="P106" s="109"/>
@@ -16068,7 +16068,7 @@
       <c r="R106" s="109"/>
       <c r="S106" s="109"/>
       <c r="T106" s="109" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U106" s="109"/>
       <c r="V106" s="123"/>
@@ -16107,7 +16107,7 @@
       <c r="L107" s="122"/>
       <c r="M107" s="23"/>
       <c r="N107" s="109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O107" s="109"/>
       <c r="P107" s="109"/>
@@ -16115,7 +16115,7 @@
       <c r="R107" s="109"/>
       <c r="S107" s="109"/>
       <c r="T107" s="109" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U107" s="109"/>
       <c r="V107" s="123"/>
@@ -16154,7 +16154,7 @@
       <c r="L108" s="122"/>
       <c r="M108" s="23"/>
       <c r="N108" s="109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O108" s="109"/>
       <c r="P108" s="109"/>
@@ -16162,7 +16162,7 @@
       <c r="R108" s="109"/>
       <c r="S108" s="109"/>
       <c r="T108" s="109" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U108" s="109"/>
       <c r="V108" s="123"/>
@@ -16201,7 +16201,7 @@
       <c r="L109" s="122"/>
       <c r="M109" s="23"/>
       <c r="N109" s="109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O109" s="109"/>
       <c r="P109" s="109"/>
@@ -16209,7 +16209,7 @@
       <c r="R109" s="109"/>
       <c r="S109" s="109"/>
       <c r="T109" s="109" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U109" s="109"/>
       <c r="V109" s="123"/>
@@ -16248,7 +16248,7 @@
       <c r="L110" s="122"/>
       <c r="M110" s="23"/>
       <c r="N110" s="109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O110" s="109"/>
       <c r="P110" s="109"/>
@@ -16256,7 +16256,7 @@
       <c r="R110" s="109"/>
       <c r="S110" s="109"/>
       <c r="T110" s="109" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U110" s="109"/>
       <c r="V110" s="123"/>
@@ -16295,7 +16295,7 @@
       <c r="L111" s="122"/>
       <c r="M111" s="135"/>
       <c r="N111" s="136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O111" s="136"/>
       <c r="P111" s="136"/>
@@ -16303,7 +16303,7 @@
       <c r="R111" s="136"/>
       <c r="S111" s="136"/>
       <c r="T111" s="136" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U111" s="136"/>
       <c r="V111" s="136"/>
@@ -16343,7 +16343,7 @@
       <c r="L112" s="126"/>
       <c r="M112" s="136"/>
       <c r="N112" s="136" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O112" s="136"/>
       <c r="P112" s="136"/>
@@ -16351,7 +16351,7 @@
       <c r="R112" s="136"/>
       <c r="S112" s="136"/>
       <c r="T112" s="136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U112" s="136"/>
       <c r="V112" s="136"/>
@@ -16391,7 +16391,7 @@
       <c r="L113" s="126"/>
       <c r="M113" s="136"/>
       <c r="N113" s="136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O113" s="136"/>
       <c r="P113" s="136"/>
@@ -16399,7 +16399,7 @@
       <c r="R113" s="136"/>
       <c r="S113" s="136"/>
       <c r="T113" s="136" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U113" s="136"/>
       <c r="V113" s="136"/>
@@ -16439,7 +16439,7 @@
       <c r="L114" s="126"/>
       <c r="M114" s="136"/>
       <c r="N114" s="136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O114" s="136"/>
       <c r="P114" s="136"/>
@@ -16447,7 +16447,7 @@
       <c r="R114" s="136"/>
       <c r="S114" s="136"/>
       <c r="T114" s="138" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U114" s="136"/>
       <c r="V114" s="136"/>
@@ -16487,7 +16487,7 @@
       <c r="L115" s="126"/>
       <c r="M115" s="136"/>
       <c r="N115" s="136" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O115" s="136"/>
       <c r="P115" s="136"/>
@@ -16495,7 +16495,7 @@
       <c r="R115" s="136"/>
       <c r="S115" s="136"/>
       <c r="T115" s="136" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U115" s="136"/>
       <c r="V115" s="136"/>
@@ -16535,7 +16535,7 @@
       <c r="L116" s="126"/>
       <c r="M116" s="136"/>
       <c r="N116" s="136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O116" s="136"/>
       <c r="P116" s="136"/>
@@ -16543,7 +16543,7 @@
       <c r="R116" s="136"/>
       <c r="S116" s="136"/>
       <c r="T116" s="136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U116" s="136"/>
       <c r="V116" s="136"/>
@@ -16583,7 +16583,7 @@
       <c r="L117" s="126"/>
       <c r="M117" s="136"/>
       <c r="N117" s="136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O117" s="136"/>
       <c r="P117" s="136"/>
@@ -16591,7 +16591,7 @@
       <c r="R117" s="136"/>
       <c r="S117" s="136"/>
       <c r="T117" s="136" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U117" s="136"/>
       <c r="V117" s="136"/>
@@ -16629,7 +16629,7 @@
       <c r="G118" s="67"/>
       <c r="L118" s="122"/>
       <c r="M118" s="109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N118" s="109"/>
       <c r="O118" s="109"/>
@@ -16674,7 +16674,7 @@
       <c r="L119" s="122"/>
       <c r="M119" s="109"/>
       <c r="N119" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O119" s="109"/>
       <c r="P119" s="109"/>
@@ -16762,10 +16762,10 @@
       <c r="K121" s="23"/>
       <c r="L121" s="122"/>
       <c r="M121" s="123" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N121" s="123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O121" s="123"/>
       <c r="P121" s="123"/>
@@ -16811,7 +16811,7 @@
       <c r="L122" s="67"/>
       <c r="M122" s="23"/>
       <c r="N122" s="109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O122" s="109"/>
       <c r="P122" s="109"/>
@@ -16857,7 +16857,7 @@
       <c r="M123" s="23"/>
       <c r="N123" s="109"/>
       <c r="O123" s="109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P123" s="109"/>
       <c r="Q123" s="109"/>
@@ -16901,7 +16901,7 @@
       <c r="L124" s="67"/>
       <c r="M124" s="23"/>
       <c r="N124" s="109" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O124" s="109"/>
       <c r="P124" s="109"/>
@@ -16947,17 +16947,17 @@
       <c r="M125" s="23"/>
       <c r="N125" s="109"/>
       <c r="O125" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P125" s="23"/>
       <c r="Q125" s="23"/>
       <c r="R125" s="23"/>
       <c r="S125" s="23"/>
       <c r="U125" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V125" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W125" s="23"/>
       <c r="X125" s="23"/>
@@ -16995,17 +16995,17 @@
       <c r="M126" s="23"/>
       <c r="N126" s="109"/>
       <c r="O126" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P126" s="23"/>
       <c r="Q126" s="23"/>
       <c r="R126" s="23"/>
       <c r="S126" s="23"/>
       <c r="U126" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V126" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W126" s="23"/>
       <c r="X126" s="23"/>
@@ -17043,17 +17043,17 @@
       <c r="M127" s="23"/>
       <c r="N127" s="109"/>
       <c r="O127" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P127" s="23"/>
       <c r="Q127" s="23"/>
       <c r="R127" s="23"/>
       <c r="S127" s="23"/>
       <c r="U127" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V127" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W127" s="23"/>
       <c r="X127" s="23"/>
@@ -17090,7 +17090,7 @@
       <c r="L128" s="67"/>
       <c r="M128" s="23"/>
       <c r="N128" s="109" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O128" s="109"/>
       <c r="P128" s="109"/>
@@ -17135,7 +17135,7 @@
       <c r="M129" s="135"/>
       <c r="N129" s="136"/>
       <c r="O129" s="136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P129" s="136"/>
       <c r="Q129" s="136"/>
@@ -17143,10 +17143,10 @@
       <c r="S129" s="135"/>
       <c r="T129" s="139"/>
       <c r="U129" s="135" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V129" s="127" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W129" s="136"/>
       <c r="X129" s="136"/>
@@ -17184,7 +17184,7 @@
       <c r="M130" s="135"/>
       <c r="N130" s="136"/>
       <c r="O130" s="136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P130" s="136"/>
       <c r="Q130" s="136"/>
@@ -17192,10 +17192,10 @@
       <c r="S130" s="135"/>
       <c r="T130" s="139"/>
       <c r="U130" s="135" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V130" s="136" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W130" s="136"/>
       <c r="X130" s="136"/>
@@ -17233,7 +17233,7 @@
       <c r="M131" s="135"/>
       <c r="N131" s="136"/>
       <c r="O131" s="136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P131" s="136"/>
       <c r="Q131" s="136"/>
@@ -17241,10 +17241,10 @@
       <c r="S131" s="135"/>
       <c r="T131" s="139"/>
       <c r="U131" s="135" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V131" s="136" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W131" s="136"/>
       <c r="X131" s="136"/>
@@ -17282,7 +17282,7 @@
       <c r="M132" s="135"/>
       <c r="N132" s="136"/>
       <c r="O132" s="136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P132" s="136"/>
       <c r="Q132" s="136"/>
@@ -17290,10 +17290,10 @@
       <c r="S132" s="135"/>
       <c r="T132" s="139"/>
       <c r="U132" s="135" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V132" s="136" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W132" s="136"/>
       <c r="X132" s="136"/>
@@ -17331,7 +17331,7 @@
       <c r="M133" s="135"/>
       <c r="N133" s="136"/>
       <c r="O133" s="136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P133" s="136"/>
       <c r="Q133" s="136"/>
@@ -17339,10 +17339,10 @@
       <c r="S133" s="135"/>
       <c r="T133" s="139"/>
       <c r="U133" s="135" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V133" s="136" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W133" s="136"/>
       <c r="X133" s="136"/>
@@ -17380,7 +17380,7 @@
       <c r="M134" s="135"/>
       <c r="N134" s="136"/>
       <c r="O134" s="136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P134" s="136"/>
       <c r="Q134" s="136"/>
@@ -17388,10 +17388,10 @@
       <c r="S134" s="135"/>
       <c r="T134" s="139"/>
       <c r="U134" s="135" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V134" s="136" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W134" s="136"/>
       <c r="X134" s="136"/>
@@ -17471,10 +17471,10 @@
       <c r="K136" s="23"/>
       <c r="L136" s="67"/>
       <c r="M136" s="123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N136" s="123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O136" s="23"/>
       <c r="P136" s="23"/>
@@ -17571,14 +17571,14 @@
       <c r="E138" s="21"/>
       <c r="F138" s="22"/>
       <c r="G138" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
       <c r="J138" s="21"/>
       <c r="K138" s="21"/>
       <c r="L138" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M138" s="21"/>
       <c r="N138" s="21"/>
@@ -17631,7 +17631,7 @@
       <c r="J139" s="23"/>
       <c r="K139" s="23"/>
       <c r="L139" s="67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M139" s="23"/>
       <c r="N139" s="23"/>
@@ -17682,7 +17682,7 @@
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
       <c r="L140" s="67" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M140" s="23"/>
       <c r="N140" s="23"/>
@@ -17781,14 +17781,14 @@
       <c r="E142" s="21"/>
       <c r="F142" s="22"/>
       <c r="G142" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
       <c r="K142" s="21"/>
       <c r="L142" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M142" s="21"/>
       <c r="N142" s="21"/>
@@ -17841,7 +17841,7 @@
       <c r="J143" s="23"/>
       <c r="K143" s="23"/>
       <c r="L143" s="67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M143" s="23"/>
       <c r="N143" s="23"/>
@@ -17892,7 +17892,7 @@
       <c r="J144" s="23"/>
       <c r="K144" s="23"/>
       <c r="L144" s="67" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M144" s="23"/>
       <c r="N144" s="23"/>
@@ -17998,7 +17998,7 @@
       <c r="J146" s="21"/>
       <c r="K146" s="21"/>
       <c r="L146" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M146" s="21"/>
       <c r="N146" s="21"/>
@@ -18046,7 +18046,7 @@
       </c>
       <c r="L147" s="67"/>
       <c r="M147" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N147" s="23"/>
       <c r="O147" s="23"/>
@@ -18091,7 +18091,7 @@
       <c r="G148" s="67"/>
       <c r="L148" s="67"/>
       <c r="M148" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N148" s="23"/>
       <c r="O148" s="23"/>
@@ -25596,14 +25596,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="204">
+      <c r="AI1" s="210">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="223"/>
-      <c r="AK1" s="223"/>
-      <c r="AL1" s="223"/>
-      <c r="AM1" s="224"/>
+      <c r="AJ1" s="225"/>
+      <c r="AK1" s="225"/>
+      <c r="AL1" s="225"/>
+      <c r="AM1" s="226"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -25612,16 +25612,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="207" t="str">
+      <c r="AT1" s="213" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="216"/>
-      <c r="AV1" s="216"/>
-      <c r="AW1" s="216"/>
-      <c r="AX1" s="216"/>
-      <c r="AY1" s="216"/>
-      <c r="AZ1" s="217"/>
+      <c r="AU1" s="218"/>
+      <c r="AV1" s="218"/>
+      <c r="AW1" s="218"/>
+      <c r="AX1" s="218"/>
+      <c r="AY1" s="218"/>
+      <c r="AZ1" s="219"/>
     </row>
     <row r="2" spans="1:52" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -25643,38 +25643,38 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21</v>
+        <v>K-21</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="222" t="str">
+      <c r="S2" s="224" t="str">
         <f>'１．機能概要'!W2</f>
         <v>その他出庫参照・取消</v>
       </c>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="223"/>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="223"/>
-      <c r="AD2" s="224"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="225"/>
+      <c r="AC2" s="225"/>
+      <c r="AD2" s="226"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="221"/>
-      <c r="AJ2" s="216"/>
-      <c r="AK2" s="216"/>
-      <c r="AL2" s="216"/>
-      <c r="AM2" s="217"/>
+      <c r="AI2" s="223"/>
+      <c r="AJ2" s="218"/>
+      <c r="AK2" s="218"/>
+      <c r="AL2" s="218"/>
+      <c r="AM2" s="219"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -25683,13 +25683,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="216"/>
-      <c r="AV2" s="216"/>
-      <c r="AW2" s="216"/>
-      <c r="AX2" s="216"/>
-      <c r="AY2" s="216"/>
-      <c r="AZ2" s="217"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="218"/>
+      <c r="AV2" s="218"/>
+      <c r="AW2" s="218"/>
+      <c r="AX2" s="218"/>
+      <c r="AY2" s="218"/>
+      <c r="AZ2" s="219"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="56"/>
@@ -26049,7 +26049,7 @@
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
       <c r="T9" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
@@ -26061,7 +26061,7 @@
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
@@ -26147,7 +26147,7 @@
       <c r="R11" s="21"/>
       <c r="S11" s="22"/>
       <c r="T11" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
@@ -26159,7 +26159,7 @@
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
@@ -26254,7 +26254,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
@@ -26266,7 +26266,7 @@
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
@@ -26343,7 +26343,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -26366,7 +26366,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="22"/>
       <c r="T15" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
@@ -26378,7 +26378,7 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
@@ -26455,7 +26455,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -26478,7 +26478,7 @@
       <c r="R17" s="21"/>
       <c r="S17" s="22"/>
       <c r="T17" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
@@ -26490,7 +26490,7 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
       <c r="AD17" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
@@ -26588,7 +26588,7 @@
       <c r="R19" s="21"/>
       <c r="S19" s="22"/>
       <c r="T19" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
@@ -26600,7 +26600,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
@@ -26696,7 +26696,7 @@
       <c r="R21" s="21"/>
       <c r="S21" s="22"/>
       <c r="T21" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
@@ -26708,7 +26708,7 @@
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AE21" s="70"/>
       <c r="AF21" s="70"/>
@@ -26804,7 +26804,7 @@
       <c r="R23" s="21"/>
       <c r="S23" s="22"/>
       <c r="T23" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
@@ -26816,7 +26816,7 @@
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
       <c r="AD23" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AE23" s="70"/>
       <c r="AF23" s="70"/>
@@ -26912,7 +26912,7 @@
       <c r="R25" s="21"/>
       <c r="S25" s="22"/>
       <c r="T25" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U25" s="115"/>
       <c r="V25" s="115"/>
@@ -26924,7 +26924,7 @@
       <c r="AB25" s="115"/>
       <c r="AC25" s="116"/>
       <c r="AD25" s="69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE25" s="70"/>
       <c r="AF25" s="70"/>
@@ -27020,7 +27020,7 @@
       <c r="R27" s="21"/>
       <c r="S27" s="22"/>
       <c r="T27" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U27" s="115"/>
       <c r="V27" s="115"/>
@@ -27032,7 +27032,7 @@
       <c r="AB27" s="115"/>
       <c r="AC27" s="116"/>
       <c r="AD27" s="69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE27" s="70"/>
       <c r="AF27" s="70"/>
@@ -27128,7 +27128,7 @@
       <c r="R29" s="21"/>
       <c r="S29" s="22"/>
       <c r="T29" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U29" s="115"/>
       <c r="V29" s="115"/>
@@ -27140,7 +27140,7 @@
       <c r="AB29" s="115"/>
       <c r="AC29" s="116"/>
       <c r="AD29" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AE29" s="70"/>
       <c r="AF29" s="70"/>
@@ -27231,12 +27231,12 @@
       <c r="O31" s="21"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="145" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R31" s="146"/>
       <c r="S31" s="147"/>
       <c r="T31" s="145" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U31" s="148"/>
       <c r="V31" s="148"/>
@@ -27248,7 +27248,7 @@
       <c r="AB31" s="148"/>
       <c r="AC31" s="149"/>
       <c r="AD31" s="150" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AE31" s="151"/>
       <c r="AF31" s="151"/>
@@ -27554,7 +27554,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
       <c r="T37" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
@@ -27566,7 +27566,7 @@
       <c r="AB37" s="21"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AE37" s="21"/>
       <c r="AF37" s="21"/>
@@ -27659,7 +27659,7 @@
       <c r="R39" s="70"/>
       <c r="S39" s="71"/>
       <c r="T39" s="70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U39" s="70"/>
       <c r="V39" s="70"/>
@@ -27671,7 +27671,7 @@
       <c r="AB39" s="70"/>
       <c r="AC39" s="70"/>
       <c r="AD39" s="69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AE39" s="70"/>
       <c r="AF39" s="70"/>
@@ -31711,14 +31711,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="204">
+      <c r="AI1" s="210">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="223"/>
-      <c r="AK1" s="223"/>
-      <c r="AL1" s="223"/>
-      <c r="AM1" s="224"/>
+      <c r="AJ1" s="225"/>
+      <c r="AK1" s="225"/>
+      <c r="AL1" s="225"/>
+      <c r="AM1" s="226"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -31727,16 +31727,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="207" t="str">
+      <c r="AT1" s="213" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="216"/>
-      <c r="AV1" s="216"/>
-      <c r="AW1" s="216"/>
-      <c r="AX1" s="216"/>
-      <c r="AY1" s="216"/>
-      <c r="AZ1" s="217"/>
+      <c r="AU1" s="218"/>
+      <c r="AV1" s="218"/>
+      <c r="AW1" s="218"/>
+      <c r="AX1" s="218"/>
+      <c r="AY1" s="218"/>
+      <c r="AZ1" s="219"/>
     </row>
     <row r="2" spans="1:52" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -31758,38 +31758,38 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21</v>
+        <v>K-21</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="222" t="str">
+      <c r="S2" s="224" t="str">
         <f>'１．機能概要'!W2</f>
         <v>その他出庫参照・取消</v>
       </c>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="223"/>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="223"/>
-      <c r="AD2" s="224"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="225"/>
+      <c r="AC2" s="225"/>
+      <c r="AD2" s="226"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="221"/>
-      <c r="AJ2" s="216"/>
-      <c r="AK2" s="216"/>
-      <c r="AL2" s="216"/>
-      <c r="AM2" s="217"/>
+      <c r="AI2" s="223"/>
+      <c r="AJ2" s="218"/>
+      <c r="AK2" s="218"/>
+      <c r="AL2" s="218"/>
+      <c r="AM2" s="219"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -31798,13 +31798,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="216"/>
-      <c r="AV2" s="216"/>
-      <c r="AW2" s="216"/>
-      <c r="AX2" s="216"/>
-      <c r="AY2" s="216"/>
-      <c r="AZ2" s="217"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="218"/>
+      <c r="AV2" s="218"/>
+      <c r="AW2" s="218"/>
+      <c r="AX2" s="218"/>
+      <c r="AY2" s="218"/>
+      <c r="AZ2" s="219"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="56"/>
@@ -32084,7 +32084,7 @@
       <c r="A8" s="52"/>
       <c r="B8" s="52"/>
       <c r="C8" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -42900,15 +42900,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -43066,6 +43057,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -43073,14 +43073,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43098,6 +43090,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>

--- a/01_基本設計書/20200220リリース/SC-K21_その他出庫参照・取消.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21_その他出庫参照・取消.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89C008B-8B2B-4116-A355-670CA5E378FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8B74D5-7871-4FE3-8879-B8BE5EFA25A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -101,7 +101,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'１．機能概要'!$A$1:$BG$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'２．レイアウト'!$A$1:$DH$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'５．メッセージ仕様'!$A$1:$AZ$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'６．補足事項'!$A$1:$AZ$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AW$35</definedName>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="366">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1486,24 +1486,6 @@
     <t>・受払データ</t>
   </si>
   <si>
-    <t>・受払データ.受払年月日の年月</t>
-    <rPh sb="13" eb="15">
-      <t>ネンゲツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.受払区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>&lt;登録テーブル&gt;</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>受払データ</t>
   </si>
   <si>
@@ -1512,20 +1494,6 @@
   </si>
   <si>
     <t>個体ＮＯ</t>
-  </si>
-  <si>
-    <t>受払区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>&lt;登録結果&gt;</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>&lt;更新テーブル&gt;</t>
@@ -1563,36 +1531,6 @@
     <t>在庫データ</t>
   </si>
   <si>
-    <t>・受払データ.受払年月日(降順)</t>
-    <rPh sb="13" eb="15">
-      <t>コウジュン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.品名コード(昇順)</t>
-    <rPh sb="13" eb="15">
-      <t>ショウジュン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>失敗時：メッセージを出力し、終了する。</t>
-    <rPh sb="0" eb="2">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>受払データの工程コード</t>
   </si>
   <si>
@@ -1610,10 +1548,6 @@
   </si>
   <si>
     <t>ｘｘ行目 (個体ＮＯ：ｘｘ)を取消します。よろしいですか？</t>
-  </si>
-  <si>
-    <t>受払データ</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>受払データの登録件数が0件の場合</t>
@@ -1670,18 +1604,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>・受払データ.受払年月日</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.個体NO</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.備考</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>品名事業所コード</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1695,26 +1617,6 @@
   </si>
   <si>
     <t>納入区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.品名事業所コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.パック品名略称</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.納入先コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.納入区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.製品半製品区分</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1819,15 +1721,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・受払データ.大工程コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>・工程マスタ.工程略称</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・COUNT(受払データ.個体NO) AS 数量</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1835,20 +1729,9 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・受払データ.払出区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>＜必須＞</t>
     <rPh sb="1" eb="3">
       <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.大工程コード(昇順)</t>
-    <rPh sb="7" eb="8">
-      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1964,10 +1847,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ON 受払データ.大工程コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>工程マスタ.大工程コード</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1979,10 +1858,6 @@
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>'A'：その他払出取消</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2308,26 +2183,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ON 受払データ.品名事業所コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 受払データ.パック品名略称</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 受払データ.納入先コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 受払データ.納入区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND 受払データ.製品半製品区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>・生産品名マスタ.品名略称</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2454,18 +2309,208 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>受払区分以外</t>
-    <rPh sb="4" eb="6">
-      <t>イガイ</t>
+    <t>RSLT-DTL1-010</t>
+  </si>
+  <si>
+    <t>シーケンス(非表示)</t>
+    <rPh sb="6" eb="9">
+      <t>ヒヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>選択したレコードのデータ</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
+    <t>受払データのシーケンス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.シーケンス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.受払年月日</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.個体NO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・COUNT(その他出庫データ.個体NO) AS 数量</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.備考</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・受払区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・受払年月日の年月</t>
+    <rPh sb="7" eb="9">
+      <t>ネンゲツ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・払出区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON その他出庫データ.大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON その他出庫データ.品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND その他出庫データ.パック品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND その他出庫データ.納入先コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND その他出庫データ.納入区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND その他出庫データ.製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.パック品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.納入先コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.納入区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.受払年月日(降順)</t>
+    <rPh sb="16" eb="18">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.大工程コード(昇順)</t>
+    <rPh sb="10" eb="11">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・その他出庫データ.品名コード(昇順)</t>
+    <rPh sb="16" eb="18">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RSLT-DTL1-011</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-012</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-013</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-014</t>
+  </si>
+  <si>
+    <t>RSLT-DTL1-015</t>
+  </si>
+  <si>
+    <t>品名事業所コード(非表示)</t>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パック品名略称(非表示)</t>
+    <rPh sb="8" eb="11">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>納入先コード(非表示)</t>
+    <rPh sb="7" eb="10">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>納入区分(非表示)</t>
+    <rPh sb="5" eb="8">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>製品半製品区分(非表示)</t>
+    <rPh sb="8" eb="11">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受払データの品名事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受払データのパック品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受払データの納入先コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受払データの納入区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受払データの製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・RANKNO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="17"/>
   </si>
 </sst>
 </file>
@@ -2477,7 +2522,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2703,6 +2748,12 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3313,9 +3364,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3347,9 +3395,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3414,6 +3459,12 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8107,14 +8158,14 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="88" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="S2" s="89"/>
       <c r="T2" s="89"/>
       <c r="U2" s="89"/>
       <c r="V2" s="90"/>
       <c r="W2" s="36" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
@@ -9282,7 +9333,7 @@
       <c r="AK34" s="11"/>
       <c r="AL34" s="11"/>
       <c r="AM34" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AN34" s="11"/>
       <c r="AO34" s="11"/>
@@ -10227,7 +10278,7 @@
       <c r="I53" s="80"/>
       <c r="J53" s="112"/>
       <c r="K53" s="111" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L53" s="80"/>
       <c r="M53" s="80"/>
@@ -10307,7 +10358,7 @@
       <c r="I54" s="80"/>
       <c r="J54" s="112"/>
       <c r="K54" s="111" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L54" s="80"/>
       <c r="M54" s="80"/>
@@ -10765,7 +10816,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -10967,8 +11018,8 @@
       <c r="E8" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="132" t="s">
-        <v>279</v>
+      <c r="F8" s="131" t="s">
+        <v>258</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>88</v>
@@ -11066,7 +11117,7 @@
         <v>109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>88</v>
@@ -11115,7 +11166,7 @@
         <v>174</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>88</v>
@@ -11213,7 +11264,7 @@
         <v>111</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>88</v>
@@ -11262,7 +11313,7 @@
         <v>112</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>88</v>
@@ -11308,10 +11359,10 @@
         <v>139</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>88</v>
@@ -11491,7 +11542,7 @@
       <c r="F21" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G21" s="141" t="s">
+      <c r="G21" s="139" t="s">
         <v>89</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -11503,8 +11554,8 @@
       <c r="J21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="140" t="s">
-        <v>332</v>
+      <c r="K21" s="138" t="s">
+        <v>304</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>118</v>
@@ -11534,11 +11585,11 @@
       <c r="D22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="140" t="s">
+      <c r="E22" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="140" t="s">
-        <v>278</v>
+      <c r="F22" s="138" t="s">
+        <v>257</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>89</v>
@@ -11556,7 +11607,7 @@
         <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>43</v>
@@ -11568,7 +11619,7 @@
         <v>34</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -11691,24 +11742,24 @@
       <c r="Q27" s="47"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="128"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="134" t="s">
-        <v>246</v>
-      </c>
-      <c r="F28" s="133" t="s">
-        <v>247</v>
+        <v>228</v>
+      </c>
+      <c r="E28" s="133" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="132" t="s">
+        <v>230</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>142</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>35</v>
@@ -11726,7 +11777,7 @@
         <v>34</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>34</v>
@@ -11735,7 +11786,7 @@
         <v>35</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11745,13 +11796,13 @@
         <v>2</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="141" t="s">
-        <v>276</v>
-      </c>
-      <c r="F29" s="142" t="s">
-        <v>275</v>
+        <v>234</v>
+      </c>
+      <c r="E29" s="139" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="140" t="s">
+        <v>254</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>142</v>
@@ -11781,7 +11832,7 @@
         <v>35</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>35</v>
@@ -11794,12 +11845,12 @@
         <v>3</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E30" s="134" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="132" t="s">
+      <c r="F30" s="131" t="s">
         <v>121</v>
       </c>
       <c r="G30" s="15" t="s">
@@ -11830,7 +11881,7 @@
         <v>35</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>35</v>
@@ -11843,12 +11894,12 @@
         <v>4</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E31" s="134" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="132" t="s">
+      <c r="F31" s="131" t="s">
         <v>123</v>
       </c>
       <c r="G31" s="15" t="s">
@@ -11892,13 +11943,13 @@
         <v>5</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E32" s="134" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="132" t="s">
-        <v>258</v>
+        <v>237</v>
+      </c>
+      <c r="E32" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="131" t="s">
+        <v>241</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>142</v>
@@ -11928,7 +11979,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -11941,13 +11992,13 @@
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E33" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="132" t="s">
-        <v>259</v>
+      <c r="F33" s="131" t="s">
+        <v>242</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>142</v>
@@ -11976,8 +12027,8 @@
       <c r="O33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P33" s="140" t="s">
-        <v>331</v>
+      <c r="P33" s="138" t="s">
+        <v>303</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -11990,13 +12041,13 @@
         <v>7</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="140" t="s">
         <v>256</v>
-      </c>
-      <c r="E34" s="141" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="142" t="s">
-        <v>277</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>142</v>
@@ -12010,8 +12061,8 @@
       <c r="J34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="140" t="s">
-        <v>311</v>
+      <c r="K34" s="138" t="s">
+        <v>288</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>35</v>
@@ -12029,7 +12080,7 @@
         <v>35</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -12039,12 +12090,12 @@
         <v>8</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E35" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="132" t="s">
+      <c r="F35" s="131" t="s">
         <v>101</v>
       </c>
       <c r="G35" s="15" t="s">
@@ -12075,7 +12126,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>35</v>
@@ -12084,68 +12135,362 @@
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="57"/>
-      <c r="C36" s="140">
+      <c r="C36" s="138">
         <v>9</v>
       </c>
-      <c r="D36" s="140" t="s">
-        <v>308</v>
-      </c>
-      <c r="E36" s="141" t="s">
-        <v>310</v>
-      </c>
-      <c r="F36" s="142" t="s">
-        <v>309</v>
-      </c>
-      <c r="G36" s="141" t="s">
+      <c r="D36" s="138" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" s="139" t="s">
+        <v>287</v>
+      </c>
+      <c r="F36" s="140" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="H36" s="140" t="s">
+      <c r="H36" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="I36" s="140" t="s">
+      <c r="I36" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="140" t="s">
+      <c r="J36" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="140" t="s">
+      <c r="K36" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="L36" s="140" t="s">
+      <c r="L36" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="140" t="s">
+      <c r="M36" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="N36" s="140" t="s">
+      <c r="N36" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="O36" s="140" t="s">
+      <c r="O36" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="140" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q36" s="140" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="144"/>
-      <c r="N37" s="143"/>
-      <c r="O37" s="143"/>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="144"/>
+      <c r="P36" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q36" s="138" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="138">
+        <v>10</v>
+      </c>
+      <c r="D37" s="138" t="s">
+        <v>323</v>
+      </c>
+      <c r="E37" s="139" t="s">
+        <v>324</v>
+      </c>
+      <c r="F37" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="139" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="P37" s="138" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q37" s="138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="138">
+        <v>11</v>
+      </c>
+      <c r="D38" s="138" t="s">
+        <v>349</v>
+      </c>
+      <c r="E38" s="139" t="s">
+        <v>354</v>
+      </c>
+      <c r="F38" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="139" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="138" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q38" s="138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="14"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="138">
+        <v>12</v>
+      </c>
+      <c r="D39" s="138" t="s">
+        <v>350</v>
+      </c>
+      <c r="E39" s="139" t="s">
+        <v>355</v>
+      </c>
+      <c r="F39" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="139" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="P39" s="138" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q39" s="138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="138">
+        <v>13</v>
+      </c>
+      <c r="D40" s="138" t="s">
+        <v>351</v>
+      </c>
+      <c r="E40" s="139" t="s">
+        <v>356</v>
+      </c>
+      <c r="F40" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="139" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="P40" s="138" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q40" s="138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="14"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="138">
+        <v>14</v>
+      </c>
+      <c r="D41" s="138" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41" s="139" t="s">
+        <v>357</v>
+      </c>
+      <c r="F41" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="139" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="P41" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q41" s="138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="138">
+        <v>15</v>
+      </c>
+      <c r="D42" s="138" t="s">
+        <v>353</v>
+      </c>
+      <c r="E42" s="139" t="s">
+        <v>358</v>
+      </c>
+      <c r="F42" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="139" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="P42" s="138" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q42" s="138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="142"/>
+      <c r="N43" s="141"/>
+      <c r="O43" s="141"/>
+      <c r="P43" s="141"/>
+      <c r="Q43" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -12200,7 +12545,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ290"/>
+  <dimension ref="A1:AZ285"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -12875,7 +13220,7 @@
       <c r="F15" s="68"/>
       <c r="G15" s="67"/>
       <c r="L15" s="67" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="M15" s="120"/>
       <c r="N15" s="120"/>
@@ -12953,10 +13298,10 @@
       <c r="F17" s="68"/>
       <c r="G17" s="67"/>
       <c r="L17" s="67" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="M17" s="120" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="N17" s="120"/>
       <c r="O17" s="120"/>
@@ -12996,7 +13341,7 @@
       <c r="G18" s="67"/>
       <c r="L18" s="67"/>
       <c r="M18" s="120" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="N18" s="120"/>
       <c r="O18" s="120"/>
@@ -13036,7 +13381,7 @@
       <c r="L19" s="67"/>
       <c r="M19" s="120"/>
       <c r="N19" s="120" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="AL19" s="120"/>
       <c r="AM19" s="120"/>
@@ -13052,7 +13397,7 @@
       <c r="L20" s="67"/>
       <c r="M20" s="120"/>
       <c r="N20" s="120" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="AL20" s="120"/>
       <c r="AM20" s="120"/>
@@ -13069,7 +13414,7 @@
       <c r="L21" s="124"/>
       <c r="M21" s="120"/>
       <c r="N21" s="120" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="O21" s="120"/>
       <c r="P21" s="120"/>
@@ -13093,15 +13438,15 @@
       <c r="K22" s="68"/>
       <c r="L22" s="124"/>
       <c r="M22" s="120"/>
-      <c r="N22" s="129" t="s">
-        <v>339</v>
-      </c>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="129"/>
+      <c r="N22" s="128" t="s">
+        <v>311</v>
+      </c>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
       <c r="U22" s="125"/>
       <c r="V22" s="120"/>
       <c r="W22" s="120"/>
@@ -13119,7 +13464,7 @@
       <c r="L23" s="124"/>
       <c r="M23" s="120"/>
       <c r="N23" s="120" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="O23" s="120"/>
       <c r="P23" s="120"/>
@@ -13144,7 +13489,7 @@
       <c r="L24" s="124"/>
       <c r="M24" s="120"/>
       <c r="N24" s="120" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="O24" s="120"/>
       <c r="P24" s="120"/>
@@ -13169,7 +13514,7 @@
       <c r="L25" s="124"/>
       <c r="M25" s="120"/>
       <c r="N25" s="120" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="O25" s="120"/>
       <c r="P25" s="120"/>
@@ -13194,7 +13539,7 @@
       <c r="L26" s="124"/>
       <c r="M26" s="120"/>
       <c r="N26" s="120" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="O26" s="120"/>
       <c r="P26" s="120"/>
@@ -13219,7 +13564,7 @@
       <c r="L27" s="124"/>
       <c r="M27" s="120"/>
       <c r="N27" s="120" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="O27" s="120"/>
       <c r="P27" s="120"/>
@@ -13244,7 +13589,7 @@
       <c r="L28" s="124"/>
       <c r="M28" s="120"/>
       <c r="N28" s="120" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="O28" s="120"/>
       <c r="P28" s="120"/>
@@ -13269,7 +13614,7 @@
       <c r="L29" s="124"/>
       <c r="M29" s="120"/>
       <c r="N29" s="120" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
@@ -13329,7 +13674,7 @@
       <c r="G31" s="67"/>
       <c r="L31" s="67"/>
       <c r="M31" s="120" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="N31" s="120"/>
       <c r="O31" s="120"/>
@@ -13368,7 +13713,7 @@
       <c r="G32" s="67"/>
       <c r="L32" s="67"/>
       <c r="N32" s="120" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="O32" s="120"/>
       <c r="P32" s="120"/>
@@ -13444,7 +13789,7 @@
       <c r="K34" s="68"/>
       <c r="L34" s="124"/>
       <c r="M34" s="120" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="N34" s="120"/>
       <c r="O34" s="120"/>
@@ -13479,7 +13824,7 @@
       <c r="K35" s="68"/>
       <c r="L35" s="124"/>
       <c r="N35" s="120" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="O35" s="120"/>
       <c r="P35" s="120"/>
@@ -13494,7 +13839,7 @@
         <v>150</v>
       </c>
       <c r="Z35" s="120" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="AA35" s="120"/>
       <c r="AB35" s="120"/>
@@ -13512,37 +13857,37 @@
       <c r="G36" s="67"/>
       <c r="K36" s="68"/>
       <c r="L36" s="122"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="131"/>
-      <c r="R36" s="131"/>
-      <c r="S36" s="131"/>
-      <c r="T36" s="131"/>
-      <c r="U36" s="131"/>
-      <c r="V36" s="131"/>
-      <c r="W36" s="131"/>
-      <c r="X36" s="131"/>
-      <c r="Y36" s="131"/>
-      <c r="Z36" s="131"/>
-      <c r="AA36" s="131"/>
-      <c r="AB36" s="131"/>
-      <c r="AC36" s="131"/>
-      <c r="AD36" s="131"/>
-      <c r="AE36" s="131"/>
-      <c r="AF36" s="131"/>
-      <c r="AG36" s="131"/>
-      <c r="AH36" s="131"/>
-      <c r="AI36" s="131"/>
-      <c r="AJ36" s="131"/>
-      <c r="AK36" s="131"/>
-      <c r="AL36" s="131"/>
-      <c r="AM36" s="131"/>
-      <c r="AN36" s="131"/>
-      <c r="AO36" s="131"/>
-      <c r="AP36" s="131"/>
-      <c r="AQ36" s="131"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="130"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="130"/>
+      <c r="T36" s="130"/>
+      <c r="U36" s="130"/>
+      <c r="V36" s="130"/>
+      <c r="W36" s="130"/>
+      <c r="X36" s="130"/>
+      <c r="Y36" s="130"/>
+      <c r="Z36" s="130"/>
+      <c r="AA36" s="130"/>
+      <c r="AB36" s="130"/>
+      <c r="AC36" s="130"/>
+      <c r="AD36" s="130"/>
+      <c r="AE36" s="130"/>
+      <c r="AF36" s="130"/>
+      <c r="AG36" s="130"/>
+      <c r="AH36" s="130"/>
+      <c r="AI36" s="130"/>
+      <c r="AJ36" s="130"/>
+      <c r="AK36" s="130"/>
+      <c r="AL36" s="130"/>
+      <c r="AM36" s="130"/>
+      <c r="AN36" s="130"/>
+      <c r="AO36" s="130"/>
+      <c r="AP36" s="130"/>
+      <c r="AQ36" s="130"/>
       <c r="AV36" s="68"/>
     </row>
     <row r="37" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -13551,10 +13896,10 @@
       <c r="F37" s="68"/>
       <c r="G37" s="67"/>
       <c r="L37" s="67" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="M37" s="120" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="N37" s="120"/>
       <c r="O37" s="120"/>
@@ -13594,7 +13939,7 @@
       <c r="G38" s="67"/>
       <c r="L38" s="67"/>
       <c r="M38" s="120" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="N38" s="120"/>
       <c r="O38" s="120"/>
@@ -13634,7 +13979,7 @@
       <c r="L39" s="67"/>
       <c r="M39" s="120"/>
       <c r="N39" s="120" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="AL39" s="120"/>
       <c r="AM39" s="120"/>
@@ -13651,7 +13996,7 @@
       <c r="L40" s="124"/>
       <c r="M40" s="120"/>
       <c r="N40" s="120" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="O40" s="120"/>
       <c r="P40" s="120"/>
@@ -13675,15 +14020,15 @@
       <c r="K41" s="68"/>
       <c r="L41" s="124"/>
       <c r="M41" s="120"/>
-      <c r="N41" s="129" t="s">
-        <v>339</v>
-      </c>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="129"/>
-      <c r="T41" s="129"/>
+      <c r="N41" s="128" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" s="128"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="128"/>
+      <c r="R41" s="128"/>
+      <c r="S41" s="128"/>
+      <c r="T41" s="128"/>
       <c r="U41" s="125"/>
       <c r="V41" s="120"/>
       <c r="W41" s="120"/>
@@ -13701,7 +14046,7 @@
       <c r="L42" s="124"/>
       <c r="M42" s="120"/>
       <c r="N42" s="120" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="O42" s="120"/>
       <c r="P42" s="120"/>
@@ -13726,7 +14071,7 @@
       <c r="L43" s="124"/>
       <c r="M43" s="120"/>
       <c r="N43" s="120" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="O43" s="120"/>
       <c r="P43" s="120"/>
@@ -13751,7 +14096,7 @@
       <c r="L44" s="124"/>
       <c r="M44" s="120"/>
       <c r="N44" s="120" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="O44" s="120"/>
       <c r="P44" s="120"/>
@@ -13776,7 +14121,7 @@
       <c r="L45" s="124"/>
       <c r="M45" s="120"/>
       <c r="N45" s="120" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="O45" s="120"/>
       <c r="P45" s="120"/>
@@ -13801,7 +14146,7 @@
       <c r="L46" s="124"/>
       <c r="M46" s="120"/>
       <c r="N46" s="120" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="O46" s="120"/>
       <c r="P46" s="120"/>
@@ -13826,7 +14171,7 @@
       <c r="L47" s="124"/>
       <c r="M47" s="120"/>
       <c r="N47" s="120" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="O47" s="120"/>
       <c r="P47" s="120"/>
@@ -13851,7 +14196,7 @@
       <c r="L48" s="124"/>
       <c r="M48" s="120"/>
       <c r="N48" s="120" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="O48" s="120"/>
       <c r="P48" s="120"/>
@@ -13911,7 +14256,7 @@
       <c r="G50" s="67"/>
       <c r="L50" s="67"/>
       <c r="M50" s="120" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="N50" s="120"/>
       <c r="O50" s="120"/>
@@ -13950,7 +14295,7 @@
       <c r="G51" s="67"/>
       <c r="L51" s="67"/>
       <c r="N51" s="120" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="O51" s="120"/>
       <c r="P51" s="120"/>
@@ -14022,7 +14367,7 @@
       <c r="K53" s="68"/>
       <c r="L53" s="124"/>
       <c r="M53" s="120" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="N53" s="120"/>
       <c r="O53" s="120"/>
@@ -14049,7 +14394,7 @@
       <c r="AJ53" s="120"/>
       <c r="AV53" s="68"/>
     </row>
-    <row r="54" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:48" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B54" s="67"/>
       <c r="C54" s="67"/>
       <c r="F54" s="68"/>
@@ -14057,7 +14402,7 @@
       <c r="K54" s="68"/>
       <c r="L54" s="124"/>
       <c r="N54" s="120" t="s">
-        <v>196</v>
+        <v>364</v>
       </c>
       <c r="O54" s="120"/>
       <c r="P54" s="120"/>
@@ -14071,8 +14416,8 @@
       <c r="Y54" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="Z54" s="130" t="s">
-        <v>283</v>
+      <c r="Z54" s="129" t="s">
+        <v>365</v>
       </c>
       <c r="AA54" s="120"/>
       <c r="AB54" s="120"/>
@@ -14091,7 +14436,7 @@
       <c r="K55" s="68"/>
       <c r="L55" s="124"/>
       <c r="N55" s="120" t="s">
-        <v>195</v>
+        <v>332</v>
       </c>
       <c r="O55" s="120"/>
       <c r="P55" s="120"/>
@@ -14105,15 +14450,12 @@
       <c r="Y55" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="Z55" s="120" t="s">
-        <v>292</v>
+      <c r="Z55" s="129" t="s">
+        <v>262</v>
       </c>
       <c r="AA55" s="120"/>
       <c r="AB55" s="120"/>
       <c r="AC55" s="120"/>
-      <c r="AF55" s="16" t="s">
-        <v>267</v>
-      </c>
       <c r="AG55" s="120"/>
       <c r="AH55" s="120"/>
       <c r="AI55" s="120"/>
@@ -14128,7 +14470,7 @@
       <c r="K56" s="68"/>
       <c r="L56" s="124"/>
       <c r="N56" s="120" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
@@ -14143,13 +14485,13 @@
         <v>150</v>
       </c>
       <c r="Z56" s="120" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="AA56" s="120"/>
       <c r="AB56" s="120"/>
       <c r="AC56" s="120"/>
       <c r="AF56" s="16" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="AG56" s="120"/>
       <c r="AH56" s="120"/>
@@ -14162,8 +14504,11 @@
       <c r="C57" s="67"/>
       <c r="F57" s="68"/>
       <c r="G57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="N57" s="120"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="124"/>
+      <c r="N57" s="120" t="s">
+        <v>334</v>
+      </c>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
       <c r="Q57" s="120"/>
@@ -14173,24 +14518,22 @@
       <c r="U57" s="120"/>
       <c r="V57" s="120"/>
       <c r="W57" s="120"/>
-      <c r="X57" s="120"/>
-      <c r="Y57" s="120"/>
-      <c r="Z57" s="120"/>
+      <c r="Y57" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z57" s="120" t="s">
+        <v>270</v>
+      </c>
       <c r="AA57" s="120"/>
       <c r="AB57" s="120"/>
       <c r="AC57" s="120"/>
-      <c r="AD57" s="120"/>
-      <c r="AE57" s="120"/>
-      <c r="AF57" s="120"/>
+      <c r="AF57" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="AG57" s="120"/>
       <c r="AH57" s="120"/>
       <c r="AI57" s="120"/>
-      <c r="AJ57" s="120"/>
-      <c r="AK57" s="120"/>
-      <c r="AL57" s="120"/>
-      <c r="AM57" s="120"/>
-      <c r="AO57" s="120"/>
-      <c r="AP57" s="120"/>
+      <c r="AJ57" s="121"/>
       <c r="AV57" s="68"/>
     </row>
     <row r="58" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14198,41 +14541,35 @@
       <c r="C58" s="67"/>
       <c r="F58" s="68"/>
       <c r="G58" s="67"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="122" t="s">
-        <v>284</v>
-      </c>
-      <c r="M58" s="131"/>
-      <c r="N58" s="131"/>
-      <c r="O58" s="131"/>
-      <c r="P58" s="131"/>
-      <c r="Q58" s="131"/>
-      <c r="R58" s="131"/>
-      <c r="S58" s="131"/>
-      <c r="T58" s="131"/>
-      <c r="U58" s="131"/>
-      <c r="V58" s="131"/>
-      <c r="W58" s="131"/>
-      <c r="X58" s="131"/>
-      <c r="Y58" s="131"/>
-      <c r="Z58" s="131"/>
-      <c r="AA58" s="131"/>
-      <c r="AB58" s="131"/>
-      <c r="AC58" s="131"/>
-      <c r="AD58" s="131"/>
-      <c r="AE58" s="131"/>
-      <c r="AF58" s="131"/>
-      <c r="AG58" s="131"/>
-      <c r="AH58" s="131"/>
-      <c r="AI58" s="131"/>
-      <c r="AJ58" s="131"/>
-      <c r="AK58" s="131"/>
-      <c r="AL58" s="131"/>
-      <c r="AM58" s="131"/>
-      <c r="AN58" s="131"/>
-      <c r="AO58" s="131"/>
-      <c r="AP58" s="131"/>
-      <c r="AQ58" s="131"/>
+      <c r="L58" s="67"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="120"/>
+      <c r="P58" s="120"/>
+      <c r="Q58" s="120"/>
+      <c r="R58" s="120"/>
+      <c r="S58" s="120"/>
+      <c r="T58" s="120"/>
+      <c r="U58" s="120"/>
+      <c r="V58" s="120"/>
+      <c r="W58" s="120"/>
+      <c r="X58" s="120"/>
+      <c r="Y58" s="120"/>
+      <c r="Z58" s="120"/>
+      <c r="AA58" s="120"/>
+      <c r="AB58" s="120"/>
+      <c r="AC58" s="120"/>
+      <c r="AD58" s="120"/>
+      <c r="AE58" s="120"/>
+      <c r="AF58" s="120"/>
+      <c r="AG58" s="120"/>
+      <c r="AH58" s="120"/>
+      <c r="AI58" s="120"/>
+      <c r="AJ58" s="120"/>
+      <c r="AK58" s="120"/>
+      <c r="AL58" s="120"/>
+      <c r="AM58" s="120"/>
+      <c r="AO58" s="120"/>
+      <c r="AP58" s="120"/>
       <c r="AV58" s="68"/>
     </row>
     <row r="59" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14240,20 +14577,41 @@
       <c r="C59" s="67"/>
       <c r="F59" s="68"/>
       <c r="G59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="120" t="s">
-        <v>226</v>
-      </c>
-      <c r="N59" s="120"/>
-      <c r="O59" s="120"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="120"/>
-      <c r="R59" s="120"/>
-      <c r="S59" s="120"/>
-      <c r="T59" s="120"/>
-      <c r="U59" s="120"/>
-      <c r="V59" s="120"/>
-      <c r="W59" s="120"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="M59" s="130"/>
+      <c r="N59" s="130"/>
+      <c r="O59" s="130"/>
+      <c r="P59" s="130"/>
+      <c r="Q59" s="130"/>
+      <c r="R59" s="130"/>
+      <c r="S59" s="130"/>
+      <c r="T59" s="130"/>
+      <c r="U59" s="130"/>
+      <c r="V59" s="130"/>
+      <c r="W59" s="130"/>
+      <c r="X59" s="130"/>
+      <c r="Y59" s="130"/>
+      <c r="Z59" s="130"/>
+      <c r="AA59" s="130"/>
+      <c r="AB59" s="130"/>
+      <c r="AC59" s="130"/>
+      <c r="AD59" s="130"/>
+      <c r="AE59" s="130"/>
+      <c r="AF59" s="130"/>
+      <c r="AG59" s="130"/>
+      <c r="AH59" s="130"/>
+      <c r="AI59" s="130"/>
+      <c r="AJ59" s="130"/>
+      <c r="AK59" s="130"/>
+      <c r="AL59" s="130"/>
+      <c r="AM59" s="130"/>
+      <c r="AN59" s="130"/>
+      <c r="AO59" s="130"/>
+      <c r="AP59" s="130"/>
+      <c r="AQ59" s="130"/>
       <c r="AV59" s="68"/>
     </row>
     <row r="60" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14261,12 +14619,11 @@
       <c r="C60" s="67"/>
       <c r="F60" s="68"/>
       <c r="G60" s="67"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="124"/>
-      <c r="M60" s="120"/>
-      <c r="N60" s="120" t="s">
-        <v>227</v>
-      </c>
+      <c r="L60" s="67"/>
+      <c r="M60" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="N60" s="120"/>
       <c r="O60" s="120"/>
       <c r="P60" s="120"/>
       <c r="Q60" s="120"/>
@@ -14276,9 +14633,6 @@
       <c r="U60" s="120"/>
       <c r="V60" s="120"/>
       <c r="W60" s="120"/>
-      <c r="AN60" s="120"/>
-      <c r="AO60" s="120"/>
-      <c r="AP60" s="120"/>
       <c r="AV60" s="68"/>
     </row>
     <row r="61" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14289,16 +14643,16 @@
       <c r="K61" s="68"/>
       <c r="L61" s="124"/>
       <c r="M61" s="120"/>
-      <c r="N61" s="129" t="s">
-        <v>262</v>
-      </c>
-      <c r="O61" s="129"/>
-      <c r="P61" s="129"/>
-      <c r="Q61" s="129"/>
-      <c r="R61" s="129"/>
-      <c r="S61" s="129"/>
-      <c r="T61" s="129"/>
-      <c r="U61" s="125"/>
+      <c r="N61" s="120" t="s">
+        <v>326</v>
+      </c>
+      <c r="O61" s="120"/>
+      <c r="P61" s="120"/>
+      <c r="Q61" s="120"/>
+      <c r="R61" s="120"/>
+      <c r="S61" s="120"/>
+      <c r="T61" s="120"/>
+      <c r="U61" s="120"/>
       <c r="V61" s="120"/>
       <c r="W61" s="120"/>
       <c r="AN61" s="120"/>
@@ -14314,16 +14668,16 @@
       <c r="K62" s="68"/>
       <c r="L62" s="124"/>
       <c r="M62" s="120"/>
-      <c r="N62" s="129" t="s">
-        <v>263</v>
-      </c>
-      <c r="O62" s="129"/>
-      <c r="P62" s="129"/>
-      <c r="Q62" s="129"/>
-      <c r="R62" s="129"/>
-      <c r="S62" s="129"/>
-      <c r="T62" s="129"/>
-      <c r="U62" s="125"/>
+      <c r="N62" s="120" t="s">
+        <v>327</v>
+      </c>
+      <c r="O62" s="120"/>
+      <c r="P62" s="120"/>
+      <c r="Q62" s="120"/>
+      <c r="R62" s="120"/>
+      <c r="S62" s="120"/>
+      <c r="T62" s="120"/>
+      <c r="U62" s="120"/>
       <c r="V62" s="120"/>
       <c r="W62" s="120"/>
       <c r="AN62" s="120"/>
@@ -14339,16 +14693,16 @@
       <c r="K63" s="68"/>
       <c r="L63" s="124"/>
       <c r="M63" s="120"/>
-      <c r="N63" s="120" t="s">
-        <v>228</v>
-      </c>
-      <c r="O63" s="120"/>
-      <c r="P63" s="120"/>
-      <c r="Q63" s="120"/>
-      <c r="R63" s="120"/>
-      <c r="S63" s="120"/>
-      <c r="T63" s="120"/>
-      <c r="U63" s="120"/>
+      <c r="N63" s="128" t="s">
+        <v>328</v>
+      </c>
+      <c r="O63" s="128"/>
+      <c r="P63" s="128"/>
+      <c r="Q63" s="128"/>
+      <c r="R63" s="128"/>
+      <c r="S63" s="128"/>
+      <c r="T63" s="128"/>
+      <c r="U63" s="125"/>
       <c r="V63" s="120"/>
       <c r="W63" s="120"/>
       <c r="AN63" s="120"/>
@@ -14364,16 +14718,16 @@
       <c r="K64" s="68"/>
       <c r="L64" s="124"/>
       <c r="M64" s="120"/>
-      <c r="N64" s="129" t="s">
-        <v>330</v>
-      </c>
-      <c r="O64" s="120"/>
-      <c r="P64" s="120"/>
-      <c r="Q64" s="120"/>
-      <c r="R64" s="120"/>
-      <c r="S64" s="120"/>
-      <c r="T64" s="120"/>
-      <c r="U64" s="120"/>
+      <c r="N64" s="128" t="s">
+        <v>245</v>
+      </c>
+      <c r="O64" s="128"/>
+      <c r="P64" s="128"/>
+      <c r="Q64" s="128"/>
+      <c r="R64" s="128"/>
+      <c r="S64" s="128"/>
+      <c r="T64" s="128"/>
+      <c r="U64" s="125"/>
       <c r="V64" s="120"/>
       <c r="W64" s="120"/>
       <c r="AN64" s="120"/>
@@ -14390,7 +14744,7 @@
       <c r="L65" s="124"/>
       <c r="M65" s="120"/>
       <c r="N65" s="120" t="s">
-        <v>264</v>
+        <v>329</v>
       </c>
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
@@ -14414,8 +14768,8 @@
       <c r="K66" s="68"/>
       <c r="L66" s="124"/>
       <c r="M66" s="120"/>
-      <c r="N66" s="120" t="s">
-        <v>229</v>
+      <c r="N66" s="128" t="s">
+        <v>302</v>
       </c>
       <c r="O66" s="120"/>
       <c r="P66" s="120"/>
@@ -14439,7 +14793,9 @@
       <c r="K67" s="68"/>
       <c r="L67" s="124"/>
       <c r="M67" s="120"/>
-      <c r="N67" s="120"/>
+      <c r="N67" s="120" t="s">
+        <v>330</v>
+      </c>
       <c r="O67" s="120"/>
       <c r="P67" s="120"/>
       <c r="Q67" s="120"/>
@@ -14461,10 +14817,10 @@
       <c r="G68" s="67"/>
       <c r="K68" s="68"/>
       <c r="L68" s="124"/>
-      <c r="M68" s="120" t="s">
-        <v>225</v>
-      </c>
-      <c r="N68" s="120"/>
+      <c r="M68" s="120"/>
+      <c r="N68" s="120" t="s">
+        <v>331</v>
+      </c>
       <c r="O68" s="120"/>
       <c r="P68" s="120"/>
       <c r="Q68" s="120"/>
@@ -14474,22 +14830,9 @@
       <c r="U68" s="120"/>
       <c r="V68" s="120"/>
       <c r="W68" s="120"/>
-      <c r="X68" s="120"/>
-      <c r="Y68" s="120"/>
-      <c r="Z68" s="120"/>
-      <c r="AA68" s="120"/>
-      <c r="AB68" s="120"/>
-      <c r="AC68" s="120"/>
-      <c r="AD68" s="120"/>
-      <c r="AE68" s="120"/>
-      <c r="AF68" s="120"/>
-      <c r="AG68" s="120"/>
-      <c r="AH68" s="120"/>
-      <c r="AI68" s="120"/>
-      <c r="AJ68" s="120"/>
-      <c r="AK68" s="120"/>
-      <c r="AL68" s="120"/>
-      <c r="AM68" s="120"/>
+      <c r="AN68" s="120"/>
+      <c r="AO68" s="120"/>
+      <c r="AP68" s="120"/>
       <c r="AV68" s="68"/>
     </row>
     <row r="69" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14499,9 +14842,8 @@
       <c r="G69" s="67"/>
       <c r="K69" s="68"/>
       <c r="L69" s="124"/>
-      <c r="N69" s="120" t="s">
-        <v>349</v>
-      </c>
+      <c r="M69" s="120"/>
+      <c r="N69" s="120"/>
       <c r="O69" s="120"/>
       <c r="P69" s="120"/>
       <c r="Q69" s="120"/>
@@ -14511,22 +14853,9 @@
       <c r="U69" s="120"/>
       <c r="V69" s="120"/>
       <c r="W69" s="120"/>
-      <c r="X69" s="120"/>
-      <c r="Y69" s="120"/>
-      <c r="Z69" s="120"/>
-      <c r="AA69" s="120"/>
-      <c r="AB69" s="120"/>
-      <c r="AC69" s="120"/>
-      <c r="AD69" s="120"/>
-      <c r="AE69" s="120"/>
-      <c r="AF69" s="120"/>
-      <c r="AG69" s="120"/>
-      <c r="AH69" s="120"/>
-      <c r="AI69" s="120"/>
-      <c r="AJ69" s="120"/>
-      <c r="AK69" s="120"/>
-      <c r="AL69" s="120"/>
-      <c r="AM69" s="120"/>
+      <c r="AN69" s="120"/>
+      <c r="AO69" s="120"/>
+      <c r="AP69" s="120"/>
       <c r="AV69" s="68"/>
     </row>
     <row r="70" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14536,10 +14865,35 @@
       <c r="G70" s="67"/>
       <c r="K70" s="68"/>
       <c r="L70" s="124"/>
-      <c r="N70" s="16" t="s">
-        <v>265</v>
-      </c>
+      <c r="M70" s="120" t="s">
+        <v>216</v>
+      </c>
+      <c r="N70" s="120"/>
+      <c r="O70" s="120"/>
+      <c r="P70" s="120"/>
+      <c r="Q70" s="120"/>
+      <c r="R70" s="120"/>
+      <c r="S70" s="120"/>
+      <c r="T70" s="120"/>
+      <c r="U70" s="120"/>
+      <c r="V70" s="120"/>
+      <c r="W70" s="120"/>
+      <c r="X70" s="120"/>
       <c r="Y70" s="120"/>
+      <c r="Z70" s="120"/>
+      <c r="AA70" s="120"/>
+      <c r="AB70" s="120"/>
+      <c r="AC70" s="120"/>
+      <c r="AD70" s="120"/>
+      <c r="AE70" s="120"/>
+      <c r="AF70" s="120"/>
+      <c r="AG70" s="120"/>
+      <c r="AH70" s="120"/>
+      <c r="AI70" s="120"/>
+      <c r="AJ70" s="120"/>
+      <c r="AK70" s="120"/>
+      <c r="AL70" s="120"/>
+      <c r="AM70" s="120"/>
       <c r="AV70" s="68"/>
     </row>
     <row r="71" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14549,15 +14903,34 @@
       <c r="G71" s="67"/>
       <c r="K71" s="68"/>
       <c r="L71" s="124"/>
-      <c r="O71" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y71" s="120" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z71" s="16" t="s">
-        <v>288</v>
-      </c>
+      <c r="N71" s="120" t="s">
+        <v>321</v>
+      </c>
+      <c r="O71" s="120"/>
+      <c r="P71" s="120"/>
+      <c r="Q71" s="120"/>
+      <c r="R71" s="120"/>
+      <c r="S71" s="120"/>
+      <c r="T71" s="120"/>
+      <c r="U71" s="120"/>
+      <c r="V71" s="120"/>
+      <c r="W71" s="120"/>
+      <c r="X71" s="120"/>
+      <c r="Y71" s="120"/>
+      <c r="Z71" s="120"/>
+      <c r="AA71" s="120"/>
+      <c r="AB71" s="120"/>
+      <c r="AC71" s="120"/>
+      <c r="AD71" s="120"/>
+      <c r="AE71" s="120"/>
+      <c r="AF71" s="120"/>
+      <c r="AG71" s="120"/>
+      <c r="AH71" s="120"/>
+      <c r="AI71" s="120"/>
+      <c r="AJ71" s="120"/>
+      <c r="AK71" s="120"/>
+      <c r="AL71" s="120"/>
+      <c r="AM71" s="120"/>
       <c r="AV71" s="68"/>
     </row>
     <row r="72" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14565,19 +14938,12 @@
       <c r="C72" s="67"/>
       <c r="F72" s="68"/>
       <c r="G72" s="67"/>
-      <c r="L72" s="67"/>
-      <c r="N72" s="129" t="s">
-        <v>319</v>
-      </c>
-      <c r="O72" s="129"/>
-      <c r="P72" s="129"/>
-      <c r="Q72" s="129"/>
-      <c r="R72" s="129"/>
-      <c r="S72" s="129"/>
-      <c r="T72" s="129"/>
-      <c r="U72" s="129"/>
-      <c r="V72" s="129"/>
-      <c r="W72" s="129"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="124"/>
+      <c r="N72" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y72" s="120"/>
       <c r="AV72" s="68"/>
     </row>
     <row r="73" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14585,23 +14951,16 @@
       <c r="C73" s="67"/>
       <c r="F73" s="68"/>
       <c r="G73" s="67"/>
-      <c r="L73" s="67"/>
-      <c r="N73" s="129"/>
-      <c r="O73" s="129" t="s">
-        <v>325</v>
-      </c>
-      <c r="P73" s="129"/>
-      <c r="Q73" s="129"/>
-      <c r="R73" s="129"/>
-      <c r="S73" s="129"/>
-      <c r="T73" s="129"/>
-      <c r="U73" s="129"/>
-      <c r="V73" s="129"/>
-      <c r="Y73" s="129" t="s">
+      <c r="K73" s="68"/>
+      <c r="L73" s="124"/>
+      <c r="O73" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y73" s="120" t="s">
         <v>150</v>
       </c>
       <c r="Z73" s="16" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="AV73" s="68"/>
     </row>
@@ -14611,23 +14970,18 @@
       <c r="F74" s="68"/>
       <c r="G74" s="67"/>
       <c r="L74" s="67"/>
-      <c r="N74" s="129"/>
-      <c r="O74" s="129" t="s">
-        <v>326</v>
-      </c>
-      <c r="P74" s="129"/>
-      <c r="Q74" s="129"/>
-      <c r="R74" s="129"/>
-      <c r="S74" s="129"/>
-      <c r="T74" s="129"/>
-      <c r="U74" s="129"/>
-      <c r="V74" s="129"/>
-      <c r="Y74" s="129" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z74" s="16" t="s">
-        <v>321</v>
-      </c>
+      <c r="N74" s="128" t="s">
+        <v>296</v>
+      </c>
+      <c r="O74" s="128"/>
+      <c r="P74" s="128"/>
+      <c r="Q74" s="128"/>
+      <c r="R74" s="128"/>
+      <c r="S74" s="128"/>
+      <c r="T74" s="128"/>
+      <c r="U74" s="128"/>
+      <c r="V74" s="128"/>
+      <c r="W74" s="128"/>
       <c r="AV74" s="68"/>
     </row>
     <row r="75" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14636,22 +14990,22 @@
       <c r="F75" s="68"/>
       <c r="G75" s="67"/>
       <c r="L75" s="67"/>
-      <c r="N75" s="129"/>
-      <c r="O75" s="129" t="s">
-        <v>327</v>
-      </c>
-      <c r="P75" s="129"/>
-      <c r="Q75" s="129"/>
-      <c r="R75" s="129"/>
-      <c r="S75" s="129"/>
-      <c r="T75" s="129"/>
-      <c r="U75" s="129"/>
-      <c r="V75" s="129"/>
-      <c r="Y75" s="129" t="s">
+      <c r="N75" s="128"/>
+      <c r="O75" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="P75" s="128"/>
+      <c r="Q75" s="128"/>
+      <c r="R75" s="128"/>
+      <c r="S75" s="128"/>
+      <c r="T75" s="128"/>
+      <c r="U75" s="128"/>
+      <c r="V75" s="128"/>
+      <c r="Y75" s="128" t="s">
         <v>150</v>
       </c>
       <c r="Z75" s="16" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="AV75" s="68"/>
     </row>
@@ -14661,22 +15015,22 @@
       <c r="F76" s="68"/>
       <c r="G76" s="67"/>
       <c r="L76" s="67"/>
-      <c r="N76" s="129"/>
-      <c r="O76" s="129" t="s">
-        <v>328</v>
-      </c>
-      <c r="P76" s="129"/>
-      <c r="Q76" s="129"/>
-      <c r="R76" s="129"/>
-      <c r="S76" s="129"/>
-      <c r="T76" s="129"/>
-      <c r="U76" s="129"/>
-      <c r="V76" s="129"/>
-      <c r="Y76" s="129" t="s">
+      <c r="N76" s="128"/>
+      <c r="O76" s="128" t="s">
+        <v>337</v>
+      </c>
+      <c r="P76" s="128"/>
+      <c r="Q76" s="128"/>
+      <c r="R76" s="128"/>
+      <c r="S76" s="128"/>
+      <c r="T76" s="128"/>
+      <c r="U76" s="128"/>
+      <c r="V76" s="128"/>
+      <c r="Y76" s="128" t="s">
         <v>150</v>
       </c>
       <c r="Z76" s="16" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="AV76" s="68"/>
     </row>
@@ -14686,22 +15040,22 @@
       <c r="F77" s="68"/>
       <c r="G77" s="67"/>
       <c r="L77" s="67"/>
-      <c r="N77" s="129"/>
-      <c r="O77" s="129" t="s">
-        <v>329</v>
-      </c>
-      <c r="P77" s="129"/>
-      <c r="Q77" s="129"/>
-      <c r="R77" s="129"/>
-      <c r="S77" s="129"/>
-      <c r="T77" s="129"/>
-      <c r="U77" s="129"/>
-      <c r="V77" s="129"/>
-      <c r="Y77" s="129" t="s">
+      <c r="N77" s="128"/>
+      <c r="O77" s="128" t="s">
+        <v>338</v>
+      </c>
+      <c r="P77" s="128"/>
+      <c r="Q77" s="128"/>
+      <c r="R77" s="128"/>
+      <c r="S77" s="128"/>
+      <c r="T77" s="128"/>
+      <c r="U77" s="128"/>
+      <c r="V77" s="128"/>
+      <c r="Y77" s="128" t="s">
         <v>150</v>
       </c>
       <c r="Z77" s="16" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="AV77" s="68"/>
     </row>
@@ -14710,8 +15064,24 @@
       <c r="C78" s="67"/>
       <c r="F78" s="68"/>
       <c r="G78" s="67"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="124"/>
+      <c r="L78" s="67"/>
+      <c r="N78" s="128"/>
+      <c r="O78" s="128" t="s">
+        <v>339</v>
+      </c>
+      <c r="P78" s="128"/>
+      <c r="Q78" s="128"/>
+      <c r="R78" s="128"/>
+      <c r="S78" s="128"/>
+      <c r="T78" s="128"/>
+      <c r="U78" s="128"/>
+      <c r="V78" s="128"/>
+      <c r="Y78" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z78" s="16" t="s">
+        <v>300</v>
+      </c>
       <c r="AV78" s="68"/>
     </row>
     <row r="79" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14719,34 +15089,24 @@
       <c r="C79" s="67"/>
       <c r="F79" s="68"/>
       <c r="G79" s="67"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="124"/>
-      <c r="M79" s="120" t="s">
-        <v>269</v>
-      </c>
-      <c r="N79" s="120"/>
-      <c r="O79" s="120"/>
-      <c r="P79" s="120"/>
-      <c r="Q79" s="120"/>
-      <c r="R79" s="120"/>
-      <c r="S79" s="120"/>
-      <c r="T79" s="120"/>
-      <c r="U79" s="120"/>
-      <c r="V79" s="120"/>
-      <c r="W79" s="120"/>
-      <c r="X79" s="120"/>
-      <c r="Y79" s="120"/>
-      <c r="Z79" s="120"/>
-      <c r="AA79" s="120"/>
-      <c r="AB79" s="120"/>
-      <c r="AC79" s="120"/>
-      <c r="AD79" s="120"/>
-      <c r="AE79" s="120"/>
-      <c r="AF79" s="120"/>
-      <c r="AG79" s="120"/>
-      <c r="AH79" s="120"/>
-      <c r="AI79" s="120"/>
-      <c r="AJ79" s="120"/>
+      <c r="L79" s="67"/>
+      <c r="N79" s="128"/>
+      <c r="O79" s="128" t="s">
+        <v>340</v>
+      </c>
+      <c r="P79" s="128"/>
+      <c r="Q79" s="128"/>
+      <c r="R79" s="128"/>
+      <c r="S79" s="128"/>
+      <c r="T79" s="128"/>
+      <c r="U79" s="128"/>
+      <c r="V79" s="128"/>
+      <c r="Y79" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z79" s="16" t="s">
+        <v>301</v>
+      </c>
       <c r="AV79" s="68"/>
     </row>
     <row r="80" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14756,22 +15116,6 @@
       <c r="G80" s="67"/>
       <c r="K80" s="68"/>
       <c r="L80" s="124"/>
-      <c r="M80" s="120"/>
-      <c r="N80" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="O80" s="120"/>
-      <c r="P80" s="120"/>
-      <c r="Q80" s="120"/>
-      <c r="R80" s="120"/>
-      <c r="S80" s="120"/>
-      <c r="T80" s="120"/>
-      <c r="U80" s="120"/>
-      <c r="V80" s="120"/>
-      <c r="W80" s="120"/>
-      <c r="AN80" s="120"/>
-      <c r="AO80" s="120"/>
-      <c r="AP80" s="120"/>
       <c r="AV80" s="68"/>
     </row>
     <row r="81" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14781,22 +15125,32 @@
       <c r="G81" s="67"/>
       <c r="K81" s="68"/>
       <c r="L81" s="124"/>
-      <c r="M81" s="120"/>
-      <c r="N81" s="129" t="s">
-        <v>262</v>
-      </c>
-      <c r="O81" s="129"/>
-      <c r="P81" s="129"/>
-      <c r="Q81" s="129"/>
-      <c r="R81" s="129"/>
-      <c r="S81" s="129"/>
-      <c r="T81" s="129"/>
-      <c r="U81" s="125"/>
+      <c r="M81" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="N81" s="120"/>
+      <c r="O81" s="120"/>
+      <c r="P81" s="120"/>
+      <c r="Q81" s="120"/>
+      <c r="R81" s="120"/>
+      <c r="S81" s="120"/>
+      <c r="T81" s="120"/>
+      <c r="U81" s="120"/>
       <c r="V81" s="120"/>
       <c r="W81" s="120"/>
-      <c r="AN81" s="120"/>
-      <c r="AO81" s="120"/>
-      <c r="AP81" s="120"/>
+      <c r="X81" s="120"/>
+      <c r="Y81" s="120"/>
+      <c r="Z81" s="120"/>
+      <c r="AA81" s="120"/>
+      <c r="AB81" s="120"/>
+      <c r="AC81" s="120"/>
+      <c r="AD81" s="120"/>
+      <c r="AE81" s="120"/>
+      <c r="AF81" s="120"/>
+      <c r="AG81" s="120"/>
+      <c r="AH81" s="120"/>
+      <c r="AI81" s="120"/>
+      <c r="AJ81" s="120"/>
       <c r="AV81" s="68"/>
     </row>
     <row r="82" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14808,7 +15162,7 @@
       <c r="L82" s="124"/>
       <c r="M82" s="120"/>
       <c r="N82" s="120" t="s">
-        <v>228</v>
+        <v>327</v>
       </c>
       <c r="O82" s="120"/>
       <c r="P82" s="120"/>
@@ -14832,16 +15186,16 @@
       <c r="K83" s="68"/>
       <c r="L83" s="124"/>
       <c r="M83" s="120"/>
-      <c r="N83" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="O83" s="120"/>
-      <c r="P83" s="120"/>
-      <c r="Q83" s="120"/>
-      <c r="R83" s="120"/>
-      <c r="S83" s="120"/>
-      <c r="T83" s="120"/>
-      <c r="U83" s="120"/>
+      <c r="N83" s="128" t="s">
+        <v>328</v>
+      </c>
+      <c r="O83" s="128"/>
+      <c r="P83" s="128"/>
+      <c r="Q83" s="128"/>
+      <c r="R83" s="128"/>
+      <c r="S83" s="128"/>
+      <c r="T83" s="128"/>
+      <c r="U83" s="125"/>
       <c r="V83" s="120"/>
       <c r="W83" s="120"/>
       <c r="AN83" s="120"/>
@@ -14858,7 +15212,7 @@
       <c r="L84" s="124"/>
       <c r="M84" s="120"/>
       <c r="N84" s="120" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="O84" s="120"/>
       <c r="P84" s="120"/>
@@ -14883,7 +15237,7 @@
       <c r="L85" s="124"/>
       <c r="M85" s="120"/>
       <c r="N85" s="120" t="s">
-        <v>236</v>
+        <v>341</v>
       </c>
       <c r="O85" s="120"/>
       <c r="P85" s="120"/>
@@ -14908,7 +15262,7 @@
       <c r="L86" s="124"/>
       <c r="M86" s="120"/>
       <c r="N86" s="120" t="s">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="O86" s="120"/>
       <c r="P86" s="120"/>
@@ -14933,7 +15287,7 @@
       <c r="L87" s="124"/>
       <c r="M87" s="120"/>
       <c r="N87" s="120" t="s">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="O87" s="120"/>
       <c r="P87" s="120"/>
@@ -14957,9 +15311,21 @@
       <c r="K88" s="68"/>
       <c r="L88" s="124"/>
       <c r="M88" s="120"/>
-      <c r="AK88" s="120"/>
-      <c r="AL88" s="120"/>
-      <c r="AM88" s="120"/>
+      <c r="N88" s="120" t="s">
+        <v>344</v>
+      </c>
+      <c r="O88" s="120"/>
+      <c r="P88" s="120"/>
+      <c r="Q88" s="120"/>
+      <c r="R88" s="120"/>
+      <c r="S88" s="120"/>
+      <c r="T88" s="120"/>
+      <c r="U88" s="120"/>
+      <c r="V88" s="120"/>
+      <c r="W88" s="120"/>
+      <c r="AN88" s="120"/>
+      <c r="AO88" s="120"/>
+      <c r="AP88" s="120"/>
       <c r="AV88" s="68"/>
     </row>
     <row r="89" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14969,12 +15335,22 @@
       <c r="G89" s="67"/>
       <c r="K89" s="68"/>
       <c r="L89" s="124"/>
-      <c r="M89" s="120" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK89" s="120"/>
-      <c r="AL89" s="120"/>
-      <c r="AM89" s="120"/>
+      <c r="M89" s="120"/>
+      <c r="N89" s="120" t="s">
+        <v>345</v>
+      </c>
+      <c r="O89" s="120"/>
+      <c r="P89" s="120"/>
+      <c r="Q89" s="120"/>
+      <c r="R89" s="120"/>
+      <c r="S89" s="120"/>
+      <c r="T89" s="120"/>
+      <c r="U89" s="120"/>
+      <c r="V89" s="120"/>
+      <c r="W89" s="120"/>
+      <c r="AN89" s="120"/>
+      <c r="AO89" s="120"/>
+      <c r="AP89" s="120"/>
       <c r="AV89" s="68"/>
     </row>
     <row r="90" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -14984,9 +15360,7 @@
       <c r="G90" s="67"/>
       <c r="K90" s="68"/>
       <c r="L90" s="124"/>
-      <c r="N90" s="16" t="s">
-        <v>211</v>
-      </c>
+      <c r="M90" s="120"/>
       <c r="AK90" s="120"/>
       <c r="AL90" s="120"/>
       <c r="AM90" s="120"/>
@@ -14999,8 +15373,8 @@
       <c r="G91" s="67"/>
       <c r="K91" s="68"/>
       <c r="L91" s="124"/>
-      <c r="N91" s="16" t="s">
-        <v>268</v>
+      <c r="M91" s="120" t="s">
+        <v>151</v>
       </c>
       <c r="AK91" s="120"/>
       <c r="AL91" s="120"/>
@@ -15014,245 +15388,172 @@
       <c r="G92" s="67"/>
       <c r="K92" s="68"/>
       <c r="L92" s="124"/>
-      <c r="M92" s="120"/>
-      <c r="N92" s="120" t="s">
-        <v>212</v>
-      </c>
-      <c r="O92" s="120"/>
-      <c r="P92" s="120"/>
-      <c r="Q92" s="120"/>
-      <c r="R92" s="120"/>
-      <c r="S92" s="120"/>
-      <c r="T92" s="120"/>
-      <c r="U92" s="120"/>
-      <c r="V92" s="120"/>
-      <c r="W92" s="120"/>
-      <c r="X92" s="120"/>
-      <c r="Y92" s="120"/>
-      <c r="Z92" s="120"/>
-      <c r="AA92" s="120"/>
-      <c r="AB92" s="120"/>
-      <c r="AC92" s="120"/>
-      <c r="AD92" s="120"/>
-      <c r="AE92" s="120"/>
-      <c r="AF92" s="120"/>
-      <c r="AG92" s="120"/>
-      <c r="AH92" s="120"/>
-      <c r="AI92" s="120"/>
-      <c r="AJ92" s="120"/>
+      <c r="N92" s="16" t="s">
+        <v>346</v>
+      </c>
       <c r="AK92" s="120"/>
       <c r="AL92" s="120"/>
       <c r="AM92" s="120"/>
       <c r="AV92" s="68"/>
     </row>
     <row r="93" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="110"/>
-      <c r="M93" s="109"/>
-      <c r="N93" s="109"/>
-      <c r="O93" s="109"/>
-      <c r="P93" s="109"/>
-      <c r="Q93" s="109"/>
-      <c r="R93" s="109"/>
-      <c r="S93" s="109"/>
-      <c r="T93" s="110"/>
-      <c r="U93" s="110"/>
-      <c r="V93" s="110"/>
-      <c r="W93" s="110"/>
-      <c r="X93" s="110"/>
-      <c r="Y93" s="110"/>
-      <c r="Z93" s="110"/>
-      <c r="AA93" s="25"/>
-      <c r="AB93" s="25"/>
-      <c r="AC93" s="25"/>
-      <c r="AD93" s="25"/>
-      <c r="AE93" s="25"/>
-      <c r="AF93" s="25"/>
-      <c r="AG93" s="25"/>
-      <c r="AH93" s="25"/>
-      <c r="AI93" s="25"/>
-      <c r="AJ93" s="25"/>
-      <c r="AK93" s="25"/>
-      <c r="AL93" s="25"/>
-      <c r="AM93" s="25"/>
-      <c r="AN93" s="25"/>
-      <c r="AO93" s="25"/>
-      <c r="AP93" s="25"/>
-      <c r="AQ93" s="25"/>
-      <c r="AR93" s="25"/>
-      <c r="AS93" s="25"/>
-      <c r="AT93" s="25"/>
-      <c r="AU93" s="25"/>
-      <c r="AV93" s="26"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="67"/>
+      <c r="K93" s="68"/>
+      <c r="L93" s="124"/>
+      <c r="N93" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK93" s="120"/>
+      <c r="AL93" s="120"/>
+      <c r="AM93" s="120"/>
+      <c r="AV93" s="68"/>
     </row>
     <row r="94" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B94" s="20">
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="67"/>
+      <c r="K94" s="68"/>
+      <c r="L94" s="124"/>
+      <c r="M94" s="120"/>
+      <c r="N94" s="120" t="s">
+        <v>348</v>
+      </c>
+      <c r="O94" s="120"/>
+      <c r="P94" s="120"/>
+      <c r="Q94" s="120"/>
+      <c r="R94" s="120"/>
+      <c r="S94" s="120"/>
+      <c r="T94" s="120"/>
+      <c r="U94" s="120"/>
+      <c r="V94" s="120"/>
+      <c r="W94" s="120"/>
+      <c r="X94" s="120"/>
+      <c r="Y94" s="120"/>
+      <c r="Z94" s="120"/>
+      <c r="AA94" s="120"/>
+      <c r="AB94" s="120"/>
+      <c r="AC94" s="120"/>
+      <c r="AD94" s="120"/>
+      <c r="AE94" s="120"/>
+      <c r="AF94" s="120"/>
+      <c r="AG94" s="120"/>
+      <c r="AH94" s="120"/>
+      <c r="AI94" s="120"/>
+      <c r="AJ94" s="120"/>
+      <c r="AK94" s="120"/>
+      <c r="AL94" s="120"/>
+      <c r="AM94" s="120"/>
+      <c r="AV94" s="68"/>
+    </row>
+    <row r="95" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="110"/>
+      <c r="M95" s="109"/>
+      <c r="N95" s="109"/>
+      <c r="O95" s="109"/>
+      <c r="P95" s="109"/>
+      <c r="Q95" s="109"/>
+      <c r="R95" s="109"/>
+      <c r="S95" s="109"/>
+      <c r="T95" s="110"/>
+      <c r="U95" s="110"/>
+      <c r="V95" s="110"/>
+      <c r="W95" s="110"/>
+      <c r="X95" s="110"/>
+      <c r="Y95" s="110"/>
+      <c r="Z95" s="110"/>
+      <c r="AA95" s="25"/>
+      <c r="AB95" s="25"/>
+      <c r="AC95" s="25"/>
+      <c r="AD95" s="25"/>
+      <c r="AE95" s="25"/>
+      <c r="AF95" s="25"/>
+      <c r="AG95" s="25"/>
+      <c r="AH95" s="25"/>
+      <c r="AI95" s="25"/>
+      <c r="AJ95" s="25"/>
+      <c r="AK95" s="25"/>
+      <c r="AL95" s="25"/>
+      <c r="AM95" s="25"/>
+      <c r="AN95" s="25"/>
+      <c r="AO95" s="25"/>
+      <c r="AP95" s="25"/>
+      <c r="AQ95" s="25"/>
+      <c r="AR95" s="25"/>
+      <c r="AS95" s="25"/>
+      <c r="AT95" s="25"/>
+      <c r="AU95" s="25"/>
+      <c r="AV95" s="26"/>
+    </row>
+    <row r="96" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B96" s="20">
         <v>3</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C96" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="20" t="s">
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="20" t="s">
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="21"/>
-      <c r="P94" s="21"/>
-      <c r="Q94" s="21"/>
-      <c r="R94" s="21"/>
-      <c r="S94" s="21"/>
-      <c r="T94" s="21"/>
-      <c r="U94" s="21"/>
-      <c r="V94" s="21"/>
-      <c r="W94" s="21"/>
-      <c r="X94" s="21"/>
-      <c r="Y94" s="21"/>
-      <c r="Z94" s="21"/>
-      <c r="AA94" s="21"/>
-      <c r="AB94" s="21"/>
-      <c r="AC94" s="21"/>
-      <c r="AD94" s="21"/>
-      <c r="AE94" s="21"/>
-      <c r="AF94" s="21"/>
-      <c r="AG94" s="21"/>
-      <c r="AH94" s="21"/>
-      <c r="AI94" s="21"/>
-      <c r="AJ94" s="21"/>
-      <c r="AK94" s="21"/>
-      <c r="AL94" s="21"/>
-      <c r="AM94" s="21"/>
-      <c r="AN94" s="21"/>
-      <c r="AO94" s="21"/>
-      <c r="AP94" s="21"/>
-      <c r="AQ94" s="21"/>
-      <c r="AR94" s="21"/>
-      <c r="AS94" s="21"/>
-      <c r="AT94" s="21"/>
-      <c r="AU94" s="21"/>
-      <c r="AV94" s="22"/>
-    </row>
-    <row r="95" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B95" s="67"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="68"/>
-      <c r="L95" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="23"/>
-      <c r="Q95" s="23"/>
-      <c r="R95" s="23"/>
-      <c r="S95" s="23"/>
-      <c r="T95" s="23"/>
-      <c r="U95" s="23"/>
-      <c r="V95" s="23"/>
-      <c r="W95" s="23"/>
-      <c r="X95" s="23"/>
-      <c r="Y95" s="23"/>
-      <c r="Z95" s="23"/>
-      <c r="AA95" s="23"/>
-      <c r="AB95" s="23"/>
-      <c r="AC95" s="23"/>
-      <c r="AD95" s="23"/>
-      <c r="AE95" s="23"/>
-      <c r="AF95" s="23"/>
-      <c r="AG95" s="23"/>
-      <c r="AH95" s="23"/>
-      <c r="AI95" s="23"/>
-      <c r="AJ95" s="23"/>
-      <c r="AK95" s="23"/>
-      <c r="AL95" s="23"/>
-      <c r="AM95" s="23"/>
-      <c r="AN95" s="23"/>
-      <c r="AO95" s="23"/>
-      <c r="AP95" s="23"/>
-      <c r="AQ95" s="23"/>
-      <c r="AR95" s="23"/>
-      <c r="AS95" s="23"/>
-      <c r="AT95" s="23"/>
-      <c r="AU95" s="23"/>
-      <c r="AV95" s="68"/>
-    </row>
-    <row r="96" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B96" s="67"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="68"/>
-      <c r="L96" s="67" t="s">
-        <v>304</v>
-      </c>
-      <c r="N96" s="23"/>
-      <c r="O96" s="23"/>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="23"/>
-      <c r="R96" s="23"/>
-      <c r="S96" s="23"/>
-      <c r="T96" s="23"/>
-      <c r="U96" s="23"/>
-      <c r="V96" s="23"/>
-      <c r="W96" s="23"/>
-      <c r="X96" s="23"/>
-      <c r="Y96" s="23"/>
-      <c r="Z96" s="23"/>
-      <c r="AA96" s="23"/>
-      <c r="AB96" s="23"/>
-      <c r="AC96" s="23"/>
-      <c r="AD96" s="23"/>
-      <c r="AE96" s="23"/>
-      <c r="AF96" s="23"/>
-      <c r="AG96" s="23"/>
-      <c r="AH96" s="23"/>
-      <c r="AI96" s="23"/>
-      <c r="AJ96" s="23"/>
-      <c r="AK96" s="23"/>
-      <c r="AL96" s="23"/>
-      <c r="AM96" s="23"/>
-      <c r="AN96" s="23"/>
-      <c r="AO96" s="23"/>
-      <c r="AP96" s="23"/>
-      <c r="AQ96" s="23"/>
-      <c r="AR96" s="23"/>
-      <c r="AS96" s="23"/>
-      <c r="AT96" s="23"/>
-      <c r="AU96" s="23"/>
-      <c r="AV96" s="68"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="21"/>
+      <c r="S96" s="21"/>
+      <c r="T96" s="21"/>
+      <c r="U96" s="21"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="21"/>
+      <c r="X96" s="21"/>
+      <c r="Y96" s="21"/>
+      <c r="Z96" s="21"/>
+      <c r="AA96" s="21"/>
+      <c r="AB96" s="21"/>
+      <c r="AC96" s="21"/>
+      <c r="AD96" s="21"/>
+      <c r="AE96" s="21"/>
+      <c r="AF96" s="21"/>
+      <c r="AG96" s="21"/>
+      <c r="AH96" s="21"/>
+      <c r="AI96" s="21"/>
+      <c r="AJ96" s="21"/>
+      <c r="AK96" s="21"/>
+      <c r="AL96" s="21"/>
+      <c r="AM96" s="21"/>
+      <c r="AN96" s="21"/>
+      <c r="AO96" s="21"/>
+      <c r="AP96" s="21"/>
+      <c r="AQ96" s="21"/>
+      <c r="AR96" s="21"/>
+      <c r="AS96" s="21"/>
+      <c r="AT96" s="21"/>
+      <c r="AU96" s="21"/>
+      <c r="AV96" s="22"/>
     </row>
     <row r="97" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B97" s="67"/>
@@ -15260,15 +15561,17 @@
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
       <c r="F97" s="68"/>
-      <c r="G97" s="67"/>
+      <c r="G97" s="67" t="s">
+        <v>76</v>
+      </c>
       <c r="H97" s="23"/>
       <c r="I97" s="23"/>
       <c r="J97" s="23"/>
       <c r="K97" s="68"/>
-      <c r="L97" s="67"/>
-      <c r="M97" s="16" t="s">
-        <v>307</v>
-      </c>
+      <c r="L97" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="M97" s="23"/>
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
       <c r="P97" s="23"/>
@@ -15316,8 +15619,9 @@
       <c r="I98" s="23"/>
       <c r="J98" s="23"/>
       <c r="K98" s="68"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="23"/>
+      <c r="L98" s="67" t="s">
+        <v>281</v>
+      </c>
       <c r="N98" s="23"/>
       <c r="O98" s="23"/>
       <c r="P98" s="23"/>
@@ -15355,61 +15659,55 @@
       <c r="AV98" s="68"/>
     </row>
     <row r="99" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B99" s="20">
-        <v>4</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="H99" s="21"/>
-      <c r="I99" s="21"/>
-      <c r="J99" s="21"/>
-      <c r="K99" s="22"/>
-      <c r="L99" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
-      <c r="O99" s="21"/>
-      <c r="P99" s="21"/>
-      <c r="Q99" s="21"/>
-      <c r="R99" s="21"/>
-      <c r="S99" s="21"/>
-      <c r="T99" s="21"/>
-      <c r="U99" s="21"/>
-      <c r="V99" s="21"/>
-      <c r="W99" s="21"/>
-      <c r="X99" s="21"/>
-      <c r="Y99" s="21"/>
-      <c r="Z99" s="21"/>
-      <c r="AA99" s="21"/>
-      <c r="AB99" s="21"/>
-      <c r="AC99" s="21"/>
-      <c r="AD99" s="21"/>
-      <c r="AE99" s="21"/>
-      <c r="AF99" s="21"/>
-      <c r="AG99" s="21"/>
-      <c r="AH99" s="21"/>
-      <c r="AI99" s="21"/>
-      <c r="AJ99" s="21"/>
-      <c r="AK99" s="21"/>
-      <c r="AL99" s="21"/>
-      <c r="AM99" s="21"/>
-      <c r="AN99" s="21"/>
-      <c r="AO99" s="21"/>
-      <c r="AP99" s="21"/>
-      <c r="AQ99" s="21"/>
-      <c r="AR99" s="21"/>
-      <c r="AS99" s="21"/>
-      <c r="AT99" s="21"/>
-      <c r="AU99" s="21"/>
-      <c r="AV99" s="22"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="68"/>
+      <c r="L99" s="67"/>
+      <c r="M99" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="23"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="23"/>
+      <c r="U99" s="23"/>
+      <c r="V99" s="23"/>
+      <c r="W99" s="23"/>
+      <c r="X99" s="23"/>
+      <c r="Y99" s="23"/>
+      <c r="Z99" s="23"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="23"/>
+      <c r="AC99" s="23"/>
+      <c r="AD99" s="23"/>
+      <c r="AE99" s="23"/>
+      <c r="AF99" s="23"/>
+      <c r="AG99" s="23"/>
+      <c r="AH99" s="23"/>
+      <c r="AI99" s="23"/>
+      <c r="AJ99" s="23"/>
+      <c r="AK99" s="23"/>
+      <c r="AL99" s="23"/>
+      <c r="AM99" s="23"/>
+      <c r="AN99" s="23"/>
+      <c r="AO99" s="23"/>
+      <c r="AP99" s="23"/>
+      <c r="AQ99" s="23"/>
+      <c r="AR99" s="23"/>
+      <c r="AS99" s="23"/>
+      <c r="AT99" s="23"/>
+      <c r="AU99" s="23"/>
+      <c r="AV99" s="68"/>
     </row>
     <row r="100" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B100" s="67"/>
@@ -15417,16 +15715,12 @@
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
       <c r="F100" s="68"/>
-      <c r="G100" s="67" t="s">
-        <v>76</v>
-      </c>
+      <c r="G100" s="67"/>
       <c r="H100" s="23"/>
       <c r="I100" s="23"/>
       <c r="J100" s="23"/>
       <c r="K100" s="68"/>
-      <c r="L100" s="67" t="s">
-        <v>148</v>
-      </c>
+      <c r="L100" s="23"/>
       <c r="M100" s="23"/>
       <c r="N100" s="23"/>
       <c r="O100" s="23"/>
@@ -15465,54 +15759,61 @@
       <c r="AV100" s="68"/>
     </row>
     <row r="101" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B101" s="67"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="68"/>
-      <c r="L101" s="67" t="s">
-        <v>305</v>
-      </c>
-      <c r="N101" s="23"/>
-      <c r="O101" s="23"/>
-      <c r="P101" s="23"/>
-      <c r="Q101" s="23"/>
-      <c r="R101" s="23"/>
-      <c r="S101" s="23"/>
-      <c r="T101" s="23"/>
-      <c r="U101" s="23"/>
-      <c r="V101" s="23"/>
-      <c r="W101" s="23"/>
-      <c r="X101" s="23"/>
-      <c r="Y101" s="23"/>
-      <c r="Z101" s="23"/>
-      <c r="AA101" s="23"/>
-      <c r="AB101" s="23"/>
-      <c r="AC101" s="23"/>
-      <c r="AD101" s="23"/>
-      <c r="AE101" s="23"/>
-      <c r="AF101" s="23"/>
-      <c r="AG101" s="23"/>
-      <c r="AH101" s="23"/>
-      <c r="AI101" s="23"/>
-      <c r="AJ101" s="23"/>
-      <c r="AK101" s="23"/>
-      <c r="AL101" s="23"/>
-      <c r="AM101" s="23"/>
-      <c r="AN101" s="23"/>
-      <c r="AO101" s="23"/>
-      <c r="AP101" s="23"/>
-      <c r="AQ101" s="23"/>
-      <c r="AR101" s="23"/>
-      <c r="AS101" s="23"/>
-      <c r="AT101" s="23"/>
-      <c r="AU101" s="23"/>
-      <c r="AV101" s="68"/>
+      <c r="B101" s="20">
+        <v>4</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
+      <c r="Y101" s="21"/>
+      <c r="Z101" s="21"/>
+      <c r="AA101" s="21"/>
+      <c r="AB101" s="21"/>
+      <c r="AC101" s="21"/>
+      <c r="AD101" s="21"/>
+      <c r="AE101" s="21"/>
+      <c r="AF101" s="21"/>
+      <c r="AG101" s="21"/>
+      <c r="AH101" s="21"/>
+      <c r="AI101" s="21"/>
+      <c r="AJ101" s="21"/>
+      <c r="AK101" s="21"/>
+      <c r="AL101" s="21"/>
+      <c r="AM101" s="21"/>
+      <c r="AN101" s="21"/>
+      <c r="AO101" s="21"/>
+      <c r="AP101" s="21"/>
+      <c r="AQ101" s="21"/>
+      <c r="AR101" s="21"/>
+      <c r="AS101" s="21"/>
+      <c r="AT101" s="21"/>
+      <c r="AU101" s="21"/>
+      <c r="AV101" s="22"/>
     </row>
     <row r="102" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B102" s="67"/>
@@ -15520,15 +15821,17 @@
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
       <c r="F102" s="68"/>
-      <c r="G102" s="67"/>
+      <c r="G102" s="67" t="s">
+        <v>76</v>
+      </c>
       <c r="H102" s="23"/>
       <c r="I102" s="23"/>
       <c r="J102" s="23"/>
       <c r="K102" s="68"/>
-      <c r="L102" s="67"/>
-      <c r="M102" s="16" t="s">
-        <v>307</v>
-      </c>
+      <c r="L102" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="M102" s="23"/>
       <c r="N102" s="23"/>
       <c r="O102" s="23"/>
       <c r="P102" s="23"/>
@@ -15576,8 +15879,9 @@
       <c r="I103" s="23"/>
       <c r="J103" s="23"/>
       <c r="K103" s="68"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
+      <c r="L103" s="67" t="s">
+        <v>282</v>
+      </c>
       <c r="N103" s="23"/>
       <c r="O103" s="23"/>
       <c r="P103" s="23"/>
@@ -15615,61 +15919,55 @@
       <c r="AV103" s="68"/>
     </row>
     <row r="104" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B104" s="20">
-        <v>5</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="22"/>
-      <c r="L104" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
-      <c r="P104" s="21"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
-      <c r="T104" s="21"/>
-      <c r="U104" s="21"/>
-      <c r="V104" s="21"/>
-      <c r="W104" s="21"/>
-      <c r="X104" s="21"/>
-      <c r="Y104" s="21"/>
-      <c r="Z104" s="21"/>
-      <c r="AA104" s="21"/>
-      <c r="AB104" s="21"/>
-      <c r="AC104" s="21"/>
-      <c r="AD104" s="21"/>
-      <c r="AE104" s="21"/>
-      <c r="AF104" s="21"/>
-      <c r="AG104" s="21"/>
-      <c r="AH104" s="21"/>
-      <c r="AI104" s="21"/>
-      <c r="AJ104" s="21"/>
-      <c r="AK104" s="21"/>
-      <c r="AL104" s="21"/>
-      <c r="AM104" s="21"/>
-      <c r="AN104" s="21"/>
-      <c r="AO104" s="21"/>
-      <c r="AP104" s="21"/>
-      <c r="AQ104" s="21"/>
-      <c r="AR104" s="21"/>
-      <c r="AS104" s="21"/>
-      <c r="AT104" s="21"/>
-      <c r="AU104" s="21"/>
-      <c r="AV104" s="22"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="67"/>
+      <c r="M104" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="N104" s="23"/>
+      <c r="O104" s="23"/>
+      <c r="P104" s="23"/>
+      <c r="Q104" s="23"/>
+      <c r="R104" s="23"/>
+      <c r="S104" s="23"/>
+      <c r="T104" s="23"/>
+      <c r="U104" s="23"/>
+      <c r="V104" s="23"/>
+      <c r="W104" s="23"/>
+      <c r="X104" s="23"/>
+      <c r="Y104" s="23"/>
+      <c r="Z104" s="23"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="23"/>
+      <c r="AC104" s="23"/>
+      <c r="AD104" s="23"/>
+      <c r="AE104" s="23"/>
+      <c r="AF104" s="23"/>
+      <c r="AG104" s="23"/>
+      <c r="AH104" s="23"/>
+      <c r="AI104" s="23"/>
+      <c r="AJ104" s="23"/>
+      <c r="AK104" s="23"/>
+      <c r="AL104" s="23"/>
+      <c r="AM104" s="23"/>
+      <c r="AN104" s="23"/>
+      <c r="AO104" s="23"/>
+      <c r="AP104" s="23"/>
+      <c r="AQ104" s="23"/>
+      <c r="AR104" s="23"/>
+      <c r="AS104" s="23"/>
+      <c r="AT104" s="23"/>
+      <c r="AU104" s="23"/>
+      <c r="AV104" s="68"/>
     </row>
     <row r="105" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B105" s="67"/>
@@ -15677,16 +15975,12 @@
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
       <c r="F105" s="68"/>
-      <c r="G105" s="67" t="s">
-        <v>76</v>
-      </c>
+      <c r="G105" s="67"/>
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
       <c r="J105" s="23"/>
       <c r="K105" s="68"/>
-      <c r="L105" s="67" t="s">
-        <v>148</v>
-      </c>
+      <c r="L105" s="23"/>
       <c r="M105" s="23"/>
       <c r="N105" s="23"/>
       <c r="O105" s="23"/>
@@ -15725,54 +16019,61 @@
       <c r="AV105" s="68"/>
     </row>
     <row r="106" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B106" s="67"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="68"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="23"/>
-      <c r="J106" s="23"/>
-      <c r="K106" s="68"/>
-      <c r="L106" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="N106" s="23"/>
-      <c r="O106" s="23"/>
-      <c r="P106" s="23"/>
-      <c r="Q106" s="23"/>
-      <c r="R106" s="23"/>
-      <c r="S106" s="23"/>
-      <c r="T106" s="23"/>
-      <c r="U106" s="23"/>
-      <c r="V106" s="23"/>
-      <c r="W106" s="23"/>
-      <c r="X106" s="23"/>
-      <c r="Y106" s="23"/>
-      <c r="Z106" s="23"/>
-      <c r="AA106" s="23"/>
-      <c r="AB106" s="23"/>
-      <c r="AC106" s="23"/>
-      <c r="AD106" s="23"/>
-      <c r="AE106" s="23"/>
-      <c r="AF106" s="23"/>
-      <c r="AG106" s="23"/>
-      <c r="AH106" s="23"/>
-      <c r="AI106" s="23"/>
-      <c r="AJ106" s="23"/>
-      <c r="AK106" s="23"/>
-      <c r="AL106" s="23"/>
-      <c r="AM106" s="23"/>
-      <c r="AN106" s="23"/>
-      <c r="AO106" s="23"/>
-      <c r="AP106" s="23"/>
-      <c r="AQ106" s="23"/>
-      <c r="AR106" s="23"/>
-      <c r="AS106" s="23"/>
-      <c r="AT106" s="23"/>
-      <c r="AU106" s="23"/>
-      <c r="AV106" s="68"/>
+      <c r="B106" s="20">
+        <v>5</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="21"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="21"/>
+      <c r="X106" s="21"/>
+      <c r="Y106" s="21"/>
+      <c r="Z106" s="21"/>
+      <c r="AA106" s="21"/>
+      <c r="AB106" s="21"/>
+      <c r="AC106" s="21"/>
+      <c r="AD106" s="21"/>
+      <c r="AE106" s="21"/>
+      <c r="AF106" s="21"/>
+      <c r="AG106" s="21"/>
+      <c r="AH106" s="21"/>
+      <c r="AI106" s="21"/>
+      <c r="AJ106" s="21"/>
+      <c r="AK106" s="21"/>
+      <c r="AL106" s="21"/>
+      <c r="AM106" s="21"/>
+      <c r="AN106" s="21"/>
+      <c r="AO106" s="21"/>
+      <c r="AP106" s="21"/>
+      <c r="AQ106" s="21"/>
+      <c r="AR106" s="21"/>
+      <c r="AS106" s="21"/>
+      <c r="AT106" s="21"/>
+      <c r="AU106" s="21"/>
+      <c r="AV106" s="22"/>
     </row>
     <row r="107" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B107" s="67"/>
@@ -15780,15 +16081,17 @@
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
       <c r="F107" s="68"/>
-      <c r="G107" s="67"/>
+      <c r="G107" s="67" t="s">
+        <v>76</v>
+      </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
       <c r="J107" s="23"/>
       <c r="K107" s="68"/>
-      <c r="L107" s="67"/>
-      <c r="M107" s="16" t="s">
-        <v>307</v>
-      </c>
+      <c r="L107" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="M107" s="23"/>
       <c r="N107" s="23"/>
       <c r="O107" s="23"/>
       <c r="P107" s="23"/>
@@ -15836,8 +16139,9 @@
       <c r="I108" s="23"/>
       <c r="J108" s="23"/>
       <c r="K108" s="68"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="23"/>
+      <c r="L108" s="67" t="s">
+        <v>283</v>
+      </c>
       <c r="N108" s="23"/>
       <c r="O108" s="23"/>
       <c r="P108" s="23"/>
@@ -15875,70 +16179,68 @@
       <c r="AV108" s="68"/>
     </row>
     <row r="109" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B109" s="20">
-        <v>6</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="M109" s="21"/>
-      <c r="N109" s="21"/>
-      <c r="O109" s="21"/>
-      <c r="P109" s="21"/>
-      <c r="Q109" s="21"/>
-      <c r="R109" s="21"/>
-      <c r="S109" s="21"/>
-      <c r="T109" s="21"/>
-      <c r="U109" s="21"/>
-      <c r="V109" s="21"/>
-      <c r="W109" s="21"/>
-      <c r="X109" s="21"/>
-      <c r="Y109" s="21"/>
-      <c r="Z109" s="21"/>
-      <c r="AA109" s="21"/>
-      <c r="AB109" s="21"/>
-      <c r="AC109" s="21"/>
-      <c r="AD109" s="21"/>
-      <c r="AE109" s="21"/>
-      <c r="AF109" s="21"/>
-      <c r="AG109" s="21"/>
-      <c r="AH109" s="21"/>
-      <c r="AI109" s="21"/>
-      <c r="AJ109" s="21"/>
-      <c r="AK109" s="21"/>
-      <c r="AL109" s="21"/>
-      <c r="AM109" s="21"/>
-      <c r="AN109" s="21"/>
-      <c r="AO109" s="21"/>
-      <c r="AP109" s="21"/>
-      <c r="AQ109" s="21"/>
-      <c r="AR109" s="21"/>
-      <c r="AS109" s="21"/>
-      <c r="AT109" s="21"/>
-      <c r="AU109" s="21"/>
-      <c r="AV109" s="22"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="68"/>
+      <c r="L109" s="67"/>
+      <c r="M109" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="N109" s="23"/>
+      <c r="O109" s="23"/>
+      <c r="P109" s="23"/>
+      <c r="Q109" s="23"/>
+      <c r="R109" s="23"/>
+      <c r="S109" s="23"/>
+      <c r="T109" s="23"/>
+      <c r="U109" s="23"/>
+      <c r="V109" s="23"/>
+      <c r="W109" s="23"/>
+      <c r="X109" s="23"/>
+      <c r="Y109" s="23"/>
+      <c r="Z109" s="23"/>
+      <c r="AA109" s="23"/>
+      <c r="AB109" s="23"/>
+      <c r="AC109" s="23"/>
+      <c r="AD109" s="23"/>
+      <c r="AE109" s="23"/>
+      <c r="AF109" s="23"/>
+      <c r="AG109" s="23"/>
+      <c r="AH109" s="23"/>
+      <c r="AI109" s="23"/>
+      <c r="AJ109" s="23"/>
+      <c r="AK109" s="23"/>
+      <c r="AL109" s="23"/>
+      <c r="AM109" s="23"/>
+      <c r="AN109" s="23"/>
+      <c r="AO109" s="23"/>
+      <c r="AP109" s="23"/>
+      <c r="AQ109" s="23"/>
+      <c r="AR109" s="23"/>
+      <c r="AS109" s="23"/>
+      <c r="AT109" s="23"/>
+      <c r="AU109" s="23"/>
+      <c r="AV109" s="68"/>
     </row>
     <row r="110" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B110" s="67"/>
       <c r="C110" s="67"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
       <c r="F110" s="68"/>
-      <c r="G110" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="L110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="68"/>
+      <c r="L110" s="23"/>
       <c r="M110" s="23"/>
       <c r="N110" s="23"/>
       <c r="O110" s="23"/>
@@ -15977,58 +16279,70 @@
       <c r="AV110" s="68"/>
     </row>
     <row r="111" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B111" s="67"/>
-      <c r="C111" s="67"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="67"/>
-      <c r="L111" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="M111" s="23"/>
-      <c r="N111" s="23"/>
-      <c r="O111" s="23"/>
-      <c r="P111" s="23"/>
-      <c r="Q111" s="23"/>
-      <c r="R111" s="23"/>
-      <c r="S111" s="23"/>
-      <c r="T111" s="23"/>
-      <c r="U111" s="23"/>
-      <c r="V111" s="23"/>
-      <c r="W111" s="23"/>
-      <c r="X111" s="23"/>
-      <c r="Y111" s="23"/>
-      <c r="Z111" s="23"/>
-      <c r="AA111" s="23"/>
-      <c r="AB111" s="23"/>
-      <c r="AC111" s="23"/>
-      <c r="AD111" s="23"/>
-      <c r="AE111" s="23"/>
-      <c r="AF111" s="23"/>
-      <c r="AG111" s="23"/>
-      <c r="AH111" s="23"/>
-      <c r="AI111" s="23"/>
-      <c r="AJ111" s="23"/>
-      <c r="AK111" s="23"/>
-      <c r="AL111" s="23"/>
-      <c r="AM111" s="23"/>
-      <c r="AN111" s="23"/>
-      <c r="AO111" s="23"/>
-      <c r="AP111" s="23"/>
-      <c r="AQ111" s="23"/>
-      <c r="AR111" s="23"/>
-      <c r="AS111" s="23"/>
-      <c r="AT111" s="23"/>
-      <c r="AU111" s="23"/>
-      <c r="AV111" s="68"/>
+      <c r="B111" s="20">
+        <v>6</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="21"/>
+      <c r="V111" s="21"/>
+      <c r="W111" s="21"/>
+      <c r="X111" s="21"/>
+      <c r="Y111" s="21"/>
+      <c r="Z111" s="21"/>
+      <c r="AA111" s="21"/>
+      <c r="AB111" s="21"/>
+      <c r="AC111" s="21"/>
+      <c r="AD111" s="21"/>
+      <c r="AE111" s="21"/>
+      <c r="AF111" s="21"/>
+      <c r="AG111" s="21"/>
+      <c r="AH111" s="21"/>
+      <c r="AI111" s="21"/>
+      <c r="AJ111" s="21"/>
+      <c r="AK111" s="21"/>
+      <c r="AL111" s="21"/>
+      <c r="AM111" s="21"/>
+      <c r="AN111" s="21"/>
+      <c r="AO111" s="21"/>
+      <c r="AP111" s="21"/>
+      <c r="AQ111" s="21"/>
+      <c r="AR111" s="21"/>
+      <c r="AS111" s="21"/>
+      <c r="AT111" s="21"/>
+      <c r="AU111" s="21"/>
+      <c r="AV111" s="22"/>
     </row>
     <row r="112" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B112" s="67"/>
       <c r="C112" s="67"/>
       <c r="F112" s="68"/>
-      <c r="G112" s="67"/>
-      <c r="L112" s="67" t="s">
-        <v>163</v>
-      </c>
+      <c r="G112" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="L112" s="67"/>
       <c r="M112" s="23"/>
       <c r="N112" s="23"/>
       <c r="O112" s="23"/>
@@ -16071,42 +16385,40 @@
       <c r="C113" s="67"/>
       <c r="F113" s="68"/>
       <c r="G113" s="67"/>
-      <c r="L113" s="122" t="s">
-        <v>164</v>
-      </c>
-      <c r="M113" s="123" t="s">
-        <v>289</v>
-      </c>
-      <c r="N113" s="123"/>
-      <c r="O113" s="123"/>
+      <c r="L113" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="M113" s="23"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="23"/>
       <c r="P113" s="23"/>
-      <c r="Q113" s="123"/>
-      <c r="R113" s="123"/>
-      <c r="S113" s="123"/>
-      <c r="T113" s="123"/>
-      <c r="U113" s="123"/>
-      <c r="V113" s="123"/>
-      <c r="W113" s="123"/>
-      <c r="X113" s="123"/>
-      <c r="Y113" s="123"/>
-      <c r="Z113" s="123"/>
-      <c r="AA113" s="123"/>
-      <c r="AB113" s="123"/>
-      <c r="AC113" s="123"/>
-      <c r="AD113" s="123"/>
-      <c r="AE113" s="123"/>
-      <c r="AF113" s="123"/>
-      <c r="AG113" s="123"/>
-      <c r="AH113" s="123"/>
-      <c r="AI113" s="123"/>
-      <c r="AJ113" s="123"/>
-      <c r="AK113" s="123"/>
-      <c r="AL113" s="123"/>
-      <c r="AM113" s="123"/>
-      <c r="AN113" s="123"/>
-      <c r="AO113" s="123"/>
-      <c r="AP113" s="123"/>
-      <c r="AQ113" s="123"/>
+      <c r="Q113" s="23"/>
+      <c r="R113" s="23"/>
+      <c r="S113" s="23"/>
+      <c r="T113" s="23"/>
+      <c r="U113" s="23"/>
+      <c r="V113" s="23"/>
+      <c r="W113" s="23"/>
+      <c r="X113" s="23"/>
+      <c r="Y113" s="23"/>
+      <c r="Z113" s="23"/>
+      <c r="AA113" s="23"/>
+      <c r="AB113" s="23"/>
+      <c r="AC113" s="23"/>
+      <c r="AD113" s="23"/>
+      <c r="AE113" s="23"/>
+      <c r="AF113" s="23"/>
+      <c r="AG113" s="23"/>
+      <c r="AH113" s="23"/>
+      <c r="AI113" s="23"/>
+      <c r="AJ113" s="23"/>
+      <c r="AK113" s="23"/>
+      <c r="AL113" s="23"/>
+      <c r="AM113" s="23"/>
+      <c r="AN113" s="23"/>
+      <c r="AO113" s="23"/>
+      <c r="AP113" s="23"/>
+      <c r="AQ113" s="23"/>
       <c r="AR113" s="23"/>
       <c r="AS113" s="23"/>
       <c r="AT113" s="23"/>
@@ -16118,40 +16430,40 @@
       <c r="C114" s="67"/>
       <c r="F114" s="68"/>
       <c r="G114" s="67"/>
-      <c r="L114" s="122"/>
-      <c r="M114" s="123" t="s">
-        <v>350</v>
-      </c>
-      <c r="N114" s="123"/>
-      <c r="O114" s="123"/>
+      <c r="L114" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="M114" s="23"/>
+      <c r="N114" s="23"/>
+      <c r="O114" s="23"/>
       <c r="P114" s="23"/>
-      <c r="Q114" s="123"/>
-      <c r="R114" s="123"/>
-      <c r="S114" s="123"/>
-      <c r="T114" s="123"/>
-      <c r="U114" s="123"/>
-      <c r="V114" s="123"/>
-      <c r="W114" s="123"/>
-      <c r="X114" s="123"/>
-      <c r="Y114" s="123"/>
-      <c r="Z114" s="123"/>
-      <c r="AA114" s="123"/>
-      <c r="AB114" s="123"/>
-      <c r="AC114" s="123"/>
-      <c r="AD114" s="123"/>
-      <c r="AE114" s="123"/>
-      <c r="AF114" s="123"/>
-      <c r="AG114" s="123"/>
-      <c r="AH114" s="123"/>
-      <c r="AI114" s="123"/>
-      <c r="AJ114" s="123"/>
-      <c r="AK114" s="123"/>
-      <c r="AL114" s="123"/>
-      <c r="AM114" s="123"/>
-      <c r="AN114" s="123"/>
-      <c r="AO114" s="123"/>
-      <c r="AP114" s="123"/>
-      <c r="AQ114" s="123"/>
+      <c r="Q114" s="23"/>
+      <c r="R114" s="23"/>
+      <c r="S114" s="23"/>
+      <c r="T114" s="23"/>
+      <c r="U114" s="23"/>
+      <c r="V114" s="23"/>
+      <c r="W114" s="23"/>
+      <c r="X114" s="23"/>
+      <c r="Y114" s="23"/>
+      <c r="Z114" s="23"/>
+      <c r="AA114" s="23"/>
+      <c r="AB114" s="23"/>
+      <c r="AC114" s="23"/>
+      <c r="AD114" s="23"/>
+      <c r="AE114" s="23"/>
+      <c r="AF114" s="23"/>
+      <c r="AG114" s="23"/>
+      <c r="AH114" s="23"/>
+      <c r="AI114" s="23"/>
+      <c r="AJ114" s="23"/>
+      <c r="AK114" s="23"/>
+      <c r="AL114" s="23"/>
+      <c r="AM114" s="23"/>
+      <c r="AN114" s="23"/>
+      <c r="AO114" s="23"/>
+      <c r="AP114" s="23"/>
+      <c r="AQ114" s="23"/>
       <c r="AR114" s="23"/>
       <c r="AS114" s="23"/>
       <c r="AT114" s="23"/>
@@ -16163,21 +16475,23 @@
       <c r="C115" s="67"/>
       <c r="F115" s="68"/>
       <c r="G115" s="67"/>
-      <c r="L115" s="122"/>
-      <c r="M115" s="109" t="s">
-        <v>197</v>
-      </c>
-      <c r="N115" s="109"/>
-      <c r="O115" s="109"/>
+      <c r="L115" s="122" t="s">
+        <v>164</v>
+      </c>
+      <c r="M115" s="123" t="s">
+        <v>267</v>
+      </c>
+      <c r="N115" s="123"/>
+      <c r="O115" s="123"/>
       <c r="P115" s="23"/>
-      <c r="Q115" s="109"/>
-      <c r="R115" s="109"/>
-      <c r="S115" s="109"/>
-      <c r="T115" s="109"/>
-      <c r="U115" s="109"/>
-      <c r="V115" s="109"/>
-      <c r="W115" s="109"/>
-      <c r="X115" s="109"/>
+      <c r="Q115" s="123"/>
+      <c r="R115" s="123"/>
+      <c r="S115" s="123"/>
+      <c r="T115" s="123"/>
+      <c r="U115" s="123"/>
+      <c r="V115" s="123"/>
+      <c r="W115" s="123"/>
+      <c r="X115" s="123"/>
       <c r="Y115" s="123"/>
       <c r="Z115" s="123"/>
       <c r="AA115" s="123"/>
@@ -16209,20 +16523,20 @@
       <c r="F116" s="68"/>
       <c r="G116" s="67"/>
       <c r="L116" s="122"/>
-      <c r="M116" s="109"/>
-      <c r="N116" s="109" t="s">
-        <v>220</v>
-      </c>
-      <c r="O116" s="109"/>
+      <c r="M116" s="123" t="s">
+        <v>322</v>
+      </c>
+      <c r="N116" s="123"/>
+      <c r="O116" s="123"/>
       <c r="P116" s="23"/>
-      <c r="Q116" s="109"/>
-      <c r="R116" s="109"/>
-      <c r="S116" s="109"/>
-      <c r="T116" s="109"/>
-      <c r="U116" s="109"/>
-      <c r="V116" s="109"/>
-      <c r="W116" s="109"/>
-      <c r="X116" s="109"/>
+      <c r="Q116" s="123"/>
+      <c r="R116" s="123"/>
+      <c r="S116" s="123"/>
+      <c r="T116" s="123"/>
+      <c r="U116" s="123"/>
+      <c r="V116" s="123"/>
+      <c r="W116" s="123"/>
+      <c r="X116" s="123"/>
       <c r="Y116" s="123"/>
       <c r="Z116" s="123"/>
       <c r="AA116" s="123"/>
@@ -16253,21 +16567,20 @@
       <c r="C117" s="67"/>
       <c r="F117" s="68"/>
       <c r="G117" s="67"/>
+      <c r="K117" s="23"/>
       <c r="L117" s="122"/>
-      <c r="M117" s="109" t="s">
-        <v>199</v>
-      </c>
-      <c r="N117" s="109"/>
-      <c r="O117" s="109"/>
-      <c r="P117" s="23"/>
-      <c r="Q117" s="109"/>
-      <c r="R117" s="109"/>
-      <c r="S117" s="109"/>
-      <c r="T117" s="109"/>
-      <c r="U117" s="109"/>
-      <c r="V117" s="109"/>
-      <c r="W117" s="109"/>
-      <c r="X117" s="109"/>
+      <c r="M117" s="123"/>
+      <c r="N117" s="123"/>
+      <c r="O117" s="123"/>
+      <c r="P117" s="123"/>
+      <c r="Q117" s="123"/>
+      <c r="R117" s="123"/>
+      <c r="S117" s="123"/>
+      <c r="T117" s="123"/>
+      <c r="U117" s="123"/>
+      <c r="V117" s="123"/>
+      <c r="W117" s="123"/>
+      <c r="X117" s="123"/>
       <c r="Y117" s="123"/>
       <c r="Z117" s="123"/>
       <c r="AA117" s="123"/>
@@ -16299,42 +16612,41 @@
       <c r="F118" s="68"/>
       <c r="G118" s="67"/>
       <c r="K118" s="23"/>
-      <c r="L118" s="126"/>
-      <c r="M118" s="136"/>
-      <c r="N118" s="136" t="s">
-        <v>201</v>
-      </c>
-      <c r="O118" s="136"/>
-      <c r="P118" s="136"/>
-      <c r="Q118" s="136"/>
-      <c r="R118" s="136"/>
-      <c r="S118" s="136"/>
-      <c r="T118" s="138" t="s">
-        <v>290</v>
-      </c>
-      <c r="U118" s="136"/>
-      <c r="V118" s="136"/>
-      <c r="W118" s="136"/>
-      <c r="X118" s="135"/>
-      <c r="Y118" s="135"/>
-      <c r="Z118" s="135"/>
-      <c r="AA118" s="135"/>
-      <c r="AB118" s="23"/>
-      <c r="AC118" s="23"/>
-      <c r="AD118" s="23"/>
-      <c r="AE118" s="23"/>
-      <c r="AF118" s="23"/>
-      <c r="AG118" s="23"/>
-      <c r="AH118" s="23"/>
-      <c r="AI118" s="23"/>
-      <c r="AJ118" s="23"/>
-      <c r="AK118" s="23"/>
-      <c r="AL118" s="23"/>
-      <c r="AM118" s="23"/>
-      <c r="AN118" s="23"/>
-      <c r="AO118" s="23"/>
-      <c r="AP118" s="23"/>
-      <c r="AQ118" s="23"/>
+      <c r="L118" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="M118" s="123" t="s">
+        <v>167</v>
+      </c>
+      <c r="N118" s="123"/>
+      <c r="O118" s="123"/>
+      <c r="P118" s="123"/>
+      <c r="Q118" s="123"/>
+      <c r="R118" s="123"/>
+      <c r="S118" s="123"/>
+      <c r="T118" s="123"/>
+      <c r="U118" s="123"/>
+      <c r="V118" s="123"/>
+      <c r="W118" s="123"/>
+      <c r="X118" s="123"/>
+      <c r="Y118" s="123"/>
+      <c r="Z118" s="123"/>
+      <c r="AB118" s="123"/>
+      <c r="AC118" s="123"/>
+      <c r="AD118" s="123"/>
+      <c r="AE118" s="123"/>
+      <c r="AF118" s="123"/>
+      <c r="AG118" s="123"/>
+      <c r="AH118" s="123"/>
+      <c r="AI118" s="123"/>
+      <c r="AJ118" s="123"/>
+      <c r="AK118" s="123"/>
+      <c r="AL118" s="123"/>
+      <c r="AM118" s="123"/>
+      <c r="AN118" s="123"/>
+      <c r="AO118" s="123"/>
+      <c r="AP118" s="123"/>
+      <c r="AQ118" s="123"/>
       <c r="AR118" s="23"/>
       <c r="AS118" s="23"/>
       <c r="AT118" s="23"/>
@@ -16347,32 +16659,28 @@
       <c r="F119" s="68"/>
       <c r="G119" s="67"/>
       <c r="K119" s="23"/>
-      <c r="L119" s="126"/>
-      <c r="M119" s="136"/>
-      <c r="N119" s="136" t="s">
-        <v>351</v>
-      </c>
-      <c r="O119" s="136"/>
-      <c r="P119" s="136"/>
-      <c r="Q119" s="136"/>
-      <c r="R119" s="136"/>
-      <c r="S119" s="136"/>
-      <c r="T119" s="136" t="s">
-        <v>352</v>
-      </c>
-      <c r="U119" s="136"/>
-      <c r="V119" s="136"/>
-      <c r="W119" s="136"/>
-      <c r="X119" s="135"/>
-      <c r="Y119" s="135"/>
-      <c r="Z119" s="135"/>
-      <c r="AA119" s="135"/>
+      <c r="L119" s="67"/>
+      <c r="M119" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="N119" s="109"/>
+      <c r="O119" s="109"/>
+      <c r="P119" s="109"/>
+      <c r="Q119" s="109"/>
+      <c r="R119" s="109"/>
+      <c r="S119" s="109"/>
+      <c r="T119" s="109"/>
+      <c r="U119" s="109"/>
+      <c r="V119" s="109"/>
+      <c r="W119" s="109"/>
+      <c r="X119" s="109"/>
+      <c r="Y119" s="23"/>
+      <c r="Z119" s="23"/>
       <c r="AB119" s="23"/>
       <c r="AC119" s="23"/>
       <c r="AD119" s="23"/>
       <c r="AE119" s="23"/>
       <c r="AF119" s="23"/>
-      <c r="AG119" s="23"/>
       <c r="AH119" s="23"/>
       <c r="AI119" s="23"/>
       <c r="AJ119" s="23"/>
@@ -16394,11 +16702,12 @@
       <c r="C120" s="67"/>
       <c r="F120" s="68"/>
       <c r="G120" s="67"/>
-      <c r="L120" s="122"/>
-      <c r="M120" s="109" t="s">
-        <v>202</v>
-      </c>
-      <c r="N120" s="109"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="67"/>
+      <c r="M120" s="109"/>
+      <c r="N120" s="109" t="s">
+        <v>205</v>
+      </c>
       <c r="O120" s="109"/>
       <c r="P120" s="109"/>
       <c r="Q120" s="109"/>
@@ -16407,26 +16716,25 @@
       <c r="T120" s="109"/>
       <c r="U120" s="109"/>
       <c r="V120" s="109"/>
+      <c r="W120" s="109"/>
       <c r="X120" s="109"/>
-      <c r="Y120" s="123"/>
-      <c r="Z120" s="123"/>
-      <c r="AA120" s="123"/>
-      <c r="AB120" s="123"/>
-      <c r="AC120" s="123"/>
-      <c r="AD120" s="123"/>
-      <c r="AE120" s="123"/>
-      <c r="AF120" s="123"/>
-      <c r="AG120" s="123"/>
-      <c r="AH120" s="123"/>
-      <c r="AI120" s="123"/>
-      <c r="AJ120" s="123"/>
-      <c r="AK120" s="123"/>
-      <c r="AL120" s="123"/>
-      <c r="AM120" s="123"/>
-      <c r="AN120" s="123"/>
-      <c r="AO120" s="123"/>
-      <c r="AP120" s="123"/>
-      <c r="AQ120" s="123"/>
+      <c r="Y120" s="23"/>
+      <c r="Z120" s="23"/>
+      <c r="AB120" s="23"/>
+      <c r="AC120" s="23"/>
+      <c r="AD120" s="23"/>
+      <c r="AE120" s="23"/>
+      <c r="AF120" s="23"/>
+      <c r="AH120" s="23"/>
+      <c r="AI120" s="23"/>
+      <c r="AJ120" s="23"/>
+      <c r="AK120" s="23"/>
+      <c r="AL120" s="23"/>
+      <c r="AM120" s="23"/>
+      <c r="AN120" s="23"/>
+      <c r="AO120" s="23"/>
+      <c r="AP120" s="23"/>
+      <c r="AQ120" s="23"/>
       <c r="AR120" s="23"/>
       <c r="AS120" s="23"/>
       <c r="AT120" s="23"/>
@@ -16438,39 +16746,39 @@
       <c r="C121" s="67"/>
       <c r="F121" s="68"/>
       <c r="G121" s="67"/>
-      <c r="L121" s="122"/>
-      <c r="M121" s="109"/>
-      <c r="N121" s="109" t="s">
-        <v>213</v>
-      </c>
+      <c r="K121" s="23"/>
+      <c r="L121" s="67"/>
+      <c r="M121" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="N121" s="109"/>
       <c r="O121" s="109"/>
       <c r="P121" s="109"/>
-      <c r="Q121" s="109"/>
-      <c r="R121" s="109"/>
-      <c r="S121" s="109"/>
+      <c r="Q121" s="23"/>
+      <c r="R121" s="23"/>
+      <c r="S121" s="23"/>
       <c r="T121" s="109"/>
       <c r="U121" s="109"/>
       <c r="V121" s="109"/>
+      <c r="W121" s="109"/>
       <c r="X121" s="109"/>
-      <c r="Y121" s="123"/>
-      <c r="Z121" s="123"/>
-      <c r="AA121" s="123"/>
-      <c r="AB121" s="123"/>
-      <c r="AC121" s="123"/>
-      <c r="AD121" s="123"/>
-      <c r="AE121" s="123"/>
-      <c r="AF121" s="123"/>
-      <c r="AG121" s="123"/>
-      <c r="AH121" s="123"/>
-      <c r="AI121" s="123"/>
-      <c r="AJ121" s="123"/>
-      <c r="AK121" s="123"/>
-      <c r="AL121" s="123"/>
-      <c r="AM121" s="123"/>
-      <c r="AN121" s="123"/>
-      <c r="AO121" s="123"/>
-      <c r="AP121" s="123"/>
-      <c r="AQ121" s="123"/>
+      <c r="Y121" s="23"/>
+      <c r="Z121" s="23"/>
+      <c r="AB121" s="23"/>
+      <c r="AC121" s="23"/>
+      <c r="AD121" s="23"/>
+      <c r="AE121" s="23"/>
+      <c r="AF121" s="23"/>
+      <c r="AH121" s="23"/>
+      <c r="AI121" s="23"/>
+      <c r="AJ121" s="23"/>
+      <c r="AK121" s="23"/>
+      <c r="AL121" s="23"/>
+      <c r="AM121" s="23"/>
+      <c r="AN121" s="23"/>
+      <c r="AO121" s="23"/>
+      <c r="AP121" s="23"/>
+      <c r="AQ121" s="23"/>
       <c r="AR121" s="23"/>
       <c r="AS121" s="23"/>
       <c r="AT121" s="23"/>
@@ -16483,38 +16791,41 @@
       <c r="F122" s="68"/>
       <c r="G122" s="67"/>
       <c r="K122" s="23"/>
-      <c r="L122" s="122"/>
-      <c r="M122" s="123"/>
-      <c r="N122" s="123"/>
-      <c r="O122" s="123"/>
-      <c r="P122" s="123"/>
-      <c r="Q122" s="123"/>
-      <c r="R122" s="123"/>
-      <c r="S122" s="123"/>
-      <c r="T122" s="123"/>
-      <c r="U122" s="123"/>
-      <c r="V122" s="123"/>
-      <c r="W122" s="123"/>
-      <c r="X122" s="123"/>
-      <c r="Y122" s="123"/>
-      <c r="Z122" s="123"/>
-      <c r="AA122" s="123"/>
-      <c r="AB122" s="123"/>
-      <c r="AC122" s="123"/>
-      <c r="AD122" s="123"/>
-      <c r="AE122" s="123"/>
-      <c r="AF122" s="123"/>
-      <c r="AG122" s="123"/>
-      <c r="AH122" s="123"/>
-      <c r="AI122" s="123"/>
-      <c r="AJ122" s="123"/>
-      <c r="AK122" s="123"/>
-      <c r="AL122" s="123"/>
-      <c r="AM122" s="123"/>
-      <c r="AN122" s="123"/>
-      <c r="AO122" s="123"/>
-      <c r="AP122" s="123"/>
-      <c r="AQ122" s="123"/>
+      <c r="L122" s="67"/>
+      <c r="M122" s="109"/>
+      <c r="N122" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="O122" s="23"/>
+      <c r="P122" s="23"/>
+      <c r="Q122" s="23"/>
+      <c r="R122" s="23"/>
+      <c r="T122" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="U122" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="V122" s="23"/>
+      <c r="W122" s="23"/>
+      <c r="X122" s="23"/>
+      <c r="Y122" s="23"/>
+      <c r="Z122" s="23"/>
+      <c r="AB122" s="23"/>
+      <c r="AC122" s="23"/>
+      <c r="AD122" s="23"/>
+      <c r="AE122" s="23"/>
+      <c r="AF122" s="23"/>
+      <c r="AH122" s="23"/>
+      <c r="AI122" s="23"/>
+      <c r="AJ122" s="23"/>
+      <c r="AK122" s="23"/>
+      <c r="AL122" s="23"/>
+      <c r="AM122" s="23"/>
+      <c r="AN122" s="23"/>
+      <c r="AO122" s="23"/>
+      <c r="AP122" s="23"/>
+      <c r="AQ122" s="23"/>
       <c r="AR122" s="23"/>
       <c r="AS122" s="23"/>
       <c r="AT122" s="23"/>
@@ -16527,42 +16838,41 @@
       <c r="F123" s="68"/>
       <c r="G123" s="67"/>
       <c r="K123" s="23"/>
-      <c r="L123" s="122"/>
-      <c r="M123" s="123" t="s">
-        <v>165</v>
-      </c>
-      <c r="N123" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="O123" s="123"/>
-      <c r="P123" s="123"/>
-      <c r="Q123" s="123"/>
-      <c r="R123" s="123"/>
-      <c r="S123" s="123"/>
-      <c r="T123" s="123"/>
-      <c r="U123" s="123"/>
-      <c r="V123" s="123"/>
-      <c r="W123" s="123"/>
-      <c r="X123" s="123"/>
-      <c r="Y123" s="123"/>
-      <c r="Z123" s="123"/>
-      <c r="AA123" s="123"/>
-      <c r="AB123" s="123"/>
-      <c r="AC123" s="123"/>
-      <c r="AD123" s="123"/>
-      <c r="AE123" s="123"/>
-      <c r="AF123" s="123"/>
-      <c r="AG123" s="123"/>
-      <c r="AH123" s="123"/>
-      <c r="AI123" s="123"/>
-      <c r="AJ123" s="123"/>
-      <c r="AK123" s="123"/>
-      <c r="AL123" s="123"/>
-      <c r="AM123" s="123"/>
-      <c r="AN123" s="123"/>
-      <c r="AO123" s="123"/>
-      <c r="AP123" s="123"/>
-      <c r="AQ123" s="123"/>
+      <c r="L123" s="67"/>
+      <c r="M123" s="109"/>
+      <c r="N123" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O123" s="23"/>
+      <c r="P123" s="23"/>
+      <c r="Q123" s="23"/>
+      <c r="R123" s="23"/>
+      <c r="T123" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="U123" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="V123" s="23"/>
+      <c r="W123" s="23"/>
+      <c r="X123" s="23"/>
+      <c r="Y123" s="23"/>
+      <c r="Z123" s="23"/>
+      <c r="AB123" s="23"/>
+      <c r="AC123" s="23"/>
+      <c r="AD123" s="23"/>
+      <c r="AE123" s="23"/>
+      <c r="AF123" s="23"/>
+      <c r="AH123" s="23"/>
+      <c r="AI123" s="23"/>
+      <c r="AJ123" s="23"/>
+      <c r="AK123" s="23"/>
+      <c r="AL123" s="23"/>
+      <c r="AM123" s="23"/>
+      <c r="AN123" s="23"/>
+      <c r="AO123" s="23"/>
+      <c r="AP123" s="23"/>
+      <c r="AQ123" s="23"/>
       <c r="AR123" s="23"/>
       <c r="AS123" s="23"/>
       <c r="AT123" s="23"/>
@@ -16576,23 +16886,25 @@
       <c r="G124" s="67"/>
       <c r="K124" s="23"/>
       <c r="L124" s="67"/>
-      <c r="M124" s="23"/>
-      <c r="N124" s="109" t="s">
-        <v>203</v>
-      </c>
-      <c r="O124" s="109"/>
-      <c r="P124" s="109"/>
-      <c r="Q124" s="109"/>
-      <c r="R124" s="109"/>
-      <c r="S124" s="109"/>
-      <c r="T124" s="109"/>
-      <c r="U124" s="109"/>
-      <c r="V124" s="109"/>
-      <c r="W124" s="109"/>
-      <c r="X124" s="109"/>
-      <c r="Y124" s="109"/>
+      <c r="M124" s="109"/>
+      <c r="N124" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O124" s="23"/>
+      <c r="P124" s="23"/>
+      <c r="Q124" s="23"/>
+      <c r="R124" s="23"/>
+      <c r="T124" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="U124" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="V124" s="23"/>
+      <c r="W124" s="23"/>
+      <c r="X124" s="23"/>
+      <c r="Y124" s="23"/>
       <c r="Z124" s="23"/>
-      <c r="AA124" s="23"/>
       <c r="AB124" s="23"/>
       <c r="AC124" s="23"/>
       <c r="AD124" s="23"/>
@@ -16621,23 +16933,21 @@
       <c r="G125" s="67"/>
       <c r="K125" s="23"/>
       <c r="L125" s="67"/>
-      <c r="M125" s="23"/>
+      <c r="M125" s="109" t="s">
+        <v>202</v>
+      </c>
       <c r="N125" s="109"/>
-      <c r="O125" s="109" t="s">
-        <v>210</v>
-      </c>
+      <c r="O125" s="109"/>
       <c r="P125" s="109"/>
-      <c r="Q125" s="109"/>
-      <c r="R125" s="109"/>
-      <c r="S125" s="109"/>
-      <c r="T125" s="109"/>
+      <c r="Q125" s="23"/>
+      <c r="R125" s="23"/>
+      <c r="T125" s="23"/>
       <c r="U125" s="109"/>
       <c r="V125" s="109"/>
       <c r="W125" s="109"/>
       <c r="X125" s="109"/>
-      <c r="Y125" s="109"/>
+      <c r="Y125" s="23"/>
       <c r="Z125" s="23"/>
-      <c r="AA125" s="23"/>
       <c r="AB125" s="23"/>
       <c r="AC125" s="23"/>
       <c r="AD125" s="23"/>
@@ -16666,25 +16976,28 @@
       <c r="G126" s="67"/>
       <c r="K126" s="23"/>
       <c r="L126" s="67"/>
-      <c r="M126" s="23"/>
-      <c r="N126" s="109" t="s">
+      <c r="M126" s="135"/>
+      <c r="N126" s="135" t="s">
+        <v>280</v>
+      </c>
+      <c r="O126" s="135"/>
+      <c r="P126" s="135"/>
+      <c r="Q126" s="134"/>
+      <c r="R126" s="134"/>
+      <c r="S126" s="137"/>
+      <c r="T126" s="134" t="s">
         <v>199</v>
       </c>
-      <c r="O126" s="109"/>
-      <c r="P126" s="109"/>
-      <c r="Q126" s="109"/>
-      <c r="R126" s="23"/>
-      <c r="S126" s="23"/>
-      <c r="T126" s="23"/>
-      <c r="U126" s="109"/>
-      <c r="V126" s="109"/>
-      <c r="W126" s="109"/>
-      <c r="X126" s="109"/>
-      <c r="Y126" s="109"/>
-      <c r="Z126" s="23"/>
-      <c r="AA126" s="23"/>
-      <c r="AB126" s="23"/>
-      <c r="AC126" s="23"/>
+      <c r="U126" s="126" t="s">
+        <v>271</v>
+      </c>
+      <c r="V126" s="135"/>
+      <c r="W126" s="135"/>
+      <c r="X126" s="135"/>
+      <c r="Y126" s="135"/>
+      <c r="Z126" s="134"/>
+      <c r="AB126" s="134"/>
+      <c r="AC126" s="134"/>
       <c r="AD126" s="23"/>
       <c r="AE126" s="23"/>
       <c r="AF126" s="23"/>
@@ -16711,28 +17024,28 @@
       <c r="G127" s="67"/>
       <c r="K127" s="23"/>
       <c r="L127" s="67"/>
-      <c r="M127" s="23"/>
-      <c r="N127" s="109"/>
-      <c r="O127" s="23" t="s">
+      <c r="M127" s="135"/>
+      <c r="N127" s="135" t="s">
+        <v>218</v>
+      </c>
+      <c r="O127" s="135"/>
+      <c r="P127" s="135"/>
+      <c r="Q127" s="134"/>
+      <c r="R127" s="134"/>
+      <c r="S127" s="137"/>
+      <c r="T127" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="U127" s="135" t="s">
         <v>272</v>
       </c>
-      <c r="P127" s="23"/>
-      <c r="Q127" s="23"/>
-      <c r="R127" s="23"/>
-      <c r="S127" s="23"/>
-      <c r="U127" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="V127" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="W127" s="23"/>
-      <c r="X127" s="23"/>
-      <c r="Y127" s="23"/>
-      <c r="Z127" s="23"/>
-      <c r="AA127" s="23"/>
-      <c r="AB127" s="23"/>
-      <c r="AC127" s="23"/>
+      <c r="V127" s="135"/>
+      <c r="W127" s="135"/>
+      <c r="X127" s="135"/>
+      <c r="Y127" s="135"/>
+      <c r="Z127" s="134"/>
+      <c r="AB127" s="134"/>
+      <c r="AC127" s="134"/>
       <c r="AD127" s="23"/>
       <c r="AE127" s="23"/>
       <c r="AF127" s="23"/>
@@ -16759,28 +17072,28 @@
       <c r="G128" s="67"/>
       <c r="K128" s="23"/>
       <c r="L128" s="67"/>
-      <c r="M128" s="23"/>
-      <c r="N128" s="109"/>
-      <c r="O128" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="P128" s="23"/>
-      <c r="Q128" s="23"/>
-      <c r="R128" s="23"/>
-      <c r="S128" s="23"/>
-      <c r="U128" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="V128" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="W128" s="23"/>
-      <c r="X128" s="23"/>
-      <c r="Y128" s="23"/>
-      <c r="Z128" s="23"/>
-      <c r="AA128" s="23"/>
-      <c r="AB128" s="23"/>
-      <c r="AC128" s="23"/>
+      <c r="M128" s="135"/>
+      <c r="N128" s="135" t="s">
+        <v>219</v>
+      </c>
+      <c r="O128" s="135"/>
+      <c r="P128" s="135"/>
+      <c r="Q128" s="134"/>
+      <c r="R128" s="134"/>
+      <c r="S128" s="137"/>
+      <c r="T128" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="U128" s="135" t="s">
+        <v>273</v>
+      </c>
+      <c r="V128" s="135"/>
+      <c r="W128" s="135"/>
+      <c r="X128" s="135"/>
+      <c r="Y128" s="135"/>
+      <c r="Z128" s="134"/>
+      <c r="AB128" s="134"/>
+      <c r="AC128" s="134"/>
       <c r="AD128" s="23"/>
       <c r="AE128" s="23"/>
       <c r="AF128" s="23"/>
@@ -16807,28 +17120,28 @@
       <c r="G129" s="67"/>
       <c r="K129" s="23"/>
       <c r="L129" s="67"/>
-      <c r="M129" s="23"/>
-      <c r="N129" s="109"/>
-      <c r="O129" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="P129" s="23"/>
-      <c r="Q129" s="23"/>
-      <c r="R129" s="23"/>
-      <c r="S129" s="23"/>
-      <c r="U129" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="V129" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="W129" s="23"/>
-      <c r="X129" s="23"/>
-      <c r="Y129" s="23"/>
-      <c r="Z129" s="23"/>
-      <c r="AA129" s="23"/>
-      <c r="AB129" s="23"/>
-      <c r="AC129" s="23"/>
+      <c r="M129" s="135"/>
+      <c r="N129" s="135" t="s">
+        <v>220</v>
+      </c>
+      <c r="O129" s="135"/>
+      <c r="P129" s="135"/>
+      <c r="Q129" s="134"/>
+      <c r="R129" s="134"/>
+      <c r="S129" s="137"/>
+      <c r="T129" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="U129" s="135" t="s">
+        <v>274</v>
+      </c>
+      <c r="V129" s="135"/>
+      <c r="W129" s="135"/>
+      <c r="X129" s="135"/>
+      <c r="Y129" s="135"/>
+      <c r="Z129" s="134"/>
+      <c r="AB129" s="134"/>
+      <c r="AC129" s="134"/>
       <c r="AD129" s="23"/>
       <c r="AE129" s="23"/>
       <c r="AF129" s="23"/>
@@ -16855,24 +17168,28 @@
       <c r="G130" s="67"/>
       <c r="K130" s="23"/>
       <c r="L130" s="67"/>
-      <c r="M130" s="23"/>
-      <c r="N130" s="109" t="s">
-        <v>207</v>
-      </c>
-      <c r="O130" s="109"/>
-      <c r="P130" s="109"/>
-      <c r="Q130" s="109"/>
-      <c r="R130" s="23"/>
-      <c r="S130" s="23"/>
-      <c r="U130" s="23"/>
-      <c r="V130" s="109"/>
-      <c r="W130" s="109"/>
-      <c r="X130" s="109"/>
-      <c r="Y130" s="109"/>
-      <c r="Z130" s="23"/>
-      <c r="AA130" s="23"/>
-      <c r="AB130" s="23"/>
-      <c r="AC130" s="23"/>
+      <c r="M130" s="135"/>
+      <c r="N130" s="135" t="s">
+        <v>221</v>
+      </c>
+      <c r="O130" s="135"/>
+      <c r="P130" s="135"/>
+      <c r="Q130" s="134"/>
+      <c r="R130" s="134"/>
+      <c r="S130" s="137"/>
+      <c r="T130" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="U130" s="135" t="s">
+        <v>275</v>
+      </c>
+      <c r="V130" s="135"/>
+      <c r="W130" s="135"/>
+      <c r="X130" s="135"/>
+      <c r="Y130" s="135"/>
+      <c r="Z130" s="134"/>
+      <c r="AB130" s="134"/>
+      <c r="AC130" s="134"/>
       <c r="AD130" s="23"/>
       <c r="AE130" s="23"/>
       <c r="AF130" s="23"/>
@@ -16900,28 +17217,27 @@
       <c r="K131" s="23"/>
       <c r="L131" s="67"/>
       <c r="M131" s="135"/>
-      <c r="N131" s="136"/>
-      <c r="O131" s="136" t="s">
-        <v>303</v>
-      </c>
-      <c r="P131" s="136"/>
-      <c r="Q131" s="136"/>
-      <c r="R131" s="135"/>
-      <c r="S131" s="135"/>
-      <c r="T131" s="139"/>
+      <c r="N131" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="O131" s="135"/>
+      <c r="P131" s="135"/>
+      <c r="Q131" s="134"/>
+      <c r="R131" s="134"/>
+      <c r="S131" s="137"/>
+      <c r="T131" s="134" t="s">
+        <v>199</v>
+      </c>
       <c r="U131" s="135" t="s">
-        <v>204</v>
-      </c>
-      <c r="V131" s="127" t="s">
-        <v>294</v>
-      </c>
-      <c r="W131" s="136"/>
-      <c r="X131" s="136"/>
-      <c r="Y131" s="136"/>
-      <c r="Z131" s="136"/>
-      <c r="AA131" s="135"/>
-      <c r="AB131" s="135"/>
-      <c r="AC131" s="135"/>
+        <v>276</v>
+      </c>
+      <c r="V131" s="135"/>
+      <c r="W131" s="135"/>
+      <c r="X131" s="135"/>
+      <c r="Y131" s="135"/>
+      <c r="Z131" s="134"/>
+      <c r="AB131" s="134"/>
+      <c r="AC131" s="134"/>
       <c r="AD131" s="23"/>
       <c r="AE131" s="23"/>
       <c r="AF131" s="23"/>
@@ -16947,43 +17263,37 @@
       <c r="F132" s="68"/>
       <c r="G132" s="67"/>
       <c r="K132" s="23"/>
-      <c r="L132" s="67"/>
-      <c r="M132" s="135"/>
+      <c r="L132" s="122"/>
+      <c r="M132" s="136"/>
       <c r="N132" s="136"/>
-      <c r="O132" s="136" t="s">
-        <v>230</v>
-      </c>
+      <c r="O132" s="136"/>
       <c r="P132" s="136"/>
       <c r="Q132" s="136"/>
-      <c r="R132" s="135"/>
-      <c r="S132" s="135"/>
-      <c r="T132" s="139"/>
-      <c r="U132" s="135" t="s">
-        <v>204</v>
-      </c>
-      <c r="V132" s="136" t="s">
-        <v>295</v>
-      </c>
+      <c r="R132" s="136"/>
+      <c r="S132" s="136"/>
+      <c r="T132" s="136"/>
+      <c r="U132" s="136"/>
+      <c r="V132" s="136"/>
       <c r="W132" s="136"/>
       <c r="X132" s="136"/>
       <c r="Y132" s="136"/>
       <c r="Z132" s="136"/>
-      <c r="AA132" s="135"/>
-      <c r="AB132" s="135"/>
-      <c r="AC132" s="135"/>
-      <c r="AD132" s="23"/>
-      <c r="AE132" s="23"/>
-      <c r="AF132" s="23"/>
-      <c r="AH132" s="23"/>
-      <c r="AI132" s="23"/>
-      <c r="AJ132" s="23"/>
-      <c r="AK132" s="23"/>
-      <c r="AL132" s="23"/>
-      <c r="AM132" s="23"/>
-      <c r="AN132" s="23"/>
-      <c r="AO132" s="23"/>
-      <c r="AP132" s="23"/>
-      <c r="AQ132" s="23"/>
+      <c r="AB132" s="136"/>
+      <c r="AC132" s="136"/>
+      <c r="AD132" s="123"/>
+      <c r="AE132" s="123"/>
+      <c r="AF132" s="123"/>
+      <c r="AG132" s="123"/>
+      <c r="AH132" s="123"/>
+      <c r="AI132" s="123"/>
+      <c r="AJ132" s="123"/>
+      <c r="AK132" s="123"/>
+      <c r="AL132" s="123"/>
+      <c r="AM132" s="123"/>
+      <c r="AN132" s="123"/>
+      <c r="AO132" s="123"/>
+      <c r="AP132" s="123"/>
+      <c r="AQ132" s="123"/>
       <c r="AR132" s="23"/>
       <c r="AS132" s="23"/>
       <c r="AT132" s="23"/>
@@ -16996,33 +17306,31 @@
       <c r="F133" s="68"/>
       <c r="G133" s="67"/>
       <c r="K133" s="23"/>
-      <c r="L133" s="67"/>
-      <c r="M133" s="135"/>
-      <c r="N133" s="136"/>
-      <c r="O133" s="136" t="s">
-        <v>231</v>
-      </c>
-      <c r="P133" s="136"/>
-      <c r="Q133" s="136"/>
-      <c r="R133" s="135"/>
-      <c r="S133" s="135"/>
-      <c r="T133" s="139"/>
-      <c r="U133" s="135" t="s">
-        <v>204</v>
-      </c>
-      <c r="V133" s="136" t="s">
-        <v>296</v>
-      </c>
-      <c r="W133" s="136"/>
-      <c r="X133" s="136"/>
-      <c r="Y133" s="136"/>
-      <c r="Z133" s="136"/>
-      <c r="AA133" s="135"/>
-      <c r="AB133" s="135"/>
-      <c r="AC133" s="135"/>
+      <c r="L133" s="158" t="s">
+        <v>166</v>
+      </c>
+      <c r="M133" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="N133" s="23"/>
+      <c r="O133" s="23"/>
+      <c r="P133" s="23"/>
+      <c r="Q133" s="23"/>
+      <c r="R133" s="23"/>
+      <c r="S133" s="23"/>
+      <c r="T133" s="23"/>
+      <c r="U133" s="23"/>
+      <c r="V133" s="23"/>
+      <c r="W133" s="23"/>
+      <c r="X133" s="23"/>
+      <c r="Y133" s="23"/>
+      <c r="Z133" s="23"/>
+      <c r="AB133" s="23"/>
+      <c r="AC133" s="23"/>
       <c r="AD133" s="23"/>
       <c r="AE133" s="23"/>
       <c r="AF133" s="23"/>
+      <c r="AG133" s="23"/>
       <c r="AH133" s="23"/>
       <c r="AI133" s="23"/>
       <c r="AJ133" s="23"/>
@@ -17042,46 +17350,46 @@
     <row r="134" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B134" s="67"/>
       <c r="C134" s="67"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
       <c r="F134" s="68"/>
       <c r="G134" s="67"/>
+      <c r="H134" s="23"/>
+      <c r="I134" s="23"/>
+      <c r="J134" s="23"/>
       <c r="K134" s="23"/>
-      <c r="L134" s="67"/>
-      <c r="M134" s="135"/>
-      <c r="N134" s="136"/>
-      <c r="O134" s="136" t="s">
-        <v>232</v>
-      </c>
-      <c r="P134" s="136"/>
-      <c r="Q134" s="136"/>
-      <c r="R134" s="135"/>
-      <c r="S134" s="135"/>
-      <c r="T134" s="139"/>
-      <c r="U134" s="135" t="s">
-        <v>204</v>
-      </c>
-      <c r="V134" s="136" t="s">
-        <v>297</v>
-      </c>
-      <c r="W134" s="136"/>
-      <c r="X134" s="136"/>
-      <c r="Y134" s="136"/>
-      <c r="Z134" s="136"/>
-      <c r="AA134" s="135"/>
-      <c r="AB134" s="135"/>
-      <c r="AC134" s="135"/>
-      <c r="AD134" s="23"/>
-      <c r="AE134" s="23"/>
-      <c r="AF134" s="23"/>
-      <c r="AH134" s="23"/>
-      <c r="AI134" s="23"/>
-      <c r="AJ134" s="23"/>
-      <c r="AK134" s="23"/>
-      <c r="AL134" s="23"/>
-      <c r="AM134" s="23"/>
-      <c r="AN134" s="23"/>
-      <c r="AO134" s="23"/>
-      <c r="AP134" s="23"/>
-      <c r="AQ134" s="23"/>
+      <c r="L134" s="122"/>
+      <c r="M134" s="123"/>
+      <c r="N134" s="123"/>
+      <c r="O134" s="123"/>
+      <c r="P134" s="123"/>
+      <c r="Q134" s="123"/>
+      <c r="R134" s="123"/>
+      <c r="S134" s="123"/>
+      <c r="T134" s="123"/>
+      <c r="U134" s="123"/>
+      <c r="V134" s="123"/>
+      <c r="W134" s="123"/>
+      <c r="X134" s="123"/>
+      <c r="Y134" s="123"/>
+      <c r="Z134" s="123"/>
+      <c r="AA134" s="123"/>
+      <c r="AB134" s="123"/>
+      <c r="AC134" s="123"/>
+      <c r="AD134" s="123"/>
+      <c r="AE134" s="123"/>
+      <c r="AF134" s="123"/>
+      <c r="AG134" s="123"/>
+      <c r="AH134" s="123"/>
+      <c r="AI134" s="123"/>
+      <c r="AJ134" s="123"/>
+      <c r="AK134" s="123"/>
+      <c r="AL134" s="123"/>
+      <c r="AM134" s="123"/>
+      <c r="AN134" s="123"/>
+      <c r="AO134" s="123"/>
+      <c r="AP134" s="123"/>
+      <c r="AQ134" s="123"/>
       <c r="AR134" s="23"/>
       <c r="AS134" s="23"/>
       <c r="AT134" s="23"/>
@@ -17089,87 +17397,99 @@
       <c r="AV134" s="68"/>
     </row>
     <row r="135" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B135" s="67"/>
-      <c r="C135" s="67"/>
-      <c r="F135" s="68"/>
-      <c r="G135" s="67"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="67"/>
-      <c r="M135" s="135"/>
-      <c r="N135" s="136"/>
-      <c r="O135" s="136" t="s">
-        <v>233</v>
-      </c>
-      <c r="P135" s="136"/>
-      <c r="Q135" s="136"/>
-      <c r="R135" s="135"/>
-      <c r="S135" s="135"/>
-      <c r="T135" s="139"/>
-      <c r="U135" s="135" t="s">
-        <v>204</v>
-      </c>
-      <c r="V135" s="136" t="s">
-        <v>298</v>
-      </c>
-      <c r="W135" s="136"/>
-      <c r="X135" s="136"/>
-      <c r="Y135" s="136"/>
-      <c r="Z135" s="136"/>
-      <c r="AA135" s="135"/>
-      <c r="AB135" s="135"/>
-      <c r="AC135" s="135"/>
-      <c r="AD135" s="23"/>
-      <c r="AE135" s="23"/>
-      <c r="AF135" s="23"/>
-      <c r="AH135" s="23"/>
-      <c r="AI135" s="23"/>
-      <c r="AJ135" s="23"/>
-      <c r="AK135" s="23"/>
-      <c r="AL135" s="23"/>
-      <c r="AM135" s="23"/>
-      <c r="AN135" s="23"/>
-      <c r="AO135" s="23"/>
-      <c r="AP135" s="23"/>
-      <c r="AQ135" s="23"/>
-      <c r="AR135" s="23"/>
-      <c r="AS135" s="23"/>
-      <c r="AT135" s="23"/>
-      <c r="AU135" s="23"/>
-      <c r="AV135" s="68"/>
+      <c r="B135" s="20">
+        <v>7</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21"/>
+      <c r="O135" s="21"/>
+      <c r="P135" s="21"/>
+      <c r="Q135" s="21"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="21"/>
+      <c r="T135" s="21"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="21"/>
+      <c r="W135" s="21"/>
+      <c r="X135" s="21"/>
+      <c r="Y135" s="21"/>
+      <c r="Z135" s="21"/>
+      <c r="AA135" s="21"/>
+      <c r="AB135" s="21"/>
+      <c r="AC135" s="21"/>
+      <c r="AD135" s="21"/>
+      <c r="AE135" s="21"/>
+      <c r="AF135" s="21"/>
+      <c r="AG135" s="21"/>
+      <c r="AH135" s="21"/>
+      <c r="AI135" s="21"/>
+      <c r="AJ135" s="21"/>
+      <c r="AK135" s="21"/>
+      <c r="AL135" s="21"/>
+      <c r="AM135" s="21"/>
+      <c r="AN135" s="21"/>
+      <c r="AO135" s="21"/>
+      <c r="AP135" s="21"/>
+      <c r="AQ135" s="21"/>
+      <c r="AR135" s="21"/>
+      <c r="AS135" s="21"/>
+      <c r="AT135" s="21"/>
+      <c r="AU135" s="21"/>
+      <c r="AV135" s="22"/>
     </row>
     <row r="136" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B136" s="67"/>
       <c r="C136" s="67"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
       <c r="F136" s="68"/>
-      <c r="G136" s="67"/>
+      <c r="G136" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H136" s="23"/>
+      <c r="I136" s="23"/>
+      <c r="J136" s="23"/>
       <c r="K136" s="23"/>
-      <c r="L136" s="67"/>
-      <c r="M136" s="135"/>
-      <c r="N136" s="136"/>
-      <c r="O136" s="136" t="s">
-        <v>208</v>
-      </c>
-      <c r="P136" s="136"/>
-      <c r="Q136" s="136"/>
-      <c r="R136" s="135"/>
-      <c r="S136" s="135"/>
-      <c r="T136" s="139"/>
-      <c r="U136" s="135" t="s">
-        <v>204</v>
-      </c>
-      <c r="V136" s="136" t="s">
-        <v>299</v>
-      </c>
-      <c r="W136" s="136"/>
-      <c r="X136" s="136"/>
-      <c r="Y136" s="136"/>
-      <c r="Z136" s="136"/>
-      <c r="AA136" s="135"/>
-      <c r="AB136" s="135"/>
-      <c r="AC136" s="135"/>
+      <c r="L136" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="M136" s="23"/>
+      <c r="N136" s="23"/>
+      <c r="O136" s="23"/>
+      <c r="P136" s="23"/>
+      <c r="Q136" s="23"/>
+      <c r="R136" s="23"/>
+      <c r="S136" s="23"/>
+      <c r="T136" s="23"/>
+      <c r="U136" s="23"/>
+      <c r="V136" s="23"/>
+      <c r="W136" s="23"/>
+      <c r="X136" s="23"/>
+      <c r="Y136" s="23"/>
+      <c r="Z136" s="23"/>
+      <c r="AA136" s="23"/>
+      <c r="AB136" s="23"/>
+      <c r="AC136" s="23"/>
       <c r="AD136" s="23"/>
       <c r="AE136" s="23"/>
       <c r="AF136" s="23"/>
+      <c r="AG136" s="23"/>
       <c r="AH136" s="23"/>
       <c r="AI136" s="23"/>
       <c r="AJ136" s="23"/>
@@ -17189,41 +17509,48 @@
     <row r="137" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B137" s="67"/>
       <c r="C137" s="67"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
       <c r="F137" s="68"/>
       <c r="G137" s="67"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="23"/>
       <c r="K137" s="23"/>
-      <c r="L137" s="122"/>
-      <c r="M137" s="137"/>
-      <c r="N137" s="137"/>
-      <c r="O137" s="137"/>
-      <c r="P137" s="137"/>
-      <c r="Q137" s="137"/>
-      <c r="R137" s="137"/>
-      <c r="S137" s="137"/>
-      <c r="T137" s="137"/>
-      <c r="U137" s="137"/>
-      <c r="V137" s="137"/>
-      <c r="W137" s="137"/>
-      <c r="X137" s="137"/>
-      <c r="Y137" s="137"/>
-      <c r="Z137" s="137"/>
-      <c r="AA137" s="137"/>
-      <c r="AB137" s="137"/>
-      <c r="AC137" s="137"/>
-      <c r="AD137" s="123"/>
-      <c r="AE137" s="123"/>
-      <c r="AF137" s="123"/>
-      <c r="AG137" s="123"/>
-      <c r="AH137" s="123"/>
-      <c r="AI137" s="123"/>
-      <c r="AJ137" s="123"/>
-      <c r="AK137" s="123"/>
-      <c r="AL137" s="123"/>
-      <c r="AM137" s="123"/>
-      <c r="AN137" s="123"/>
-      <c r="AO137" s="123"/>
-      <c r="AP137" s="123"/>
-      <c r="AQ137" s="123"/>
+      <c r="L137" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="M137" s="23"/>
+      <c r="N137" s="23"/>
+      <c r="O137" s="23"/>
+      <c r="P137" s="23"/>
+      <c r="Q137" s="23"/>
+      <c r="R137" s="23"/>
+      <c r="S137" s="23"/>
+      <c r="T137" s="23"/>
+      <c r="U137" s="23"/>
+      <c r="V137" s="23"/>
+      <c r="W137" s="23"/>
+      <c r="X137" s="23"/>
+      <c r="Y137" s="23"/>
+      <c r="Z137" s="23"/>
+      <c r="AA137" s="23"/>
+      <c r="AB137" s="23"/>
+      <c r="AC137" s="23"/>
+      <c r="AD137" s="23"/>
+      <c r="AE137" s="23"/>
+      <c r="AF137" s="23"/>
+      <c r="AG137" s="23"/>
+      <c r="AH137" s="23"/>
+      <c r="AI137" s="23"/>
+      <c r="AJ137" s="23"/>
+      <c r="AK137" s="23"/>
+      <c r="AL137" s="23"/>
+      <c r="AM137" s="23"/>
+      <c r="AN137" s="23"/>
+      <c r="AO137" s="23"/>
+      <c r="AP137" s="23"/>
+      <c r="AQ137" s="23"/>
       <c r="AR137" s="23"/>
       <c r="AS137" s="23"/>
       <c r="AT137" s="23"/>
@@ -17233,156 +17560,161 @@
     <row r="138" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B138" s="67"/>
       <c r="C138" s="67"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
       <c r="F138" s="68"/>
       <c r="G138" s="67"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="23"/>
       <c r="K138" s="23"/>
-      <c r="L138" s="67"/>
-      <c r="M138" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="N138" s="123" t="s">
-        <v>168</v>
-      </c>
-      <c r="O138" s="23"/>
-      <c r="P138" s="23"/>
-      <c r="Q138" s="23"/>
-      <c r="R138" s="23"/>
-      <c r="S138" s="23"/>
-      <c r="T138" s="23"/>
-      <c r="U138" s="23"/>
-      <c r="V138" s="23"/>
-      <c r="W138" s="23"/>
-      <c r="X138" s="23"/>
-      <c r="Y138" s="23"/>
-      <c r="Z138" s="23"/>
-      <c r="AA138" s="23"/>
-      <c r="AB138" s="23"/>
-      <c r="AC138" s="23"/>
-      <c r="AD138" s="23"/>
-      <c r="AE138" s="23"/>
-      <c r="AF138" s="23"/>
-      <c r="AG138" s="23"/>
-      <c r="AH138" s="23"/>
-      <c r="AI138" s="23"/>
-      <c r="AJ138" s="23"/>
-      <c r="AK138" s="23"/>
-      <c r="AL138" s="23"/>
-      <c r="AM138" s="23"/>
-      <c r="AN138" s="23"/>
-      <c r="AO138" s="23"/>
-      <c r="AP138" s="23"/>
-      <c r="AQ138" s="23"/>
-      <c r="AR138" s="23"/>
-      <c r="AS138" s="23"/>
-      <c r="AT138" s="23"/>
-      <c r="AU138" s="23"/>
-      <c r="AV138" s="68"/>
+      <c r="L138" s="24"/>
+      <c r="M138" s="25"/>
+      <c r="N138" s="25"/>
+      <c r="O138" s="25"/>
+      <c r="P138" s="25"/>
+      <c r="Q138" s="25"/>
+      <c r="R138" s="25"/>
+      <c r="S138" s="25"/>
+      <c r="T138" s="25"/>
+      <c r="U138" s="25"/>
+      <c r="V138" s="25"/>
+      <c r="W138" s="25"/>
+      <c r="X138" s="25"/>
+      <c r="Y138" s="25"/>
+      <c r="Z138" s="25"/>
+      <c r="AA138" s="25"/>
+      <c r="AB138" s="25"/>
+      <c r="AC138" s="25"/>
+      <c r="AD138" s="25"/>
+      <c r="AE138" s="25"/>
+      <c r="AF138" s="25"/>
+      <c r="AG138" s="25"/>
+      <c r="AH138" s="25"/>
+      <c r="AI138" s="25"/>
+      <c r="AJ138" s="25"/>
+      <c r="AK138" s="25"/>
+      <c r="AL138" s="25"/>
+      <c r="AM138" s="25"/>
+      <c r="AN138" s="25"/>
+      <c r="AO138" s="25"/>
+      <c r="AP138" s="25"/>
+      <c r="AQ138" s="25"/>
+      <c r="AR138" s="25"/>
+      <c r="AS138" s="25"/>
+      <c r="AT138" s="25"/>
+      <c r="AU138" s="25"/>
+      <c r="AV138" s="26"/>
     </row>
     <row r="139" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B139" s="67"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="68"/>
-      <c r="G139" s="67"/>
-      <c r="H139" s="23"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="23"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="122"/>
-      <c r="M139" s="123"/>
-      <c r="N139" s="123"/>
-      <c r="O139" s="123"/>
-      <c r="P139" s="123"/>
-      <c r="Q139" s="123"/>
-      <c r="R139" s="123"/>
-      <c r="S139" s="123"/>
-      <c r="T139" s="123"/>
-      <c r="U139" s="123"/>
-      <c r="V139" s="123"/>
-      <c r="W139" s="123"/>
-      <c r="X139" s="123"/>
-      <c r="Y139" s="123"/>
-      <c r="Z139" s="123"/>
-      <c r="AA139" s="123"/>
-      <c r="AB139" s="123"/>
-      <c r="AC139" s="123"/>
-      <c r="AD139" s="123"/>
-      <c r="AE139" s="123"/>
-      <c r="AF139" s="123"/>
-      <c r="AG139" s="123"/>
-      <c r="AH139" s="123"/>
-      <c r="AI139" s="123"/>
-      <c r="AJ139" s="123"/>
-      <c r="AK139" s="123"/>
-      <c r="AL139" s="123"/>
-      <c r="AM139" s="123"/>
-      <c r="AN139" s="123"/>
-      <c r="AO139" s="123"/>
-      <c r="AP139" s="123"/>
-      <c r="AQ139" s="123"/>
-      <c r="AR139" s="23"/>
-      <c r="AS139" s="23"/>
-      <c r="AT139" s="23"/>
-      <c r="AU139" s="23"/>
-      <c r="AV139" s="68"/>
+      <c r="B139" s="20">
+        <v>8</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M139" s="21"/>
+      <c r="N139" s="21"/>
+      <c r="O139" s="21"/>
+      <c r="P139" s="21"/>
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21"/>
+      <c r="T139" s="21"/>
+      <c r="U139" s="21"/>
+      <c r="V139" s="21"/>
+      <c r="W139" s="21"/>
+      <c r="X139" s="21"/>
+      <c r="Y139" s="21"/>
+      <c r="Z139" s="21"/>
+      <c r="AA139" s="21"/>
+      <c r="AB139" s="21"/>
+      <c r="AC139" s="21"/>
+      <c r="AD139" s="21"/>
+      <c r="AE139" s="21"/>
+      <c r="AF139" s="21"/>
+      <c r="AG139" s="21"/>
+      <c r="AH139" s="21"/>
+      <c r="AI139" s="21"/>
+      <c r="AJ139" s="21"/>
+      <c r="AK139" s="21"/>
+      <c r="AL139" s="21"/>
+      <c r="AM139" s="21"/>
+      <c r="AN139" s="21"/>
+      <c r="AO139" s="21"/>
+      <c r="AP139" s="21"/>
+      <c r="AQ139" s="21"/>
+      <c r="AR139" s="21"/>
+      <c r="AS139" s="21"/>
+      <c r="AT139" s="21"/>
+      <c r="AU139" s="21"/>
+      <c r="AV139" s="22"/>
     </row>
     <row r="140" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B140" s="20">
-        <v>7</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D140" s="21"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H140" s="21"/>
-      <c r="I140" s="21"/>
-      <c r="J140" s="21"/>
-      <c r="K140" s="21"/>
-      <c r="L140" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="M140" s="21"/>
-      <c r="N140" s="21"/>
-      <c r="O140" s="21"/>
-      <c r="P140" s="21"/>
-      <c r="Q140" s="21"/>
-      <c r="R140" s="21"/>
-      <c r="S140" s="21"/>
-      <c r="T140" s="21"/>
-      <c r="U140" s="21"/>
-      <c r="V140" s="21"/>
-      <c r="W140" s="21"/>
-      <c r="X140" s="21"/>
-      <c r="Y140" s="21"/>
-      <c r="Z140" s="21"/>
-      <c r="AA140" s="21"/>
-      <c r="AB140" s="21"/>
-      <c r="AC140" s="21"/>
-      <c r="AD140" s="21"/>
-      <c r="AE140" s="21"/>
-      <c r="AF140" s="21"/>
-      <c r="AG140" s="21"/>
-      <c r="AH140" s="21"/>
-      <c r="AI140" s="21"/>
-      <c r="AJ140" s="21"/>
-      <c r="AK140" s="21"/>
-      <c r="AL140" s="21"/>
-      <c r="AM140" s="21"/>
-      <c r="AN140" s="21"/>
-      <c r="AO140" s="21"/>
-      <c r="AP140" s="21"/>
-      <c r="AQ140" s="21"/>
-      <c r="AR140" s="21"/>
-      <c r="AS140" s="21"/>
-      <c r="AT140" s="21"/>
-      <c r="AU140" s="21"/>
-      <c r="AV140" s="22"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H140" s="23"/>
+      <c r="I140" s="23"/>
+      <c r="J140" s="23"/>
+      <c r="K140" s="23"/>
+      <c r="L140" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="M140" s="23"/>
+      <c r="N140" s="23"/>
+      <c r="O140" s="23"/>
+      <c r="P140" s="23"/>
+      <c r="Q140" s="23"/>
+      <c r="R140" s="23"/>
+      <c r="S140" s="23"/>
+      <c r="T140" s="23"/>
+      <c r="U140" s="23"/>
+      <c r="V140" s="23"/>
+      <c r="W140" s="23"/>
+      <c r="X140" s="23"/>
+      <c r="Y140" s="23"/>
+      <c r="Z140" s="23"/>
+      <c r="AA140" s="23"/>
+      <c r="AB140" s="23"/>
+      <c r="AC140" s="23"/>
+      <c r="AD140" s="23"/>
+      <c r="AE140" s="23"/>
+      <c r="AF140" s="23"/>
+      <c r="AG140" s="23"/>
+      <c r="AH140" s="23"/>
+      <c r="AI140" s="23"/>
+      <c r="AJ140" s="23"/>
+      <c r="AK140" s="23"/>
+      <c r="AL140" s="23"/>
+      <c r="AM140" s="23"/>
+      <c r="AN140" s="23"/>
+      <c r="AO140" s="23"/>
+      <c r="AP140" s="23"/>
+      <c r="AQ140" s="23"/>
+      <c r="AR140" s="23"/>
+      <c r="AS140" s="23"/>
+      <c r="AT140" s="23"/>
+      <c r="AU140" s="23"/>
+      <c r="AV140" s="68"/>
     </row>
     <row r="141" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B141" s="67"/>
@@ -17390,15 +17722,13 @@
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
       <c r="F141" s="68"/>
-      <c r="G141" s="67" t="s">
-        <v>76</v>
-      </c>
+      <c r="G141" s="67"/>
       <c r="H141" s="23"/>
       <c r="I141" s="23"/>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
       <c r="L141" s="67" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="M141" s="23"/>
       <c r="N141" s="23"/>
@@ -17448,169 +17778,157 @@
       <c r="I142" s="23"/>
       <c r="J142" s="23"/>
       <c r="K142" s="23"/>
-      <c r="L142" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="M142" s="23"/>
-      <c r="N142" s="23"/>
-      <c r="O142" s="23"/>
-      <c r="P142" s="23"/>
-      <c r="Q142" s="23"/>
-      <c r="R142" s="23"/>
-      <c r="S142" s="23"/>
-      <c r="T142" s="23"/>
-      <c r="U142" s="23"/>
-      <c r="V142" s="23"/>
-      <c r="W142" s="23"/>
-      <c r="X142" s="23"/>
-      <c r="Y142" s="23"/>
-      <c r="Z142" s="23"/>
-      <c r="AA142" s="23"/>
-      <c r="AB142" s="23"/>
-      <c r="AC142" s="23"/>
-      <c r="AD142" s="23"/>
-      <c r="AE142" s="23"/>
-      <c r="AF142" s="23"/>
-      <c r="AG142" s="23"/>
-      <c r="AH142" s="23"/>
-      <c r="AI142" s="23"/>
-      <c r="AJ142" s="23"/>
-      <c r="AK142" s="23"/>
-      <c r="AL142" s="23"/>
-      <c r="AM142" s="23"/>
-      <c r="AN142" s="23"/>
-      <c r="AO142" s="23"/>
-      <c r="AP142" s="23"/>
-      <c r="AQ142" s="23"/>
-      <c r="AR142" s="23"/>
-      <c r="AS142" s="23"/>
-      <c r="AT142" s="23"/>
-      <c r="AU142" s="23"/>
-      <c r="AV142" s="68"/>
+      <c r="L142" s="24"/>
+      <c r="M142" s="25"/>
+      <c r="N142" s="25"/>
+      <c r="O142" s="25"/>
+      <c r="P142" s="25"/>
+      <c r="Q142" s="25"/>
+      <c r="R142" s="25"/>
+      <c r="S142" s="25"/>
+      <c r="T142" s="25"/>
+      <c r="U142" s="25"/>
+      <c r="V142" s="25"/>
+      <c r="W142" s="25"/>
+      <c r="X142" s="25"/>
+      <c r="Y142" s="25"/>
+      <c r="Z142" s="25"/>
+      <c r="AA142" s="25"/>
+      <c r="AB142" s="25"/>
+      <c r="AC142" s="25"/>
+      <c r="AD142" s="25"/>
+      <c r="AE142" s="25"/>
+      <c r="AF142" s="25"/>
+      <c r="AG142" s="25"/>
+      <c r="AH142" s="25"/>
+      <c r="AI142" s="25"/>
+      <c r="AJ142" s="25"/>
+      <c r="AK142" s="25"/>
+      <c r="AL142" s="25"/>
+      <c r="AM142" s="25"/>
+      <c r="AN142" s="25"/>
+      <c r="AO142" s="25"/>
+      <c r="AP142" s="25"/>
+      <c r="AQ142" s="25"/>
+      <c r="AR142" s="25"/>
+      <c r="AS142" s="25"/>
+      <c r="AT142" s="25"/>
+      <c r="AU142" s="25"/>
+      <c r="AV142" s="26"/>
     </row>
     <row r="143" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B143" s="67"/>
-      <c r="C143" s="67"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="23"/>
-      <c r="I143" s="23"/>
-      <c r="J143" s="23"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="24"/>
-      <c r="M143" s="25"/>
-      <c r="N143" s="25"/>
-      <c r="O143" s="25"/>
-      <c r="P143" s="25"/>
-      <c r="Q143" s="25"/>
-      <c r="R143" s="25"/>
-      <c r="S143" s="25"/>
-      <c r="T143" s="25"/>
-      <c r="U143" s="25"/>
-      <c r="V143" s="25"/>
-      <c r="W143" s="25"/>
-      <c r="X143" s="25"/>
-      <c r="Y143" s="25"/>
-      <c r="Z143" s="25"/>
-      <c r="AA143" s="25"/>
-      <c r="AB143" s="25"/>
-      <c r="AC143" s="25"/>
-      <c r="AD143" s="25"/>
-      <c r="AE143" s="25"/>
-      <c r="AF143" s="25"/>
-      <c r="AG143" s="25"/>
-      <c r="AH143" s="25"/>
-      <c r="AI143" s="25"/>
-      <c r="AJ143" s="25"/>
-      <c r="AK143" s="25"/>
-      <c r="AL143" s="25"/>
-      <c r="AM143" s="25"/>
-      <c r="AN143" s="25"/>
-      <c r="AO143" s="25"/>
-      <c r="AP143" s="25"/>
-      <c r="AQ143" s="25"/>
-      <c r="AR143" s="25"/>
-      <c r="AS143" s="25"/>
-      <c r="AT143" s="25"/>
-      <c r="AU143" s="25"/>
-      <c r="AV143" s="26"/>
+      <c r="B143" s="20">
+        <v>9</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H143" s="21"/>
+      <c r="I143" s="21"/>
+      <c r="J143" s="21"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M143" s="21"/>
+      <c r="N143" s="21"/>
+      <c r="O143" s="21"/>
+      <c r="P143" s="21"/>
+      <c r="Q143" s="21"/>
+      <c r="R143" s="21"/>
+      <c r="S143" s="21"/>
+      <c r="T143" s="21"/>
+      <c r="U143" s="21"/>
+      <c r="V143" s="21"/>
+      <c r="W143" s="21"/>
+      <c r="X143" s="21"/>
+      <c r="Y143" s="21"/>
+      <c r="Z143" s="21"/>
+      <c r="AA143" s="21"/>
+      <c r="AB143" s="21"/>
+      <c r="AC143" s="21"/>
+      <c r="AD143" s="21"/>
+      <c r="AE143" s="21"/>
+      <c r="AF143" s="21"/>
+      <c r="AG143" s="21"/>
+      <c r="AH143" s="21"/>
+      <c r="AI143" s="21"/>
+      <c r="AJ143" s="21"/>
+      <c r="AK143" s="21"/>
+      <c r="AL143" s="21"/>
+      <c r="AM143" s="21"/>
+      <c r="AN143" s="21"/>
+      <c r="AO143" s="21"/>
+      <c r="AP143" s="21"/>
+      <c r="AQ143" s="21"/>
+      <c r="AR143" s="21"/>
+      <c r="AS143" s="21"/>
+      <c r="AT143" s="21"/>
+      <c r="AU143" s="21"/>
+      <c r="AV143" s="22"/>
     </row>
     <row r="144" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B144" s="20">
-        <v>8</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H144" s="21"/>
-      <c r="I144" s="21"/>
-      <c r="J144" s="21"/>
-      <c r="K144" s="21"/>
-      <c r="L144" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="M144" s="21"/>
-      <c r="N144" s="21"/>
-      <c r="O144" s="21"/>
-      <c r="P144" s="21"/>
-      <c r="Q144" s="21"/>
-      <c r="R144" s="21"/>
-      <c r="S144" s="21"/>
-      <c r="T144" s="21"/>
-      <c r="U144" s="21"/>
-      <c r="V144" s="21"/>
-      <c r="W144" s="21"/>
-      <c r="X144" s="21"/>
-      <c r="Y144" s="21"/>
-      <c r="Z144" s="21"/>
-      <c r="AA144" s="21"/>
-      <c r="AB144" s="21"/>
-      <c r="AC144" s="21"/>
-      <c r="AD144" s="21"/>
-      <c r="AE144" s="21"/>
-      <c r="AF144" s="21"/>
-      <c r="AG144" s="21"/>
-      <c r="AH144" s="21"/>
-      <c r="AI144" s="21"/>
-      <c r="AJ144" s="21"/>
-      <c r="AK144" s="21"/>
-      <c r="AL144" s="21"/>
-      <c r="AM144" s="21"/>
-      <c r="AN144" s="21"/>
-      <c r="AO144" s="21"/>
-      <c r="AP144" s="21"/>
-      <c r="AQ144" s="21"/>
-      <c r="AR144" s="21"/>
-      <c r="AS144" s="21"/>
-      <c r="AT144" s="21"/>
-      <c r="AU144" s="21"/>
-      <c r="AV144" s="22"/>
+      <c r="B144" s="67"/>
+      <c r="C144" s="67"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="L144" s="67"/>
+      <c r="M144" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="N144" s="23"/>
+      <c r="O144" s="23"/>
+      <c r="P144" s="23"/>
+      <c r="Q144" s="23"/>
+      <c r="R144" s="23"/>
+      <c r="S144" s="23"/>
+      <c r="T144" s="23"/>
+      <c r="U144" s="23"/>
+      <c r="V144" s="23"/>
+      <c r="W144" s="23"/>
+      <c r="X144" s="23"/>
+      <c r="Y144" s="23"/>
+      <c r="Z144" s="23"/>
+      <c r="AA144" s="23"/>
+      <c r="AB144" s="23"/>
+      <c r="AC144" s="23"/>
+      <c r="AD144" s="23"/>
+      <c r="AE144" s="23"/>
+      <c r="AF144" s="23"/>
+      <c r="AG144" s="23"/>
+      <c r="AH144" s="23"/>
+      <c r="AI144" s="23"/>
+      <c r="AJ144" s="23"/>
+      <c r="AK144" s="23"/>
+      <c r="AL144" s="23"/>
+      <c r="AM144" s="23"/>
+      <c r="AN144" s="23"/>
+      <c r="AO144" s="23"/>
+      <c r="AP144" s="23"/>
+      <c r="AQ144" s="23"/>
+      <c r="AR144" s="23"/>
+      <c r="AS144" s="23"/>
+      <c r="AT144" s="23"/>
+      <c r="AU144" s="23"/>
+      <c r="AV144" s="68"/>
     </row>
     <row r="145" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B145" s="67"/>
       <c r="C145" s="67"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
       <c r="F145" s="68"/>
-      <c r="G145" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="H145" s="23"/>
-      <c r="I145" s="23"/>
-      <c r="J145" s="23"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="M145" s="23"/>
+      <c r="G145" s="67"/>
+      <c r="L145" s="67"/>
+      <c r="M145" s="23" t="s">
+        <v>161</v>
+      </c>
       <c r="N145" s="23"/>
       <c r="O145" s="23"/>
       <c r="P145" s="23"/>
@@ -17650,17 +17968,9 @@
     <row r="146" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B146" s="67"/>
       <c r="C146" s="67"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
       <c r="F146" s="68"/>
       <c r="G146" s="67"/>
-      <c r="H146" s="23"/>
-      <c r="I146" s="23"/>
-      <c r="J146" s="23"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="67" t="s">
-        <v>314</v>
-      </c>
+      <c r="L146" s="67"/>
       <c r="M146" s="23"/>
       <c r="N146" s="23"/>
       <c r="O146" s="23"/>
@@ -17699,408 +18009,437 @@
       <c r="AV146" s="68"/>
     </row>
     <row r="147" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B147" s="67"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="68"/>
-      <c r="G147" s="67"/>
-      <c r="H147" s="23"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="24"/>
-      <c r="M147" s="25"/>
-      <c r="N147" s="25"/>
-      <c r="O147" s="25"/>
-      <c r="P147" s="25"/>
-      <c r="Q147" s="25"/>
-      <c r="R147" s="25"/>
-      <c r="S147" s="25"/>
-      <c r="T147" s="25"/>
-      <c r="U147" s="25"/>
-      <c r="V147" s="25"/>
-      <c r="W147" s="25"/>
-      <c r="X147" s="25"/>
-      <c r="Y147" s="25"/>
-      <c r="Z147" s="25"/>
-      <c r="AA147" s="25"/>
-      <c r="AB147" s="25"/>
-      <c r="AC147" s="25"/>
-      <c r="AD147" s="25"/>
-      <c r="AE147" s="25"/>
-      <c r="AF147" s="25"/>
-      <c r="AG147" s="25"/>
-      <c r="AH147" s="25"/>
-      <c r="AI147" s="25"/>
-      <c r="AJ147" s="25"/>
-      <c r="AK147" s="25"/>
-      <c r="AL147" s="25"/>
-      <c r="AM147" s="25"/>
-      <c r="AN147" s="25"/>
-      <c r="AO147" s="25"/>
-      <c r="AP147" s="25"/>
-      <c r="AQ147" s="25"/>
-      <c r="AR147" s="25"/>
-      <c r="AS147" s="25"/>
-      <c r="AT147" s="25"/>
-      <c r="AU147" s="25"/>
-      <c r="AV147" s="26"/>
+      <c r="B147" s="20">
+        <v>10</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="M147" s="21"/>
+      <c r="N147" s="21"/>
+      <c r="O147" s="21"/>
+      <c r="P147" s="21"/>
+      <c r="Q147" s="21"/>
+      <c r="R147" s="21"/>
+      <c r="S147" s="21"/>
+      <c r="T147" s="21"/>
+      <c r="U147" s="21"/>
+      <c r="V147" s="21"/>
+      <c r="W147" s="21"/>
+      <c r="X147" s="21"/>
+      <c r="Y147" s="21"/>
+      <c r="Z147" s="21"/>
+      <c r="AA147" s="21"/>
+      <c r="AB147" s="21"/>
+      <c r="AC147" s="21"/>
+      <c r="AD147" s="21"/>
+      <c r="AE147" s="21"/>
+      <c r="AF147" s="21"/>
+      <c r="AG147" s="21"/>
+      <c r="AH147" s="21"/>
+      <c r="AI147" s="21"/>
+      <c r="AJ147" s="21"/>
+      <c r="AK147" s="21"/>
+      <c r="AL147" s="21"/>
+      <c r="AM147" s="21"/>
+      <c r="AN147" s="21"/>
+      <c r="AO147" s="21"/>
+      <c r="AP147" s="21"/>
+      <c r="AQ147" s="21"/>
+      <c r="AR147" s="21"/>
+      <c r="AS147" s="21"/>
+      <c r="AT147" s="21"/>
+      <c r="AU147" s="21"/>
+      <c r="AV147" s="22"/>
     </row>
     <row r="148" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B148" s="20">
-        <v>9</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H148" s="21"/>
-      <c r="I148" s="21"/>
-      <c r="J148" s="21"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="M148" s="21"/>
-      <c r="N148" s="21"/>
-      <c r="O148" s="21"/>
-      <c r="P148" s="21"/>
-      <c r="Q148" s="21"/>
-      <c r="R148" s="21"/>
-      <c r="S148" s="21"/>
-      <c r="T148" s="21"/>
-      <c r="U148" s="21"/>
-      <c r="V148" s="21"/>
-      <c r="W148" s="21"/>
-      <c r="X148" s="21"/>
-      <c r="Y148" s="21"/>
-      <c r="Z148" s="21"/>
-      <c r="AA148" s="21"/>
-      <c r="AB148" s="21"/>
-      <c r="AC148" s="21"/>
-      <c r="AD148" s="21"/>
-      <c r="AE148" s="21"/>
-      <c r="AF148" s="21"/>
-      <c r="AG148" s="21"/>
-      <c r="AH148" s="21"/>
-      <c r="AI148" s="21"/>
-      <c r="AJ148" s="21"/>
-      <c r="AK148" s="21"/>
-      <c r="AL148" s="21"/>
-      <c r="AM148" s="21"/>
-      <c r="AN148" s="21"/>
-      <c r="AO148" s="21"/>
-      <c r="AP148" s="21"/>
-      <c r="AQ148" s="21"/>
-      <c r="AR148" s="21"/>
-      <c r="AS148" s="21"/>
-      <c r="AT148" s="21"/>
-      <c r="AU148" s="21"/>
-      <c r="AV148" s="22"/>
+      <c r="B148" s="67"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="68"/>
+      <c r="G148" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H148" s="23"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="23"/>
+      <c r="K148" s="23"/>
+      <c r="L148" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="M148" s="23"/>
+      <c r="N148" s="23"/>
+      <c r="O148" s="23"/>
+      <c r="P148" s="23"/>
+      <c r="Q148" s="23"/>
+      <c r="R148" s="23"/>
+      <c r="S148" s="23"/>
+      <c r="T148" s="23"/>
+      <c r="U148" s="23"/>
+      <c r="V148" s="23"/>
+      <c r="W148" s="23"/>
+      <c r="X148" s="23"/>
+      <c r="Y148" s="23"/>
+      <c r="Z148" s="23"/>
+      <c r="AA148" s="23"/>
+      <c r="AB148" s="23"/>
+      <c r="AC148" s="23"/>
+      <c r="AD148" s="23"/>
+      <c r="AE148" s="23"/>
+      <c r="AF148" s="23"/>
+      <c r="AG148" s="23"/>
+      <c r="AH148" s="23"/>
+      <c r="AI148" s="23"/>
+      <c r="AJ148" s="23"/>
+      <c r="AK148" s="23"/>
+      <c r="AL148" s="23"/>
+      <c r="AM148" s="23"/>
+      <c r="AN148" s="23"/>
+      <c r="AO148" s="23"/>
+      <c r="AP148" s="23"/>
+      <c r="AQ148" s="23"/>
+      <c r="AR148" s="23"/>
+      <c r="AS148" s="23"/>
+      <c r="AT148" s="23"/>
+      <c r="AU148" s="23"/>
+      <c r="AV148" s="68"/>
     </row>
     <row r="149" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B149" s="67"/>
-      <c r="C149" s="67"/>
-      <c r="F149" s="68"/>
-      <c r="G149" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="L149" s="67"/>
-      <c r="M149" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="N149" s="23"/>
-      <c r="O149" s="23"/>
-      <c r="P149" s="23"/>
-      <c r="Q149" s="23"/>
-      <c r="R149" s="23"/>
-      <c r="S149" s="23"/>
-      <c r="T149" s="23"/>
-      <c r="U149" s="23"/>
-      <c r="V149" s="23"/>
-      <c r="W149" s="23"/>
-      <c r="X149" s="23"/>
-      <c r="Y149" s="23"/>
-      <c r="Z149" s="23"/>
-      <c r="AA149" s="23"/>
-      <c r="AB149" s="23"/>
-      <c r="AC149" s="23"/>
-      <c r="AD149" s="23"/>
-      <c r="AE149" s="23"/>
-      <c r="AF149" s="23"/>
-      <c r="AG149" s="23"/>
-      <c r="AH149" s="23"/>
-      <c r="AI149" s="23"/>
-      <c r="AJ149" s="23"/>
-      <c r="AK149" s="23"/>
-      <c r="AL149" s="23"/>
-      <c r="AM149" s="23"/>
-      <c r="AN149" s="23"/>
-      <c r="AO149" s="23"/>
-      <c r="AP149" s="23"/>
-      <c r="AQ149" s="23"/>
-      <c r="AR149" s="23"/>
-      <c r="AS149" s="23"/>
-      <c r="AT149" s="23"/>
-      <c r="AU149" s="23"/>
-      <c r="AV149" s="68"/>
-    </row>
-    <row r="150" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B150" s="67"/>
-      <c r="C150" s="67"/>
-      <c r="F150" s="68"/>
-      <c r="G150" s="67"/>
-      <c r="L150" s="67"/>
-      <c r="M150" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="N150" s="23"/>
-      <c r="O150" s="23"/>
-      <c r="P150" s="23"/>
-      <c r="Q150" s="23"/>
-      <c r="R150" s="23"/>
-      <c r="S150" s="23"/>
-      <c r="T150" s="23"/>
-      <c r="U150" s="23"/>
-      <c r="V150" s="23"/>
-      <c r="W150" s="23"/>
-      <c r="X150" s="23"/>
-      <c r="Y150" s="23"/>
-      <c r="Z150" s="23"/>
-      <c r="AA150" s="23"/>
-      <c r="AB150" s="23"/>
-      <c r="AC150" s="23"/>
-      <c r="AD150" s="23"/>
-      <c r="AE150" s="23"/>
-      <c r="AF150" s="23"/>
-      <c r="AG150" s="23"/>
-      <c r="AH150" s="23"/>
-      <c r="AI150" s="23"/>
-      <c r="AJ150" s="23"/>
-      <c r="AK150" s="23"/>
-      <c r="AL150" s="23"/>
-      <c r="AM150" s="23"/>
-      <c r="AN150" s="23"/>
-      <c r="AO150" s="23"/>
-      <c r="AP150" s="23"/>
-      <c r="AQ150" s="23"/>
-      <c r="AR150" s="23"/>
-      <c r="AS150" s="23"/>
-      <c r="AT150" s="23"/>
-      <c r="AU150" s="23"/>
-      <c r="AV150" s="68"/>
-    </row>
-    <row r="151" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B151" s="67"/>
-      <c r="C151" s="67"/>
-      <c r="F151" s="68"/>
-      <c r="G151" s="67"/>
-      <c r="L151" s="67"/>
-      <c r="M151" s="23"/>
-      <c r="N151" s="23"/>
-      <c r="O151" s="23"/>
-      <c r="P151" s="23"/>
-      <c r="Q151" s="23"/>
-      <c r="R151" s="23"/>
-      <c r="S151" s="23"/>
-      <c r="T151" s="23"/>
-      <c r="U151" s="23"/>
-      <c r="V151" s="23"/>
-      <c r="W151" s="23"/>
-      <c r="X151" s="23"/>
-      <c r="Y151" s="23"/>
-      <c r="Z151" s="23"/>
-      <c r="AA151" s="23"/>
-      <c r="AB151" s="23"/>
-      <c r="AC151" s="23"/>
-      <c r="AD151" s="23"/>
-      <c r="AE151" s="23"/>
-      <c r="AF151" s="23"/>
-      <c r="AG151" s="23"/>
-      <c r="AH151" s="23"/>
-      <c r="AI151" s="23"/>
-      <c r="AJ151" s="23"/>
-      <c r="AK151" s="23"/>
-      <c r="AL151" s="23"/>
-      <c r="AM151" s="23"/>
-      <c r="AN151" s="23"/>
-      <c r="AO151" s="23"/>
-      <c r="AP151" s="23"/>
-      <c r="AQ151" s="23"/>
-      <c r="AR151" s="23"/>
-      <c r="AS151" s="23"/>
-      <c r="AT151" s="23"/>
-      <c r="AU151" s="23"/>
-      <c r="AV151" s="68"/>
-    </row>
-    <row r="152" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B152" s="20">
-        <v>10</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D152" s="21"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="22"/>
-      <c r="G152" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H152" s="21"/>
-      <c r="I152" s="21"/>
-      <c r="J152" s="21"/>
-      <c r="K152" s="21"/>
-      <c r="L152" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M152" s="21"/>
-      <c r="N152" s="21"/>
-      <c r="O152" s="21"/>
-      <c r="P152" s="21"/>
-      <c r="Q152" s="21"/>
-      <c r="R152" s="21"/>
-      <c r="S152" s="21"/>
-      <c r="T152" s="21"/>
-      <c r="U152" s="21"/>
-      <c r="V152" s="21"/>
-      <c r="W152" s="21"/>
-      <c r="X152" s="21"/>
-      <c r="Y152" s="21"/>
-      <c r="Z152" s="21"/>
-      <c r="AA152" s="21"/>
-      <c r="AB152" s="21"/>
-      <c r="AC152" s="21"/>
-      <c r="AD152" s="21"/>
-      <c r="AE152" s="21"/>
-      <c r="AF152" s="21"/>
-      <c r="AG152" s="21"/>
-      <c r="AH152" s="21"/>
-      <c r="AI152" s="21"/>
-      <c r="AJ152" s="21"/>
-      <c r="AK152" s="21"/>
-      <c r="AL152" s="21"/>
-      <c r="AM152" s="21"/>
-      <c r="AN152" s="21"/>
-      <c r="AO152" s="21"/>
-      <c r="AP152" s="21"/>
-      <c r="AQ152" s="21"/>
-      <c r="AR152" s="21"/>
-      <c r="AS152" s="21"/>
-      <c r="AT152" s="21"/>
-      <c r="AU152" s="21"/>
-      <c r="AV152" s="22"/>
-    </row>
-    <row r="153" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B153" s="67"/>
-      <c r="C153" s="67"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
-      <c r="F153" s="68"/>
-      <c r="G153" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="H153" s="23"/>
-      <c r="I153" s="23"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="M153" s="23"/>
-      <c r="N153" s="23"/>
-      <c r="O153" s="23"/>
-      <c r="P153" s="23"/>
-      <c r="Q153" s="23"/>
-      <c r="R153" s="23"/>
-      <c r="S153" s="23"/>
-      <c r="T153" s="23"/>
-      <c r="U153" s="23"/>
-      <c r="V153" s="23"/>
-      <c r="W153" s="23"/>
-      <c r="X153" s="23"/>
-      <c r="Y153" s="23"/>
-      <c r="Z153" s="23"/>
-      <c r="AA153" s="23"/>
-      <c r="AB153" s="23"/>
-      <c r="AC153" s="23"/>
-      <c r="AD153" s="23"/>
-      <c r="AE153" s="23"/>
-      <c r="AF153" s="23"/>
-      <c r="AG153" s="23"/>
-      <c r="AH153" s="23"/>
-      <c r="AI153" s="23"/>
-      <c r="AJ153" s="23"/>
-      <c r="AK153" s="23"/>
-      <c r="AL153" s="23"/>
-      <c r="AM153" s="23"/>
-      <c r="AN153" s="23"/>
-      <c r="AO153" s="23"/>
-      <c r="AP153" s="23"/>
-      <c r="AQ153" s="23"/>
-      <c r="AR153" s="23"/>
-      <c r="AS153" s="23"/>
-      <c r="AT153" s="23"/>
-      <c r="AU153" s="23"/>
-      <c r="AV153" s="68"/>
-    </row>
-    <row r="154" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B154" s="24"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="25"/>
-      <c r="F154" s="26"/>
-      <c r="G154" s="24"/>
-      <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="25"/>
-      <c r="K154" s="25"/>
-      <c r="L154" s="24"/>
-      <c r="M154" s="25"/>
-      <c r="N154" s="25"/>
-      <c r="O154" s="25"/>
-      <c r="P154" s="25"/>
-      <c r="Q154" s="25"/>
-      <c r="R154" s="25"/>
-      <c r="S154" s="25"/>
-      <c r="T154" s="25"/>
-      <c r="U154" s="25"/>
-      <c r="V154" s="25"/>
-      <c r="W154" s="25"/>
-      <c r="X154" s="25"/>
-      <c r="Y154" s="25"/>
-      <c r="Z154" s="25"/>
-      <c r="AA154" s="25"/>
-      <c r="AB154" s="25"/>
-      <c r="AC154" s="25"/>
-      <c r="AD154" s="25"/>
-      <c r="AE154" s="25"/>
-      <c r="AF154" s="25"/>
-      <c r="AG154" s="25"/>
-      <c r="AH154" s="25"/>
-      <c r="AI154" s="25"/>
-      <c r="AJ154" s="25"/>
-      <c r="AK154" s="25"/>
-      <c r="AL154" s="25"/>
-      <c r="AM154" s="25"/>
-      <c r="AN154" s="25"/>
-      <c r="AO154" s="25"/>
-      <c r="AP154" s="25"/>
-      <c r="AQ154" s="25"/>
-      <c r="AR154" s="25"/>
-      <c r="AS154" s="25"/>
-      <c r="AT154" s="25"/>
-      <c r="AU154" s="25"/>
-      <c r="AV154" s="26"/>
-    </row>
-    <row r="155" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="156" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="157" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="25"/>
+      <c r="K149" s="25"/>
+      <c r="L149" s="24"/>
+      <c r="M149" s="25"/>
+      <c r="N149" s="25"/>
+      <c r="O149" s="25"/>
+      <c r="P149" s="25"/>
+      <c r="Q149" s="25"/>
+      <c r="R149" s="25"/>
+      <c r="S149" s="25"/>
+      <c r="T149" s="25"/>
+      <c r="U149" s="25"/>
+      <c r="V149" s="25"/>
+      <c r="W149" s="25"/>
+      <c r="X149" s="25"/>
+      <c r="Y149" s="25"/>
+      <c r="Z149" s="25"/>
+      <c r="AA149" s="25"/>
+      <c r="AB149" s="25"/>
+      <c r="AC149" s="25"/>
+      <c r="AD149" s="25"/>
+      <c r="AE149" s="25"/>
+      <c r="AF149" s="25"/>
+      <c r="AG149" s="25"/>
+      <c r="AH149" s="25"/>
+      <c r="AI149" s="25"/>
+      <c r="AJ149" s="25"/>
+      <c r="AK149" s="25"/>
+      <c r="AL149" s="25"/>
+      <c r="AM149" s="25"/>
+      <c r="AN149" s="25"/>
+      <c r="AO149" s="25"/>
+      <c r="AP149" s="25"/>
+      <c r="AQ149" s="25"/>
+      <c r="AR149" s="25"/>
+      <c r="AS149" s="25"/>
+      <c r="AT149" s="25"/>
+      <c r="AU149" s="25"/>
+      <c r="AV149" s="26"/>
+    </row>
+    <row r="150" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="152" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="153" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A153" s="52"/>
+      <c r="B153" s="52"/>
+      <c r="C153" s="52"/>
+      <c r="D153" s="52"/>
+      <c r="E153" s="52"/>
+      <c r="F153" s="52"/>
+      <c r="G153" s="52"/>
+      <c r="H153" s="52"/>
+      <c r="I153" s="52"/>
+      <c r="J153" s="52"/>
+      <c r="K153" s="52"/>
+      <c r="L153" s="52"/>
+      <c r="M153" s="52"/>
+      <c r="N153" s="52"/>
+      <c r="O153" s="52"/>
+      <c r="P153" s="52"/>
+      <c r="Q153" s="52"/>
+      <c r="R153" s="52"/>
+      <c r="S153" s="52"/>
+      <c r="T153" s="52"/>
+      <c r="U153" s="52"/>
+      <c r="V153" s="52"/>
+      <c r="W153" s="52"/>
+      <c r="X153" s="52"/>
+      <c r="Y153" s="52"/>
+      <c r="Z153" s="52"/>
+      <c r="AA153" s="52"/>
+      <c r="AB153" s="52"/>
+      <c r="AC153" s="52"/>
+      <c r="AD153" s="52"/>
+      <c r="AE153" s="52"/>
+      <c r="AF153" s="52"/>
+      <c r="AG153" s="52"/>
+      <c r="AH153" s="52"/>
+      <c r="AI153" s="52"/>
+      <c r="AJ153" s="52"/>
+      <c r="AK153" s="52"/>
+      <c r="AL153" s="52"/>
+      <c r="AM153" s="52"/>
+      <c r="AN153" s="52"/>
+      <c r="AO153" s="52"/>
+      <c r="AP153" s="52"/>
+      <c r="AQ153" s="52"/>
+      <c r="AR153" s="52"/>
+      <c r="AS153" s="52"/>
+      <c r="AT153" s="52"/>
+      <c r="AU153" s="52"/>
+      <c r="AV153" s="52"/>
+      <c r="AW153" s="52"/>
+      <c r="AX153" s="52"/>
+      <c r="AY153" s="52"/>
+      <c r="AZ153" s="52"/>
+    </row>
+    <row r="154" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A154" s="52"/>
+      <c r="B154" s="52"/>
+      <c r="C154" s="52"/>
+      <c r="D154" s="52"/>
+      <c r="E154" s="52"/>
+      <c r="F154" s="52"/>
+      <c r="G154" s="52"/>
+      <c r="H154" s="52"/>
+      <c r="I154" s="52"/>
+      <c r="J154" s="52"/>
+      <c r="K154" s="52"/>
+      <c r="L154" s="52"/>
+      <c r="M154" s="52"/>
+      <c r="N154" s="52"/>
+      <c r="O154" s="52"/>
+      <c r="P154" s="52"/>
+      <c r="Q154" s="52"/>
+      <c r="R154" s="52"/>
+      <c r="S154" s="52"/>
+      <c r="T154" s="52"/>
+      <c r="U154" s="52"/>
+      <c r="V154" s="52"/>
+      <c r="W154" s="52"/>
+      <c r="X154" s="52"/>
+      <c r="Y154" s="52"/>
+      <c r="Z154" s="52"/>
+      <c r="AA154" s="52"/>
+      <c r="AB154" s="52"/>
+      <c r="AC154" s="52"/>
+      <c r="AD154" s="52"/>
+      <c r="AE154" s="52"/>
+      <c r="AF154" s="52"/>
+      <c r="AG154" s="52"/>
+      <c r="AH154" s="52"/>
+      <c r="AI154" s="52"/>
+      <c r="AJ154" s="52"/>
+      <c r="AK154" s="52"/>
+      <c r="AL154" s="52"/>
+      <c r="AM154" s="52"/>
+      <c r="AN154" s="52"/>
+      <c r="AO154" s="52"/>
+      <c r="AP154" s="52"/>
+      <c r="AQ154" s="52"/>
+      <c r="AR154" s="52"/>
+      <c r="AS154" s="52"/>
+      <c r="AT154" s="52"/>
+      <c r="AU154" s="52"/>
+      <c r="AV154" s="52"/>
+      <c r="AW154" s="52"/>
+      <c r="AX154" s="52"/>
+      <c r="AY154" s="52"/>
+      <c r="AZ154" s="52"/>
+    </row>
+    <row r="155" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A155" s="52"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="52"/>
+      <c r="D155" s="52"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="52"/>
+      <c r="G155" s="52"/>
+      <c r="H155" s="52"/>
+      <c r="I155" s="52"/>
+      <c r="J155" s="52"/>
+      <c r="K155" s="52"/>
+      <c r="L155" s="52"/>
+      <c r="M155" s="52"/>
+      <c r="N155" s="52"/>
+      <c r="O155" s="52"/>
+      <c r="P155" s="52"/>
+      <c r="Q155" s="52"/>
+      <c r="R155" s="52"/>
+      <c r="S155" s="52"/>
+      <c r="T155" s="52"/>
+      <c r="U155" s="52"/>
+      <c r="V155" s="52"/>
+      <c r="W155" s="52"/>
+      <c r="X155" s="52"/>
+      <c r="Y155" s="52"/>
+      <c r="Z155" s="52"/>
+      <c r="AA155" s="52"/>
+      <c r="AB155" s="52"/>
+      <c r="AC155" s="52"/>
+      <c r="AD155" s="52"/>
+      <c r="AE155" s="52"/>
+      <c r="AF155" s="52"/>
+      <c r="AG155" s="52"/>
+      <c r="AH155" s="52"/>
+      <c r="AI155" s="52"/>
+      <c r="AJ155" s="52"/>
+      <c r="AK155" s="52"/>
+      <c r="AL155" s="52"/>
+      <c r="AM155" s="52"/>
+      <c r="AN155" s="52"/>
+      <c r="AO155" s="52"/>
+      <c r="AP155" s="52"/>
+      <c r="AQ155" s="52"/>
+      <c r="AR155" s="52"/>
+      <c r="AS155" s="52"/>
+      <c r="AT155" s="52"/>
+      <c r="AU155" s="52"/>
+      <c r="AV155" s="52"/>
+      <c r="AW155" s="52"/>
+      <c r="AX155" s="52"/>
+      <c r="AY155" s="52"/>
+      <c r="AZ155" s="52"/>
+    </row>
+    <row r="156" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A156" s="52"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="52"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="52"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="52"/>
+      <c r="H156" s="52"/>
+      <c r="I156" s="52"/>
+      <c r="J156" s="52"/>
+      <c r="K156" s="52"/>
+      <c r="L156" s="52"/>
+      <c r="M156" s="52"/>
+      <c r="N156" s="52"/>
+      <c r="O156" s="52"/>
+      <c r="P156" s="52"/>
+      <c r="Q156" s="52"/>
+      <c r="R156" s="52"/>
+      <c r="S156" s="52"/>
+      <c r="T156" s="52"/>
+      <c r="U156" s="52"/>
+      <c r="V156" s="52"/>
+      <c r="W156" s="52"/>
+      <c r="X156" s="52"/>
+      <c r="Y156" s="52"/>
+      <c r="Z156" s="52"/>
+      <c r="AA156" s="52"/>
+      <c r="AB156" s="52"/>
+      <c r="AC156" s="52"/>
+      <c r="AD156" s="52"/>
+      <c r="AE156" s="52"/>
+      <c r="AF156" s="52"/>
+      <c r="AG156" s="52"/>
+      <c r="AH156" s="52"/>
+      <c r="AI156" s="52"/>
+      <c r="AJ156" s="52"/>
+      <c r="AK156" s="52"/>
+      <c r="AL156" s="52"/>
+      <c r="AM156" s="52"/>
+      <c r="AN156" s="52"/>
+      <c r="AO156" s="52"/>
+      <c r="AP156" s="52"/>
+      <c r="AQ156" s="52"/>
+      <c r="AR156" s="52"/>
+      <c r="AS156" s="52"/>
+      <c r="AT156" s="52"/>
+      <c r="AU156" s="52"/>
+      <c r="AV156" s="52"/>
+      <c r="AW156" s="52"/>
+      <c r="AX156" s="52"/>
+      <c r="AY156" s="52"/>
+      <c r="AZ156" s="52"/>
+    </row>
+    <row r="157" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A157" s="52"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="52"/>
+      <c r="D157" s="52"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="52"/>
+      <c r="G157" s="52"/>
+      <c r="H157" s="52"/>
+      <c r="I157" s="52"/>
+      <c r="J157" s="52"/>
+      <c r="K157" s="52"/>
+      <c r="L157" s="52"/>
+      <c r="M157" s="52"/>
+      <c r="N157" s="52"/>
+      <c r="O157" s="52"/>
+      <c r="P157" s="52"/>
+      <c r="Q157" s="52"/>
+      <c r="R157" s="52"/>
+      <c r="S157" s="52"/>
+      <c r="T157" s="52"/>
+      <c r="U157" s="52"/>
+      <c r="V157" s="52"/>
+      <c r="W157" s="52"/>
+      <c r="X157" s="52"/>
+      <c r="Y157" s="52"/>
+      <c r="Z157" s="52"/>
+      <c r="AA157" s="52"/>
+      <c r="AB157" s="52"/>
+      <c r="AC157" s="52"/>
+      <c r="AD157" s="52"/>
+      <c r="AE157" s="52"/>
+      <c r="AF157" s="52"/>
+      <c r="AG157" s="52"/>
+      <c r="AH157" s="52"/>
+      <c r="AI157" s="52"/>
+      <c r="AJ157" s="52"/>
+      <c r="AK157" s="52"/>
+      <c r="AL157" s="52"/>
+      <c r="AM157" s="52"/>
+      <c r="AN157" s="52"/>
+      <c r="AO157" s="52"/>
+      <c r="AP157" s="52"/>
+      <c r="AQ157" s="52"/>
+      <c r="AR157" s="52"/>
+      <c r="AS157" s="52"/>
+      <c r="AT157" s="52"/>
+      <c r="AU157" s="52"/>
+      <c r="AV157" s="52"/>
+      <c r="AW157" s="52"/>
+      <c r="AX157" s="52"/>
+      <c r="AY157" s="52"/>
+      <c r="AZ157" s="52"/>
+    </row>
     <row r="158" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A158" s="52"/>
       <c r="B158" s="52"/>
@@ -25013,276 +25352,6 @@
       <c r="AY285" s="52"/>
       <c r="AZ285" s="52"/>
     </row>
-    <row r="286" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A286" s="52"/>
-      <c r="B286" s="52"/>
-      <c r="C286" s="52"/>
-      <c r="D286" s="52"/>
-      <c r="E286" s="52"/>
-      <c r="F286" s="52"/>
-      <c r="G286" s="52"/>
-      <c r="H286" s="52"/>
-      <c r="I286" s="52"/>
-      <c r="J286" s="52"/>
-      <c r="K286" s="52"/>
-      <c r="L286" s="52"/>
-      <c r="M286" s="52"/>
-      <c r="N286" s="52"/>
-      <c r="O286" s="52"/>
-      <c r="P286" s="52"/>
-      <c r="Q286" s="52"/>
-      <c r="R286" s="52"/>
-      <c r="S286" s="52"/>
-      <c r="T286" s="52"/>
-      <c r="U286" s="52"/>
-      <c r="V286" s="52"/>
-      <c r="W286" s="52"/>
-      <c r="X286" s="52"/>
-      <c r="Y286" s="52"/>
-      <c r="Z286" s="52"/>
-      <c r="AA286" s="52"/>
-      <c r="AB286" s="52"/>
-      <c r="AC286" s="52"/>
-      <c r="AD286" s="52"/>
-      <c r="AE286" s="52"/>
-      <c r="AF286" s="52"/>
-      <c r="AG286" s="52"/>
-      <c r="AH286" s="52"/>
-      <c r="AI286" s="52"/>
-      <c r="AJ286" s="52"/>
-      <c r="AK286" s="52"/>
-      <c r="AL286" s="52"/>
-      <c r="AM286" s="52"/>
-      <c r="AN286" s="52"/>
-      <c r="AO286" s="52"/>
-      <c r="AP286" s="52"/>
-      <c r="AQ286" s="52"/>
-      <c r="AR286" s="52"/>
-      <c r="AS286" s="52"/>
-      <c r="AT286" s="52"/>
-      <c r="AU286" s="52"/>
-      <c r="AV286" s="52"/>
-      <c r="AW286" s="52"/>
-      <c r="AX286" s="52"/>
-      <c r="AY286" s="52"/>
-      <c r="AZ286" s="52"/>
-    </row>
-    <row r="287" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A287" s="52"/>
-      <c r="B287" s="52"/>
-      <c r="C287" s="52"/>
-      <c r="D287" s="52"/>
-      <c r="E287" s="52"/>
-      <c r="F287" s="52"/>
-      <c r="G287" s="52"/>
-      <c r="H287" s="52"/>
-      <c r="I287" s="52"/>
-      <c r="J287" s="52"/>
-      <c r="K287" s="52"/>
-      <c r="L287" s="52"/>
-      <c r="M287" s="52"/>
-      <c r="N287" s="52"/>
-      <c r="O287" s="52"/>
-      <c r="P287" s="52"/>
-      <c r="Q287" s="52"/>
-      <c r="R287" s="52"/>
-      <c r="S287" s="52"/>
-      <c r="T287" s="52"/>
-      <c r="U287" s="52"/>
-      <c r="V287" s="52"/>
-      <c r="W287" s="52"/>
-      <c r="X287" s="52"/>
-      <c r="Y287" s="52"/>
-      <c r="Z287" s="52"/>
-      <c r="AA287" s="52"/>
-      <c r="AB287" s="52"/>
-      <c r="AC287" s="52"/>
-      <c r="AD287" s="52"/>
-      <c r="AE287" s="52"/>
-      <c r="AF287" s="52"/>
-      <c r="AG287" s="52"/>
-      <c r="AH287" s="52"/>
-      <c r="AI287" s="52"/>
-      <c r="AJ287" s="52"/>
-      <c r="AK287" s="52"/>
-      <c r="AL287" s="52"/>
-      <c r="AM287" s="52"/>
-      <c r="AN287" s="52"/>
-      <c r="AO287" s="52"/>
-      <c r="AP287" s="52"/>
-      <c r="AQ287" s="52"/>
-      <c r="AR287" s="52"/>
-      <c r="AS287" s="52"/>
-      <c r="AT287" s="52"/>
-      <c r="AU287" s="52"/>
-      <c r="AV287" s="52"/>
-      <c r="AW287" s="52"/>
-      <c r="AX287" s="52"/>
-      <c r="AY287" s="52"/>
-      <c r="AZ287" s="52"/>
-    </row>
-    <row r="288" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A288" s="52"/>
-      <c r="B288" s="52"/>
-      <c r="C288" s="52"/>
-      <c r="D288" s="52"/>
-      <c r="E288" s="52"/>
-      <c r="F288" s="52"/>
-      <c r="G288" s="52"/>
-      <c r="H288" s="52"/>
-      <c r="I288" s="52"/>
-      <c r="J288" s="52"/>
-      <c r="K288" s="52"/>
-      <c r="L288" s="52"/>
-      <c r="M288" s="52"/>
-      <c r="N288" s="52"/>
-      <c r="O288" s="52"/>
-      <c r="P288" s="52"/>
-      <c r="Q288" s="52"/>
-      <c r="R288" s="52"/>
-      <c r="S288" s="52"/>
-      <c r="T288" s="52"/>
-      <c r="U288" s="52"/>
-      <c r="V288" s="52"/>
-      <c r="W288" s="52"/>
-      <c r="X288" s="52"/>
-      <c r="Y288" s="52"/>
-      <c r="Z288" s="52"/>
-      <c r="AA288" s="52"/>
-      <c r="AB288" s="52"/>
-      <c r="AC288" s="52"/>
-      <c r="AD288" s="52"/>
-      <c r="AE288" s="52"/>
-      <c r="AF288" s="52"/>
-      <c r="AG288" s="52"/>
-      <c r="AH288" s="52"/>
-      <c r="AI288" s="52"/>
-      <c r="AJ288" s="52"/>
-      <c r="AK288" s="52"/>
-      <c r="AL288" s="52"/>
-      <c r="AM288" s="52"/>
-      <c r="AN288" s="52"/>
-      <c r="AO288" s="52"/>
-      <c r="AP288" s="52"/>
-      <c r="AQ288" s="52"/>
-      <c r="AR288" s="52"/>
-      <c r="AS288" s="52"/>
-      <c r="AT288" s="52"/>
-      <c r="AU288" s="52"/>
-      <c r="AV288" s="52"/>
-      <c r="AW288" s="52"/>
-      <c r="AX288" s="52"/>
-      <c r="AY288" s="52"/>
-      <c r="AZ288" s="52"/>
-    </row>
-    <row r="289" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A289" s="52"/>
-      <c r="B289" s="52"/>
-      <c r="C289" s="52"/>
-      <c r="D289" s="52"/>
-      <c r="E289" s="52"/>
-      <c r="F289" s="52"/>
-      <c r="G289" s="52"/>
-      <c r="H289" s="52"/>
-      <c r="I289" s="52"/>
-      <c r="J289" s="52"/>
-      <c r="K289" s="52"/>
-      <c r="L289" s="52"/>
-      <c r="M289" s="52"/>
-      <c r="N289" s="52"/>
-      <c r="O289" s="52"/>
-      <c r="P289" s="52"/>
-      <c r="Q289" s="52"/>
-      <c r="R289" s="52"/>
-      <c r="S289" s="52"/>
-      <c r="T289" s="52"/>
-      <c r="U289" s="52"/>
-      <c r="V289" s="52"/>
-      <c r="W289" s="52"/>
-      <c r="X289" s="52"/>
-      <c r="Y289" s="52"/>
-      <c r="Z289" s="52"/>
-      <c r="AA289" s="52"/>
-      <c r="AB289" s="52"/>
-      <c r="AC289" s="52"/>
-      <c r="AD289" s="52"/>
-      <c r="AE289" s="52"/>
-      <c r="AF289" s="52"/>
-      <c r="AG289" s="52"/>
-      <c r="AH289" s="52"/>
-      <c r="AI289" s="52"/>
-      <c r="AJ289" s="52"/>
-      <c r="AK289" s="52"/>
-      <c r="AL289" s="52"/>
-      <c r="AM289" s="52"/>
-      <c r="AN289" s="52"/>
-      <c r="AO289" s="52"/>
-      <c r="AP289" s="52"/>
-      <c r="AQ289" s="52"/>
-      <c r="AR289" s="52"/>
-      <c r="AS289" s="52"/>
-      <c r="AT289" s="52"/>
-      <c r="AU289" s="52"/>
-      <c r="AV289" s="52"/>
-      <c r="AW289" s="52"/>
-      <c r="AX289" s="52"/>
-      <c r="AY289" s="52"/>
-      <c r="AZ289" s="52"/>
-    </row>
-    <row r="290" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A290" s="52"/>
-      <c r="B290" s="52"/>
-      <c r="C290" s="52"/>
-      <c r="D290" s="52"/>
-      <c r="E290" s="52"/>
-      <c r="F290" s="52"/>
-      <c r="G290" s="52"/>
-      <c r="H290" s="52"/>
-      <c r="I290" s="52"/>
-      <c r="J290" s="52"/>
-      <c r="K290" s="52"/>
-      <c r="L290" s="52"/>
-      <c r="M290" s="52"/>
-      <c r="N290" s="52"/>
-      <c r="O290" s="52"/>
-      <c r="P290" s="52"/>
-      <c r="Q290" s="52"/>
-      <c r="R290" s="52"/>
-      <c r="S290" s="52"/>
-      <c r="T290" s="52"/>
-      <c r="U290" s="52"/>
-      <c r="V290" s="52"/>
-      <c r="W290" s="52"/>
-      <c r="X290" s="52"/>
-      <c r="Y290" s="52"/>
-      <c r="Z290" s="52"/>
-      <c r="AA290" s="52"/>
-      <c r="AB290" s="52"/>
-      <c r="AC290" s="52"/>
-      <c r="AD290" s="52"/>
-      <c r="AE290" s="52"/>
-      <c r="AF290" s="52"/>
-      <c r="AG290" s="52"/>
-      <c r="AH290" s="52"/>
-      <c r="AI290" s="52"/>
-      <c r="AJ290" s="52"/>
-      <c r="AK290" s="52"/>
-      <c r="AL290" s="52"/>
-      <c r="AM290" s="52"/>
-      <c r="AN290" s="52"/>
-      <c r="AO290" s="52"/>
-      <c r="AP290" s="52"/>
-      <c r="AQ290" s="52"/>
-      <c r="AR290" s="52"/>
-      <c r="AS290" s="52"/>
-      <c r="AT290" s="52"/>
-      <c r="AU290" s="52"/>
-      <c r="AV290" s="52"/>
-      <c r="AW290" s="52"/>
-      <c r="AX290" s="52"/>
-      <c r="AY290" s="52"/>
-      <c r="AZ290" s="52"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AI1:AM1"/>
@@ -26475,7 +26544,7 @@
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="69" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AE21" s="70"/>
       <c r="AF21" s="70"/>
@@ -26583,7 +26652,7 @@
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
       <c r="AD23" s="69" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AE23" s="70"/>
       <c r="AF23" s="70"/>
@@ -26679,7 +26748,7 @@
       <c r="R25" s="21"/>
       <c r="S25" s="22"/>
       <c r="T25" s="20" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="U25" s="115"/>
       <c r="V25" s="115"/>
@@ -26691,7 +26760,7 @@
       <c r="AB25" s="115"/>
       <c r="AC25" s="116"/>
       <c r="AD25" s="69" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AE25" s="70"/>
       <c r="AF25" s="70"/>
@@ -26907,7 +26976,7 @@
       <c r="AB29" s="115"/>
       <c r="AC29" s="116"/>
       <c r="AD29" s="69" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AE29" s="70"/>
       <c r="AF29" s="70"/>
@@ -26997,33 +27066,33 @@
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="22"/>
-      <c r="Q31" s="145" t="s">
-        <v>318</v>
-      </c>
-      <c r="R31" s="146"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="145" t="s">
-        <v>316</v>
-      </c>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="148"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="149"/>
-      <c r="AD31" s="150" t="s">
-        <v>317</v>
-      </c>
-      <c r="AE31" s="151"/>
-      <c r="AF31" s="151"/>
-      <c r="AG31" s="151"/>
-      <c r="AH31" s="151"/>
-      <c r="AI31" s="151"/>
-      <c r="AJ31" s="151"/>
-      <c r="AK31" s="151"/>
+      <c r="Q31" s="143" t="s">
+        <v>295</v>
+      </c>
+      <c r="R31" s="144"/>
+      <c r="S31" s="145"/>
+      <c r="T31" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="U31" s="146"/>
+      <c r="V31" s="146"/>
+      <c r="W31" s="146"/>
+      <c r="X31" s="146"/>
+      <c r="Y31" s="146"/>
+      <c r="Z31" s="146"/>
+      <c r="AA31" s="146"/>
+      <c r="AB31" s="146"/>
+      <c r="AC31" s="147"/>
+      <c r="AD31" s="148" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="149"/>
+      <c r="AI31" s="149"/>
+      <c r="AJ31" s="149"/>
+      <c r="AK31" s="149"/>
       <c r="AL31" s="70"/>
       <c r="AM31" s="70"/>
       <c r="AN31" s="70"/>
@@ -27053,27 +27122,27 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="26"/>
-      <c r="Q32" s="152"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="154"/>
-      <c r="T32" s="155"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="156"/>
-      <c r="W32" s="156"/>
-      <c r="X32" s="156"/>
-      <c r="Y32" s="156"/>
-      <c r="Z32" s="156"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="157"/>
-      <c r="AD32" s="158"/>
-      <c r="AE32" s="159"/>
-      <c r="AF32" s="159"/>
-      <c r="AG32" s="159"/>
-      <c r="AH32" s="159"/>
-      <c r="AI32" s="159"/>
-      <c r="AJ32" s="159"/>
-      <c r="AK32" s="159"/>
+      <c r="Q32" s="150"/>
+      <c r="R32" s="151"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="154"/>
+      <c r="V32" s="154"/>
+      <c r="W32" s="154"/>
+      <c r="X32" s="154"/>
+      <c r="Y32" s="154"/>
+      <c r="Z32" s="154"/>
+      <c r="AA32" s="154"/>
+      <c r="AB32" s="154"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="156"/>
+      <c r="AE32" s="157"/>
+      <c r="AF32" s="157"/>
+      <c r="AG32" s="157"/>
+      <c r="AH32" s="157"/>
+      <c r="AI32" s="157"/>
+      <c r="AJ32" s="157"/>
+      <c r="AK32" s="157"/>
       <c r="AL32" s="73"/>
       <c r="AM32" s="73"/>
       <c r="AN32" s="73"/>
@@ -31851,7 +31920,7 @@
       <c r="A8" s="52"/>
       <c r="B8" s="52"/>
       <c r="C8" s="52" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -42667,6 +42736,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -42675,7 +42750,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -42833,13 +42908,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -42847,7 +42925,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42863,13 +42941,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21_その他出庫参照・取消.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21_その他出庫参照・取消.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201912\設計書\修正\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6A6A6-B258-405F-9888-9FBFC05662A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD660CF0-78B0-4D59-925C-E60E547C13C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="645" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="367">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2511,6 +2511,11 @@
       <t>1</t>
     </r>
     <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>・DISTINCT 実績管理データ.作業年月日の年月
+・作業年月日の年月(降順)</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -3475,152 +3480,152 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6014,1770 +6019,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163"/>
-      <c r="AJ1" s="163"/>
-      <c r="AK1" s="163"/>
-      <c r="AL1" s="163"/>
-      <c r="AM1" s="163"/>
-      <c r="AN1" s="163"/>
-      <c r="AO1" s="163"/>
-      <c r="AP1" s="163"/>
-      <c r="AQ1" s="163"/>
-      <c r="AR1" s="163"/>
-      <c r="AS1" s="163"/>
-      <c r="AT1" s="163"/>
-      <c r="AU1" s="163"/>
-      <c r="AV1" s="163"/>
-      <c r="AW1" s="163"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="194"/>
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="194"/>
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="194"/>
+      <c r="AH1" s="194"/>
+      <c r="AI1" s="194"/>
+      <c r="AJ1" s="194"/>
+      <c r="AK1" s="194"/>
+      <c r="AL1" s="194"/>
+      <c r="AM1" s="194"/>
+      <c r="AN1" s="194"/>
+      <c r="AO1" s="194"/>
+      <c r="AP1" s="194"/>
+      <c r="AQ1" s="194"/>
+      <c r="AR1" s="194"/>
+      <c r="AS1" s="194"/>
+      <c r="AT1" s="194"/>
+      <c r="AU1" s="194"/>
+      <c r="AV1" s="194"/>
+      <c r="AW1" s="194"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="164"/>
-      <c r="AJ2" s="164"/>
-      <c r="AK2" s="164"/>
-      <c r="AL2" s="164"/>
-      <c r="AM2" s="164"/>
-      <c r="AN2" s="164"/>
-      <c r="AO2" s="164"/>
-      <c r="AP2" s="164"/>
-      <c r="AQ2" s="164"/>
-      <c r="AR2" s="164"/>
-      <c r="AS2" s="164"/>
-      <c r="AT2" s="164"/>
-      <c r="AU2" s="164"/>
-      <c r="AV2" s="164"/>
-      <c r="AW2" s="164"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="195"/>
+      <c r="AN2" s="195"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="195"/>
+      <c r="AQ2" s="195"/>
+      <c r="AR2" s="195"/>
+      <c r="AS2" s="195"/>
+      <c r="AT2" s="195"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165" t="s">
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="166" t="s">
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="167"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="166" t="s">
+      <c r="K3" s="198"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="165" t="s">
+      <c r="N3" s="198"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165" t="s">
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="165"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="165"/>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="165"/>
-      <c r="AL3" s="165"/>
-      <c r="AM3" s="165"/>
-      <c r="AN3" s="165" t="s">
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="196"/>
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="196"/>
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="196"/>
+      <c r="AI3" s="196"/>
+      <c r="AJ3" s="196"/>
+      <c r="AK3" s="196"/>
+      <c r="AL3" s="196"/>
+      <c r="AM3" s="196"/>
+      <c r="AN3" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="165"/>
-      <c r="AP3" s="165"/>
-      <c r="AQ3" s="165"/>
-      <c r="AR3" s="165"/>
-      <c r="AS3" s="165" t="s">
+      <c r="AO3" s="196"/>
+      <c r="AP3" s="196"/>
+      <c r="AQ3" s="196"/>
+      <c r="AR3" s="196"/>
+      <c r="AS3" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="165"/>
-      <c r="AU3" s="165"/>
-      <c r="AV3" s="165"/>
-      <c r="AW3" s="165"/>
+      <c r="AT3" s="196"/>
+      <c r="AU3" s="196"/>
+      <c r="AV3" s="196"/>
+      <c r="AW3" s="196"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="165"/>
-      <c r="Z4" s="165"/>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="165"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="165"/>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="165"/>
-      <c r="AJ4" s="165"/>
-      <c r="AK4" s="165"/>
-      <c r="AL4" s="165"/>
-      <c r="AM4" s="165"/>
-      <c r="AN4" s="165"/>
-      <c r="AO4" s="165"/>
-      <c r="AP4" s="165"/>
-      <c r="AQ4" s="165"/>
-      <c r="AR4" s="165"/>
-      <c r="AS4" s="165"/>
-      <c r="AT4" s="165"/>
-      <c r="AU4" s="165"/>
-      <c r="AV4" s="165"/>
-      <c r="AW4" s="165"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="201"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="196"/>
+      <c r="T4" s="196"/>
+      <c r="U4" s="196"/>
+      <c r="V4" s="196"/>
+      <c r="W4" s="196"/>
+      <c r="X4" s="196"/>
+      <c r="Y4" s="196"/>
+      <c r="Z4" s="196"/>
+      <c r="AA4" s="196"/>
+      <c r="AB4" s="196"/>
+      <c r="AC4" s="196"/>
+      <c r="AD4" s="196"/>
+      <c r="AE4" s="196"/>
+      <c r="AF4" s="196"/>
+      <c r="AG4" s="196"/>
+      <c r="AH4" s="196"/>
+      <c r="AI4" s="196"/>
+      <c r="AJ4" s="196"/>
+      <c r="AK4" s="196"/>
+      <c r="AL4" s="196"/>
+      <c r="AM4" s="196"/>
+      <c r="AN4" s="196"/>
+      <c r="AO4" s="196"/>
+      <c r="AP4" s="196"/>
+      <c r="AQ4" s="196"/>
+      <c r="AR4" s="196"/>
+      <c r="AS4" s="196"/>
+      <c r="AT4" s="196"/>
+      <c r="AU4" s="196"/>
+      <c r="AV4" s="196"/>
+      <c r="AW4" s="196"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
-      <c r="B5" s="173">
+      <c r="B5" s="188">
         <v>1</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="174">
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="169">
         <v>43720</v>
       </c>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="175" t="s">
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="176"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="175" t="s">
+      <c r="K5" s="171"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="176"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="177"/>
-      <c r="S5" s="172" t="s">
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="172"/>
+      <c r="S5" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="181" t="s">
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
+      <c r="V5" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="181"/>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="181"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="181"/>
-      <c r="AM5" s="181"/>
-      <c r="AN5" s="172" t="s">
+      <c r="W5" s="187"/>
+      <c r="X5" s="187"/>
+      <c r="Y5" s="187"/>
+      <c r="Z5" s="187"/>
+      <c r="AA5" s="187"/>
+      <c r="AB5" s="187"/>
+      <c r="AC5" s="187"/>
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="176" t="s">
         <v>94</v>
       </c>
-      <c r="AO5" s="172"/>
-      <c r="AP5" s="172"/>
-      <c r="AQ5" s="172"/>
-      <c r="AR5" s="172"/>
-      <c r="AS5" s="172"/>
-      <c r="AT5" s="172"/>
-      <c r="AU5" s="172"/>
-      <c r="AV5" s="172"/>
-      <c r="AW5" s="172"/>
+      <c r="AO5" s="176"/>
+      <c r="AP5" s="176"/>
+      <c r="AQ5" s="176"/>
+      <c r="AR5" s="176"/>
+      <c r="AS5" s="176"/>
+      <c r="AT5" s="176"/>
+      <c r="AU5" s="176"/>
+      <c r="AV5" s="176"/>
+      <c r="AW5" s="176"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="180"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="172"/>
-      <c r="U6" s="172"/>
-      <c r="V6" s="181"/>
-      <c r="W6" s="181"/>
-      <c r="X6" s="181"/>
-      <c r="Y6" s="181"/>
-      <c r="Z6" s="181"/>
-      <c r="AA6" s="181"/>
-      <c r="AB6" s="181"/>
-      <c r="AC6" s="181"/>
-      <c r="AD6" s="181"/>
-      <c r="AE6" s="181"/>
-      <c r="AF6" s="181"/>
-      <c r="AG6" s="181"/>
-      <c r="AH6" s="181"/>
-      <c r="AI6" s="181"/>
-      <c r="AJ6" s="181"/>
-      <c r="AK6" s="181"/>
-      <c r="AL6" s="181"/>
-      <c r="AM6" s="181"/>
-      <c r="AN6" s="172"/>
-      <c r="AO6" s="172"/>
-      <c r="AP6" s="172"/>
-      <c r="AQ6" s="172"/>
-      <c r="AR6" s="172"/>
-      <c r="AS6" s="172"/>
-      <c r="AT6" s="172"/>
-      <c r="AU6" s="172"/>
-      <c r="AV6" s="172"/>
-      <c r="AW6" s="172"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="192"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="187"/>
+      <c r="W6" s="187"/>
+      <c r="X6" s="187"/>
+      <c r="Y6" s="187"/>
+      <c r="Z6" s="187"/>
+      <c r="AA6" s="187"/>
+      <c r="AB6" s="187"/>
+      <c r="AC6" s="187"/>
+      <c r="AD6" s="187"/>
+      <c r="AE6" s="187"/>
+      <c r="AF6" s="187"/>
+      <c r="AG6" s="187"/>
+      <c r="AH6" s="187"/>
+      <c r="AI6" s="187"/>
+      <c r="AJ6" s="187"/>
+      <c r="AK6" s="187"/>
+      <c r="AL6" s="187"/>
+      <c r="AM6" s="187"/>
+      <c r="AN6" s="176"/>
+      <c r="AO6" s="176"/>
+      <c r="AP6" s="176"/>
+      <c r="AQ6" s="176"/>
+      <c r="AR6" s="176"/>
+      <c r="AS6" s="176"/>
+      <c r="AT6" s="176"/>
+      <c r="AU6" s="176"/>
+      <c r="AV6" s="176"/>
+      <c r="AW6" s="176"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="172"/>
-      <c r="T7" s="172"/>
-      <c r="U7" s="172"/>
-      <c r="V7" s="181"/>
-      <c r="W7" s="181"/>
-      <c r="X7" s="181"/>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="181"/>
-      <c r="AA7" s="181"/>
-      <c r="AB7" s="181"/>
-      <c r="AC7" s="181"/>
-      <c r="AD7" s="181"/>
-      <c r="AE7" s="181"/>
-      <c r="AF7" s="181"/>
-      <c r="AG7" s="181"/>
-      <c r="AH7" s="181"/>
-      <c r="AI7" s="181"/>
-      <c r="AJ7" s="181"/>
-      <c r="AK7" s="181"/>
-      <c r="AL7" s="181"/>
-      <c r="AM7" s="181"/>
-      <c r="AN7" s="172"/>
-      <c r="AO7" s="172"/>
-      <c r="AP7" s="172"/>
-      <c r="AQ7" s="172"/>
-      <c r="AR7" s="172"/>
-      <c r="AS7" s="172"/>
-      <c r="AT7" s="172"/>
-      <c r="AU7" s="172"/>
-      <c r="AV7" s="172"/>
-      <c r="AW7" s="172"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="192"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="187"/>
+      <c r="W7" s="187"/>
+      <c r="X7" s="187"/>
+      <c r="Y7" s="187"/>
+      <c r="Z7" s="187"/>
+      <c r="AA7" s="187"/>
+      <c r="AB7" s="187"/>
+      <c r="AC7" s="187"/>
+      <c r="AD7" s="187"/>
+      <c r="AE7" s="187"/>
+      <c r="AF7" s="187"/>
+      <c r="AG7" s="187"/>
+      <c r="AH7" s="187"/>
+      <c r="AI7" s="187"/>
+      <c r="AJ7" s="187"/>
+      <c r="AK7" s="187"/>
+      <c r="AL7" s="187"/>
+      <c r="AM7" s="187"/>
+      <c r="AN7" s="176"/>
+      <c r="AO7" s="176"/>
+      <c r="AP7" s="176"/>
+      <c r="AQ7" s="176"/>
+      <c r="AR7" s="176"/>
+      <c r="AS7" s="176"/>
+      <c r="AT7" s="176"/>
+      <c r="AU7" s="176"/>
+      <c r="AV7" s="176"/>
+      <c r="AW7" s="176"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="179"/>
-      <c r="Q8" s="179"/>
-      <c r="R8" s="180"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="181"/>
-      <c r="W8" s="181"/>
-      <c r="X8" s="181"/>
-      <c r="Y8" s="181"/>
-      <c r="Z8" s="181"/>
-      <c r="AA8" s="181"/>
-      <c r="AB8" s="181"/>
-      <c r="AC8" s="181"/>
-      <c r="AD8" s="181"/>
-      <c r="AE8" s="181"/>
-      <c r="AF8" s="181"/>
-      <c r="AG8" s="181"/>
-      <c r="AH8" s="181"/>
-      <c r="AI8" s="181"/>
-      <c r="AJ8" s="181"/>
-      <c r="AK8" s="181"/>
-      <c r="AL8" s="181"/>
-      <c r="AM8" s="181"/>
-      <c r="AN8" s="172"/>
-      <c r="AO8" s="172"/>
-      <c r="AP8" s="172"/>
-      <c r="AQ8" s="172"/>
-      <c r="AR8" s="172"/>
-      <c r="AS8" s="172"/>
-      <c r="AT8" s="172"/>
-      <c r="AU8" s="172"/>
-      <c r="AV8" s="172"/>
-      <c r="AW8" s="172"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="192"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="187"/>
+      <c r="W8" s="187"/>
+      <c r="X8" s="187"/>
+      <c r="Y8" s="187"/>
+      <c r="Z8" s="187"/>
+      <c r="AA8" s="187"/>
+      <c r="AB8" s="187"/>
+      <c r="AC8" s="187"/>
+      <c r="AD8" s="187"/>
+      <c r="AE8" s="187"/>
+      <c r="AF8" s="187"/>
+      <c r="AG8" s="187"/>
+      <c r="AH8" s="187"/>
+      <c r="AI8" s="187"/>
+      <c r="AJ8" s="187"/>
+      <c r="AK8" s="187"/>
+      <c r="AL8" s="187"/>
+      <c r="AM8" s="187"/>
+      <c r="AN8" s="176"/>
+      <c r="AO8" s="176"/>
+      <c r="AP8" s="176"/>
+      <c r="AQ8" s="176"/>
+      <c r="AR8" s="176"/>
+      <c r="AS8" s="176"/>
+      <c r="AT8" s="176"/>
+      <c r="AU8" s="176"/>
+      <c r="AV8" s="176"/>
+      <c r="AW8" s="176"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="179"/>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="180"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
-      <c r="U9" s="172"/>
-      <c r="V9" s="181"/>
-      <c r="W9" s="181"/>
-      <c r="X9" s="181"/>
-      <c r="Y9" s="181"/>
-      <c r="Z9" s="181"/>
-      <c r="AA9" s="181"/>
-      <c r="AB9" s="181"/>
-      <c r="AC9" s="181"/>
-      <c r="AD9" s="181"/>
-      <c r="AE9" s="181"/>
-      <c r="AF9" s="181"/>
-      <c r="AG9" s="181"/>
-      <c r="AH9" s="181"/>
-      <c r="AI9" s="181"/>
-      <c r="AJ9" s="181"/>
-      <c r="AK9" s="181"/>
-      <c r="AL9" s="181"/>
-      <c r="AM9" s="181"/>
-      <c r="AN9" s="172"/>
-      <c r="AO9" s="172"/>
-      <c r="AP9" s="172"/>
-      <c r="AQ9" s="172"/>
-      <c r="AR9" s="172"/>
-      <c r="AS9" s="172"/>
-      <c r="AT9" s="172"/>
-      <c r="AU9" s="172"/>
-      <c r="AV9" s="172"/>
-      <c r="AW9" s="172"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="192"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="187"/>
+      <c r="W9" s="187"/>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="187"/>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="187"/>
+      <c r="AC9" s="187"/>
+      <c r="AD9" s="187"/>
+      <c r="AE9" s="187"/>
+      <c r="AF9" s="187"/>
+      <c r="AG9" s="187"/>
+      <c r="AH9" s="187"/>
+      <c r="AI9" s="187"/>
+      <c r="AJ9" s="187"/>
+      <c r="AK9" s="187"/>
+      <c r="AL9" s="187"/>
+      <c r="AM9" s="187"/>
+      <c r="AN9" s="176"/>
+      <c r="AO9" s="176"/>
+      <c r="AP9" s="176"/>
+      <c r="AQ9" s="176"/>
+      <c r="AR9" s="176"/>
+      <c r="AS9" s="176"/>
+      <c r="AT9" s="176"/>
+      <c r="AU9" s="176"/>
+      <c r="AV9" s="176"/>
+      <c r="AW9" s="176"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="180"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="181"/>
-      <c r="AA10" s="181"/>
-      <c r="AB10" s="181"/>
-      <c r="AC10" s="181"/>
-      <c r="AD10" s="181"/>
-      <c r="AE10" s="181"/>
-      <c r="AF10" s="181"/>
-      <c r="AG10" s="181"/>
-      <c r="AH10" s="181"/>
-      <c r="AI10" s="181"/>
-      <c r="AJ10" s="181"/>
-      <c r="AK10" s="181"/>
-      <c r="AL10" s="181"/>
-      <c r="AM10" s="181"/>
-      <c r="AN10" s="172"/>
-      <c r="AO10" s="172"/>
-      <c r="AP10" s="172"/>
-      <c r="AQ10" s="172"/>
-      <c r="AR10" s="172"/>
-      <c r="AS10" s="172"/>
-      <c r="AT10" s="172"/>
-      <c r="AU10" s="172"/>
-      <c r="AV10" s="172"/>
-      <c r="AW10" s="172"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="192"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="192"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="187"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="187"/>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="187"/>
+      <c r="AC10" s="187"/>
+      <c r="AD10" s="187"/>
+      <c r="AE10" s="187"/>
+      <c r="AF10" s="187"/>
+      <c r="AG10" s="187"/>
+      <c r="AH10" s="187"/>
+      <c r="AI10" s="187"/>
+      <c r="AJ10" s="187"/>
+      <c r="AK10" s="187"/>
+      <c r="AL10" s="187"/>
+      <c r="AM10" s="187"/>
+      <c r="AN10" s="176"/>
+      <c r="AO10" s="176"/>
+      <c r="AP10" s="176"/>
+      <c r="AQ10" s="176"/>
+      <c r="AR10" s="176"/>
+      <c r="AS10" s="176"/>
+      <c r="AT10" s="176"/>
+      <c r="AU10" s="176"/>
+      <c r="AV10" s="176"/>
+      <c r="AW10" s="176"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="55"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="185"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="187"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="172"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="188"/>
-      <c r="W11" s="194"/>
-      <c r="X11" s="194"/>
-      <c r="Y11" s="194"/>
-      <c r="Z11" s="194"/>
-      <c r="AA11" s="194"/>
-      <c r="AB11" s="194"/>
-      <c r="AC11" s="194"/>
-      <c r="AD11" s="194"/>
-      <c r="AE11" s="194"/>
-      <c r="AF11" s="194"/>
-      <c r="AG11" s="194"/>
-      <c r="AH11" s="194"/>
-      <c r="AI11" s="194"/>
-      <c r="AJ11" s="194"/>
-      <c r="AK11" s="194"/>
-      <c r="AL11" s="194"/>
-      <c r="AM11" s="195"/>
-      <c r="AN11" s="172"/>
-      <c r="AO11" s="172"/>
-      <c r="AP11" s="172"/>
-      <c r="AQ11" s="172"/>
-      <c r="AR11" s="172"/>
-      <c r="AS11" s="172"/>
-      <c r="AT11" s="172"/>
-      <c r="AU11" s="172"/>
-      <c r="AV11" s="172"/>
-      <c r="AW11" s="172"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="182"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="189"/>
+      <c r="X11" s="189"/>
+      <c r="Y11" s="189"/>
+      <c r="Z11" s="189"/>
+      <c r="AA11" s="189"/>
+      <c r="AB11" s="189"/>
+      <c r="AC11" s="189"/>
+      <c r="AD11" s="189"/>
+      <c r="AE11" s="189"/>
+      <c r="AF11" s="189"/>
+      <c r="AG11" s="189"/>
+      <c r="AH11" s="189"/>
+      <c r="AI11" s="189"/>
+      <c r="AJ11" s="189"/>
+      <c r="AK11" s="189"/>
+      <c r="AL11" s="189"/>
+      <c r="AM11" s="190"/>
+      <c r="AN11" s="176"/>
+      <c r="AO11" s="176"/>
+      <c r="AP11" s="176"/>
+      <c r="AQ11" s="176"/>
+      <c r="AR11" s="176"/>
+      <c r="AS11" s="176"/>
+      <c r="AT11" s="176"/>
+      <c r="AU11" s="176"/>
+      <c r="AV11" s="176"/>
+      <c r="AW11" s="176"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
-      <c r="B12" s="182"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="185"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="186"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="172"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="188"/>
-      <c r="W12" s="189"/>
-      <c r="X12" s="189"/>
-      <c r="Y12" s="189"/>
-      <c r="Z12" s="189"/>
-      <c r="AA12" s="189"/>
-      <c r="AB12" s="189"/>
-      <c r="AC12" s="189"/>
-      <c r="AD12" s="189"/>
-      <c r="AE12" s="189"/>
-      <c r="AF12" s="189"/>
-      <c r="AG12" s="189"/>
-      <c r="AH12" s="189"/>
-      <c r="AI12" s="189"/>
-      <c r="AJ12" s="189"/>
-      <c r="AK12" s="189"/>
-      <c r="AL12" s="189"/>
-      <c r="AM12" s="190"/>
-      <c r="AN12" s="191"/>
-      <c r="AO12" s="192"/>
-      <c r="AP12" s="192"/>
-      <c r="AQ12" s="192"/>
-      <c r="AR12" s="193"/>
-      <c r="AS12" s="191"/>
-      <c r="AT12" s="192"/>
-      <c r="AU12" s="192"/>
-      <c r="AV12" s="192"/>
-      <c r="AW12" s="193"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="182"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="177"/>
+      <c r="W12" s="178"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="178"/>
+      <c r="Z12" s="178"/>
+      <c r="AA12" s="178"/>
+      <c r="AB12" s="178"/>
+      <c r="AC12" s="178"/>
+      <c r="AD12" s="178"/>
+      <c r="AE12" s="178"/>
+      <c r="AF12" s="178"/>
+      <c r="AG12" s="178"/>
+      <c r="AH12" s="178"/>
+      <c r="AI12" s="178"/>
+      <c r="AJ12" s="178"/>
+      <c r="AK12" s="178"/>
+      <c r="AL12" s="178"/>
+      <c r="AM12" s="179"/>
+      <c r="AN12" s="163"/>
+      <c r="AO12" s="164"/>
+      <c r="AP12" s="164"/>
+      <c r="AQ12" s="164"/>
+      <c r="AR12" s="165"/>
+      <c r="AS12" s="163"/>
+      <c r="AT12" s="164"/>
+      <c r="AU12" s="164"/>
+      <c r="AV12" s="164"/>
+      <c r="AW12" s="165"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="186"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="187"/>
-      <c r="S13" s="172"/>
-      <c r="T13" s="172"/>
-      <c r="U13" s="172"/>
-      <c r="V13" s="188"/>
-      <c r="W13" s="189"/>
-      <c r="X13" s="189"/>
-      <c r="Y13" s="189"/>
-      <c r="Z13" s="189"/>
-      <c r="AA13" s="189"/>
-      <c r="AB13" s="189"/>
-      <c r="AC13" s="189"/>
-      <c r="AD13" s="189"/>
-      <c r="AE13" s="189"/>
-      <c r="AF13" s="189"/>
-      <c r="AG13" s="189"/>
-      <c r="AH13" s="189"/>
-      <c r="AI13" s="189"/>
-      <c r="AJ13" s="189"/>
-      <c r="AK13" s="189"/>
-      <c r="AL13" s="189"/>
-      <c r="AM13" s="190"/>
-      <c r="AN13" s="191"/>
-      <c r="AO13" s="192"/>
-      <c r="AP13" s="192"/>
-      <c r="AQ13" s="192"/>
-      <c r="AR13" s="193"/>
-      <c r="AS13" s="191"/>
-      <c r="AT13" s="192"/>
-      <c r="AU13" s="192"/>
-      <c r="AV13" s="192"/>
-      <c r="AW13" s="193"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="182"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="177"/>
+      <c r="W13" s="178"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
+      <c r="Z13" s="178"/>
+      <c r="AA13" s="178"/>
+      <c r="AB13" s="178"/>
+      <c r="AC13" s="178"/>
+      <c r="AD13" s="178"/>
+      <c r="AE13" s="178"/>
+      <c r="AF13" s="178"/>
+      <c r="AG13" s="178"/>
+      <c r="AH13" s="178"/>
+      <c r="AI13" s="178"/>
+      <c r="AJ13" s="178"/>
+      <c r="AK13" s="178"/>
+      <c r="AL13" s="178"/>
+      <c r="AM13" s="179"/>
+      <c r="AN13" s="163"/>
+      <c r="AO13" s="164"/>
+      <c r="AP13" s="164"/>
+      <c r="AQ13" s="164"/>
+      <c r="AR13" s="165"/>
+      <c r="AS13" s="163"/>
+      <c r="AT13" s="164"/>
+      <c r="AU13" s="164"/>
+      <c r="AV13" s="164"/>
+      <c r="AW13" s="165"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="182"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="196"/>
-      <c r="N14" s="186"/>
-      <c r="O14" s="186"/>
-      <c r="P14" s="186"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="172"/>
-      <c r="T14" s="172"/>
-      <c r="U14" s="172"/>
-      <c r="V14" s="197"/>
-      <c r="W14" s="181"/>
-      <c r="X14" s="181"/>
-      <c r="Y14" s="181"/>
-      <c r="Z14" s="181"/>
-      <c r="AA14" s="181"/>
-      <c r="AB14" s="181"/>
-      <c r="AC14" s="181"/>
-      <c r="AD14" s="181"/>
-      <c r="AE14" s="181"/>
-      <c r="AF14" s="181"/>
-      <c r="AG14" s="181"/>
-      <c r="AH14" s="181"/>
-      <c r="AI14" s="181"/>
-      <c r="AJ14" s="181"/>
-      <c r="AK14" s="181"/>
-      <c r="AL14" s="181"/>
-      <c r="AM14" s="181"/>
-      <c r="AN14" s="172"/>
-      <c r="AO14" s="172"/>
-      <c r="AP14" s="172"/>
-      <c r="AQ14" s="172"/>
-      <c r="AR14" s="172"/>
-      <c r="AS14" s="191"/>
-      <c r="AT14" s="192"/>
-      <c r="AU14" s="192"/>
-      <c r="AV14" s="192"/>
-      <c r="AW14" s="193"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="182"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
+      <c r="V14" s="186"/>
+      <c r="W14" s="187"/>
+      <c r="X14" s="187"/>
+      <c r="Y14" s="187"/>
+      <c r="Z14" s="187"/>
+      <c r="AA14" s="187"/>
+      <c r="AB14" s="187"/>
+      <c r="AC14" s="187"/>
+      <c r="AD14" s="187"/>
+      <c r="AE14" s="187"/>
+      <c r="AF14" s="187"/>
+      <c r="AG14" s="187"/>
+      <c r="AH14" s="187"/>
+      <c r="AI14" s="187"/>
+      <c r="AJ14" s="187"/>
+      <c r="AK14" s="187"/>
+      <c r="AL14" s="187"/>
+      <c r="AM14" s="187"/>
+      <c r="AN14" s="176"/>
+      <c r="AO14" s="176"/>
+      <c r="AP14" s="176"/>
+      <c r="AQ14" s="176"/>
+      <c r="AR14" s="176"/>
+      <c r="AS14" s="163"/>
+      <c r="AT14" s="164"/>
+      <c r="AU14" s="164"/>
+      <c r="AV14" s="164"/>
+      <c r="AW14" s="165"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="55"/>
-      <c r="B15" s="182"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="186"/>
-      <c r="O15" s="186"/>
-      <c r="P15" s="186"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="187"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="172"/>
-      <c r="U15" s="172"/>
-      <c r="V15" s="188"/>
-      <c r="W15" s="189"/>
-      <c r="X15" s="189"/>
-      <c r="Y15" s="189"/>
-      <c r="Z15" s="189"/>
-      <c r="AA15" s="189"/>
-      <c r="AB15" s="189"/>
-      <c r="AC15" s="189"/>
-      <c r="AD15" s="189"/>
-      <c r="AE15" s="189"/>
-      <c r="AF15" s="189"/>
-      <c r="AG15" s="189"/>
-      <c r="AH15" s="189"/>
-      <c r="AI15" s="189"/>
-      <c r="AJ15" s="189"/>
-      <c r="AK15" s="189"/>
-      <c r="AL15" s="189"/>
-      <c r="AM15" s="190"/>
-      <c r="AN15" s="191"/>
-      <c r="AO15" s="192"/>
-      <c r="AP15" s="192"/>
-      <c r="AQ15" s="192"/>
-      <c r="AR15" s="193"/>
-      <c r="AS15" s="191"/>
-      <c r="AT15" s="192"/>
-      <c r="AU15" s="192"/>
-      <c r="AV15" s="192"/>
-      <c r="AW15" s="193"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="182"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="178"/>
+      <c r="X15" s="178"/>
+      <c r="Y15" s="178"/>
+      <c r="Z15" s="178"/>
+      <c r="AA15" s="178"/>
+      <c r="AB15" s="178"/>
+      <c r="AC15" s="178"/>
+      <c r="AD15" s="178"/>
+      <c r="AE15" s="178"/>
+      <c r="AF15" s="178"/>
+      <c r="AG15" s="178"/>
+      <c r="AH15" s="178"/>
+      <c r="AI15" s="178"/>
+      <c r="AJ15" s="178"/>
+      <c r="AK15" s="178"/>
+      <c r="AL15" s="178"/>
+      <c r="AM15" s="179"/>
+      <c r="AN15" s="163"/>
+      <c r="AO15" s="164"/>
+      <c r="AP15" s="164"/>
+      <c r="AQ15" s="164"/>
+      <c r="AR15" s="165"/>
+      <c r="AS15" s="163"/>
+      <c r="AT15" s="164"/>
+      <c r="AU15" s="164"/>
+      <c r="AV15" s="164"/>
+      <c r="AW15" s="165"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="186"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="186"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="187"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="172"/>
-      <c r="U16" s="172"/>
-      <c r="V16" s="188"/>
-      <c r="W16" s="189"/>
-      <c r="X16" s="189"/>
-      <c r="Y16" s="189"/>
-      <c r="Z16" s="189"/>
-      <c r="AA16" s="189"/>
-      <c r="AB16" s="189"/>
-      <c r="AC16" s="189"/>
-      <c r="AD16" s="189"/>
-      <c r="AE16" s="189"/>
-      <c r="AF16" s="189"/>
-      <c r="AG16" s="189"/>
-      <c r="AH16" s="189"/>
-      <c r="AI16" s="189"/>
-      <c r="AJ16" s="189"/>
-      <c r="AK16" s="189"/>
-      <c r="AL16" s="189"/>
-      <c r="AM16" s="190"/>
-      <c r="AN16" s="191"/>
-      <c r="AO16" s="192"/>
-      <c r="AP16" s="192"/>
-      <c r="AQ16" s="192"/>
-      <c r="AR16" s="193"/>
-      <c r="AS16" s="191"/>
-      <c r="AT16" s="192"/>
-      <c r="AU16" s="192"/>
-      <c r="AV16" s="192"/>
-      <c r="AW16" s="193"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="182"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="176"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="178"/>
+      <c r="X16" s="178"/>
+      <c r="Y16" s="178"/>
+      <c r="Z16" s="178"/>
+      <c r="AA16" s="178"/>
+      <c r="AB16" s="178"/>
+      <c r="AC16" s="178"/>
+      <c r="AD16" s="178"/>
+      <c r="AE16" s="178"/>
+      <c r="AF16" s="178"/>
+      <c r="AG16" s="178"/>
+      <c r="AH16" s="178"/>
+      <c r="AI16" s="178"/>
+      <c r="AJ16" s="178"/>
+      <c r="AK16" s="178"/>
+      <c r="AL16" s="178"/>
+      <c r="AM16" s="179"/>
+      <c r="AN16" s="163"/>
+      <c r="AO16" s="164"/>
+      <c r="AP16" s="164"/>
+      <c r="AQ16" s="164"/>
+      <c r="AR16" s="165"/>
+      <c r="AS16" s="163"/>
+      <c r="AT16" s="164"/>
+      <c r="AU16" s="164"/>
+      <c r="AV16" s="164"/>
+      <c r="AW16" s="165"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="182"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="186"/>
-      <c r="O17" s="186"/>
-      <c r="P17" s="186"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="198"/>
-      <c r="S17" s="199"/>
-      <c r="T17" s="199"/>
-      <c r="U17" s="199"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="189"/>
-      <c r="X17" s="189"/>
-      <c r="Y17" s="189"/>
-      <c r="Z17" s="189"/>
-      <c r="AA17" s="189"/>
-      <c r="AB17" s="189"/>
-      <c r="AC17" s="189"/>
-      <c r="AD17" s="189"/>
-      <c r="AE17" s="189"/>
-      <c r="AF17" s="189"/>
-      <c r="AG17" s="189"/>
-      <c r="AH17" s="189"/>
-      <c r="AI17" s="189"/>
-      <c r="AJ17" s="189"/>
-      <c r="AK17" s="189"/>
-      <c r="AL17" s="189"/>
-      <c r="AM17" s="190"/>
-      <c r="AN17" s="191"/>
-      <c r="AO17" s="192"/>
-      <c r="AP17" s="192"/>
-      <c r="AQ17" s="192"/>
-      <c r="AR17" s="193"/>
-      <c r="AS17" s="191"/>
-      <c r="AT17" s="192"/>
-      <c r="AU17" s="192"/>
-      <c r="AV17" s="192"/>
-      <c r="AW17" s="193"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="184"/>
+      <c r="S17" s="185"/>
+      <c r="T17" s="185"/>
+      <c r="U17" s="185"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="178"/>
+      <c r="X17" s="178"/>
+      <c r="Y17" s="178"/>
+      <c r="Z17" s="178"/>
+      <c r="AA17" s="178"/>
+      <c r="AB17" s="178"/>
+      <c r="AC17" s="178"/>
+      <c r="AD17" s="178"/>
+      <c r="AE17" s="178"/>
+      <c r="AF17" s="178"/>
+      <c r="AG17" s="178"/>
+      <c r="AH17" s="178"/>
+      <c r="AI17" s="178"/>
+      <c r="AJ17" s="178"/>
+      <c r="AK17" s="178"/>
+      <c r="AL17" s="178"/>
+      <c r="AM17" s="179"/>
+      <c r="AN17" s="163"/>
+      <c r="AO17" s="164"/>
+      <c r="AP17" s="164"/>
+      <c r="AQ17" s="164"/>
+      <c r="AR17" s="165"/>
+      <c r="AS17" s="163"/>
+      <c r="AT17" s="164"/>
+      <c r="AU17" s="164"/>
+      <c r="AV17" s="164"/>
+      <c r="AW17" s="165"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="182"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="176"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="196"/>
-      <c r="N18" s="186"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="186"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172"/>
-      <c r="U18" s="172"/>
-      <c r="V18" s="188"/>
-      <c r="W18" s="189"/>
-      <c r="X18" s="189"/>
-      <c r="Y18" s="189"/>
-      <c r="Z18" s="189"/>
-      <c r="AA18" s="189"/>
-      <c r="AB18" s="189"/>
-      <c r="AC18" s="189"/>
-      <c r="AD18" s="189"/>
-      <c r="AE18" s="189"/>
-      <c r="AF18" s="189"/>
-      <c r="AG18" s="189"/>
-      <c r="AH18" s="189"/>
-      <c r="AI18" s="189"/>
-      <c r="AJ18" s="189"/>
-      <c r="AK18" s="189"/>
-      <c r="AL18" s="189"/>
-      <c r="AM18" s="190"/>
-      <c r="AN18" s="191"/>
-      <c r="AO18" s="192"/>
-      <c r="AP18" s="192"/>
-      <c r="AQ18" s="192"/>
-      <c r="AR18" s="193"/>
-      <c r="AS18" s="191"/>
-      <c r="AT18" s="192"/>
-      <c r="AU18" s="192"/>
-      <c r="AV18" s="192"/>
-      <c r="AW18" s="193"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="182"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="178"/>
+      <c r="X18" s="178"/>
+      <c r="Y18" s="178"/>
+      <c r="Z18" s="178"/>
+      <c r="AA18" s="178"/>
+      <c r="AB18" s="178"/>
+      <c r="AC18" s="178"/>
+      <c r="AD18" s="178"/>
+      <c r="AE18" s="178"/>
+      <c r="AF18" s="178"/>
+      <c r="AG18" s="178"/>
+      <c r="AH18" s="178"/>
+      <c r="AI18" s="178"/>
+      <c r="AJ18" s="178"/>
+      <c r="AK18" s="178"/>
+      <c r="AL18" s="178"/>
+      <c r="AM18" s="179"/>
+      <c r="AN18" s="163"/>
+      <c r="AO18" s="164"/>
+      <c r="AP18" s="164"/>
+      <c r="AQ18" s="164"/>
+      <c r="AR18" s="165"/>
+      <c r="AS18" s="163"/>
+      <c r="AT18" s="164"/>
+      <c r="AU18" s="164"/>
+      <c r="AV18" s="164"/>
+      <c r="AW18" s="165"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="182"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="186"/>
-      <c r="O19" s="186"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="172"/>
-      <c r="T19" s="172"/>
-      <c r="U19" s="172"/>
-      <c r="V19" s="188"/>
-      <c r="W19" s="189"/>
-      <c r="X19" s="189"/>
-      <c r="Y19" s="189"/>
-      <c r="Z19" s="189"/>
-      <c r="AA19" s="189"/>
-      <c r="AB19" s="189"/>
-      <c r="AC19" s="189"/>
-      <c r="AD19" s="189"/>
-      <c r="AE19" s="189"/>
-      <c r="AF19" s="189"/>
-      <c r="AG19" s="189"/>
-      <c r="AH19" s="189"/>
-      <c r="AI19" s="189"/>
-      <c r="AJ19" s="189"/>
-      <c r="AK19" s="189"/>
-      <c r="AL19" s="189"/>
-      <c r="AM19" s="190"/>
-      <c r="AN19" s="172"/>
-      <c r="AO19" s="172"/>
-      <c r="AP19" s="172"/>
-      <c r="AQ19" s="172"/>
-      <c r="AR19" s="172"/>
-      <c r="AS19" s="191"/>
-      <c r="AT19" s="192"/>
-      <c r="AU19" s="192"/>
-      <c r="AV19" s="192"/>
-      <c r="AW19" s="193"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="182"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="176"/>
+      <c r="U19" s="176"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="178"/>
+      <c r="X19" s="178"/>
+      <c r="Y19" s="178"/>
+      <c r="Z19" s="178"/>
+      <c r="AA19" s="178"/>
+      <c r="AB19" s="178"/>
+      <c r="AC19" s="178"/>
+      <c r="AD19" s="178"/>
+      <c r="AE19" s="178"/>
+      <c r="AF19" s="178"/>
+      <c r="AG19" s="178"/>
+      <c r="AH19" s="178"/>
+      <c r="AI19" s="178"/>
+      <c r="AJ19" s="178"/>
+      <c r="AK19" s="178"/>
+      <c r="AL19" s="178"/>
+      <c r="AM19" s="179"/>
+      <c r="AN19" s="176"/>
+      <c r="AO19" s="176"/>
+      <c r="AP19" s="176"/>
+      <c r="AQ19" s="176"/>
+      <c r="AR19" s="176"/>
+      <c r="AS19" s="163"/>
+      <c r="AT19" s="164"/>
+      <c r="AU19" s="164"/>
+      <c r="AV19" s="164"/>
+      <c r="AW19" s="165"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="182"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="177"/>
-      <c r="M20" s="185"/>
-      <c r="N20" s="186"/>
-      <c r="O20" s="186"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="187"/>
-      <c r="S20" s="191"/>
-      <c r="T20" s="192"/>
-      <c r="U20" s="193"/>
-      <c r="V20" s="188"/>
-      <c r="W20" s="189"/>
-      <c r="X20" s="189"/>
-      <c r="Y20" s="189"/>
-      <c r="Z20" s="189"/>
-      <c r="AA20" s="189"/>
-      <c r="AB20" s="189"/>
-      <c r="AC20" s="189"/>
-      <c r="AD20" s="189"/>
-      <c r="AE20" s="189"/>
-      <c r="AF20" s="189"/>
-      <c r="AG20" s="189"/>
-      <c r="AH20" s="189"/>
-      <c r="AI20" s="189"/>
-      <c r="AJ20" s="189"/>
-      <c r="AK20" s="189"/>
-      <c r="AL20" s="189"/>
-      <c r="AM20" s="190"/>
-      <c r="AN20" s="191"/>
-      <c r="AO20" s="192"/>
-      <c r="AP20" s="192"/>
-      <c r="AQ20" s="192"/>
-      <c r="AR20" s="193"/>
-      <c r="AS20" s="191"/>
-      <c r="AT20" s="192"/>
-      <c r="AU20" s="192"/>
-      <c r="AV20" s="192"/>
-      <c r="AW20" s="193"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="182"/>
+      <c r="S20" s="163"/>
+      <c r="T20" s="164"/>
+      <c r="U20" s="165"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="178"/>
+      <c r="X20" s="178"/>
+      <c r="Y20" s="178"/>
+      <c r="Z20" s="178"/>
+      <c r="AA20" s="178"/>
+      <c r="AB20" s="178"/>
+      <c r="AC20" s="178"/>
+      <c r="AD20" s="178"/>
+      <c r="AE20" s="178"/>
+      <c r="AF20" s="178"/>
+      <c r="AG20" s="178"/>
+      <c r="AH20" s="178"/>
+      <c r="AI20" s="178"/>
+      <c r="AJ20" s="178"/>
+      <c r="AK20" s="178"/>
+      <c r="AL20" s="178"/>
+      <c r="AM20" s="179"/>
+      <c r="AN20" s="163"/>
+      <c r="AO20" s="164"/>
+      <c r="AP20" s="164"/>
+      <c r="AQ20" s="164"/>
+      <c r="AR20" s="165"/>
+      <c r="AS20" s="163"/>
+      <c r="AT20" s="164"/>
+      <c r="AU20" s="164"/>
+      <c r="AV20" s="164"/>
+      <c r="AW20" s="165"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
-      <c r="B21" s="182"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="185"/>
-      <c r="N21" s="186"/>
-      <c r="O21" s="186"/>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="187"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="172"/>
-      <c r="U21" s="172"/>
-      <c r="V21" s="188"/>
-      <c r="W21" s="189"/>
-      <c r="X21" s="189"/>
-      <c r="Y21" s="189"/>
-      <c r="Z21" s="189"/>
-      <c r="AA21" s="189"/>
-      <c r="AB21" s="189"/>
-      <c r="AC21" s="189"/>
-      <c r="AD21" s="189"/>
-      <c r="AE21" s="189"/>
-      <c r="AF21" s="189"/>
-      <c r="AG21" s="189"/>
-      <c r="AH21" s="189"/>
-      <c r="AI21" s="189"/>
-      <c r="AJ21" s="189"/>
-      <c r="AK21" s="189"/>
-      <c r="AL21" s="189"/>
-      <c r="AM21" s="190"/>
-      <c r="AN21" s="191"/>
-      <c r="AO21" s="192"/>
-      <c r="AP21" s="192"/>
-      <c r="AQ21" s="192"/>
-      <c r="AR21" s="193"/>
-      <c r="AS21" s="191"/>
-      <c r="AT21" s="192"/>
-      <c r="AU21" s="192"/>
-      <c r="AV21" s="192"/>
-      <c r="AW21" s="193"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="182"/>
+      <c r="S21" s="176"/>
+      <c r="T21" s="176"/>
+      <c r="U21" s="176"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="178"/>
+      <c r="X21" s="178"/>
+      <c r="Y21" s="178"/>
+      <c r="Z21" s="178"/>
+      <c r="AA21" s="178"/>
+      <c r="AB21" s="178"/>
+      <c r="AC21" s="178"/>
+      <c r="AD21" s="178"/>
+      <c r="AE21" s="178"/>
+      <c r="AF21" s="178"/>
+      <c r="AG21" s="178"/>
+      <c r="AH21" s="178"/>
+      <c r="AI21" s="178"/>
+      <c r="AJ21" s="178"/>
+      <c r="AK21" s="178"/>
+      <c r="AL21" s="178"/>
+      <c r="AM21" s="179"/>
+      <c r="AN21" s="163"/>
+      <c r="AO21" s="164"/>
+      <c r="AP21" s="164"/>
+      <c r="AQ21" s="164"/>
+      <c r="AR21" s="165"/>
+      <c r="AS21" s="163"/>
+      <c r="AT21" s="164"/>
+      <c r="AU21" s="164"/>
+      <c r="AV21" s="164"/>
+      <c r="AW21" s="165"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="186"/>
-      <c r="O22" s="186"/>
-      <c r="P22" s="186"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="187"/>
-      <c r="S22" s="172"/>
-      <c r="T22" s="172"/>
-      <c r="U22" s="172"/>
-      <c r="V22" s="188"/>
-      <c r="W22" s="189"/>
-      <c r="X22" s="189"/>
-      <c r="Y22" s="189"/>
-      <c r="Z22" s="189"/>
-      <c r="AA22" s="189"/>
-      <c r="AB22" s="189"/>
-      <c r="AC22" s="189"/>
-      <c r="AD22" s="189"/>
-      <c r="AE22" s="189"/>
-      <c r="AF22" s="189"/>
-      <c r="AG22" s="189"/>
-      <c r="AH22" s="189"/>
-      <c r="AI22" s="189"/>
-      <c r="AJ22" s="189"/>
-      <c r="AK22" s="189"/>
-      <c r="AL22" s="189"/>
-      <c r="AM22" s="190"/>
-      <c r="AN22" s="191"/>
-      <c r="AO22" s="192"/>
-      <c r="AP22" s="192"/>
-      <c r="AQ22" s="192"/>
-      <c r="AR22" s="193"/>
-      <c r="AS22" s="191"/>
-      <c r="AT22" s="192"/>
-      <c r="AU22" s="192"/>
-      <c r="AV22" s="192"/>
-      <c r="AW22" s="193"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="182"/>
+      <c r="S22" s="176"/>
+      <c r="T22" s="176"/>
+      <c r="U22" s="176"/>
+      <c r="V22" s="177"/>
+      <c r="W22" s="178"/>
+      <c r="X22" s="178"/>
+      <c r="Y22" s="178"/>
+      <c r="Z22" s="178"/>
+      <c r="AA22" s="178"/>
+      <c r="AB22" s="178"/>
+      <c r="AC22" s="178"/>
+      <c r="AD22" s="178"/>
+      <c r="AE22" s="178"/>
+      <c r="AF22" s="178"/>
+      <c r="AG22" s="178"/>
+      <c r="AH22" s="178"/>
+      <c r="AI22" s="178"/>
+      <c r="AJ22" s="178"/>
+      <c r="AK22" s="178"/>
+      <c r="AL22" s="178"/>
+      <c r="AM22" s="179"/>
+      <c r="AN22" s="163"/>
+      <c r="AO22" s="164"/>
+      <c r="AP22" s="164"/>
+      <c r="AQ22" s="164"/>
+      <c r="AR22" s="165"/>
+      <c r="AS22" s="163"/>
+      <c r="AT22" s="164"/>
+      <c r="AU22" s="164"/>
+      <c r="AV22" s="164"/>
+      <c r="AW22" s="165"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="177"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="186"/>
-      <c r="O23" s="186"/>
-      <c r="P23" s="186"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="187"/>
-      <c r="S23" s="172"/>
-      <c r="T23" s="172"/>
-      <c r="U23" s="172"/>
-      <c r="V23" s="188"/>
-      <c r="W23" s="189"/>
-      <c r="X23" s="189"/>
-      <c r="Y23" s="189"/>
-      <c r="Z23" s="189"/>
-      <c r="AA23" s="189"/>
-      <c r="AB23" s="189"/>
-      <c r="AC23" s="189"/>
-      <c r="AD23" s="189"/>
-      <c r="AE23" s="189"/>
-      <c r="AF23" s="189"/>
-      <c r="AG23" s="189"/>
-      <c r="AH23" s="189"/>
-      <c r="AI23" s="189"/>
-      <c r="AJ23" s="189"/>
-      <c r="AK23" s="189"/>
-      <c r="AL23" s="189"/>
-      <c r="AM23" s="190"/>
-      <c r="AN23" s="191"/>
-      <c r="AO23" s="192"/>
-      <c r="AP23" s="192"/>
-      <c r="AQ23" s="192"/>
-      <c r="AR23" s="193"/>
-      <c r="AS23" s="191"/>
-      <c r="AT23" s="192"/>
-      <c r="AU23" s="192"/>
-      <c r="AV23" s="192"/>
-      <c r="AW23" s="193"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="182"/>
+      <c r="S23" s="176"/>
+      <c r="T23" s="176"/>
+      <c r="U23" s="176"/>
+      <c r="V23" s="177"/>
+      <c r="W23" s="178"/>
+      <c r="X23" s="178"/>
+      <c r="Y23" s="178"/>
+      <c r="Z23" s="178"/>
+      <c r="AA23" s="178"/>
+      <c r="AB23" s="178"/>
+      <c r="AC23" s="178"/>
+      <c r="AD23" s="178"/>
+      <c r="AE23" s="178"/>
+      <c r="AF23" s="178"/>
+      <c r="AG23" s="178"/>
+      <c r="AH23" s="178"/>
+      <c r="AI23" s="178"/>
+      <c r="AJ23" s="178"/>
+      <c r="AK23" s="178"/>
+      <c r="AL23" s="178"/>
+      <c r="AM23" s="179"/>
+      <c r="AN23" s="163"/>
+      <c r="AO23" s="164"/>
+      <c r="AP23" s="164"/>
+      <c r="AQ23" s="164"/>
+      <c r="AR23" s="165"/>
+      <c r="AS23" s="163"/>
+      <c r="AT23" s="164"/>
+      <c r="AU23" s="164"/>
+      <c r="AV23" s="164"/>
+      <c r="AW23" s="165"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
-      <c r="B24" s="182"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="177"/>
-      <c r="M24" s="185"/>
-      <c r="N24" s="186"/>
-      <c r="O24" s="186"/>
-      <c r="P24" s="186"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="187"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="172"/>
-      <c r="U24" s="172"/>
-      <c r="V24" s="188"/>
-      <c r="W24" s="189"/>
-      <c r="X24" s="189"/>
-      <c r="Y24" s="189"/>
-      <c r="Z24" s="189"/>
-      <c r="AA24" s="189"/>
-      <c r="AB24" s="189"/>
-      <c r="AC24" s="189"/>
-      <c r="AD24" s="189"/>
-      <c r="AE24" s="189"/>
-      <c r="AF24" s="189"/>
-      <c r="AG24" s="189"/>
-      <c r="AH24" s="189"/>
-      <c r="AI24" s="189"/>
-      <c r="AJ24" s="189"/>
-      <c r="AK24" s="189"/>
-      <c r="AL24" s="189"/>
-      <c r="AM24" s="190"/>
-      <c r="AN24" s="191"/>
-      <c r="AO24" s="192"/>
-      <c r="AP24" s="192"/>
-      <c r="AQ24" s="192"/>
-      <c r="AR24" s="193"/>
-      <c r="AS24" s="191"/>
-      <c r="AT24" s="192"/>
-      <c r="AU24" s="192"/>
-      <c r="AV24" s="192"/>
-      <c r="AW24" s="193"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="182"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="176"/>
+      <c r="U24" s="176"/>
+      <c r="V24" s="177"/>
+      <c r="W24" s="178"/>
+      <c r="X24" s="178"/>
+      <c r="Y24" s="178"/>
+      <c r="Z24" s="178"/>
+      <c r="AA24" s="178"/>
+      <c r="AB24" s="178"/>
+      <c r="AC24" s="178"/>
+      <c r="AD24" s="178"/>
+      <c r="AE24" s="178"/>
+      <c r="AF24" s="178"/>
+      <c r="AG24" s="178"/>
+      <c r="AH24" s="178"/>
+      <c r="AI24" s="178"/>
+      <c r="AJ24" s="178"/>
+      <c r="AK24" s="178"/>
+      <c r="AL24" s="178"/>
+      <c r="AM24" s="179"/>
+      <c r="AN24" s="163"/>
+      <c r="AO24" s="164"/>
+      <c r="AP24" s="164"/>
+      <c r="AQ24" s="164"/>
+      <c r="AR24" s="165"/>
+      <c r="AS24" s="163"/>
+      <c r="AT24" s="164"/>
+      <c r="AU24" s="164"/>
+      <c r="AV24" s="164"/>
+      <c r="AW24" s="165"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="176"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="196"/>
-      <c r="N25" s="186"/>
-      <c r="O25" s="186"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="187"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
-      <c r="V25" s="188"/>
-      <c r="W25" s="189"/>
-      <c r="X25" s="189"/>
-      <c r="Y25" s="189"/>
-      <c r="Z25" s="189"/>
-      <c r="AA25" s="189"/>
-      <c r="AB25" s="189"/>
-      <c r="AC25" s="189"/>
-      <c r="AD25" s="189"/>
-      <c r="AE25" s="189"/>
-      <c r="AF25" s="189"/>
-      <c r="AG25" s="189"/>
-      <c r="AH25" s="189"/>
-      <c r="AI25" s="189"/>
-      <c r="AJ25" s="189"/>
-      <c r="AK25" s="189"/>
-      <c r="AL25" s="189"/>
-      <c r="AM25" s="190"/>
-      <c r="AN25" s="191"/>
-      <c r="AO25" s="192"/>
-      <c r="AP25" s="192"/>
-      <c r="AQ25" s="192"/>
-      <c r="AR25" s="193"/>
-      <c r="AS25" s="191"/>
-      <c r="AT25" s="192"/>
-      <c r="AU25" s="192"/>
-      <c r="AV25" s="192"/>
-      <c r="AW25" s="193"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="182"/>
+      <c r="S25" s="176"/>
+      <c r="T25" s="176"/>
+      <c r="U25" s="176"/>
+      <c r="V25" s="177"/>
+      <c r="W25" s="178"/>
+      <c r="X25" s="178"/>
+      <c r="Y25" s="178"/>
+      <c r="Z25" s="178"/>
+      <c r="AA25" s="178"/>
+      <c r="AB25" s="178"/>
+      <c r="AC25" s="178"/>
+      <c r="AD25" s="178"/>
+      <c r="AE25" s="178"/>
+      <c r="AF25" s="178"/>
+      <c r="AG25" s="178"/>
+      <c r="AH25" s="178"/>
+      <c r="AI25" s="178"/>
+      <c r="AJ25" s="178"/>
+      <c r="AK25" s="178"/>
+      <c r="AL25" s="178"/>
+      <c r="AM25" s="179"/>
+      <c r="AN25" s="163"/>
+      <c r="AO25" s="164"/>
+      <c r="AP25" s="164"/>
+      <c r="AQ25" s="164"/>
+      <c r="AR25" s="165"/>
+      <c r="AS25" s="163"/>
+      <c r="AT25" s="164"/>
+      <c r="AU25" s="164"/>
+      <c r="AV25" s="164"/>
+      <c r="AW25" s="165"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="196"/>
-      <c r="N26" s="186"/>
-      <c r="O26" s="186"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="187"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
-      <c r="U26" s="172"/>
-      <c r="V26" s="188"/>
-      <c r="W26" s="189"/>
-      <c r="X26" s="189"/>
-      <c r="Y26" s="189"/>
-      <c r="Z26" s="189"/>
-      <c r="AA26" s="189"/>
-      <c r="AB26" s="189"/>
-      <c r="AC26" s="189"/>
-      <c r="AD26" s="189"/>
-      <c r="AE26" s="189"/>
-      <c r="AF26" s="189"/>
-      <c r="AG26" s="189"/>
-      <c r="AH26" s="189"/>
-      <c r="AI26" s="189"/>
-      <c r="AJ26" s="189"/>
-      <c r="AK26" s="189"/>
-      <c r="AL26" s="189"/>
-      <c r="AM26" s="190"/>
-      <c r="AN26" s="191"/>
-      <c r="AO26" s="192"/>
-      <c r="AP26" s="192"/>
-      <c r="AQ26" s="192"/>
-      <c r="AR26" s="193"/>
-      <c r="AS26" s="191"/>
-      <c r="AT26" s="192"/>
-      <c r="AU26" s="192"/>
-      <c r="AV26" s="192"/>
-      <c r="AW26" s="193"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="182"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
+      <c r="U26" s="176"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="178"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="178"/>
+      <c r="Z26" s="178"/>
+      <c r="AA26" s="178"/>
+      <c r="AB26" s="178"/>
+      <c r="AC26" s="178"/>
+      <c r="AD26" s="178"/>
+      <c r="AE26" s="178"/>
+      <c r="AF26" s="178"/>
+      <c r="AG26" s="178"/>
+      <c r="AH26" s="178"/>
+      <c r="AI26" s="178"/>
+      <c r="AJ26" s="178"/>
+      <c r="AK26" s="178"/>
+      <c r="AL26" s="178"/>
+      <c r="AM26" s="179"/>
+      <c r="AN26" s="163"/>
+      <c r="AO26" s="164"/>
+      <c r="AP26" s="164"/>
+      <c r="AQ26" s="164"/>
+      <c r="AR26" s="165"/>
+      <c r="AS26" s="163"/>
+      <c r="AT26" s="164"/>
+      <c r="AU26" s="164"/>
+      <c r="AV26" s="164"/>
+      <c r="AW26" s="165"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
-      <c r="B27" s="182"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="177"/>
-      <c r="M27" s="196"/>
-      <c r="N27" s="186"/>
-      <c r="O27" s="186"/>
-      <c r="P27" s="186"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="187"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="172"/>
-      <c r="U27" s="172"/>
-      <c r="V27" s="188"/>
-      <c r="W27" s="189"/>
-      <c r="X27" s="189"/>
-      <c r="Y27" s="189"/>
-      <c r="Z27" s="189"/>
-      <c r="AA27" s="189"/>
-      <c r="AB27" s="189"/>
-      <c r="AC27" s="189"/>
-      <c r="AD27" s="189"/>
-      <c r="AE27" s="189"/>
-      <c r="AF27" s="189"/>
-      <c r="AG27" s="189"/>
-      <c r="AH27" s="189"/>
-      <c r="AI27" s="189"/>
-      <c r="AJ27" s="189"/>
-      <c r="AK27" s="189"/>
-      <c r="AL27" s="189"/>
-      <c r="AM27" s="190"/>
-      <c r="AN27" s="191"/>
-      <c r="AO27" s="192"/>
-      <c r="AP27" s="192"/>
-      <c r="AQ27" s="192"/>
-      <c r="AR27" s="193"/>
-      <c r="AS27" s="191"/>
-      <c r="AT27" s="192"/>
-      <c r="AU27" s="192"/>
-      <c r="AV27" s="192"/>
-      <c r="AW27" s="193"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="172"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="182"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
+      <c r="U27" s="176"/>
+      <c r="V27" s="177"/>
+      <c r="W27" s="178"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="178"/>
+      <c r="Z27" s="178"/>
+      <c r="AA27" s="178"/>
+      <c r="AB27" s="178"/>
+      <c r="AC27" s="178"/>
+      <c r="AD27" s="178"/>
+      <c r="AE27" s="178"/>
+      <c r="AF27" s="178"/>
+      <c r="AG27" s="178"/>
+      <c r="AH27" s="178"/>
+      <c r="AI27" s="178"/>
+      <c r="AJ27" s="178"/>
+      <c r="AK27" s="178"/>
+      <c r="AL27" s="178"/>
+      <c r="AM27" s="179"/>
+      <c r="AN27" s="163"/>
+      <c r="AO27" s="164"/>
+      <c r="AP27" s="164"/>
+      <c r="AQ27" s="164"/>
+      <c r="AR27" s="165"/>
+      <c r="AS27" s="163"/>
+      <c r="AT27" s="164"/>
+      <c r="AU27" s="164"/>
+      <c r="AV27" s="164"/>
+      <c r="AW27" s="165"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
-      <c r="B28" s="182"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="177"/>
-      <c r="M28" s="185"/>
-      <c r="N28" s="186"/>
-      <c r="O28" s="186"/>
-      <c r="P28" s="186"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="187"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="172"/>
-      <c r="U28" s="172"/>
-      <c r="V28" s="188"/>
-      <c r="W28" s="189"/>
-      <c r="X28" s="189"/>
-      <c r="Y28" s="189"/>
-      <c r="Z28" s="189"/>
-      <c r="AA28" s="189"/>
-      <c r="AB28" s="189"/>
-      <c r="AC28" s="189"/>
-      <c r="AD28" s="189"/>
-      <c r="AE28" s="189"/>
-      <c r="AF28" s="189"/>
-      <c r="AG28" s="189"/>
-      <c r="AH28" s="189"/>
-      <c r="AI28" s="189"/>
-      <c r="AJ28" s="189"/>
-      <c r="AK28" s="189"/>
-      <c r="AL28" s="189"/>
-      <c r="AM28" s="190"/>
-      <c r="AN28" s="191"/>
-      <c r="AO28" s="192"/>
-      <c r="AP28" s="192"/>
-      <c r="AQ28" s="192"/>
-      <c r="AR28" s="193"/>
-      <c r="AS28" s="191"/>
-      <c r="AT28" s="192"/>
-      <c r="AU28" s="192"/>
-      <c r="AV28" s="192"/>
-      <c r="AW28" s="193"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="176"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="176"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="178"/>
+      <c r="X28" s="178"/>
+      <c r="Y28" s="178"/>
+      <c r="Z28" s="178"/>
+      <c r="AA28" s="178"/>
+      <c r="AB28" s="178"/>
+      <c r="AC28" s="178"/>
+      <c r="AD28" s="178"/>
+      <c r="AE28" s="178"/>
+      <c r="AF28" s="178"/>
+      <c r="AG28" s="178"/>
+      <c r="AH28" s="178"/>
+      <c r="AI28" s="178"/>
+      <c r="AJ28" s="178"/>
+      <c r="AK28" s="178"/>
+      <c r="AL28" s="178"/>
+      <c r="AM28" s="179"/>
+      <c r="AN28" s="163"/>
+      <c r="AO28" s="164"/>
+      <c r="AP28" s="164"/>
+      <c r="AQ28" s="164"/>
+      <c r="AR28" s="165"/>
+      <c r="AS28" s="163"/>
+      <c r="AT28" s="164"/>
+      <c r="AU28" s="164"/>
+      <c r="AV28" s="164"/>
+      <c r="AW28" s="165"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
-      <c r="B29" s="182"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="185"/>
-      <c r="N29" s="186"/>
-      <c r="O29" s="186"/>
-      <c r="P29" s="186"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="172"/>
-      <c r="V29" s="188"/>
-      <c r="W29" s="189"/>
-      <c r="X29" s="189"/>
-      <c r="Y29" s="189"/>
-      <c r="Z29" s="189"/>
-      <c r="AA29" s="189"/>
-      <c r="AB29" s="189"/>
-      <c r="AC29" s="189"/>
-      <c r="AD29" s="189"/>
-      <c r="AE29" s="189"/>
-      <c r="AF29" s="189"/>
-      <c r="AG29" s="189"/>
-      <c r="AH29" s="189"/>
-      <c r="AI29" s="189"/>
-      <c r="AJ29" s="189"/>
-      <c r="AK29" s="189"/>
-      <c r="AL29" s="189"/>
-      <c r="AM29" s="190"/>
-      <c r="AN29" s="191"/>
-      <c r="AO29" s="192"/>
-      <c r="AP29" s="192"/>
-      <c r="AQ29" s="192"/>
-      <c r="AR29" s="193"/>
-      <c r="AS29" s="191"/>
-      <c r="AT29" s="192"/>
-      <c r="AU29" s="192"/>
-      <c r="AV29" s="192"/>
-      <c r="AW29" s="193"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="176"/>
+      <c r="T29" s="176"/>
+      <c r="U29" s="176"/>
+      <c r="V29" s="177"/>
+      <c r="W29" s="178"/>
+      <c r="X29" s="178"/>
+      <c r="Y29" s="178"/>
+      <c r="Z29" s="178"/>
+      <c r="AA29" s="178"/>
+      <c r="AB29" s="178"/>
+      <c r="AC29" s="178"/>
+      <c r="AD29" s="178"/>
+      <c r="AE29" s="178"/>
+      <c r="AF29" s="178"/>
+      <c r="AG29" s="178"/>
+      <c r="AH29" s="178"/>
+      <c r="AI29" s="178"/>
+      <c r="AJ29" s="178"/>
+      <c r="AK29" s="178"/>
+      <c r="AL29" s="178"/>
+      <c r="AM29" s="179"/>
+      <c r="AN29" s="163"/>
+      <c r="AO29" s="164"/>
+      <c r="AP29" s="164"/>
+      <c r="AQ29" s="164"/>
+      <c r="AR29" s="165"/>
+      <c r="AS29" s="163"/>
+      <c r="AT29" s="164"/>
+      <c r="AU29" s="164"/>
+      <c r="AV29" s="164"/>
+      <c r="AW29" s="165"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="177"/>
-      <c r="M30" s="196"/>
-      <c r="N30" s="186"/>
-      <c r="O30" s="186"/>
-      <c r="P30" s="186"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="187"/>
-      <c r="S30" s="172"/>
-      <c r="T30" s="172"/>
-      <c r="U30" s="172"/>
-      <c r="V30" s="188"/>
-      <c r="W30" s="189"/>
-      <c r="X30" s="189"/>
-      <c r="Y30" s="189"/>
-      <c r="Z30" s="189"/>
-      <c r="AA30" s="189"/>
-      <c r="AB30" s="189"/>
-      <c r="AC30" s="189"/>
-      <c r="AD30" s="189"/>
-      <c r="AE30" s="189"/>
-      <c r="AF30" s="189"/>
-      <c r="AG30" s="189"/>
-      <c r="AH30" s="189"/>
-      <c r="AI30" s="189"/>
-      <c r="AJ30" s="189"/>
-      <c r="AK30" s="189"/>
-      <c r="AL30" s="189"/>
-      <c r="AM30" s="190"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="192"/>
-      <c r="AP30" s="192"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="193"/>
-      <c r="AS30" s="191"/>
-      <c r="AT30" s="192"/>
-      <c r="AU30" s="192"/>
-      <c r="AV30" s="192"/>
-      <c r="AW30" s="193"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="172"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="176"/>
+      <c r="V30" s="177"/>
+      <c r="W30" s="178"/>
+      <c r="X30" s="178"/>
+      <c r="Y30" s="178"/>
+      <c r="Z30" s="178"/>
+      <c r="AA30" s="178"/>
+      <c r="AB30" s="178"/>
+      <c r="AC30" s="178"/>
+      <c r="AD30" s="178"/>
+      <c r="AE30" s="178"/>
+      <c r="AF30" s="178"/>
+      <c r="AG30" s="178"/>
+      <c r="AH30" s="178"/>
+      <c r="AI30" s="178"/>
+      <c r="AJ30" s="178"/>
+      <c r="AK30" s="178"/>
+      <c r="AL30" s="178"/>
+      <c r="AM30" s="179"/>
+      <c r="AN30" s="163"/>
+      <c r="AO30" s="164"/>
+      <c r="AP30" s="164"/>
+      <c r="AQ30" s="164"/>
+      <c r="AR30" s="165"/>
+      <c r="AS30" s="163"/>
+      <c r="AT30" s="164"/>
+      <c r="AU30" s="164"/>
+      <c r="AV30" s="164"/>
+      <c r="AW30" s="165"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="177"/>
-      <c r="M31" s="196"/>
-      <c r="N31" s="186"/>
-      <c r="O31" s="186"/>
-      <c r="P31" s="186"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="187"/>
-      <c r="S31" s="172"/>
-      <c r="T31" s="172"/>
-      <c r="U31" s="172"/>
-      <c r="V31" s="188"/>
-      <c r="W31" s="189"/>
-      <c r="X31" s="189"/>
-      <c r="Y31" s="189"/>
-      <c r="Z31" s="189"/>
-      <c r="AA31" s="189"/>
-      <c r="AB31" s="189"/>
-      <c r="AC31" s="189"/>
-      <c r="AD31" s="189"/>
-      <c r="AE31" s="189"/>
-      <c r="AF31" s="189"/>
-      <c r="AG31" s="189"/>
-      <c r="AH31" s="189"/>
-      <c r="AI31" s="189"/>
-      <c r="AJ31" s="189"/>
-      <c r="AK31" s="189"/>
-      <c r="AL31" s="189"/>
-      <c r="AM31" s="190"/>
-      <c r="AN31" s="191"/>
-      <c r="AO31" s="192"/>
-      <c r="AP31" s="192"/>
-      <c r="AQ31" s="192"/>
-      <c r="AR31" s="193"/>
-      <c r="AS31" s="191"/>
-      <c r="AT31" s="192"/>
-      <c r="AU31" s="192"/>
-      <c r="AV31" s="192"/>
-      <c r="AW31" s="193"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="172"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="176"/>
+      <c r="T31" s="176"/>
+      <c r="U31" s="176"/>
+      <c r="V31" s="177"/>
+      <c r="W31" s="178"/>
+      <c r="X31" s="178"/>
+      <c r="Y31" s="178"/>
+      <c r="Z31" s="178"/>
+      <c r="AA31" s="178"/>
+      <c r="AB31" s="178"/>
+      <c r="AC31" s="178"/>
+      <c r="AD31" s="178"/>
+      <c r="AE31" s="178"/>
+      <c r="AF31" s="178"/>
+      <c r="AG31" s="178"/>
+      <c r="AH31" s="178"/>
+      <c r="AI31" s="178"/>
+      <c r="AJ31" s="178"/>
+      <c r="AK31" s="178"/>
+      <c r="AL31" s="178"/>
+      <c r="AM31" s="179"/>
+      <c r="AN31" s="163"/>
+      <c r="AO31" s="164"/>
+      <c r="AP31" s="164"/>
+      <c r="AQ31" s="164"/>
+      <c r="AR31" s="165"/>
+      <c r="AS31" s="163"/>
+      <c r="AT31" s="164"/>
+      <c r="AU31" s="164"/>
+      <c r="AV31" s="164"/>
+      <c r="AW31" s="165"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="184"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="196"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="186"/>
-      <c r="P32" s="186"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="187"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="172"/>
-      <c r="U32" s="172"/>
-      <c r="V32" s="188"/>
-      <c r="W32" s="189"/>
-      <c r="X32" s="189"/>
-      <c r="Y32" s="189"/>
-      <c r="Z32" s="189"/>
-      <c r="AA32" s="189"/>
-      <c r="AB32" s="189"/>
-      <c r="AC32" s="189"/>
-      <c r="AD32" s="189"/>
-      <c r="AE32" s="189"/>
-      <c r="AF32" s="189"/>
-      <c r="AG32" s="189"/>
-      <c r="AH32" s="189"/>
-      <c r="AI32" s="189"/>
-      <c r="AJ32" s="189"/>
-      <c r="AK32" s="189"/>
-      <c r="AL32" s="189"/>
-      <c r="AM32" s="190"/>
-      <c r="AN32" s="191"/>
-      <c r="AO32" s="192"/>
-      <c r="AP32" s="192"/>
-      <c r="AQ32" s="192"/>
-      <c r="AR32" s="193"/>
-      <c r="AS32" s="191"/>
-      <c r="AT32" s="192"/>
-      <c r="AU32" s="192"/>
-      <c r="AV32" s="192"/>
-      <c r="AW32" s="193"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="171"/>
+      <c r="L32" s="172"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="181"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="176"/>
+      <c r="T32" s="176"/>
+      <c r="U32" s="176"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="178"/>
+      <c r="X32" s="178"/>
+      <c r="Y32" s="178"/>
+      <c r="Z32" s="178"/>
+      <c r="AA32" s="178"/>
+      <c r="AB32" s="178"/>
+      <c r="AC32" s="178"/>
+      <c r="AD32" s="178"/>
+      <c r="AE32" s="178"/>
+      <c r="AF32" s="178"/>
+      <c r="AG32" s="178"/>
+      <c r="AH32" s="178"/>
+      <c r="AI32" s="178"/>
+      <c r="AJ32" s="178"/>
+      <c r="AK32" s="178"/>
+      <c r="AL32" s="178"/>
+      <c r="AM32" s="179"/>
+      <c r="AN32" s="163"/>
+      <c r="AO32" s="164"/>
+      <c r="AP32" s="164"/>
+      <c r="AQ32" s="164"/>
+      <c r="AR32" s="165"/>
+      <c r="AS32" s="163"/>
+      <c r="AT32" s="164"/>
+      <c r="AU32" s="164"/>
+      <c r="AV32" s="164"/>
+      <c r="AW32" s="165"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="182"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="177"/>
-      <c r="M33" s="196"/>
-      <c r="N33" s="186"/>
-      <c r="O33" s="186"/>
-      <c r="P33" s="186"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="187"/>
-      <c r="S33" s="172"/>
-      <c r="T33" s="172"/>
-      <c r="U33" s="172"/>
-      <c r="V33" s="188"/>
-      <c r="W33" s="189"/>
-      <c r="X33" s="189"/>
-      <c r="Y33" s="189"/>
-      <c r="Z33" s="189"/>
-      <c r="AA33" s="189"/>
-      <c r="AB33" s="189"/>
-      <c r="AC33" s="189"/>
-      <c r="AD33" s="189"/>
-      <c r="AE33" s="189"/>
-      <c r="AF33" s="189"/>
-      <c r="AG33" s="189"/>
-      <c r="AH33" s="189"/>
-      <c r="AI33" s="189"/>
-      <c r="AJ33" s="189"/>
-      <c r="AK33" s="189"/>
-      <c r="AL33" s="189"/>
-      <c r="AM33" s="190"/>
-      <c r="AN33" s="191"/>
-      <c r="AO33" s="192"/>
-      <c r="AP33" s="192"/>
-      <c r="AQ33" s="192"/>
-      <c r="AR33" s="193"/>
-      <c r="AS33" s="191"/>
-      <c r="AT33" s="192"/>
-      <c r="AU33" s="192"/>
-      <c r="AV33" s="192"/>
-      <c r="AW33" s="193"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="172"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="182"/>
+      <c r="S33" s="176"/>
+      <c r="T33" s="176"/>
+      <c r="U33" s="176"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="178"/>
+      <c r="X33" s="178"/>
+      <c r="Y33" s="178"/>
+      <c r="Z33" s="178"/>
+      <c r="AA33" s="178"/>
+      <c r="AB33" s="178"/>
+      <c r="AC33" s="178"/>
+      <c r="AD33" s="178"/>
+      <c r="AE33" s="178"/>
+      <c r="AF33" s="178"/>
+      <c r="AG33" s="178"/>
+      <c r="AH33" s="178"/>
+      <c r="AI33" s="178"/>
+      <c r="AJ33" s="178"/>
+      <c r="AK33" s="178"/>
+      <c r="AL33" s="178"/>
+      <c r="AM33" s="179"/>
+      <c r="AN33" s="163"/>
+      <c r="AO33" s="164"/>
+      <c r="AP33" s="164"/>
+      <c r="AQ33" s="164"/>
+      <c r="AR33" s="165"/>
+      <c r="AS33" s="163"/>
+      <c r="AT33" s="164"/>
+      <c r="AU33" s="164"/>
+      <c r="AV33" s="164"/>
+      <c r="AW33" s="165"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="182"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="176"/>
-      <c r="L34" s="177"/>
-      <c r="M34" s="200"/>
-      <c r="N34" s="201"/>
-      <c r="O34" s="201"/>
-      <c r="P34" s="201"/>
-      <c r="Q34" s="201"/>
-      <c r="R34" s="202"/>
-      <c r="S34" s="172"/>
-      <c r="T34" s="172"/>
-      <c r="U34" s="172"/>
-      <c r="V34" s="188"/>
-      <c r="W34" s="189"/>
-      <c r="X34" s="189"/>
-      <c r="Y34" s="189"/>
-      <c r="Z34" s="189"/>
-      <c r="AA34" s="189"/>
-      <c r="AB34" s="189"/>
-      <c r="AC34" s="189"/>
-      <c r="AD34" s="189"/>
-      <c r="AE34" s="189"/>
-      <c r="AF34" s="189"/>
-      <c r="AG34" s="189"/>
-      <c r="AH34" s="189"/>
-      <c r="AI34" s="189"/>
-      <c r="AJ34" s="189"/>
-      <c r="AK34" s="189"/>
-      <c r="AL34" s="189"/>
-      <c r="AM34" s="190"/>
-      <c r="AN34" s="191"/>
-      <c r="AO34" s="192"/>
-      <c r="AP34" s="192"/>
-      <c r="AQ34" s="192"/>
-      <c r="AR34" s="193"/>
-      <c r="AS34" s="191"/>
-      <c r="AT34" s="192"/>
-      <c r="AU34" s="192"/>
-      <c r="AV34" s="192"/>
-      <c r="AW34" s="193"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="171"/>
+      <c r="L34" s="172"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="174"/>
+      <c r="O34" s="174"/>
+      <c r="P34" s="174"/>
+      <c r="Q34" s="174"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="176"/>
+      <c r="T34" s="176"/>
+      <c r="U34" s="176"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="178"/>
+      <c r="X34" s="178"/>
+      <c r="Y34" s="178"/>
+      <c r="Z34" s="178"/>
+      <c r="AA34" s="178"/>
+      <c r="AB34" s="178"/>
+      <c r="AC34" s="178"/>
+      <c r="AD34" s="178"/>
+      <c r="AE34" s="178"/>
+      <c r="AF34" s="178"/>
+      <c r="AG34" s="178"/>
+      <c r="AH34" s="178"/>
+      <c r="AI34" s="178"/>
+      <c r="AJ34" s="178"/>
+      <c r="AK34" s="178"/>
+      <c r="AL34" s="178"/>
+      <c r="AM34" s="179"/>
+      <c r="AN34" s="163"/>
+      <c r="AO34" s="164"/>
+      <c r="AP34" s="164"/>
+      <c r="AQ34" s="164"/>
+      <c r="AR34" s="165"/>
+      <c r="AS34" s="163"/>
+      <c r="AT34" s="164"/>
+      <c r="AU34" s="164"/>
+      <c r="AV34" s="164"/>
+      <c r="AW34" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7794,239 +8032,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8186,11 +8191,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="207"/>
-      <c r="AP2" s="208"/>
-      <c r="AQ2" s="208"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="209"/>
+      <c r="AO2" s="203"/>
+      <c r="AP2" s="204"/>
+      <c r="AQ2" s="204"/>
+      <c r="AR2" s="204"/>
+      <c r="AS2" s="205"/>
       <c r="AT2" s="33" t="s">
         <v>26</v>
       </c>
@@ -8199,14 +8204,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="210"/>
-      <c r="BA2" s="211"/>
-      <c r="BB2" s="211"/>
-      <c r="BC2" s="211"/>
-      <c r="BD2" s="211"/>
-      <c r="BE2" s="211"/>
-      <c r="BF2" s="211"/>
-      <c r="BG2" s="212"/>
+      <c r="AZ2" s="206"/>
+      <c r="BA2" s="207"/>
+      <c r="BB2" s="207"/>
+      <c r="BC2" s="207"/>
+      <c r="BD2" s="207"/>
+      <c r="BE2" s="207"/>
+      <c r="BF2" s="207"/>
+      <c r="BG2" s="208"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -10022,10 +10027,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="28"/>
-      <c r="B50" s="213" t="s">
+      <c r="B50" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="214"/>
+      <c r="C50" s="212"/>
       <c r="D50" s="82" t="s">
         <v>78</v>
       </c>
@@ -10108,10 +10113,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
-      <c r="B51" s="203">
+      <c r="B51" s="213">
         <v>1</v>
       </c>
-      <c r="C51" s="204"/>
+      <c r="C51" s="214"/>
       <c r="D51" s="76" t="s">
         <v>105</v>
       </c>
@@ -10143,16 +10148,16 @@
       <c r="AB51" s="80"/>
       <c r="AC51" s="80"/>
       <c r="AD51" s="81"/>
-      <c r="AE51" s="205" t="s">
+      <c r="AE51" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="AF51" s="206"/>
-      <c r="AG51" s="205"/>
-      <c r="AH51" s="206"/>
-      <c r="AI51" s="205"/>
-      <c r="AJ51" s="206"/>
-      <c r="AK51" s="205"/>
-      <c r="AL51" s="206"/>
+      <c r="AF51" s="210"/>
+      <c r="AG51" s="209"/>
+      <c r="AH51" s="210"/>
+      <c r="AI51" s="209"/>
+      <c r="AJ51" s="210"/>
+      <c r="AK51" s="209"/>
+      <c r="AL51" s="210"/>
       <c r="AM51" s="77" t="s">
         <v>128</v>
       </c>
@@ -10186,10 +10191,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
-      <c r="B52" s="203">
+      <c r="B52" s="213">
         <v>2</v>
       </c>
-      <c r="C52" s="204"/>
+      <c r="C52" s="214"/>
       <c r="D52" s="111" t="s">
         <v>105</v>
       </c>
@@ -10221,16 +10226,16 @@
       <c r="AB52" s="80"/>
       <c r="AC52" s="80"/>
       <c r="AD52" s="112"/>
-      <c r="AE52" s="205" t="s">
+      <c r="AE52" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="AF52" s="206"/>
-      <c r="AG52" s="205"/>
-      <c r="AH52" s="206"/>
-      <c r="AI52" s="205"/>
-      <c r="AJ52" s="206"/>
-      <c r="AK52" s="205"/>
-      <c r="AL52" s="206"/>
+      <c r="AF52" s="210"/>
+      <c r="AG52" s="209"/>
+      <c r="AH52" s="210"/>
+      <c r="AI52" s="209"/>
+      <c r="AJ52" s="210"/>
+      <c r="AK52" s="209"/>
+      <c r="AL52" s="210"/>
       <c r="AM52" s="77" t="s">
         <v>129</v>
       </c>
@@ -10264,10 +10269,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="28"/>
-      <c r="B53" s="203">
+      <c r="B53" s="213">
         <v>3</v>
       </c>
-      <c r="C53" s="204"/>
+      <c r="C53" s="214"/>
       <c r="D53" s="111" t="s">
         <v>106</v>
       </c>
@@ -10299,18 +10304,18 @@
       <c r="AB53" s="80"/>
       <c r="AC53" s="80"/>
       <c r="AD53" s="112"/>
-      <c r="AE53" s="205" t="s">
+      <c r="AE53" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="AF53" s="206"/>
-      <c r="AG53" s="205"/>
-      <c r="AH53" s="206"/>
-      <c r="AI53" s="205" t="s">
+      <c r="AF53" s="210"/>
+      <c r="AG53" s="209"/>
+      <c r="AH53" s="210"/>
+      <c r="AI53" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="AJ53" s="206"/>
-      <c r="AK53" s="205"/>
-      <c r="AL53" s="206"/>
+      <c r="AJ53" s="210"/>
+      <c r="AK53" s="209"/>
+      <c r="AL53" s="210"/>
       <c r="AM53" s="77" t="s">
         <v>130</v>
       </c>
@@ -10344,10 +10349,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="28"/>
-      <c r="B54" s="203">
+      <c r="B54" s="213">
         <v>4</v>
       </c>
-      <c r="C54" s="204"/>
+      <c r="C54" s="214"/>
       <c r="D54" s="111" t="s">
         <v>106</v>
       </c>
@@ -10379,18 +10384,18 @@
       <c r="AB54" s="80"/>
       <c r="AC54" s="80"/>
       <c r="AD54" s="112"/>
-      <c r="AE54" s="205" t="s">
+      <c r="AE54" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="AF54" s="206"/>
-      <c r="AG54" s="205" t="s">
+      <c r="AF54" s="210"/>
+      <c r="AG54" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="AH54" s="206"/>
-      <c r="AI54" s="205"/>
-      <c r="AJ54" s="206"/>
-      <c r="AK54" s="205"/>
-      <c r="AL54" s="206"/>
+      <c r="AH54" s="210"/>
+      <c r="AI54" s="209"/>
+      <c r="AJ54" s="210"/>
+      <c r="AK54" s="209"/>
+      <c r="AL54" s="210"/>
       <c r="AM54" s="77" t="s">
         <v>131</v>
       </c>
@@ -10424,6 +10429,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK51:AL51"/>
@@ -10432,21 +10452,6 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10592,7 +10597,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="210" t="str">
+      <c r="CU1" s="206" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -10723,7 +10728,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="210"/>
+      <c r="CU2" s="206"/>
       <c r="CV2" s="215"/>
       <c r="CW2" s="215"/>
       <c r="CX2" s="215"/>
@@ -10939,22 +10944,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="165" t="s">
+      <c r="E6" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="165" t="s">
+      <c r="F6" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="165" t="s">
+      <c r="G6" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="165" t="s">
+      <c r="H6" s="196" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="224" t="s">
@@ -10963,13 +10968,13 @@
       <c r="J6" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="165" t="s">
+      <c r="K6" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="165" t="s">
+      <c r="L6" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="165" t="s">
+      <c r="M6" s="196" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="64" t="s">
@@ -10984,17 +10989,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
       <c r="I7" s="224"/>
       <c r="J7" s="224"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
       <c r="N7" s="42" t="s">
         <v>60</v>
       </c>
@@ -11460,22 +11465,22 @@
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="165" t="s">
+      <c r="C19" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="165" t="s">
+      <c r="D19" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="165" t="s">
+      <c r="E19" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="165" t="s">
+      <c r="F19" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="165" t="s">
+      <c r="G19" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="165" t="s">
+      <c r="H19" s="196" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="225" t="s">
@@ -11484,13 +11489,13 @@
       <c r="J19" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="165" t="s">
+      <c r="K19" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="165" t="s">
+      <c r="L19" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="165" t="s">
+      <c r="M19" s="196" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="64" t="s">
@@ -11505,17 +11510,17 @@
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
       <c r="I20" s="226"/>
       <c r="J20" s="224"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
+      <c r="K20" s="196"/>
+      <c r="L20" s="196"/>
+      <c r="M20" s="196"/>
       <c r="N20" s="42" t="s">
         <v>60</v>
       </c>
@@ -11527,7 +11532,7 @@
       </c>
       <c r="Q20" s="226"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="7">
@@ -11572,8 +11577,8 @@
       <c r="P21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="7" t="s">
-        <v>34</v>
+      <c r="Q21" s="140" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -11653,22 +11658,22 @@
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="57"/>
-      <c r="C25" s="165" t="s">
+      <c r="C25" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="165" t="s">
+      <c r="D25" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="165" t="s">
+      <c r="E25" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="165" t="s">
+      <c r="F25" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="165" t="s">
+      <c r="G25" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="165" t="s">
+      <c r="H25" s="196" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="224" t="s">
@@ -11677,13 +11682,13 @@
       <c r="J25" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="165" t="s">
+      <c r="K25" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="165" t="s">
+      <c r="L25" s="196" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="165" t="s">
+      <c r="M25" s="196" t="s">
         <v>33</v>
       </c>
       <c r="N25" s="64" t="s">
@@ -11698,17 +11703,17 @@
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="57"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
       <c r="I26" s="224"/>
       <c r="J26" s="224"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
+      <c r="K26" s="196"/>
+      <c r="L26" s="196"/>
+      <c r="M26" s="196"/>
       <c r="N26" s="87" t="s">
         <v>60</v>
       </c>
@@ -12494,30 +12499,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L19:L20"/>
     <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
@@ -12530,6 +12511,30 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M25:M26"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12605,7 +12610,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="207">
+      <c r="AI1" s="203">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -12621,7 +12626,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="210" t="str">
+      <c r="AT1" s="206" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -12692,7 +12697,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="210"/>
+      <c r="AT2" s="206"/>
       <c r="AU2" s="215"/>
       <c r="AV2" s="215"/>
       <c r="AW2" s="215"/>
@@ -18247,7 +18252,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="207">
+      <c r="AI1" s="203">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -18263,7 +18268,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="210" t="str">
+      <c r="AT1" s="206" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -18334,7 +18339,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="210"/>
+      <c r="AT2" s="206"/>
       <c r="AU2" s="215"/>
       <c r="AV2" s="215"/>
       <c r="AW2" s="215"/>
@@ -20474,7 +20479,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="207">
+      <c r="AI1" s="203">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
@@ -20490,7 +20495,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="210" t="str">
+      <c r="AT1" s="206" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -20561,7 +20566,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="210"/>
+      <c r="AT2" s="206"/>
       <c r="AU2" s="215"/>
       <c r="AV2" s="215"/>
       <c r="AW2" s="215"/>
@@ -20971,6 +20976,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -21128,22 +21148,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21159,21 +21181,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21_その他出庫参照・取消.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21_その他出庫参照・取消.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201912\Backdoor\設計書\20191222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4548400-B071-41D2-99F3-906C19591102}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843A690-7EEB-4A24-8BBE-E23ABE7CC4B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4413,6 +4413,15 @@
     <xf numFmtId="0" fontId="40" fillId="6" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4422,117 +4431,147 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4540,36 +4579,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4606,6 +4615,33 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="38" fillId="8" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4641,42 +4677,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -6107,7 +6107,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$3:$CW$41" spid="_x0000_s3095"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$3:$CW$41" spid="_x0000_s3096"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6175,8 +6175,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238539" y="7629525"/>
-          <a:ext cx="866361" cy="542925"/>
+          <a:off x="241714" y="1079500"/>
+          <a:ext cx="888586" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6272,8 +6272,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11353800" y="7629525"/>
-          <a:ext cx="1104900" cy="542925"/>
+          <a:off x="11640608" y="1079500"/>
+          <a:ext cx="1133475" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6348,13 +6348,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>58831</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6369,8 +6369,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1173256" y="7640731"/>
-          <a:ext cx="1446120" cy="542925"/>
+          <a:off x="1201831" y="1079500"/>
+          <a:ext cx="1484220" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6442,16 +6442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>26261</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>100334</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>11765</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>20099</xdr:colOff>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>94172</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>11765</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6466,8 +6466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9141686" y="7641290"/>
-          <a:ext cx="984438" cy="542925"/>
+          <a:off x="9699417" y="1079500"/>
+          <a:ext cx="1009838" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6542,13 +6542,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>47211</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6563,8 +6563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2686050" y="7639050"/>
-          <a:ext cx="1571211" cy="542925"/>
+          <a:off x="2752725" y="1079500"/>
+          <a:ext cx="1612486" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6639,13 +6639,13 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6660,8 +6660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4324351" y="7639050"/>
-          <a:ext cx="1925108" cy="542925"/>
+          <a:off x="4432301" y="1079500"/>
+          <a:ext cx="2309282" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6733,16 +6733,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>49087</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>123160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>48673</xdr:colOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>122746</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6757,8 +6757,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6316537" y="7639050"/>
-          <a:ext cx="866361" cy="542925"/>
+          <a:off x="6801243" y="1079500"/>
+          <a:ext cx="888586" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6830,16 +6830,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>125287</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>124873</xdr:colOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>71946</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6854,8 +6854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7259512" y="7639050"/>
-          <a:ext cx="866361" cy="542925"/>
+          <a:off x="7766443" y="1079500"/>
+          <a:ext cx="888586" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6927,16 +6927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>77662</xdr:colOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>24735</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>77248</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>24321</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6951,8 +6951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8202487" y="7648575"/>
-          <a:ext cx="866361" cy="542925"/>
+          <a:off x="8734818" y="1079500"/>
+          <a:ext cx="888586" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8767,108 +8767,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="259" t="s">
+      <c r="A32" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="259"/>
-      <c r="C32" s="259"/>
-      <c r="D32" s="259"/>
-      <c r="E32" s="259"/>
-      <c r="F32" s="259"/>
-      <c r="G32" s="259"/>
-      <c r="H32" s="259"/>
-      <c r="I32" s="259"/>
-      <c r="J32" s="259"/>
-      <c r="K32" s="259"/>
-      <c r="L32" s="259"/>
-      <c r="M32" s="259"/>
-      <c r="N32" s="259"/>
-      <c r="O32" s="259"/>
-      <c r="P32" s="259"/>
-      <c r="Q32" s="259"/>
-      <c r="R32" s="259"/>
-      <c r="S32" s="259"/>
-      <c r="T32" s="259"/>
-      <c r="U32" s="259"/>
-      <c r="V32" s="259"/>
-      <c r="W32" s="259"/>
-      <c r="X32" s="259"/>
-      <c r="Y32" s="259"/>
-      <c r="Z32" s="259"/>
-      <c r="AA32" s="259"/>
-      <c r="AB32" s="259"/>
-      <c r="AC32" s="259"/>
-      <c r="AD32" s="259"/>
-      <c r="AE32" s="259"/>
-      <c r="AF32" s="259"/>
-      <c r="AG32" s="259"/>
-      <c r="AH32" s="259"/>
-      <c r="AI32" s="259"/>
-      <c r="AJ32" s="259"/>
-      <c r="AK32" s="259"/>
-      <c r="AL32" s="259"/>
-      <c r="AM32" s="259"/>
-      <c r="AN32" s="259"/>
-      <c r="AO32" s="259"/>
-      <c r="AP32" s="259"/>
-      <c r="AQ32" s="259"/>
-      <c r="AR32" s="259"/>
-      <c r="AS32" s="259"/>
-      <c r="AT32" s="259"/>
-      <c r="AU32" s="259"/>
-      <c r="AV32" s="259"/>
-      <c r="AW32" s="259"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="262"/>
+      <c r="D32" s="262"/>
+      <c r="E32" s="262"/>
+      <c r="F32" s="262"/>
+      <c r="G32" s="262"/>
+      <c r="H32" s="262"/>
+      <c r="I32" s="262"/>
+      <c r="J32" s="262"/>
+      <c r="K32" s="262"/>
+      <c r="L32" s="262"/>
+      <c r="M32" s="262"/>
+      <c r="N32" s="262"/>
+      <c r="O32" s="262"/>
+      <c r="P32" s="262"/>
+      <c r="Q32" s="262"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="262"/>
+      <c r="T32" s="262"/>
+      <c r="U32" s="262"/>
+      <c r="V32" s="262"/>
+      <c r="W32" s="262"/>
+      <c r="X32" s="262"/>
+      <c r="Y32" s="262"/>
+      <c r="Z32" s="262"/>
+      <c r="AA32" s="262"/>
+      <c r="AB32" s="262"/>
+      <c r="AC32" s="262"/>
+      <c r="AD32" s="262"/>
+      <c r="AE32" s="262"/>
+      <c r="AF32" s="262"/>
+      <c r="AG32" s="262"/>
+      <c r="AH32" s="262"/>
+      <c r="AI32" s="262"/>
+      <c r="AJ32" s="262"/>
+      <c r="AK32" s="262"/>
+      <c r="AL32" s="262"/>
+      <c r="AM32" s="262"/>
+      <c r="AN32" s="262"/>
+      <c r="AO32" s="262"/>
+      <c r="AP32" s="262"/>
+      <c r="AQ32" s="262"/>
+      <c r="AR32" s="262"/>
+      <c r="AS32" s="262"/>
+      <c r="AT32" s="262"/>
+      <c r="AU32" s="262"/>
+      <c r="AV32" s="262"/>
+      <c r="AW32" s="262"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="260"/>
-      <c r="B33" s="260"/>
-      <c r="C33" s="260"/>
-      <c r="D33" s="260"/>
-      <c r="E33" s="260"/>
-      <c r="F33" s="260"/>
-      <c r="G33" s="260"/>
-      <c r="H33" s="260"/>
-      <c r="I33" s="260"/>
-      <c r="J33" s="260"/>
-      <c r="K33" s="260"/>
-      <c r="L33" s="260"/>
-      <c r="M33" s="260"/>
-      <c r="N33" s="260"/>
-      <c r="O33" s="260"/>
-      <c r="P33" s="260"/>
-      <c r="Q33" s="260"/>
-      <c r="R33" s="260"/>
-      <c r="S33" s="260"/>
-      <c r="T33" s="260"/>
-      <c r="U33" s="260"/>
-      <c r="V33" s="260"/>
-      <c r="W33" s="260"/>
-      <c r="X33" s="260"/>
-      <c r="Y33" s="260"/>
-      <c r="Z33" s="260"/>
-      <c r="AA33" s="260"/>
-      <c r="AB33" s="260"/>
-      <c r="AC33" s="260"/>
-      <c r="AD33" s="260"/>
-      <c r="AE33" s="260"/>
-      <c r="AF33" s="260"/>
-      <c r="AG33" s="260"/>
-      <c r="AH33" s="260"/>
-      <c r="AI33" s="260"/>
-      <c r="AJ33" s="260"/>
-      <c r="AK33" s="260"/>
-      <c r="AL33" s="260"/>
-      <c r="AM33" s="260"/>
-      <c r="AN33" s="260"/>
-      <c r="AO33" s="260"/>
-      <c r="AP33" s="260"/>
-      <c r="AQ33" s="260"/>
-      <c r="AR33" s="260"/>
-      <c r="AS33" s="260"/>
-      <c r="AT33" s="260"/>
-      <c r="AU33" s="260"/>
-      <c r="AV33" s="260"/>
-      <c r="AW33" s="260"/>
+      <c r="A33" s="263"/>
+      <c r="B33" s="263"/>
+      <c r="C33" s="263"/>
+      <c r="D33" s="263"/>
+      <c r="E33" s="263"/>
+      <c r="F33" s="263"/>
+      <c r="G33" s="263"/>
+      <c r="H33" s="263"/>
+      <c r="I33" s="263"/>
+      <c r="J33" s="263"/>
+      <c r="K33" s="263"/>
+      <c r="L33" s="263"/>
+      <c r="M33" s="263"/>
+      <c r="N33" s="263"/>
+      <c r="O33" s="263"/>
+      <c r="P33" s="263"/>
+      <c r="Q33" s="263"/>
+      <c r="R33" s="263"/>
+      <c r="S33" s="263"/>
+      <c r="T33" s="263"/>
+      <c r="U33" s="263"/>
+      <c r="V33" s="263"/>
+      <c r="W33" s="263"/>
+      <c r="X33" s="263"/>
+      <c r="Y33" s="263"/>
+      <c r="Z33" s="263"/>
+      <c r="AA33" s="263"/>
+      <c r="AB33" s="263"/>
+      <c r="AC33" s="263"/>
+      <c r="AD33" s="263"/>
+      <c r="AE33" s="263"/>
+      <c r="AF33" s="263"/>
+      <c r="AG33" s="263"/>
+      <c r="AH33" s="263"/>
+      <c r="AI33" s="263"/>
+      <c r="AJ33" s="263"/>
+      <c r="AK33" s="263"/>
+      <c r="AL33" s="263"/>
+      <c r="AM33" s="263"/>
+      <c r="AN33" s="263"/>
+      <c r="AO33" s="263"/>
+      <c r="AP33" s="263"/>
+      <c r="AQ33" s="263"/>
+      <c r="AR33" s="263"/>
+      <c r="AS33" s="263"/>
+      <c r="AT33" s="263"/>
+      <c r="AU33" s="263"/>
+      <c r="AV33" s="263"/>
+      <c r="AW33" s="263"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -8906,55 +8906,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="261"/>
-      <c r="B35" s="261"/>
-      <c r="C35" s="261"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="261"/>
-      <c r="F35" s="261"/>
-      <c r="G35" s="261"/>
-      <c r="H35" s="261"/>
-      <c r="I35" s="261"/>
-      <c r="J35" s="261"/>
-      <c r="K35" s="261"/>
-      <c r="L35" s="261"/>
-      <c r="M35" s="261"/>
-      <c r="N35" s="261"/>
-      <c r="O35" s="261"/>
-      <c r="P35" s="261"/>
-      <c r="Q35" s="261"/>
-      <c r="R35" s="261"/>
-      <c r="S35" s="261"/>
-      <c r="T35" s="261"/>
-      <c r="U35" s="261"/>
-      <c r="V35" s="261"/>
-      <c r="W35" s="261"/>
-      <c r="X35" s="261"/>
-      <c r="Y35" s="261"/>
-      <c r="Z35" s="261"/>
-      <c r="AA35" s="261"/>
-      <c r="AB35" s="261"/>
-      <c r="AC35" s="261"/>
-      <c r="AD35" s="261"/>
-      <c r="AE35" s="261"/>
-      <c r="AF35" s="261"/>
-      <c r="AG35" s="261"/>
-      <c r="AH35" s="261"/>
-      <c r="AI35" s="261"/>
-      <c r="AJ35" s="261"/>
-      <c r="AK35" s="261"/>
-      <c r="AL35" s="261"/>
-      <c r="AM35" s="261"/>
-      <c r="AN35" s="261"/>
-      <c r="AO35" s="261"/>
-      <c r="AP35" s="261"/>
-      <c r="AQ35" s="261"/>
-      <c r="AR35" s="261"/>
-      <c r="AS35" s="261"/>
-      <c r="AT35" s="261"/>
-      <c r="AU35" s="261"/>
-      <c r="AV35" s="261"/>
-      <c r="AW35" s="261"/>
+      <c r="A35" s="264"/>
+      <c r="B35" s="264"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="264"/>
+      <c r="E35" s="264"/>
+      <c r="F35" s="264"/>
+      <c r="G35" s="264"/>
+      <c r="H35" s="264"/>
+      <c r="I35" s="264"/>
+      <c r="J35" s="264"/>
+      <c r="K35" s="264"/>
+      <c r="L35" s="264"/>
+      <c r="M35" s="264"/>
+      <c r="N35" s="264"/>
+      <c r="O35" s="264"/>
+      <c r="P35" s="264"/>
+      <c r="Q35" s="264"/>
+      <c r="R35" s="264"/>
+      <c r="S35" s="264"/>
+      <c r="T35" s="264"/>
+      <c r="U35" s="264"/>
+      <c r="V35" s="264"/>
+      <c r="W35" s="264"/>
+      <c r="X35" s="264"/>
+      <c r="Y35" s="264"/>
+      <c r="Z35" s="264"/>
+      <c r="AA35" s="264"/>
+      <c r="AB35" s="264"/>
+      <c r="AC35" s="264"/>
+      <c r="AD35" s="264"/>
+      <c r="AE35" s="264"/>
+      <c r="AF35" s="264"/>
+      <c r="AG35" s="264"/>
+      <c r="AH35" s="264"/>
+      <c r="AI35" s="264"/>
+      <c r="AJ35" s="264"/>
+      <c r="AK35" s="264"/>
+      <c r="AL35" s="264"/>
+      <c r="AM35" s="264"/>
+      <c r="AN35" s="264"/>
+      <c r="AO35" s="264"/>
+      <c r="AP35" s="264"/>
+      <c r="AQ35" s="264"/>
+      <c r="AR35" s="264"/>
+      <c r="AS35" s="264"/>
+      <c r="AT35" s="264"/>
+      <c r="AU35" s="264"/>
+      <c r="AV35" s="264"/>
+      <c r="AW35" s="264"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -8989,1770 +8989,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
-      <c r="B1" s="262" t="s">
+      <c r="B1" s="296" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="262"/>
-      <c r="O1" s="262"/>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="262"/>
-      <c r="S1" s="262"/>
-      <c r="T1" s="262"/>
-      <c r="U1" s="262"/>
-      <c r="V1" s="262"/>
-      <c r="W1" s="262"/>
-      <c r="X1" s="262"/>
-      <c r="Y1" s="262"/>
-      <c r="Z1" s="262"/>
-      <c r="AA1" s="262"/>
-      <c r="AB1" s="262"/>
-      <c r="AC1" s="262"/>
-      <c r="AD1" s="262"/>
-      <c r="AE1" s="262"/>
-      <c r="AF1" s="262"/>
-      <c r="AG1" s="262"/>
-      <c r="AH1" s="262"/>
-      <c r="AI1" s="262"/>
-      <c r="AJ1" s="262"/>
-      <c r="AK1" s="262"/>
-      <c r="AL1" s="262"/>
-      <c r="AM1" s="262"/>
-      <c r="AN1" s="262"/>
-      <c r="AO1" s="262"/>
-      <c r="AP1" s="262"/>
-      <c r="AQ1" s="262"/>
-      <c r="AR1" s="262"/>
-      <c r="AS1" s="262"/>
-      <c r="AT1" s="262"/>
-      <c r="AU1" s="262"/>
-      <c r="AV1" s="262"/>
-      <c r="AW1" s="262"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="296"/>
+      <c r="O1" s="296"/>
+      <c r="P1" s="296"/>
+      <c r="Q1" s="296"/>
+      <c r="R1" s="296"/>
+      <c r="S1" s="296"/>
+      <c r="T1" s="296"/>
+      <c r="U1" s="296"/>
+      <c r="V1" s="296"/>
+      <c r="W1" s="296"/>
+      <c r="X1" s="296"/>
+      <c r="Y1" s="296"/>
+      <c r="Z1" s="296"/>
+      <c r="AA1" s="296"/>
+      <c r="AB1" s="296"/>
+      <c r="AC1" s="296"/>
+      <c r="AD1" s="296"/>
+      <c r="AE1" s="296"/>
+      <c r="AF1" s="296"/>
+      <c r="AG1" s="296"/>
+      <c r="AH1" s="296"/>
+      <c r="AI1" s="296"/>
+      <c r="AJ1" s="296"/>
+      <c r="AK1" s="296"/>
+      <c r="AL1" s="296"/>
+      <c r="AM1" s="296"/>
+      <c r="AN1" s="296"/>
+      <c r="AO1" s="296"/>
+      <c r="AP1" s="296"/>
+      <c r="AQ1" s="296"/>
+      <c r="AR1" s="296"/>
+      <c r="AS1" s="296"/>
+      <c r="AT1" s="296"/>
+      <c r="AU1" s="296"/>
+      <c r="AV1" s="296"/>
+      <c r="AW1" s="296"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="263"/>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="263"/>
-      <c r="S2" s="263"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="263"/>
-      <c r="AB2" s="263"/>
-      <c r="AC2" s="263"/>
-      <c r="AD2" s="263"/>
-      <c r="AE2" s="263"/>
-      <c r="AF2" s="263"/>
-      <c r="AG2" s="263"/>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="263"/>
-      <c r="AJ2" s="263"/>
-      <c r="AK2" s="263"/>
-      <c r="AL2" s="263"/>
-      <c r="AM2" s="263"/>
-      <c r="AN2" s="263"/>
-      <c r="AO2" s="263"/>
-      <c r="AP2" s="263"/>
-      <c r="AQ2" s="263"/>
-      <c r="AR2" s="263"/>
-      <c r="AS2" s="263"/>
-      <c r="AT2" s="263"/>
-      <c r="AU2" s="263"/>
-      <c r="AV2" s="263"/>
-      <c r="AW2" s="263"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="297"/>
+      <c r="L2" s="297"/>
+      <c r="M2" s="297"/>
+      <c r="N2" s="297"/>
+      <c r="O2" s="297"/>
+      <c r="P2" s="297"/>
+      <c r="Q2" s="297"/>
+      <c r="R2" s="297"/>
+      <c r="S2" s="297"/>
+      <c r="T2" s="297"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="297"/>
+      <c r="W2" s="297"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="297"/>
+      <c r="AE2" s="297"/>
+      <c r="AF2" s="297"/>
+      <c r="AG2" s="297"/>
+      <c r="AH2" s="297"/>
+      <c r="AI2" s="297"/>
+      <c r="AJ2" s="297"/>
+      <c r="AK2" s="297"/>
+      <c r="AL2" s="297"/>
+      <c r="AM2" s="297"/>
+      <c r="AN2" s="297"/>
+      <c r="AO2" s="297"/>
+      <c r="AP2" s="297"/>
+      <c r="AQ2" s="297"/>
+      <c r="AR2" s="297"/>
+      <c r="AS2" s="297"/>
+      <c r="AT2" s="297"/>
+      <c r="AU2" s="297"/>
+      <c r="AV2" s="297"/>
+      <c r="AW2" s="297"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
-      <c r="B3" s="264" t="s">
+      <c r="B3" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264" t="s">
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="265" t="s">
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="266"/>
-      <c r="L3" s="267"/>
-      <c r="M3" s="265" t="s">
+      <c r="K3" s="300"/>
+      <c r="L3" s="301"/>
+      <c r="M3" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="266"/>
-      <c r="R3" s="267"/>
-      <c r="S3" s="264" t="s">
+      <c r="N3" s="300"/>
+      <c r="O3" s="300"/>
+      <c r="P3" s="300"/>
+      <c r="Q3" s="300"/>
+      <c r="R3" s="301"/>
+      <c r="S3" s="298" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="264"/>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264" t="s">
+      <c r="T3" s="298"/>
+      <c r="U3" s="298"/>
+      <c r="V3" s="298" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="264"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="264"/>
-      <c r="AD3" s="264"/>
-      <c r="AE3" s="264"/>
-      <c r="AF3" s="264"/>
-      <c r="AG3" s="264"/>
-      <c r="AH3" s="264"/>
-      <c r="AI3" s="264"/>
-      <c r="AJ3" s="264"/>
-      <c r="AK3" s="264"/>
-      <c r="AL3" s="264"/>
-      <c r="AM3" s="264"/>
-      <c r="AN3" s="264" t="s">
+      <c r="W3" s="298"/>
+      <c r="X3" s="298"/>
+      <c r="Y3" s="298"/>
+      <c r="Z3" s="298"/>
+      <c r="AA3" s="298"/>
+      <c r="AB3" s="298"/>
+      <c r="AC3" s="298"/>
+      <c r="AD3" s="298"/>
+      <c r="AE3" s="298"/>
+      <c r="AF3" s="298"/>
+      <c r="AG3" s="298"/>
+      <c r="AH3" s="298"/>
+      <c r="AI3" s="298"/>
+      <c r="AJ3" s="298"/>
+      <c r="AK3" s="298"/>
+      <c r="AL3" s="298"/>
+      <c r="AM3" s="298"/>
+      <c r="AN3" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="264"/>
-      <c r="AP3" s="264"/>
-      <c r="AQ3" s="264"/>
-      <c r="AR3" s="264"/>
-      <c r="AS3" s="264" t="s">
+      <c r="AO3" s="298"/>
+      <c r="AP3" s="298"/>
+      <c r="AQ3" s="298"/>
+      <c r="AR3" s="298"/>
+      <c r="AS3" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="264"/>
-      <c r="AU3" s="264"/>
-      <c r="AV3" s="264"/>
-      <c r="AW3" s="264"/>
+      <c r="AT3" s="298"/>
+      <c r="AU3" s="298"/>
+      <c r="AV3" s="298"/>
+      <c r="AW3" s="298"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="268"/>
-      <c r="K4" s="269"/>
-      <c r="L4" s="270"/>
-      <c r="M4" s="268"/>
-      <c r="N4" s="269"/>
-      <c r="O4" s="269"/>
-      <c r="P4" s="269"/>
-      <c r="Q4" s="269"/>
-      <c r="R4" s="270"/>
-      <c r="S4" s="264"/>
-      <c r="T4" s="264"/>
-      <c r="U4" s="264"/>
-      <c r="V4" s="264"/>
-      <c r="W4" s="264"/>
-      <c r="X4" s="264"/>
-      <c r="Y4" s="264"/>
-      <c r="Z4" s="264"/>
-      <c r="AA4" s="264"/>
-      <c r="AB4" s="264"/>
-      <c r="AC4" s="264"/>
-      <c r="AD4" s="264"/>
-      <c r="AE4" s="264"/>
-      <c r="AF4" s="264"/>
-      <c r="AG4" s="264"/>
-      <c r="AH4" s="264"/>
-      <c r="AI4" s="264"/>
-      <c r="AJ4" s="264"/>
-      <c r="AK4" s="264"/>
-      <c r="AL4" s="264"/>
-      <c r="AM4" s="264"/>
-      <c r="AN4" s="264"/>
-      <c r="AO4" s="264"/>
-      <c r="AP4" s="264"/>
-      <c r="AQ4" s="264"/>
-      <c r="AR4" s="264"/>
-      <c r="AS4" s="264"/>
-      <c r="AT4" s="264"/>
-      <c r="AU4" s="264"/>
-      <c r="AV4" s="264"/>
-      <c r="AW4" s="264"/>
+      <c r="B4" s="298"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="298"/>
+      <c r="H4" s="298"/>
+      <c r="I4" s="298"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="302"/>
+      <c r="N4" s="303"/>
+      <c r="O4" s="303"/>
+      <c r="P4" s="303"/>
+      <c r="Q4" s="303"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="298"/>
+      <c r="T4" s="298"/>
+      <c r="U4" s="298"/>
+      <c r="V4" s="298"/>
+      <c r="W4" s="298"/>
+      <c r="X4" s="298"/>
+      <c r="Y4" s="298"/>
+      <c r="Z4" s="298"/>
+      <c r="AA4" s="298"/>
+      <c r="AB4" s="298"/>
+      <c r="AC4" s="298"/>
+      <c r="AD4" s="298"/>
+      <c r="AE4" s="298"/>
+      <c r="AF4" s="298"/>
+      <c r="AG4" s="298"/>
+      <c r="AH4" s="298"/>
+      <c r="AI4" s="298"/>
+      <c r="AJ4" s="298"/>
+      <c r="AK4" s="298"/>
+      <c r="AL4" s="298"/>
+      <c r="AM4" s="298"/>
+      <c r="AN4" s="298"/>
+      <c r="AO4" s="298"/>
+      <c r="AP4" s="298"/>
+      <c r="AQ4" s="298"/>
+      <c r="AR4" s="298"/>
+      <c r="AS4" s="298"/>
+      <c r="AT4" s="298"/>
+      <c r="AU4" s="298"/>
+      <c r="AV4" s="298"/>
+      <c r="AW4" s="298"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="272">
+      <c r="B5" s="290">
         <v>1</v>
       </c>
-      <c r="C5" s="272"/>
-      <c r="D5" s="272"/>
-      <c r="E5" s="273">
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="271">
         <v>43720</v>
       </c>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="274" t="s">
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="271"/>
+      <c r="J5" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="275"/>
-      <c r="L5" s="276"/>
-      <c r="M5" s="274" t="s">
+      <c r="K5" s="273"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="275"/>
-      <c r="O5" s="275"/>
-      <c r="P5" s="275"/>
-      <c r="Q5" s="275"/>
-      <c r="R5" s="276"/>
-      <c r="S5" s="271" t="s">
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="274"/>
+      <c r="S5" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="271"/>
-      <c r="U5" s="271"/>
-      <c r="V5" s="280" t="s">
+      <c r="T5" s="278"/>
+      <c r="U5" s="278"/>
+      <c r="V5" s="289" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="280"/>
-      <c r="X5" s="280"/>
-      <c r="Y5" s="280"/>
-      <c r="Z5" s="280"/>
-      <c r="AA5" s="280"/>
-      <c r="AB5" s="280"/>
-      <c r="AC5" s="280"/>
-      <c r="AD5" s="280"/>
-      <c r="AE5" s="280"/>
-      <c r="AF5" s="280"/>
-      <c r="AG5" s="280"/>
-      <c r="AH5" s="280"/>
-      <c r="AI5" s="280"/>
-      <c r="AJ5" s="280"/>
-      <c r="AK5" s="280"/>
-      <c r="AL5" s="280"/>
-      <c r="AM5" s="280"/>
-      <c r="AN5" s="271" t="s">
+      <c r="W5" s="289"/>
+      <c r="X5" s="289"/>
+      <c r="Y5" s="289"/>
+      <c r="Z5" s="289"/>
+      <c r="AA5" s="289"/>
+      <c r="AB5" s="289"/>
+      <c r="AC5" s="289"/>
+      <c r="AD5" s="289"/>
+      <c r="AE5" s="289"/>
+      <c r="AF5" s="289"/>
+      <c r="AG5" s="289"/>
+      <c r="AH5" s="289"/>
+      <c r="AI5" s="289"/>
+      <c r="AJ5" s="289"/>
+      <c r="AK5" s="289"/>
+      <c r="AL5" s="289"/>
+      <c r="AM5" s="289"/>
+      <c r="AN5" s="278" t="s">
         <v>93</v>
       </c>
-      <c r="AO5" s="271"/>
-      <c r="AP5" s="271"/>
-      <c r="AQ5" s="271"/>
-      <c r="AR5" s="271"/>
-      <c r="AS5" s="271"/>
-      <c r="AT5" s="271"/>
-      <c r="AU5" s="271"/>
-      <c r="AV5" s="271"/>
-      <c r="AW5" s="271"/>
+      <c r="AO5" s="278"/>
+      <c r="AP5" s="278"/>
+      <c r="AQ5" s="278"/>
+      <c r="AR5" s="278"/>
+      <c r="AS5" s="278"/>
+      <c r="AT5" s="278"/>
+      <c r="AU5" s="278"/>
+      <c r="AV5" s="278"/>
+      <c r="AW5" s="278"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
-      <c r="B6" s="272"/>
-      <c r="C6" s="272"/>
-      <c r="D6" s="272"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="273"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="275"/>
-      <c r="L6" s="276"/>
-      <c r="M6" s="277"/>
-      <c r="N6" s="278"/>
-      <c r="O6" s="278"/>
-      <c r="P6" s="278"/>
-      <c r="Q6" s="278"/>
-      <c r="R6" s="279"/>
-      <c r="S6" s="271"/>
-      <c r="T6" s="271"/>
-      <c r="U6" s="271"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="280"/>
-      <c r="X6" s="280"/>
-      <c r="Y6" s="280"/>
-      <c r="Z6" s="280"/>
-      <c r="AA6" s="280"/>
-      <c r="AB6" s="280"/>
-      <c r="AC6" s="280"/>
-      <c r="AD6" s="280"/>
-      <c r="AE6" s="280"/>
-      <c r="AF6" s="280"/>
-      <c r="AG6" s="280"/>
-      <c r="AH6" s="280"/>
-      <c r="AI6" s="280"/>
-      <c r="AJ6" s="280"/>
-      <c r="AK6" s="280"/>
-      <c r="AL6" s="280"/>
-      <c r="AM6" s="280"/>
-      <c r="AN6" s="271"/>
-      <c r="AO6" s="271"/>
-      <c r="AP6" s="271"/>
-      <c r="AQ6" s="271"/>
-      <c r="AR6" s="271"/>
-      <c r="AS6" s="271"/>
-      <c r="AT6" s="271"/>
-      <c r="AU6" s="271"/>
-      <c r="AV6" s="271"/>
-      <c r="AW6" s="271"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="271"/>
+      <c r="I6" s="271"/>
+      <c r="J6" s="272"/>
+      <c r="K6" s="273"/>
+      <c r="L6" s="274"/>
+      <c r="M6" s="293"/>
+      <c r="N6" s="294"/>
+      <c r="O6" s="294"/>
+      <c r="P6" s="294"/>
+      <c r="Q6" s="294"/>
+      <c r="R6" s="295"/>
+      <c r="S6" s="278"/>
+      <c r="T6" s="278"/>
+      <c r="U6" s="278"/>
+      <c r="V6" s="289"/>
+      <c r="W6" s="289"/>
+      <c r="X6" s="289"/>
+      <c r="Y6" s="289"/>
+      <c r="Z6" s="289"/>
+      <c r="AA6" s="289"/>
+      <c r="AB6" s="289"/>
+      <c r="AC6" s="289"/>
+      <c r="AD6" s="289"/>
+      <c r="AE6" s="289"/>
+      <c r="AF6" s="289"/>
+      <c r="AG6" s="289"/>
+      <c r="AH6" s="289"/>
+      <c r="AI6" s="289"/>
+      <c r="AJ6" s="289"/>
+      <c r="AK6" s="289"/>
+      <c r="AL6" s="289"/>
+      <c r="AM6" s="289"/>
+      <c r="AN6" s="278"/>
+      <c r="AO6" s="278"/>
+      <c r="AP6" s="278"/>
+      <c r="AQ6" s="278"/>
+      <c r="AR6" s="278"/>
+      <c r="AS6" s="278"/>
+      <c r="AT6" s="278"/>
+      <c r="AU6" s="278"/>
+      <c r="AV6" s="278"/>
+      <c r="AW6" s="278"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
-      <c r="B7" s="272"/>
-      <c r="C7" s="272"/>
-      <c r="D7" s="272"/>
-      <c r="E7" s="273"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="273"/>
-      <c r="I7" s="273"/>
-      <c r="J7" s="274"/>
-      <c r="K7" s="275"/>
-      <c r="L7" s="276"/>
-      <c r="M7" s="277"/>
-      <c r="N7" s="278"/>
-      <c r="O7" s="278"/>
-      <c r="P7" s="278"/>
-      <c r="Q7" s="278"/>
-      <c r="R7" s="279"/>
-      <c r="S7" s="271"/>
-      <c r="T7" s="271"/>
-      <c r="U7" s="271"/>
-      <c r="V7" s="280"/>
-      <c r="W7" s="280"/>
-      <c r="X7" s="280"/>
-      <c r="Y7" s="280"/>
-      <c r="Z7" s="280"/>
-      <c r="AA7" s="280"/>
-      <c r="AB7" s="280"/>
-      <c r="AC7" s="280"/>
-      <c r="AD7" s="280"/>
-      <c r="AE7" s="280"/>
-      <c r="AF7" s="280"/>
-      <c r="AG7" s="280"/>
-      <c r="AH7" s="280"/>
-      <c r="AI7" s="280"/>
-      <c r="AJ7" s="280"/>
-      <c r="AK7" s="280"/>
-      <c r="AL7" s="280"/>
-      <c r="AM7" s="280"/>
-      <c r="AN7" s="271"/>
-      <c r="AO7" s="271"/>
-      <c r="AP7" s="271"/>
-      <c r="AQ7" s="271"/>
-      <c r="AR7" s="271"/>
-      <c r="AS7" s="271"/>
-      <c r="AT7" s="271"/>
-      <c r="AU7" s="271"/>
-      <c r="AV7" s="271"/>
-      <c r="AW7" s="271"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="272"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="274"/>
+      <c r="M7" s="293"/>
+      <c r="N7" s="294"/>
+      <c r="O7" s="294"/>
+      <c r="P7" s="294"/>
+      <c r="Q7" s="294"/>
+      <c r="R7" s="295"/>
+      <c r="S7" s="278"/>
+      <c r="T7" s="278"/>
+      <c r="U7" s="278"/>
+      <c r="V7" s="289"/>
+      <c r="W7" s="289"/>
+      <c r="X7" s="289"/>
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="289"/>
+      <c r="AA7" s="289"/>
+      <c r="AB7" s="289"/>
+      <c r="AC7" s="289"/>
+      <c r="AD7" s="289"/>
+      <c r="AE7" s="289"/>
+      <c r="AF7" s="289"/>
+      <c r="AG7" s="289"/>
+      <c r="AH7" s="289"/>
+      <c r="AI7" s="289"/>
+      <c r="AJ7" s="289"/>
+      <c r="AK7" s="289"/>
+      <c r="AL7" s="289"/>
+      <c r="AM7" s="289"/>
+      <c r="AN7" s="278"/>
+      <c r="AO7" s="278"/>
+      <c r="AP7" s="278"/>
+      <c r="AQ7" s="278"/>
+      <c r="AR7" s="278"/>
+      <c r="AS7" s="278"/>
+      <c r="AT7" s="278"/>
+      <c r="AU7" s="278"/>
+      <c r="AV7" s="278"/>
+      <c r="AW7" s="278"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
-      <c r="B8" s="272"/>
-      <c r="C8" s="272"/>
-      <c r="D8" s="272"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="274"/>
-      <c r="K8" s="275"/>
-      <c r="L8" s="276"/>
-      <c r="M8" s="277"/>
-      <c r="N8" s="278"/>
-      <c r="O8" s="278"/>
-      <c r="P8" s="278"/>
-      <c r="Q8" s="278"/>
-      <c r="R8" s="279"/>
-      <c r="S8" s="271"/>
-      <c r="T8" s="271"/>
-      <c r="U8" s="271"/>
-      <c r="V8" s="280"/>
-      <c r="W8" s="280"/>
-      <c r="X8" s="280"/>
-      <c r="Y8" s="280"/>
-      <c r="Z8" s="280"/>
-      <c r="AA8" s="280"/>
-      <c r="AB8" s="280"/>
-      <c r="AC8" s="280"/>
-      <c r="AD8" s="280"/>
-      <c r="AE8" s="280"/>
-      <c r="AF8" s="280"/>
-      <c r="AG8" s="280"/>
-      <c r="AH8" s="280"/>
-      <c r="AI8" s="280"/>
-      <c r="AJ8" s="280"/>
-      <c r="AK8" s="280"/>
-      <c r="AL8" s="280"/>
-      <c r="AM8" s="280"/>
-      <c r="AN8" s="271"/>
-      <c r="AO8" s="271"/>
-      <c r="AP8" s="271"/>
-      <c r="AQ8" s="271"/>
-      <c r="AR8" s="271"/>
-      <c r="AS8" s="271"/>
-      <c r="AT8" s="271"/>
-      <c r="AU8" s="271"/>
-      <c r="AV8" s="271"/>
-      <c r="AW8" s="271"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="271"/>
+      <c r="G8" s="271"/>
+      <c r="H8" s="271"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="272"/>
+      <c r="K8" s="273"/>
+      <c r="L8" s="274"/>
+      <c r="M8" s="293"/>
+      <c r="N8" s="294"/>
+      <c r="O8" s="294"/>
+      <c r="P8" s="294"/>
+      <c r="Q8" s="294"/>
+      <c r="R8" s="295"/>
+      <c r="S8" s="278"/>
+      <c r="T8" s="278"/>
+      <c r="U8" s="278"/>
+      <c r="V8" s="289"/>
+      <c r="W8" s="289"/>
+      <c r="X8" s="289"/>
+      <c r="Y8" s="289"/>
+      <c r="Z8" s="289"/>
+      <c r="AA8" s="289"/>
+      <c r="AB8" s="289"/>
+      <c r="AC8" s="289"/>
+      <c r="AD8" s="289"/>
+      <c r="AE8" s="289"/>
+      <c r="AF8" s="289"/>
+      <c r="AG8" s="289"/>
+      <c r="AH8" s="289"/>
+      <c r="AI8" s="289"/>
+      <c r="AJ8" s="289"/>
+      <c r="AK8" s="289"/>
+      <c r="AL8" s="289"/>
+      <c r="AM8" s="289"/>
+      <c r="AN8" s="278"/>
+      <c r="AO8" s="278"/>
+      <c r="AP8" s="278"/>
+      <c r="AQ8" s="278"/>
+      <c r="AR8" s="278"/>
+      <c r="AS8" s="278"/>
+      <c r="AT8" s="278"/>
+      <c r="AU8" s="278"/>
+      <c r="AV8" s="278"/>
+      <c r="AW8" s="278"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
-      <c r="B9" s="272"/>
-      <c r="C9" s="272"/>
-      <c r="D9" s="272"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="273"/>
-      <c r="G9" s="273"/>
-      <c r="H9" s="273"/>
-      <c r="I9" s="273"/>
-      <c r="J9" s="274"/>
-      <c r="K9" s="275"/>
-      <c r="L9" s="276"/>
-      <c r="M9" s="277"/>
-      <c r="N9" s="278"/>
-      <c r="O9" s="278"/>
-      <c r="P9" s="278"/>
-      <c r="Q9" s="278"/>
-      <c r="R9" s="279"/>
-      <c r="S9" s="271"/>
-      <c r="T9" s="271"/>
-      <c r="U9" s="271"/>
-      <c r="V9" s="280"/>
-      <c r="W9" s="280"/>
-      <c r="X9" s="280"/>
-      <c r="Y9" s="280"/>
-      <c r="Z9" s="280"/>
-      <c r="AA9" s="280"/>
-      <c r="AB9" s="280"/>
-      <c r="AC9" s="280"/>
-      <c r="AD9" s="280"/>
-      <c r="AE9" s="280"/>
-      <c r="AF9" s="280"/>
-      <c r="AG9" s="280"/>
-      <c r="AH9" s="280"/>
-      <c r="AI9" s="280"/>
-      <c r="AJ9" s="280"/>
-      <c r="AK9" s="280"/>
-      <c r="AL9" s="280"/>
-      <c r="AM9" s="280"/>
-      <c r="AN9" s="271"/>
-      <c r="AO9" s="271"/>
-      <c r="AP9" s="271"/>
-      <c r="AQ9" s="271"/>
-      <c r="AR9" s="271"/>
-      <c r="AS9" s="271"/>
-      <c r="AT9" s="271"/>
-      <c r="AU9" s="271"/>
-      <c r="AV9" s="271"/>
-      <c r="AW9" s="271"/>
+      <c r="B9" s="290"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="272"/>
+      <c r="K9" s="273"/>
+      <c r="L9" s="274"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="294"/>
+      <c r="O9" s="294"/>
+      <c r="P9" s="294"/>
+      <c r="Q9" s="294"/>
+      <c r="R9" s="295"/>
+      <c r="S9" s="278"/>
+      <c r="T9" s="278"/>
+      <c r="U9" s="278"/>
+      <c r="V9" s="289"/>
+      <c r="W9" s="289"/>
+      <c r="X9" s="289"/>
+      <c r="Y9" s="289"/>
+      <c r="Z9" s="289"/>
+      <c r="AA9" s="289"/>
+      <c r="AB9" s="289"/>
+      <c r="AC9" s="289"/>
+      <c r="AD9" s="289"/>
+      <c r="AE9" s="289"/>
+      <c r="AF9" s="289"/>
+      <c r="AG9" s="289"/>
+      <c r="AH9" s="289"/>
+      <c r="AI9" s="289"/>
+      <c r="AJ9" s="289"/>
+      <c r="AK9" s="289"/>
+      <c r="AL9" s="289"/>
+      <c r="AM9" s="289"/>
+      <c r="AN9" s="278"/>
+      <c r="AO9" s="278"/>
+      <c r="AP9" s="278"/>
+      <c r="AQ9" s="278"/>
+      <c r="AR9" s="278"/>
+      <c r="AS9" s="278"/>
+      <c r="AT9" s="278"/>
+      <c r="AU9" s="278"/>
+      <c r="AV9" s="278"/>
+      <c r="AW9" s="278"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
-      <c r="B10" s="272"/>
-      <c r="C10" s="272"/>
-      <c r="D10" s="272"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="274"/>
-      <c r="K10" s="275"/>
-      <c r="L10" s="276"/>
-      <c r="M10" s="277"/>
-      <c r="N10" s="278"/>
-      <c r="O10" s="278"/>
-      <c r="P10" s="278"/>
-      <c r="Q10" s="278"/>
-      <c r="R10" s="279"/>
-      <c r="S10" s="271"/>
-      <c r="T10" s="271"/>
-      <c r="U10" s="271"/>
-      <c r="V10" s="280"/>
-      <c r="W10" s="280"/>
-      <c r="X10" s="280"/>
-      <c r="Y10" s="280"/>
-      <c r="Z10" s="280"/>
-      <c r="AA10" s="280"/>
-      <c r="AB10" s="280"/>
-      <c r="AC10" s="280"/>
-      <c r="AD10" s="280"/>
-      <c r="AE10" s="280"/>
-      <c r="AF10" s="280"/>
-      <c r="AG10" s="280"/>
-      <c r="AH10" s="280"/>
-      <c r="AI10" s="280"/>
-      <c r="AJ10" s="280"/>
-      <c r="AK10" s="280"/>
-      <c r="AL10" s="280"/>
-      <c r="AM10" s="280"/>
-      <c r="AN10" s="271"/>
-      <c r="AO10" s="271"/>
-      <c r="AP10" s="271"/>
-      <c r="AQ10" s="271"/>
-      <c r="AR10" s="271"/>
-      <c r="AS10" s="271"/>
-      <c r="AT10" s="271"/>
-      <c r="AU10" s="271"/>
-      <c r="AV10" s="271"/>
-      <c r="AW10" s="271"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="271"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="271"/>
+      <c r="J10" s="272"/>
+      <c r="K10" s="273"/>
+      <c r="L10" s="274"/>
+      <c r="M10" s="293"/>
+      <c r="N10" s="294"/>
+      <c r="O10" s="294"/>
+      <c r="P10" s="294"/>
+      <c r="Q10" s="294"/>
+      <c r="R10" s="295"/>
+      <c r="S10" s="278"/>
+      <c r="T10" s="278"/>
+      <c r="U10" s="278"/>
+      <c r="V10" s="289"/>
+      <c r="W10" s="289"/>
+      <c r="X10" s="289"/>
+      <c r="Y10" s="289"/>
+      <c r="Z10" s="289"/>
+      <c r="AA10" s="289"/>
+      <c r="AB10" s="289"/>
+      <c r="AC10" s="289"/>
+      <c r="AD10" s="289"/>
+      <c r="AE10" s="289"/>
+      <c r="AF10" s="289"/>
+      <c r="AG10" s="289"/>
+      <c r="AH10" s="289"/>
+      <c r="AI10" s="289"/>
+      <c r="AJ10" s="289"/>
+      <c r="AK10" s="289"/>
+      <c r="AL10" s="289"/>
+      <c r="AM10" s="289"/>
+      <c r="AN10" s="278"/>
+      <c r="AO10" s="278"/>
+      <c r="AP10" s="278"/>
+      <c r="AQ10" s="278"/>
+      <c r="AR10" s="278"/>
+      <c r="AS10" s="278"/>
+      <c r="AT10" s="278"/>
+      <c r="AU10" s="278"/>
+      <c r="AV10" s="278"/>
+      <c r="AW10" s="278"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
-      <c r="B11" s="272"/>
-      <c r="C11" s="272"/>
-      <c r="D11" s="272"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="273"/>
-      <c r="G11" s="273"/>
-      <c r="H11" s="273"/>
-      <c r="I11" s="273"/>
-      <c r="J11" s="274"/>
-      <c r="K11" s="275"/>
-      <c r="L11" s="276"/>
-      <c r="M11" s="284"/>
-      <c r="N11" s="285"/>
-      <c r="O11" s="285"/>
-      <c r="P11" s="285"/>
-      <c r="Q11" s="285"/>
-      <c r="R11" s="286"/>
-      <c r="S11" s="271"/>
-      <c r="T11" s="271"/>
-      <c r="U11" s="271"/>
-      <c r="V11" s="287"/>
-      <c r="W11" s="293"/>
-      <c r="X11" s="293"/>
-      <c r="Y11" s="293"/>
-      <c r="Z11" s="293"/>
-      <c r="AA11" s="293"/>
-      <c r="AB11" s="293"/>
-      <c r="AC11" s="293"/>
-      <c r="AD11" s="293"/>
-      <c r="AE11" s="293"/>
-      <c r="AF11" s="293"/>
-      <c r="AG11" s="293"/>
-      <c r="AH11" s="293"/>
-      <c r="AI11" s="293"/>
-      <c r="AJ11" s="293"/>
-      <c r="AK11" s="293"/>
-      <c r="AL11" s="293"/>
-      <c r="AM11" s="294"/>
-      <c r="AN11" s="271"/>
-      <c r="AO11" s="271"/>
-      <c r="AP11" s="271"/>
-      <c r="AQ11" s="271"/>
-      <c r="AR11" s="271"/>
-      <c r="AS11" s="271"/>
-      <c r="AT11" s="271"/>
-      <c r="AU11" s="271"/>
-      <c r="AV11" s="271"/>
-      <c r="AW11" s="271"/>
+      <c r="B11" s="290"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="271"/>
+      <c r="F11" s="271"/>
+      <c r="G11" s="271"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="271"/>
+      <c r="J11" s="272"/>
+      <c r="K11" s="273"/>
+      <c r="L11" s="274"/>
+      <c r="M11" s="285"/>
+      <c r="N11" s="283"/>
+      <c r="O11" s="283"/>
+      <c r="P11" s="283"/>
+      <c r="Q11" s="283"/>
+      <c r="R11" s="284"/>
+      <c r="S11" s="278"/>
+      <c r="T11" s="278"/>
+      <c r="U11" s="278"/>
+      <c r="V11" s="279"/>
+      <c r="W11" s="291"/>
+      <c r="X11" s="291"/>
+      <c r="Y11" s="291"/>
+      <c r="Z11" s="291"/>
+      <c r="AA11" s="291"/>
+      <c r="AB11" s="291"/>
+      <c r="AC11" s="291"/>
+      <c r="AD11" s="291"/>
+      <c r="AE11" s="291"/>
+      <c r="AF11" s="291"/>
+      <c r="AG11" s="291"/>
+      <c r="AH11" s="291"/>
+      <c r="AI11" s="291"/>
+      <c r="AJ11" s="291"/>
+      <c r="AK11" s="291"/>
+      <c r="AL11" s="291"/>
+      <c r="AM11" s="292"/>
+      <c r="AN11" s="278"/>
+      <c r="AO11" s="278"/>
+      <c r="AP11" s="278"/>
+      <c r="AQ11" s="278"/>
+      <c r="AR11" s="278"/>
+      <c r="AS11" s="278"/>
+      <c r="AT11" s="278"/>
+      <c r="AU11" s="278"/>
+      <c r="AV11" s="278"/>
+      <c r="AW11" s="278"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
-      <c r="B12" s="281"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="283"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="273"/>
-      <c r="H12" s="273"/>
-      <c r="I12" s="273"/>
-      <c r="J12" s="274"/>
-      <c r="K12" s="275"/>
-      <c r="L12" s="276"/>
-      <c r="M12" s="284"/>
-      <c r="N12" s="285"/>
-      <c r="O12" s="285"/>
-      <c r="P12" s="285"/>
-      <c r="Q12" s="285"/>
-      <c r="R12" s="286"/>
-      <c r="S12" s="271"/>
-      <c r="T12" s="271"/>
-      <c r="U12" s="271"/>
-      <c r="V12" s="287"/>
-      <c r="W12" s="288"/>
-      <c r="X12" s="288"/>
-      <c r="Y12" s="288"/>
-      <c r="Z12" s="288"/>
-      <c r="AA12" s="288"/>
-      <c r="AB12" s="288"/>
-      <c r="AC12" s="288"/>
-      <c r="AD12" s="288"/>
-      <c r="AE12" s="288"/>
-      <c r="AF12" s="288"/>
-      <c r="AG12" s="288"/>
-      <c r="AH12" s="288"/>
-      <c r="AI12" s="288"/>
-      <c r="AJ12" s="288"/>
-      <c r="AK12" s="288"/>
-      <c r="AL12" s="288"/>
-      <c r="AM12" s="289"/>
-      <c r="AN12" s="290"/>
-      <c r="AO12" s="291"/>
-      <c r="AP12" s="291"/>
-      <c r="AQ12" s="291"/>
-      <c r="AR12" s="292"/>
-      <c r="AS12" s="290"/>
-      <c r="AT12" s="291"/>
-      <c r="AU12" s="291"/>
-      <c r="AV12" s="291"/>
-      <c r="AW12" s="292"/>
+      <c r="B12" s="268"/>
+      <c r="C12" s="269"/>
+      <c r="D12" s="270"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="271"/>
+      <c r="G12" s="271"/>
+      <c r="H12" s="271"/>
+      <c r="I12" s="271"/>
+      <c r="J12" s="272"/>
+      <c r="K12" s="273"/>
+      <c r="L12" s="274"/>
+      <c r="M12" s="285"/>
+      <c r="N12" s="283"/>
+      <c r="O12" s="283"/>
+      <c r="P12" s="283"/>
+      <c r="Q12" s="283"/>
+      <c r="R12" s="284"/>
+      <c r="S12" s="278"/>
+      <c r="T12" s="278"/>
+      <c r="U12" s="278"/>
+      <c r="V12" s="279"/>
+      <c r="W12" s="280"/>
+      <c r="X12" s="280"/>
+      <c r="Y12" s="280"/>
+      <c r="Z12" s="280"/>
+      <c r="AA12" s="280"/>
+      <c r="AB12" s="280"/>
+      <c r="AC12" s="280"/>
+      <c r="AD12" s="280"/>
+      <c r="AE12" s="280"/>
+      <c r="AF12" s="280"/>
+      <c r="AG12" s="280"/>
+      <c r="AH12" s="280"/>
+      <c r="AI12" s="280"/>
+      <c r="AJ12" s="280"/>
+      <c r="AK12" s="280"/>
+      <c r="AL12" s="280"/>
+      <c r="AM12" s="281"/>
+      <c r="AN12" s="265"/>
+      <c r="AO12" s="266"/>
+      <c r="AP12" s="266"/>
+      <c r="AQ12" s="266"/>
+      <c r="AR12" s="267"/>
+      <c r="AS12" s="265"/>
+      <c r="AT12" s="266"/>
+      <c r="AU12" s="266"/>
+      <c r="AV12" s="266"/>
+      <c r="AW12" s="267"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="281"/>
-      <c r="C13" s="282"/>
-      <c r="D13" s="283"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="274"/>
-      <c r="K13" s="275"/>
-      <c r="L13" s="276"/>
-      <c r="M13" s="295"/>
-      <c r="N13" s="285"/>
-      <c r="O13" s="285"/>
-      <c r="P13" s="285"/>
-      <c r="Q13" s="285"/>
-      <c r="R13" s="286"/>
-      <c r="S13" s="271"/>
-      <c r="T13" s="271"/>
-      <c r="U13" s="271"/>
-      <c r="V13" s="287"/>
-      <c r="W13" s="288"/>
-      <c r="X13" s="288"/>
-      <c r="Y13" s="288"/>
-      <c r="Z13" s="288"/>
-      <c r="AA13" s="288"/>
-      <c r="AB13" s="288"/>
-      <c r="AC13" s="288"/>
-      <c r="AD13" s="288"/>
-      <c r="AE13" s="288"/>
-      <c r="AF13" s="288"/>
-      <c r="AG13" s="288"/>
-      <c r="AH13" s="288"/>
-      <c r="AI13" s="288"/>
-      <c r="AJ13" s="288"/>
-      <c r="AK13" s="288"/>
-      <c r="AL13" s="288"/>
-      <c r="AM13" s="289"/>
-      <c r="AN13" s="290"/>
-      <c r="AO13" s="291"/>
-      <c r="AP13" s="291"/>
-      <c r="AQ13" s="291"/>
-      <c r="AR13" s="292"/>
-      <c r="AS13" s="290"/>
-      <c r="AT13" s="291"/>
-      <c r="AU13" s="291"/>
-      <c r="AV13" s="291"/>
-      <c r="AW13" s="292"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="270"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="271"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="272"/>
+      <c r="K13" s="273"/>
+      <c r="L13" s="274"/>
+      <c r="M13" s="282"/>
+      <c r="N13" s="283"/>
+      <c r="O13" s="283"/>
+      <c r="P13" s="283"/>
+      <c r="Q13" s="283"/>
+      <c r="R13" s="284"/>
+      <c r="S13" s="278"/>
+      <c r="T13" s="278"/>
+      <c r="U13" s="278"/>
+      <c r="V13" s="279"/>
+      <c r="W13" s="280"/>
+      <c r="X13" s="280"/>
+      <c r="Y13" s="280"/>
+      <c r="Z13" s="280"/>
+      <c r="AA13" s="280"/>
+      <c r="AB13" s="280"/>
+      <c r="AC13" s="280"/>
+      <c r="AD13" s="280"/>
+      <c r="AE13" s="280"/>
+      <c r="AF13" s="280"/>
+      <c r="AG13" s="280"/>
+      <c r="AH13" s="280"/>
+      <c r="AI13" s="280"/>
+      <c r="AJ13" s="280"/>
+      <c r="AK13" s="280"/>
+      <c r="AL13" s="280"/>
+      <c r="AM13" s="281"/>
+      <c r="AN13" s="265"/>
+      <c r="AO13" s="266"/>
+      <c r="AP13" s="266"/>
+      <c r="AQ13" s="266"/>
+      <c r="AR13" s="267"/>
+      <c r="AS13" s="265"/>
+      <c r="AT13" s="266"/>
+      <c r="AU13" s="266"/>
+      <c r="AV13" s="266"/>
+      <c r="AW13" s="267"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
-      <c r="B14" s="281"/>
-      <c r="C14" s="282"/>
-      <c r="D14" s="283"/>
-      <c r="E14" s="273"/>
-      <c r="F14" s="273"/>
-      <c r="G14" s="273"/>
-      <c r="H14" s="273"/>
-      <c r="I14" s="273"/>
-      <c r="J14" s="274"/>
-      <c r="K14" s="275"/>
-      <c r="L14" s="276"/>
-      <c r="M14" s="295"/>
-      <c r="N14" s="285"/>
-      <c r="O14" s="285"/>
-      <c r="P14" s="285"/>
-      <c r="Q14" s="285"/>
-      <c r="R14" s="286"/>
-      <c r="S14" s="271"/>
-      <c r="T14" s="271"/>
-      <c r="U14" s="271"/>
-      <c r="V14" s="296"/>
-      <c r="W14" s="280"/>
-      <c r="X14" s="280"/>
-      <c r="Y14" s="280"/>
-      <c r="Z14" s="280"/>
-      <c r="AA14" s="280"/>
-      <c r="AB14" s="280"/>
-      <c r="AC14" s="280"/>
-      <c r="AD14" s="280"/>
-      <c r="AE14" s="280"/>
-      <c r="AF14" s="280"/>
-      <c r="AG14" s="280"/>
-      <c r="AH14" s="280"/>
-      <c r="AI14" s="280"/>
-      <c r="AJ14" s="280"/>
-      <c r="AK14" s="280"/>
-      <c r="AL14" s="280"/>
-      <c r="AM14" s="280"/>
-      <c r="AN14" s="271"/>
-      <c r="AO14" s="271"/>
-      <c r="AP14" s="271"/>
-      <c r="AQ14" s="271"/>
-      <c r="AR14" s="271"/>
-      <c r="AS14" s="290"/>
-      <c r="AT14" s="291"/>
-      <c r="AU14" s="291"/>
-      <c r="AV14" s="291"/>
-      <c r="AW14" s="292"/>
+      <c r="B14" s="268"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="270"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="271"/>
+      <c r="G14" s="271"/>
+      <c r="H14" s="271"/>
+      <c r="I14" s="271"/>
+      <c r="J14" s="272"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="274"/>
+      <c r="M14" s="282"/>
+      <c r="N14" s="283"/>
+      <c r="O14" s="283"/>
+      <c r="P14" s="283"/>
+      <c r="Q14" s="283"/>
+      <c r="R14" s="284"/>
+      <c r="S14" s="278"/>
+      <c r="T14" s="278"/>
+      <c r="U14" s="278"/>
+      <c r="V14" s="288"/>
+      <c r="W14" s="289"/>
+      <c r="X14" s="289"/>
+      <c r="Y14" s="289"/>
+      <c r="Z14" s="289"/>
+      <c r="AA14" s="289"/>
+      <c r="AB14" s="289"/>
+      <c r="AC14" s="289"/>
+      <c r="AD14" s="289"/>
+      <c r="AE14" s="289"/>
+      <c r="AF14" s="289"/>
+      <c r="AG14" s="289"/>
+      <c r="AH14" s="289"/>
+      <c r="AI14" s="289"/>
+      <c r="AJ14" s="289"/>
+      <c r="AK14" s="289"/>
+      <c r="AL14" s="289"/>
+      <c r="AM14" s="289"/>
+      <c r="AN14" s="278"/>
+      <c r="AO14" s="278"/>
+      <c r="AP14" s="278"/>
+      <c r="AQ14" s="278"/>
+      <c r="AR14" s="278"/>
+      <c r="AS14" s="265"/>
+      <c r="AT14" s="266"/>
+      <c r="AU14" s="266"/>
+      <c r="AV14" s="266"/>
+      <c r="AW14" s="267"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
-      <c r="B15" s="281"/>
-      <c r="C15" s="282"/>
-      <c r="D15" s="283"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="273"/>
-      <c r="G15" s="273"/>
-      <c r="H15" s="273"/>
-      <c r="I15" s="273"/>
-      <c r="J15" s="274"/>
-      <c r="K15" s="275"/>
-      <c r="L15" s="276"/>
-      <c r="M15" s="284"/>
-      <c r="N15" s="285"/>
-      <c r="O15" s="285"/>
-      <c r="P15" s="285"/>
-      <c r="Q15" s="285"/>
-      <c r="R15" s="286"/>
-      <c r="S15" s="271"/>
-      <c r="T15" s="271"/>
-      <c r="U15" s="271"/>
-      <c r="V15" s="287"/>
-      <c r="W15" s="288"/>
-      <c r="X15" s="288"/>
-      <c r="Y15" s="288"/>
-      <c r="Z15" s="288"/>
-      <c r="AA15" s="288"/>
-      <c r="AB15" s="288"/>
-      <c r="AC15" s="288"/>
-      <c r="AD15" s="288"/>
-      <c r="AE15" s="288"/>
-      <c r="AF15" s="288"/>
-      <c r="AG15" s="288"/>
-      <c r="AH15" s="288"/>
-      <c r="AI15" s="288"/>
-      <c r="AJ15" s="288"/>
-      <c r="AK15" s="288"/>
-      <c r="AL15" s="288"/>
-      <c r="AM15" s="289"/>
-      <c r="AN15" s="290"/>
-      <c r="AO15" s="291"/>
-      <c r="AP15" s="291"/>
-      <c r="AQ15" s="291"/>
-      <c r="AR15" s="292"/>
-      <c r="AS15" s="290"/>
-      <c r="AT15" s="291"/>
-      <c r="AU15" s="291"/>
-      <c r="AV15" s="291"/>
-      <c r="AW15" s="292"/>
+      <c r="B15" s="268"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="271"/>
+      <c r="F15" s="271"/>
+      <c r="G15" s="271"/>
+      <c r="H15" s="271"/>
+      <c r="I15" s="271"/>
+      <c r="J15" s="272"/>
+      <c r="K15" s="273"/>
+      <c r="L15" s="274"/>
+      <c r="M15" s="285"/>
+      <c r="N15" s="283"/>
+      <c r="O15" s="283"/>
+      <c r="P15" s="283"/>
+      <c r="Q15" s="283"/>
+      <c r="R15" s="284"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="278"/>
+      <c r="U15" s="278"/>
+      <c r="V15" s="279"/>
+      <c r="W15" s="280"/>
+      <c r="X15" s="280"/>
+      <c r="Y15" s="280"/>
+      <c r="Z15" s="280"/>
+      <c r="AA15" s="280"/>
+      <c r="AB15" s="280"/>
+      <c r="AC15" s="280"/>
+      <c r="AD15" s="280"/>
+      <c r="AE15" s="280"/>
+      <c r="AF15" s="280"/>
+      <c r="AG15" s="280"/>
+      <c r="AH15" s="280"/>
+      <c r="AI15" s="280"/>
+      <c r="AJ15" s="280"/>
+      <c r="AK15" s="280"/>
+      <c r="AL15" s="280"/>
+      <c r="AM15" s="281"/>
+      <c r="AN15" s="265"/>
+      <c r="AO15" s="266"/>
+      <c r="AP15" s="266"/>
+      <c r="AQ15" s="266"/>
+      <c r="AR15" s="267"/>
+      <c r="AS15" s="265"/>
+      <c r="AT15" s="266"/>
+      <c r="AU15" s="266"/>
+      <c r="AV15" s="266"/>
+      <c r="AW15" s="267"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="B16" s="281"/>
-      <c r="C16" s="282"/>
-      <c r="D16" s="283"/>
-      <c r="E16" s="273"/>
-      <c r="F16" s="273"/>
-      <c r="G16" s="273"/>
-      <c r="H16" s="273"/>
-      <c r="I16" s="273"/>
-      <c r="J16" s="274"/>
-      <c r="K16" s="275"/>
-      <c r="L16" s="276"/>
-      <c r="M16" s="284"/>
-      <c r="N16" s="285"/>
-      <c r="O16" s="285"/>
-      <c r="P16" s="285"/>
-      <c r="Q16" s="285"/>
-      <c r="R16" s="286"/>
-      <c r="S16" s="271"/>
-      <c r="T16" s="271"/>
-      <c r="U16" s="271"/>
-      <c r="V16" s="287"/>
-      <c r="W16" s="288"/>
-      <c r="X16" s="288"/>
-      <c r="Y16" s="288"/>
-      <c r="Z16" s="288"/>
-      <c r="AA16" s="288"/>
-      <c r="AB16" s="288"/>
-      <c r="AC16" s="288"/>
-      <c r="AD16" s="288"/>
-      <c r="AE16" s="288"/>
-      <c r="AF16" s="288"/>
-      <c r="AG16" s="288"/>
-      <c r="AH16" s="288"/>
-      <c r="AI16" s="288"/>
-      <c r="AJ16" s="288"/>
-      <c r="AK16" s="288"/>
-      <c r="AL16" s="288"/>
-      <c r="AM16" s="289"/>
-      <c r="AN16" s="290"/>
-      <c r="AO16" s="291"/>
-      <c r="AP16" s="291"/>
-      <c r="AQ16" s="291"/>
-      <c r="AR16" s="292"/>
-      <c r="AS16" s="290"/>
-      <c r="AT16" s="291"/>
-      <c r="AU16" s="291"/>
-      <c r="AV16" s="291"/>
-      <c r="AW16" s="292"/>
+      <c r="B16" s="268"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="272"/>
+      <c r="K16" s="273"/>
+      <c r="L16" s="274"/>
+      <c r="M16" s="285"/>
+      <c r="N16" s="283"/>
+      <c r="O16" s="283"/>
+      <c r="P16" s="283"/>
+      <c r="Q16" s="283"/>
+      <c r="R16" s="284"/>
+      <c r="S16" s="278"/>
+      <c r="T16" s="278"/>
+      <c r="U16" s="278"/>
+      <c r="V16" s="279"/>
+      <c r="W16" s="280"/>
+      <c r="X16" s="280"/>
+      <c r="Y16" s="280"/>
+      <c r="Z16" s="280"/>
+      <c r="AA16" s="280"/>
+      <c r="AB16" s="280"/>
+      <c r="AC16" s="280"/>
+      <c r="AD16" s="280"/>
+      <c r="AE16" s="280"/>
+      <c r="AF16" s="280"/>
+      <c r="AG16" s="280"/>
+      <c r="AH16" s="280"/>
+      <c r="AI16" s="280"/>
+      <c r="AJ16" s="280"/>
+      <c r="AK16" s="280"/>
+      <c r="AL16" s="280"/>
+      <c r="AM16" s="281"/>
+      <c r="AN16" s="265"/>
+      <c r="AO16" s="266"/>
+      <c r="AP16" s="266"/>
+      <c r="AQ16" s="266"/>
+      <c r="AR16" s="267"/>
+      <c r="AS16" s="265"/>
+      <c r="AT16" s="266"/>
+      <c r="AU16" s="266"/>
+      <c r="AV16" s="266"/>
+      <c r="AW16" s="267"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
-      <c r="B17" s="281"/>
-      <c r="C17" s="282"/>
-      <c r="D17" s="283"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="273"/>
-      <c r="G17" s="273"/>
-      <c r="H17" s="273"/>
-      <c r="I17" s="273"/>
-      <c r="J17" s="274"/>
-      <c r="K17" s="275"/>
-      <c r="L17" s="276"/>
-      <c r="M17" s="284"/>
-      <c r="N17" s="285"/>
-      <c r="O17" s="285"/>
-      <c r="P17" s="285"/>
-      <c r="Q17" s="285"/>
-      <c r="R17" s="297"/>
-      <c r="S17" s="298"/>
-      <c r="T17" s="298"/>
-      <c r="U17" s="298"/>
-      <c r="V17" s="287"/>
-      <c r="W17" s="288"/>
-      <c r="X17" s="288"/>
-      <c r="Y17" s="288"/>
-      <c r="Z17" s="288"/>
-      <c r="AA17" s="288"/>
-      <c r="AB17" s="288"/>
-      <c r="AC17" s="288"/>
-      <c r="AD17" s="288"/>
-      <c r="AE17" s="288"/>
-      <c r="AF17" s="288"/>
-      <c r="AG17" s="288"/>
-      <c r="AH17" s="288"/>
-      <c r="AI17" s="288"/>
-      <c r="AJ17" s="288"/>
-      <c r="AK17" s="288"/>
-      <c r="AL17" s="288"/>
-      <c r="AM17" s="289"/>
-      <c r="AN17" s="290"/>
-      <c r="AO17" s="291"/>
-      <c r="AP17" s="291"/>
-      <c r="AQ17" s="291"/>
-      <c r="AR17" s="292"/>
-      <c r="AS17" s="290"/>
-      <c r="AT17" s="291"/>
-      <c r="AU17" s="291"/>
-      <c r="AV17" s="291"/>
-      <c r="AW17" s="292"/>
+      <c r="B17" s="268"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="271"/>
+      <c r="F17" s="271"/>
+      <c r="G17" s="271"/>
+      <c r="H17" s="271"/>
+      <c r="I17" s="271"/>
+      <c r="J17" s="272"/>
+      <c r="K17" s="273"/>
+      <c r="L17" s="274"/>
+      <c r="M17" s="285"/>
+      <c r="N17" s="283"/>
+      <c r="O17" s="283"/>
+      <c r="P17" s="283"/>
+      <c r="Q17" s="283"/>
+      <c r="R17" s="286"/>
+      <c r="S17" s="287"/>
+      <c r="T17" s="287"/>
+      <c r="U17" s="287"/>
+      <c r="V17" s="279"/>
+      <c r="W17" s="280"/>
+      <c r="X17" s="280"/>
+      <c r="Y17" s="280"/>
+      <c r="Z17" s="280"/>
+      <c r="AA17" s="280"/>
+      <c r="AB17" s="280"/>
+      <c r="AC17" s="280"/>
+      <c r="AD17" s="280"/>
+      <c r="AE17" s="280"/>
+      <c r="AF17" s="280"/>
+      <c r="AG17" s="280"/>
+      <c r="AH17" s="280"/>
+      <c r="AI17" s="280"/>
+      <c r="AJ17" s="280"/>
+      <c r="AK17" s="280"/>
+      <c r="AL17" s="280"/>
+      <c r="AM17" s="281"/>
+      <c r="AN17" s="265"/>
+      <c r="AO17" s="266"/>
+      <c r="AP17" s="266"/>
+      <c r="AQ17" s="266"/>
+      <c r="AR17" s="267"/>
+      <c r="AS17" s="265"/>
+      <c r="AT17" s="266"/>
+      <c r="AU17" s="266"/>
+      <c r="AV17" s="266"/>
+      <c r="AW17" s="267"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
-      <c r="B18" s="281"/>
-      <c r="C18" s="282"/>
-      <c r="D18" s="283"/>
-      <c r="E18" s="273"/>
-      <c r="F18" s="273"/>
-      <c r="G18" s="273"/>
-      <c r="H18" s="273"/>
-      <c r="I18" s="273"/>
-      <c r="J18" s="274"/>
-      <c r="K18" s="275"/>
-      <c r="L18" s="276"/>
-      <c r="M18" s="295"/>
-      <c r="N18" s="285"/>
-      <c r="O18" s="285"/>
-      <c r="P18" s="285"/>
-      <c r="Q18" s="285"/>
-      <c r="R18" s="286"/>
-      <c r="S18" s="271"/>
-      <c r="T18" s="271"/>
-      <c r="U18" s="271"/>
-      <c r="V18" s="287"/>
-      <c r="W18" s="288"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="288"/>
-      <c r="Z18" s="288"/>
-      <c r="AA18" s="288"/>
-      <c r="AB18" s="288"/>
-      <c r="AC18" s="288"/>
-      <c r="AD18" s="288"/>
-      <c r="AE18" s="288"/>
-      <c r="AF18" s="288"/>
-      <c r="AG18" s="288"/>
-      <c r="AH18" s="288"/>
-      <c r="AI18" s="288"/>
-      <c r="AJ18" s="288"/>
-      <c r="AK18" s="288"/>
-      <c r="AL18" s="288"/>
-      <c r="AM18" s="289"/>
-      <c r="AN18" s="290"/>
-      <c r="AO18" s="291"/>
-      <c r="AP18" s="291"/>
-      <c r="AQ18" s="291"/>
-      <c r="AR18" s="292"/>
-      <c r="AS18" s="290"/>
-      <c r="AT18" s="291"/>
-      <c r="AU18" s="291"/>
-      <c r="AV18" s="291"/>
-      <c r="AW18" s="292"/>
+      <c r="B18" s="268"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="271"/>
+      <c r="G18" s="271"/>
+      <c r="H18" s="271"/>
+      <c r="I18" s="271"/>
+      <c r="J18" s="272"/>
+      <c r="K18" s="273"/>
+      <c r="L18" s="274"/>
+      <c r="M18" s="282"/>
+      <c r="N18" s="283"/>
+      <c r="O18" s="283"/>
+      <c r="P18" s="283"/>
+      <c r="Q18" s="283"/>
+      <c r="R18" s="284"/>
+      <c r="S18" s="278"/>
+      <c r="T18" s="278"/>
+      <c r="U18" s="278"/>
+      <c r="V18" s="279"/>
+      <c r="W18" s="280"/>
+      <c r="X18" s="280"/>
+      <c r="Y18" s="280"/>
+      <c r="Z18" s="280"/>
+      <c r="AA18" s="280"/>
+      <c r="AB18" s="280"/>
+      <c r="AC18" s="280"/>
+      <c r="AD18" s="280"/>
+      <c r="AE18" s="280"/>
+      <c r="AF18" s="280"/>
+      <c r="AG18" s="280"/>
+      <c r="AH18" s="280"/>
+      <c r="AI18" s="280"/>
+      <c r="AJ18" s="280"/>
+      <c r="AK18" s="280"/>
+      <c r="AL18" s="280"/>
+      <c r="AM18" s="281"/>
+      <c r="AN18" s="265"/>
+      <c r="AO18" s="266"/>
+      <c r="AP18" s="266"/>
+      <c r="AQ18" s="266"/>
+      <c r="AR18" s="267"/>
+      <c r="AS18" s="265"/>
+      <c r="AT18" s="266"/>
+      <c r="AU18" s="266"/>
+      <c r="AV18" s="266"/>
+      <c r="AW18" s="267"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
-      <c r="B19" s="281"/>
-      <c r="C19" s="282"/>
-      <c r="D19" s="283"/>
-      <c r="E19" s="273"/>
-      <c r="F19" s="273"/>
-      <c r="G19" s="273"/>
-      <c r="H19" s="273"/>
-      <c r="I19" s="273"/>
-      <c r="J19" s="274"/>
-      <c r="K19" s="275"/>
-      <c r="L19" s="276"/>
-      <c r="M19" s="284"/>
-      <c r="N19" s="285"/>
-      <c r="O19" s="285"/>
-      <c r="P19" s="285"/>
-      <c r="Q19" s="285"/>
-      <c r="R19" s="286"/>
-      <c r="S19" s="271"/>
-      <c r="T19" s="271"/>
-      <c r="U19" s="271"/>
-      <c r="V19" s="287"/>
-      <c r="W19" s="288"/>
-      <c r="X19" s="288"/>
-      <c r="Y19" s="288"/>
-      <c r="Z19" s="288"/>
-      <c r="AA19" s="288"/>
-      <c r="AB19" s="288"/>
-      <c r="AC19" s="288"/>
-      <c r="AD19" s="288"/>
-      <c r="AE19" s="288"/>
-      <c r="AF19" s="288"/>
-      <c r="AG19" s="288"/>
-      <c r="AH19" s="288"/>
-      <c r="AI19" s="288"/>
-      <c r="AJ19" s="288"/>
-      <c r="AK19" s="288"/>
-      <c r="AL19" s="288"/>
-      <c r="AM19" s="289"/>
-      <c r="AN19" s="271"/>
-      <c r="AO19" s="271"/>
-      <c r="AP19" s="271"/>
-      <c r="AQ19" s="271"/>
-      <c r="AR19" s="271"/>
-      <c r="AS19" s="290"/>
-      <c r="AT19" s="291"/>
-      <c r="AU19" s="291"/>
-      <c r="AV19" s="291"/>
-      <c r="AW19" s="292"/>
+      <c r="B19" s="268"/>
+      <c r="C19" s="269"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="271"/>
+      <c r="F19" s="271"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="271"/>
+      <c r="J19" s="272"/>
+      <c r="K19" s="273"/>
+      <c r="L19" s="274"/>
+      <c r="M19" s="285"/>
+      <c r="N19" s="283"/>
+      <c r="O19" s="283"/>
+      <c r="P19" s="283"/>
+      <c r="Q19" s="283"/>
+      <c r="R19" s="284"/>
+      <c r="S19" s="278"/>
+      <c r="T19" s="278"/>
+      <c r="U19" s="278"/>
+      <c r="V19" s="279"/>
+      <c r="W19" s="280"/>
+      <c r="X19" s="280"/>
+      <c r="Y19" s="280"/>
+      <c r="Z19" s="280"/>
+      <c r="AA19" s="280"/>
+      <c r="AB19" s="280"/>
+      <c r="AC19" s="280"/>
+      <c r="AD19" s="280"/>
+      <c r="AE19" s="280"/>
+      <c r="AF19" s="280"/>
+      <c r="AG19" s="280"/>
+      <c r="AH19" s="280"/>
+      <c r="AI19" s="280"/>
+      <c r="AJ19" s="280"/>
+      <c r="AK19" s="280"/>
+      <c r="AL19" s="280"/>
+      <c r="AM19" s="281"/>
+      <c r="AN19" s="278"/>
+      <c r="AO19" s="278"/>
+      <c r="AP19" s="278"/>
+      <c r="AQ19" s="278"/>
+      <c r="AR19" s="278"/>
+      <c r="AS19" s="265"/>
+      <c r="AT19" s="266"/>
+      <c r="AU19" s="266"/>
+      <c r="AV19" s="266"/>
+      <c r="AW19" s="267"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
-      <c r="B20" s="281"/>
-      <c r="C20" s="282"/>
-      <c r="D20" s="283"/>
-      <c r="E20" s="273"/>
-      <c r="F20" s="273"/>
-      <c r="G20" s="273"/>
-      <c r="H20" s="273"/>
-      <c r="I20" s="273"/>
-      <c r="J20" s="274"/>
-      <c r="K20" s="275"/>
-      <c r="L20" s="276"/>
-      <c r="M20" s="284"/>
-      <c r="N20" s="285"/>
-      <c r="O20" s="285"/>
-      <c r="P20" s="285"/>
-      <c r="Q20" s="285"/>
-      <c r="R20" s="286"/>
-      <c r="S20" s="290"/>
-      <c r="T20" s="291"/>
-      <c r="U20" s="292"/>
-      <c r="V20" s="287"/>
-      <c r="W20" s="288"/>
-      <c r="X20" s="288"/>
-      <c r="Y20" s="288"/>
-      <c r="Z20" s="288"/>
-      <c r="AA20" s="288"/>
-      <c r="AB20" s="288"/>
-      <c r="AC20" s="288"/>
-      <c r="AD20" s="288"/>
-      <c r="AE20" s="288"/>
-      <c r="AF20" s="288"/>
-      <c r="AG20" s="288"/>
-      <c r="AH20" s="288"/>
-      <c r="AI20" s="288"/>
-      <c r="AJ20" s="288"/>
-      <c r="AK20" s="288"/>
-      <c r="AL20" s="288"/>
-      <c r="AM20" s="289"/>
-      <c r="AN20" s="290"/>
-      <c r="AO20" s="291"/>
-      <c r="AP20" s="291"/>
-      <c r="AQ20" s="291"/>
-      <c r="AR20" s="292"/>
-      <c r="AS20" s="290"/>
-      <c r="AT20" s="291"/>
-      <c r="AU20" s="291"/>
-      <c r="AV20" s="291"/>
-      <c r="AW20" s="292"/>
+      <c r="B20" s="268"/>
+      <c r="C20" s="269"/>
+      <c r="D20" s="270"/>
+      <c r="E20" s="271"/>
+      <c r="F20" s="271"/>
+      <c r="G20" s="271"/>
+      <c r="H20" s="271"/>
+      <c r="I20" s="271"/>
+      <c r="J20" s="272"/>
+      <c r="K20" s="273"/>
+      <c r="L20" s="274"/>
+      <c r="M20" s="285"/>
+      <c r="N20" s="283"/>
+      <c r="O20" s="283"/>
+      <c r="P20" s="283"/>
+      <c r="Q20" s="283"/>
+      <c r="R20" s="284"/>
+      <c r="S20" s="265"/>
+      <c r="T20" s="266"/>
+      <c r="U20" s="267"/>
+      <c r="V20" s="279"/>
+      <c r="W20" s="280"/>
+      <c r="X20" s="280"/>
+      <c r="Y20" s="280"/>
+      <c r="Z20" s="280"/>
+      <c r="AA20" s="280"/>
+      <c r="AB20" s="280"/>
+      <c r="AC20" s="280"/>
+      <c r="AD20" s="280"/>
+      <c r="AE20" s="280"/>
+      <c r="AF20" s="280"/>
+      <c r="AG20" s="280"/>
+      <c r="AH20" s="280"/>
+      <c r="AI20" s="280"/>
+      <c r="AJ20" s="280"/>
+      <c r="AK20" s="280"/>
+      <c r="AL20" s="280"/>
+      <c r="AM20" s="281"/>
+      <c r="AN20" s="265"/>
+      <c r="AO20" s="266"/>
+      <c r="AP20" s="266"/>
+      <c r="AQ20" s="266"/>
+      <c r="AR20" s="267"/>
+      <c r="AS20" s="265"/>
+      <c r="AT20" s="266"/>
+      <c r="AU20" s="266"/>
+      <c r="AV20" s="266"/>
+      <c r="AW20" s="267"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
-      <c r="B21" s="281"/>
-      <c r="C21" s="282"/>
-      <c r="D21" s="283"/>
-      <c r="E21" s="273"/>
-      <c r="F21" s="273"/>
-      <c r="G21" s="273"/>
-      <c r="H21" s="273"/>
-      <c r="I21" s="273"/>
-      <c r="J21" s="274"/>
-      <c r="K21" s="275"/>
-      <c r="L21" s="276"/>
-      <c r="M21" s="284"/>
-      <c r="N21" s="285"/>
-      <c r="O21" s="285"/>
-      <c r="P21" s="285"/>
-      <c r="Q21" s="285"/>
-      <c r="R21" s="286"/>
-      <c r="S21" s="271"/>
-      <c r="T21" s="271"/>
-      <c r="U21" s="271"/>
-      <c r="V21" s="287"/>
-      <c r="W21" s="288"/>
-      <c r="X21" s="288"/>
-      <c r="Y21" s="288"/>
-      <c r="Z21" s="288"/>
-      <c r="AA21" s="288"/>
-      <c r="AB21" s="288"/>
-      <c r="AC21" s="288"/>
-      <c r="AD21" s="288"/>
-      <c r="AE21" s="288"/>
-      <c r="AF21" s="288"/>
-      <c r="AG21" s="288"/>
-      <c r="AH21" s="288"/>
-      <c r="AI21" s="288"/>
-      <c r="AJ21" s="288"/>
-      <c r="AK21" s="288"/>
-      <c r="AL21" s="288"/>
-      <c r="AM21" s="289"/>
-      <c r="AN21" s="290"/>
-      <c r="AO21" s="291"/>
-      <c r="AP21" s="291"/>
-      <c r="AQ21" s="291"/>
-      <c r="AR21" s="292"/>
-      <c r="AS21" s="290"/>
-      <c r="AT21" s="291"/>
-      <c r="AU21" s="291"/>
-      <c r="AV21" s="291"/>
-      <c r="AW21" s="292"/>
+      <c r="B21" s="268"/>
+      <c r="C21" s="269"/>
+      <c r="D21" s="270"/>
+      <c r="E21" s="271"/>
+      <c r="F21" s="271"/>
+      <c r="G21" s="271"/>
+      <c r="H21" s="271"/>
+      <c r="I21" s="271"/>
+      <c r="J21" s="272"/>
+      <c r="K21" s="273"/>
+      <c r="L21" s="274"/>
+      <c r="M21" s="285"/>
+      <c r="N21" s="283"/>
+      <c r="O21" s="283"/>
+      <c r="P21" s="283"/>
+      <c r="Q21" s="283"/>
+      <c r="R21" s="284"/>
+      <c r="S21" s="278"/>
+      <c r="T21" s="278"/>
+      <c r="U21" s="278"/>
+      <c r="V21" s="279"/>
+      <c r="W21" s="280"/>
+      <c r="X21" s="280"/>
+      <c r="Y21" s="280"/>
+      <c r="Z21" s="280"/>
+      <c r="AA21" s="280"/>
+      <c r="AB21" s="280"/>
+      <c r="AC21" s="280"/>
+      <c r="AD21" s="280"/>
+      <c r="AE21" s="280"/>
+      <c r="AF21" s="280"/>
+      <c r="AG21" s="280"/>
+      <c r="AH21" s="280"/>
+      <c r="AI21" s="280"/>
+      <c r="AJ21" s="280"/>
+      <c r="AK21" s="280"/>
+      <c r="AL21" s="280"/>
+      <c r="AM21" s="281"/>
+      <c r="AN21" s="265"/>
+      <c r="AO21" s="266"/>
+      <c r="AP21" s="266"/>
+      <c r="AQ21" s="266"/>
+      <c r="AR21" s="267"/>
+      <c r="AS21" s="265"/>
+      <c r="AT21" s="266"/>
+      <c r="AU21" s="266"/>
+      <c r="AV21" s="266"/>
+      <c r="AW21" s="267"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
-      <c r="B22" s="281"/>
-      <c r="C22" s="282"/>
-      <c r="D22" s="283"/>
-      <c r="E22" s="273"/>
-      <c r="F22" s="273"/>
-      <c r="G22" s="273"/>
-      <c r="H22" s="273"/>
-      <c r="I22" s="273"/>
-      <c r="J22" s="274"/>
-      <c r="K22" s="275"/>
-      <c r="L22" s="276"/>
-      <c r="M22" s="284"/>
-      <c r="N22" s="285"/>
-      <c r="O22" s="285"/>
-      <c r="P22" s="285"/>
-      <c r="Q22" s="285"/>
-      <c r="R22" s="286"/>
-      <c r="S22" s="271"/>
-      <c r="T22" s="271"/>
-      <c r="U22" s="271"/>
-      <c r="V22" s="287"/>
-      <c r="W22" s="288"/>
-      <c r="X22" s="288"/>
-      <c r="Y22" s="288"/>
-      <c r="Z22" s="288"/>
-      <c r="AA22" s="288"/>
-      <c r="AB22" s="288"/>
-      <c r="AC22" s="288"/>
-      <c r="AD22" s="288"/>
-      <c r="AE22" s="288"/>
-      <c r="AF22" s="288"/>
-      <c r="AG22" s="288"/>
-      <c r="AH22" s="288"/>
-      <c r="AI22" s="288"/>
-      <c r="AJ22" s="288"/>
-      <c r="AK22" s="288"/>
-      <c r="AL22" s="288"/>
-      <c r="AM22" s="289"/>
-      <c r="AN22" s="290"/>
-      <c r="AO22" s="291"/>
-      <c r="AP22" s="291"/>
-      <c r="AQ22" s="291"/>
-      <c r="AR22" s="292"/>
-      <c r="AS22" s="290"/>
-      <c r="AT22" s="291"/>
-      <c r="AU22" s="291"/>
-      <c r="AV22" s="291"/>
-      <c r="AW22" s="292"/>
+      <c r="B22" s="268"/>
+      <c r="C22" s="269"/>
+      <c r="D22" s="270"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="271"/>
+      <c r="G22" s="271"/>
+      <c r="H22" s="271"/>
+      <c r="I22" s="271"/>
+      <c r="J22" s="272"/>
+      <c r="K22" s="273"/>
+      <c r="L22" s="274"/>
+      <c r="M22" s="285"/>
+      <c r="N22" s="283"/>
+      <c r="O22" s="283"/>
+      <c r="P22" s="283"/>
+      <c r="Q22" s="283"/>
+      <c r="R22" s="284"/>
+      <c r="S22" s="278"/>
+      <c r="T22" s="278"/>
+      <c r="U22" s="278"/>
+      <c r="V22" s="279"/>
+      <c r="W22" s="280"/>
+      <c r="X22" s="280"/>
+      <c r="Y22" s="280"/>
+      <c r="Z22" s="280"/>
+      <c r="AA22" s="280"/>
+      <c r="AB22" s="280"/>
+      <c r="AC22" s="280"/>
+      <c r="AD22" s="280"/>
+      <c r="AE22" s="280"/>
+      <c r="AF22" s="280"/>
+      <c r="AG22" s="280"/>
+      <c r="AH22" s="280"/>
+      <c r="AI22" s="280"/>
+      <c r="AJ22" s="280"/>
+      <c r="AK22" s="280"/>
+      <c r="AL22" s="280"/>
+      <c r="AM22" s="281"/>
+      <c r="AN22" s="265"/>
+      <c r="AO22" s="266"/>
+      <c r="AP22" s="266"/>
+      <c r="AQ22" s="266"/>
+      <c r="AR22" s="267"/>
+      <c r="AS22" s="265"/>
+      <c r="AT22" s="266"/>
+      <c r="AU22" s="266"/>
+      <c r="AV22" s="266"/>
+      <c r="AW22" s="267"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="281"/>
-      <c r="C23" s="282"/>
-      <c r="D23" s="283"/>
-      <c r="E23" s="273"/>
-      <c r="F23" s="273"/>
-      <c r="G23" s="273"/>
-      <c r="H23" s="273"/>
-      <c r="I23" s="273"/>
-      <c r="J23" s="274"/>
-      <c r="K23" s="275"/>
-      <c r="L23" s="276"/>
-      <c r="M23" s="284"/>
-      <c r="N23" s="285"/>
-      <c r="O23" s="285"/>
-      <c r="P23" s="285"/>
-      <c r="Q23" s="285"/>
-      <c r="R23" s="286"/>
-      <c r="S23" s="271"/>
-      <c r="T23" s="271"/>
-      <c r="U23" s="271"/>
-      <c r="V23" s="287"/>
-      <c r="W23" s="288"/>
-      <c r="X23" s="288"/>
-      <c r="Y23" s="288"/>
-      <c r="Z23" s="288"/>
-      <c r="AA23" s="288"/>
-      <c r="AB23" s="288"/>
-      <c r="AC23" s="288"/>
-      <c r="AD23" s="288"/>
-      <c r="AE23" s="288"/>
-      <c r="AF23" s="288"/>
-      <c r="AG23" s="288"/>
-      <c r="AH23" s="288"/>
-      <c r="AI23" s="288"/>
-      <c r="AJ23" s="288"/>
-      <c r="AK23" s="288"/>
-      <c r="AL23" s="288"/>
-      <c r="AM23" s="289"/>
-      <c r="AN23" s="290"/>
-      <c r="AO23" s="291"/>
-      <c r="AP23" s="291"/>
-      <c r="AQ23" s="291"/>
-      <c r="AR23" s="292"/>
-      <c r="AS23" s="290"/>
-      <c r="AT23" s="291"/>
-      <c r="AU23" s="291"/>
-      <c r="AV23" s="291"/>
-      <c r="AW23" s="292"/>
+      <c r="B23" s="268"/>
+      <c r="C23" s="269"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="271"/>
+      <c r="F23" s="271"/>
+      <c r="G23" s="271"/>
+      <c r="H23" s="271"/>
+      <c r="I23" s="271"/>
+      <c r="J23" s="272"/>
+      <c r="K23" s="273"/>
+      <c r="L23" s="274"/>
+      <c r="M23" s="285"/>
+      <c r="N23" s="283"/>
+      <c r="O23" s="283"/>
+      <c r="P23" s="283"/>
+      <c r="Q23" s="283"/>
+      <c r="R23" s="284"/>
+      <c r="S23" s="278"/>
+      <c r="T23" s="278"/>
+      <c r="U23" s="278"/>
+      <c r="V23" s="279"/>
+      <c r="W23" s="280"/>
+      <c r="X23" s="280"/>
+      <c r="Y23" s="280"/>
+      <c r="Z23" s="280"/>
+      <c r="AA23" s="280"/>
+      <c r="AB23" s="280"/>
+      <c r="AC23" s="280"/>
+      <c r="AD23" s="280"/>
+      <c r="AE23" s="280"/>
+      <c r="AF23" s="280"/>
+      <c r="AG23" s="280"/>
+      <c r="AH23" s="280"/>
+      <c r="AI23" s="280"/>
+      <c r="AJ23" s="280"/>
+      <c r="AK23" s="280"/>
+      <c r="AL23" s="280"/>
+      <c r="AM23" s="281"/>
+      <c r="AN23" s="265"/>
+      <c r="AO23" s="266"/>
+      <c r="AP23" s="266"/>
+      <c r="AQ23" s="266"/>
+      <c r="AR23" s="267"/>
+      <c r="AS23" s="265"/>
+      <c r="AT23" s="266"/>
+      <c r="AU23" s="266"/>
+      <c r="AV23" s="266"/>
+      <c r="AW23" s="267"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="281"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="283"/>
-      <c r="E24" s="273"/>
-      <c r="F24" s="273"/>
-      <c r="G24" s="273"/>
-      <c r="H24" s="273"/>
-      <c r="I24" s="273"/>
-      <c r="J24" s="274"/>
-      <c r="K24" s="275"/>
-      <c r="L24" s="276"/>
-      <c r="M24" s="284"/>
-      <c r="N24" s="285"/>
-      <c r="O24" s="285"/>
-      <c r="P24" s="285"/>
-      <c r="Q24" s="285"/>
-      <c r="R24" s="286"/>
-      <c r="S24" s="271"/>
-      <c r="T24" s="271"/>
-      <c r="U24" s="271"/>
-      <c r="V24" s="287"/>
-      <c r="W24" s="288"/>
-      <c r="X24" s="288"/>
-      <c r="Y24" s="288"/>
-      <c r="Z24" s="288"/>
-      <c r="AA24" s="288"/>
-      <c r="AB24" s="288"/>
-      <c r="AC24" s="288"/>
-      <c r="AD24" s="288"/>
-      <c r="AE24" s="288"/>
-      <c r="AF24" s="288"/>
-      <c r="AG24" s="288"/>
-      <c r="AH24" s="288"/>
-      <c r="AI24" s="288"/>
-      <c r="AJ24" s="288"/>
-      <c r="AK24" s="288"/>
-      <c r="AL24" s="288"/>
-      <c r="AM24" s="289"/>
-      <c r="AN24" s="290"/>
-      <c r="AO24" s="291"/>
-      <c r="AP24" s="291"/>
-      <c r="AQ24" s="291"/>
-      <c r="AR24" s="292"/>
-      <c r="AS24" s="290"/>
-      <c r="AT24" s="291"/>
-      <c r="AU24" s="291"/>
-      <c r="AV24" s="291"/>
-      <c r="AW24" s="292"/>
+      <c r="B24" s="268"/>
+      <c r="C24" s="269"/>
+      <c r="D24" s="270"/>
+      <c r="E24" s="271"/>
+      <c r="F24" s="271"/>
+      <c r="G24" s="271"/>
+      <c r="H24" s="271"/>
+      <c r="I24" s="271"/>
+      <c r="J24" s="272"/>
+      <c r="K24" s="273"/>
+      <c r="L24" s="274"/>
+      <c r="M24" s="285"/>
+      <c r="N24" s="283"/>
+      <c r="O24" s="283"/>
+      <c r="P24" s="283"/>
+      <c r="Q24" s="283"/>
+      <c r="R24" s="284"/>
+      <c r="S24" s="278"/>
+      <c r="T24" s="278"/>
+      <c r="U24" s="278"/>
+      <c r="V24" s="279"/>
+      <c r="W24" s="280"/>
+      <c r="X24" s="280"/>
+      <c r="Y24" s="280"/>
+      <c r="Z24" s="280"/>
+      <c r="AA24" s="280"/>
+      <c r="AB24" s="280"/>
+      <c r="AC24" s="280"/>
+      <c r="AD24" s="280"/>
+      <c r="AE24" s="280"/>
+      <c r="AF24" s="280"/>
+      <c r="AG24" s="280"/>
+      <c r="AH24" s="280"/>
+      <c r="AI24" s="280"/>
+      <c r="AJ24" s="280"/>
+      <c r="AK24" s="280"/>
+      <c r="AL24" s="280"/>
+      <c r="AM24" s="281"/>
+      <c r="AN24" s="265"/>
+      <c r="AO24" s="266"/>
+      <c r="AP24" s="266"/>
+      <c r="AQ24" s="266"/>
+      <c r="AR24" s="267"/>
+      <c r="AS24" s="265"/>
+      <c r="AT24" s="266"/>
+      <c r="AU24" s="266"/>
+      <c r="AV24" s="266"/>
+      <c r="AW24" s="267"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
-      <c r="B25" s="281"/>
-      <c r="C25" s="282"/>
-      <c r="D25" s="283"/>
-      <c r="E25" s="273"/>
-      <c r="F25" s="273"/>
-      <c r="G25" s="273"/>
-      <c r="H25" s="273"/>
-      <c r="I25" s="273"/>
-      <c r="J25" s="274"/>
-      <c r="K25" s="275"/>
-      <c r="L25" s="276"/>
-      <c r="M25" s="295"/>
-      <c r="N25" s="285"/>
-      <c r="O25" s="285"/>
-      <c r="P25" s="285"/>
-      <c r="Q25" s="285"/>
-      <c r="R25" s="286"/>
-      <c r="S25" s="271"/>
-      <c r="T25" s="271"/>
-      <c r="U25" s="271"/>
-      <c r="V25" s="287"/>
-      <c r="W25" s="288"/>
-      <c r="X25" s="288"/>
-      <c r="Y25" s="288"/>
-      <c r="Z25" s="288"/>
-      <c r="AA25" s="288"/>
-      <c r="AB25" s="288"/>
-      <c r="AC25" s="288"/>
-      <c r="AD25" s="288"/>
-      <c r="AE25" s="288"/>
-      <c r="AF25" s="288"/>
-      <c r="AG25" s="288"/>
-      <c r="AH25" s="288"/>
-      <c r="AI25" s="288"/>
-      <c r="AJ25" s="288"/>
-      <c r="AK25" s="288"/>
-      <c r="AL25" s="288"/>
-      <c r="AM25" s="289"/>
-      <c r="AN25" s="290"/>
-      <c r="AO25" s="291"/>
-      <c r="AP25" s="291"/>
-      <c r="AQ25" s="291"/>
-      <c r="AR25" s="292"/>
-      <c r="AS25" s="290"/>
-      <c r="AT25" s="291"/>
-      <c r="AU25" s="291"/>
-      <c r="AV25" s="291"/>
-      <c r="AW25" s="292"/>
+      <c r="B25" s="268"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="271"/>
+      <c r="F25" s="271"/>
+      <c r="G25" s="271"/>
+      <c r="H25" s="271"/>
+      <c r="I25" s="271"/>
+      <c r="J25" s="272"/>
+      <c r="K25" s="273"/>
+      <c r="L25" s="274"/>
+      <c r="M25" s="282"/>
+      <c r="N25" s="283"/>
+      <c r="O25" s="283"/>
+      <c r="P25" s="283"/>
+      <c r="Q25" s="283"/>
+      <c r="R25" s="284"/>
+      <c r="S25" s="278"/>
+      <c r="T25" s="278"/>
+      <c r="U25" s="278"/>
+      <c r="V25" s="279"/>
+      <c r="W25" s="280"/>
+      <c r="X25" s="280"/>
+      <c r="Y25" s="280"/>
+      <c r="Z25" s="280"/>
+      <c r="AA25" s="280"/>
+      <c r="AB25" s="280"/>
+      <c r="AC25" s="280"/>
+      <c r="AD25" s="280"/>
+      <c r="AE25" s="280"/>
+      <c r="AF25" s="280"/>
+      <c r="AG25" s="280"/>
+      <c r="AH25" s="280"/>
+      <c r="AI25" s="280"/>
+      <c r="AJ25" s="280"/>
+      <c r="AK25" s="280"/>
+      <c r="AL25" s="280"/>
+      <c r="AM25" s="281"/>
+      <c r="AN25" s="265"/>
+      <c r="AO25" s="266"/>
+      <c r="AP25" s="266"/>
+      <c r="AQ25" s="266"/>
+      <c r="AR25" s="267"/>
+      <c r="AS25" s="265"/>
+      <c r="AT25" s="266"/>
+      <c r="AU25" s="266"/>
+      <c r="AV25" s="266"/>
+      <c r="AW25" s="267"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
-      <c r="B26" s="281"/>
-      <c r="C26" s="282"/>
-      <c r="D26" s="283"/>
-      <c r="E26" s="273"/>
-      <c r="F26" s="273"/>
-      <c r="G26" s="273"/>
-      <c r="H26" s="273"/>
-      <c r="I26" s="273"/>
-      <c r="J26" s="274"/>
-      <c r="K26" s="275"/>
-      <c r="L26" s="276"/>
-      <c r="M26" s="295"/>
-      <c r="N26" s="285"/>
-      <c r="O26" s="285"/>
-      <c r="P26" s="285"/>
-      <c r="Q26" s="285"/>
-      <c r="R26" s="286"/>
-      <c r="S26" s="271"/>
-      <c r="T26" s="271"/>
-      <c r="U26" s="271"/>
-      <c r="V26" s="287"/>
-      <c r="W26" s="288"/>
-      <c r="X26" s="288"/>
-      <c r="Y26" s="288"/>
-      <c r="Z26" s="288"/>
-      <c r="AA26" s="288"/>
-      <c r="AB26" s="288"/>
-      <c r="AC26" s="288"/>
-      <c r="AD26" s="288"/>
-      <c r="AE26" s="288"/>
-      <c r="AF26" s="288"/>
-      <c r="AG26" s="288"/>
-      <c r="AH26" s="288"/>
-      <c r="AI26" s="288"/>
-      <c r="AJ26" s="288"/>
-      <c r="AK26" s="288"/>
-      <c r="AL26" s="288"/>
-      <c r="AM26" s="289"/>
-      <c r="AN26" s="290"/>
-      <c r="AO26" s="291"/>
-      <c r="AP26" s="291"/>
-      <c r="AQ26" s="291"/>
-      <c r="AR26" s="292"/>
-      <c r="AS26" s="290"/>
-      <c r="AT26" s="291"/>
-      <c r="AU26" s="291"/>
-      <c r="AV26" s="291"/>
-      <c r="AW26" s="292"/>
+      <c r="B26" s="268"/>
+      <c r="C26" s="269"/>
+      <c r="D26" s="270"/>
+      <c r="E26" s="271"/>
+      <c r="F26" s="271"/>
+      <c r="G26" s="271"/>
+      <c r="H26" s="271"/>
+      <c r="I26" s="271"/>
+      <c r="J26" s="272"/>
+      <c r="K26" s="273"/>
+      <c r="L26" s="274"/>
+      <c r="M26" s="282"/>
+      <c r="N26" s="283"/>
+      <c r="O26" s="283"/>
+      <c r="P26" s="283"/>
+      <c r="Q26" s="283"/>
+      <c r="R26" s="284"/>
+      <c r="S26" s="278"/>
+      <c r="T26" s="278"/>
+      <c r="U26" s="278"/>
+      <c r="V26" s="279"/>
+      <c r="W26" s="280"/>
+      <c r="X26" s="280"/>
+      <c r="Y26" s="280"/>
+      <c r="Z26" s="280"/>
+      <c r="AA26" s="280"/>
+      <c r="AB26" s="280"/>
+      <c r="AC26" s="280"/>
+      <c r="AD26" s="280"/>
+      <c r="AE26" s="280"/>
+      <c r="AF26" s="280"/>
+      <c r="AG26" s="280"/>
+      <c r="AH26" s="280"/>
+      <c r="AI26" s="280"/>
+      <c r="AJ26" s="280"/>
+      <c r="AK26" s="280"/>
+      <c r="AL26" s="280"/>
+      <c r="AM26" s="281"/>
+      <c r="AN26" s="265"/>
+      <c r="AO26" s="266"/>
+      <c r="AP26" s="266"/>
+      <c r="AQ26" s="266"/>
+      <c r="AR26" s="267"/>
+      <c r="AS26" s="265"/>
+      <c r="AT26" s="266"/>
+      <c r="AU26" s="266"/>
+      <c r="AV26" s="266"/>
+      <c r="AW26" s="267"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
-      <c r="B27" s="281"/>
-      <c r="C27" s="282"/>
-      <c r="D27" s="283"/>
-      <c r="E27" s="273"/>
-      <c r="F27" s="273"/>
-      <c r="G27" s="273"/>
-      <c r="H27" s="273"/>
-      <c r="I27" s="273"/>
-      <c r="J27" s="274"/>
-      <c r="K27" s="275"/>
-      <c r="L27" s="276"/>
-      <c r="M27" s="295"/>
-      <c r="N27" s="285"/>
-      <c r="O27" s="285"/>
-      <c r="P27" s="285"/>
-      <c r="Q27" s="285"/>
-      <c r="R27" s="286"/>
-      <c r="S27" s="271"/>
-      <c r="T27" s="271"/>
-      <c r="U27" s="271"/>
-      <c r="V27" s="287"/>
-      <c r="W27" s="288"/>
-      <c r="X27" s="288"/>
-      <c r="Y27" s="288"/>
-      <c r="Z27" s="288"/>
-      <c r="AA27" s="288"/>
-      <c r="AB27" s="288"/>
-      <c r="AC27" s="288"/>
-      <c r="AD27" s="288"/>
-      <c r="AE27" s="288"/>
-      <c r="AF27" s="288"/>
-      <c r="AG27" s="288"/>
-      <c r="AH27" s="288"/>
-      <c r="AI27" s="288"/>
-      <c r="AJ27" s="288"/>
-      <c r="AK27" s="288"/>
-      <c r="AL27" s="288"/>
-      <c r="AM27" s="289"/>
-      <c r="AN27" s="290"/>
-      <c r="AO27" s="291"/>
-      <c r="AP27" s="291"/>
-      <c r="AQ27" s="291"/>
-      <c r="AR27" s="292"/>
-      <c r="AS27" s="290"/>
-      <c r="AT27" s="291"/>
-      <c r="AU27" s="291"/>
-      <c r="AV27" s="291"/>
-      <c r="AW27" s="292"/>
+      <c r="B27" s="268"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="271"/>
+      <c r="G27" s="271"/>
+      <c r="H27" s="271"/>
+      <c r="I27" s="271"/>
+      <c r="J27" s="272"/>
+      <c r="K27" s="273"/>
+      <c r="L27" s="274"/>
+      <c r="M27" s="282"/>
+      <c r="N27" s="283"/>
+      <c r="O27" s="283"/>
+      <c r="P27" s="283"/>
+      <c r="Q27" s="283"/>
+      <c r="R27" s="284"/>
+      <c r="S27" s="278"/>
+      <c r="T27" s="278"/>
+      <c r="U27" s="278"/>
+      <c r="V27" s="279"/>
+      <c r="W27" s="280"/>
+      <c r="X27" s="280"/>
+      <c r="Y27" s="280"/>
+      <c r="Z27" s="280"/>
+      <c r="AA27" s="280"/>
+      <c r="AB27" s="280"/>
+      <c r="AC27" s="280"/>
+      <c r="AD27" s="280"/>
+      <c r="AE27" s="280"/>
+      <c r="AF27" s="280"/>
+      <c r="AG27" s="280"/>
+      <c r="AH27" s="280"/>
+      <c r="AI27" s="280"/>
+      <c r="AJ27" s="280"/>
+      <c r="AK27" s="280"/>
+      <c r="AL27" s="280"/>
+      <c r="AM27" s="281"/>
+      <c r="AN27" s="265"/>
+      <c r="AO27" s="266"/>
+      <c r="AP27" s="266"/>
+      <c r="AQ27" s="266"/>
+      <c r="AR27" s="267"/>
+      <c r="AS27" s="265"/>
+      <c r="AT27" s="266"/>
+      <c r="AU27" s="266"/>
+      <c r="AV27" s="266"/>
+      <c r="AW27" s="267"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
-      <c r="B28" s="281"/>
-      <c r="C28" s="282"/>
-      <c r="D28" s="283"/>
-      <c r="E28" s="273"/>
-      <c r="F28" s="273"/>
-      <c r="G28" s="273"/>
-      <c r="H28" s="273"/>
-      <c r="I28" s="273"/>
-      <c r="J28" s="274"/>
-      <c r="K28" s="275"/>
-      <c r="L28" s="276"/>
-      <c r="M28" s="284"/>
-      <c r="N28" s="285"/>
-      <c r="O28" s="285"/>
-      <c r="P28" s="285"/>
-      <c r="Q28" s="285"/>
-      <c r="R28" s="286"/>
-      <c r="S28" s="271"/>
-      <c r="T28" s="271"/>
-      <c r="U28" s="271"/>
-      <c r="V28" s="287"/>
-      <c r="W28" s="288"/>
-      <c r="X28" s="288"/>
-      <c r="Y28" s="288"/>
-      <c r="Z28" s="288"/>
-      <c r="AA28" s="288"/>
-      <c r="AB28" s="288"/>
-      <c r="AC28" s="288"/>
-      <c r="AD28" s="288"/>
-      <c r="AE28" s="288"/>
-      <c r="AF28" s="288"/>
-      <c r="AG28" s="288"/>
-      <c r="AH28" s="288"/>
-      <c r="AI28" s="288"/>
-      <c r="AJ28" s="288"/>
-      <c r="AK28" s="288"/>
-      <c r="AL28" s="288"/>
-      <c r="AM28" s="289"/>
-      <c r="AN28" s="290"/>
-      <c r="AO28" s="291"/>
-      <c r="AP28" s="291"/>
-      <c r="AQ28" s="291"/>
-      <c r="AR28" s="292"/>
-      <c r="AS28" s="290"/>
-      <c r="AT28" s="291"/>
-      <c r="AU28" s="291"/>
-      <c r="AV28" s="291"/>
-      <c r="AW28" s="292"/>
+      <c r="B28" s="268"/>
+      <c r="C28" s="269"/>
+      <c r="D28" s="270"/>
+      <c r="E28" s="271"/>
+      <c r="F28" s="271"/>
+      <c r="G28" s="271"/>
+      <c r="H28" s="271"/>
+      <c r="I28" s="271"/>
+      <c r="J28" s="272"/>
+      <c r="K28" s="273"/>
+      <c r="L28" s="274"/>
+      <c r="M28" s="285"/>
+      <c r="N28" s="283"/>
+      <c r="O28" s="283"/>
+      <c r="P28" s="283"/>
+      <c r="Q28" s="283"/>
+      <c r="R28" s="284"/>
+      <c r="S28" s="278"/>
+      <c r="T28" s="278"/>
+      <c r="U28" s="278"/>
+      <c r="V28" s="279"/>
+      <c r="W28" s="280"/>
+      <c r="X28" s="280"/>
+      <c r="Y28" s="280"/>
+      <c r="Z28" s="280"/>
+      <c r="AA28" s="280"/>
+      <c r="AB28" s="280"/>
+      <c r="AC28" s="280"/>
+      <c r="AD28" s="280"/>
+      <c r="AE28" s="280"/>
+      <c r="AF28" s="280"/>
+      <c r="AG28" s="280"/>
+      <c r="AH28" s="280"/>
+      <c r="AI28" s="280"/>
+      <c r="AJ28" s="280"/>
+      <c r="AK28" s="280"/>
+      <c r="AL28" s="280"/>
+      <c r="AM28" s="281"/>
+      <c r="AN28" s="265"/>
+      <c r="AO28" s="266"/>
+      <c r="AP28" s="266"/>
+      <c r="AQ28" s="266"/>
+      <c r="AR28" s="267"/>
+      <c r="AS28" s="265"/>
+      <c r="AT28" s="266"/>
+      <c r="AU28" s="266"/>
+      <c r="AV28" s="266"/>
+      <c r="AW28" s="267"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
-      <c r="B29" s="281"/>
-      <c r="C29" s="282"/>
-      <c r="D29" s="283"/>
-      <c r="E29" s="273"/>
-      <c r="F29" s="273"/>
-      <c r="G29" s="273"/>
-      <c r="H29" s="273"/>
-      <c r="I29" s="273"/>
-      <c r="J29" s="274"/>
-      <c r="K29" s="275"/>
-      <c r="L29" s="276"/>
-      <c r="M29" s="284"/>
-      <c r="N29" s="285"/>
-      <c r="O29" s="285"/>
-      <c r="P29" s="285"/>
-      <c r="Q29" s="285"/>
-      <c r="R29" s="286"/>
-      <c r="S29" s="271"/>
-      <c r="T29" s="271"/>
-      <c r="U29" s="271"/>
-      <c r="V29" s="287"/>
-      <c r="W29" s="288"/>
-      <c r="X29" s="288"/>
-      <c r="Y29" s="288"/>
-      <c r="Z29" s="288"/>
-      <c r="AA29" s="288"/>
-      <c r="AB29" s="288"/>
-      <c r="AC29" s="288"/>
-      <c r="AD29" s="288"/>
-      <c r="AE29" s="288"/>
-      <c r="AF29" s="288"/>
-      <c r="AG29" s="288"/>
-      <c r="AH29" s="288"/>
-      <c r="AI29" s="288"/>
-      <c r="AJ29" s="288"/>
-      <c r="AK29" s="288"/>
-      <c r="AL29" s="288"/>
-      <c r="AM29" s="289"/>
-      <c r="AN29" s="290"/>
-      <c r="AO29" s="291"/>
-      <c r="AP29" s="291"/>
-      <c r="AQ29" s="291"/>
-      <c r="AR29" s="292"/>
-      <c r="AS29" s="290"/>
-      <c r="AT29" s="291"/>
-      <c r="AU29" s="291"/>
-      <c r="AV29" s="291"/>
-      <c r="AW29" s="292"/>
+      <c r="B29" s="268"/>
+      <c r="C29" s="269"/>
+      <c r="D29" s="270"/>
+      <c r="E29" s="271"/>
+      <c r="F29" s="271"/>
+      <c r="G29" s="271"/>
+      <c r="H29" s="271"/>
+      <c r="I29" s="271"/>
+      <c r="J29" s="272"/>
+      <c r="K29" s="273"/>
+      <c r="L29" s="274"/>
+      <c r="M29" s="285"/>
+      <c r="N29" s="283"/>
+      <c r="O29" s="283"/>
+      <c r="P29" s="283"/>
+      <c r="Q29" s="283"/>
+      <c r="R29" s="284"/>
+      <c r="S29" s="278"/>
+      <c r="T29" s="278"/>
+      <c r="U29" s="278"/>
+      <c r="V29" s="279"/>
+      <c r="W29" s="280"/>
+      <c r="X29" s="280"/>
+      <c r="Y29" s="280"/>
+      <c r="Z29" s="280"/>
+      <c r="AA29" s="280"/>
+      <c r="AB29" s="280"/>
+      <c r="AC29" s="280"/>
+      <c r="AD29" s="280"/>
+      <c r="AE29" s="280"/>
+      <c r="AF29" s="280"/>
+      <c r="AG29" s="280"/>
+      <c r="AH29" s="280"/>
+      <c r="AI29" s="280"/>
+      <c r="AJ29" s="280"/>
+      <c r="AK29" s="280"/>
+      <c r="AL29" s="280"/>
+      <c r="AM29" s="281"/>
+      <c r="AN29" s="265"/>
+      <c r="AO29" s="266"/>
+      <c r="AP29" s="266"/>
+      <c r="AQ29" s="266"/>
+      <c r="AR29" s="267"/>
+      <c r="AS29" s="265"/>
+      <c r="AT29" s="266"/>
+      <c r="AU29" s="266"/>
+      <c r="AV29" s="266"/>
+      <c r="AW29" s="267"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
-      <c r="B30" s="281"/>
-      <c r="C30" s="282"/>
-      <c r="D30" s="283"/>
-      <c r="E30" s="273"/>
-      <c r="F30" s="273"/>
-      <c r="G30" s="273"/>
-      <c r="H30" s="273"/>
-      <c r="I30" s="273"/>
-      <c r="J30" s="274"/>
-      <c r="K30" s="275"/>
-      <c r="L30" s="276"/>
-      <c r="M30" s="295"/>
-      <c r="N30" s="285"/>
-      <c r="O30" s="285"/>
-      <c r="P30" s="285"/>
-      <c r="Q30" s="285"/>
-      <c r="R30" s="286"/>
-      <c r="S30" s="271"/>
-      <c r="T30" s="271"/>
-      <c r="U30" s="271"/>
-      <c r="V30" s="287"/>
-      <c r="W30" s="288"/>
-      <c r="X30" s="288"/>
-      <c r="Y30" s="288"/>
-      <c r="Z30" s="288"/>
-      <c r="AA30" s="288"/>
-      <c r="AB30" s="288"/>
-      <c r="AC30" s="288"/>
-      <c r="AD30" s="288"/>
-      <c r="AE30" s="288"/>
-      <c r="AF30" s="288"/>
-      <c r="AG30" s="288"/>
-      <c r="AH30" s="288"/>
-      <c r="AI30" s="288"/>
-      <c r="AJ30" s="288"/>
-      <c r="AK30" s="288"/>
-      <c r="AL30" s="288"/>
-      <c r="AM30" s="289"/>
-      <c r="AN30" s="290"/>
-      <c r="AO30" s="291"/>
-      <c r="AP30" s="291"/>
-      <c r="AQ30" s="291"/>
-      <c r="AR30" s="292"/>
-      <c r="AS30" s="290"/>
-      <c r="AT30" s="291"/>
-      <c r="AU30" s="291"/>
-      <c r="AV30" s="291"/>
-      <c r="AW30" s="292"/>
+      <c r="B30" s="268"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="270"/>
+      <c r="E30" s="271"/>
+      <c r="F30" s="271"/>
+      <c r="G30" s="271"/>
+      <c r="H30" s="271"/>
+      <c r="I30" s="271"/>
+      <c r="J30" s="272"/>
+      <c r="K30" s="273"/>
+      <c r="L30" s="274"/>
+      <c r="M30" s="282"/>
+      <c r="N30" s="283"/>
+      <c r="O30" s="283"/>
+      <c r="P30" s="283"/>
+      <c r="Q30" s="283"/>
+      <c r="R30" s="284"/>
+      <c r="S30" s="278"/>
+      <c r="T30" s="278"/>
+      <c r="U30" s="278"/>
+      <c r="V30" s="279"/>
+      <c r="W30" s="280"/>
+      <c r="X30" s="280"/>
+      <c r="Y30" s="280"/>
+      <c r="Z30" s="280"/>
+      <c r="AA30" s="280"/>
+      <c r="AB30" s="280"/>
+      <c r="AC30" s="280"/>
+      <c r="AD30" s="280"/>
+      <c r="AE30" s="280"/>
+      <c r="AF30" s="280"/>
+      <c r="AG30" s="280"/>
+      <c r="AH30" s="280"/>
+      <c r="AI30" s="280"/>
+      <c r="AJ30" s="280"/>
+      <c r="AK30" s="280"/>
+      <c r="AL30" s="280"/>
+      <c r="AM30" s="281"/>
+      <c r="AN30" s="265"/>
+      <c r="AO30" s="266"/>
+      <c r="AP30" s="266"/>
+      <c r="AQ30" s="266"/>
+      <c r="AR30" s="267"/>
+      <c r="AS30" s="265"/>
+      <c r="AT30" s="266"/>
+      <c r="AU30" s="266"/>
+      <c r="AV30" s="266"/>
+      <c r="AW30" s="267"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
-      <c r="B31" s="281"/>
-      <c r="C31" s="282"/>
-      <c r="D31" s="283"/>
-      <c r="E31" s="273"/>
-      <c r="F31" s="273"/>
-      <c r="G31" s="273"/>
-      <c r="H31" s="273"/>
-      <c r="I31" s="273"/>
-      <c r="J31" s="274"/>
-      <c r="K31" s="275"/>
-      <c r="L31" s="276"/>
-      <c r="M31" s="295"/>
-      <c r="N31" s="285"/>
-      <c r="O31" s="285"/>
-      <c r="P31" s="285"/>
-      <c r="Q31" s="285"/>
-      <c r="R31" s="286"/>
-      <c r="S31" s="271"/>
-      <c r="T31" s="271"/>
-      <c r="U31" s="271"/>
-      <c r="V31" s="287"/>
-      <c r="W31" s="288"/>
-      <c r="X31" s="288"/>
-      <c r="Y31" s="288"/>
-      <c r="Z31" s="288"/>
-      <c r="AA31" s="288"/>
-      <c r="AB31" s="288"/>
-      <c r="AC31" s="288"/>
-      <c r="AD31" s="288"/>
-      <c r="AE31" s="288"/>
-      <c r="AF31" s="288"/>
-      <c r="AG31" s="288"/>
-      <c r="AH31" s="288"/>
-      <c r="AI31" s="288"/>
-      <c r="AJ31" s="288"/>
-      <c r="AK31" s="288"/>
-      <c r="AL31" s="288"/>
-      <c r="AM31" s="289"/>
-      <c r="AN31" s="290"/>
-      <c r="AO31" s="291"/>
-      <c r="AP31" s="291"/>
-      <c r="AQ31" s="291"/>
-      <c r="AR31" s="292"/>
-      <c r="AS31" s="290"/>
-      <c r="AT31" s="291"/>
-      <c r="AU31" s="291"/>
-      <c r="AV31" s="291"/>
-      <c r="AW31" s="292"/>
+      <c r="B31" s="268"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="270"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="271"/>
+      <c r="H31" s="271"/>
+      <c r="I31" s="271"/>
+      <c r="J31" s="272"/>
+      <c r="K31" s="273"/>
+      <c r="L31" s="274"/>
+      <c r="M31" s="282"/>
+      <c r="N31" s="283"/>
+      <c r="O31" s="283"/>
+      <c r="P31" s="283"/>
+      <c r="Q31" s="283"/>
+      <c r="R31" s="284"/>
+      <c r="S31" s="278"/>
+      <c r="T31" s="278"/>
+      <c r="U31" s="278"/>
+      <c r="V31" s="279"/>
+      <c r="W31" s="280"/>
+      <c r="X31" s="280"/>
+      <c r="Y31" s="280"/>
+      <c r="Z31" s="280"/>
+      <c r="AA31" s="280"/>
+      <c r="AB31" s="280"/>
+      <c r="AC31" s="280"/>
+      <c r="AD31" s="280"/>
+      <c r="AE31" s="280"/>
+      <c r="AF31" s="280"/>
+      <c r="AG31" s="280"/>
+      <c r="AH31" s="280"/>
+      <c r="AI31" s="280"/>
+      <c r="AJ31" s="280"/>
+      <c r="AK31" s="280"/>
+      <c r="AL31" s="280"/>
+      <c r="AM31" s="281"/>
+      <c r="AN31" s="265"/>
+      <c r="AO31" s="266"/>
+      <c r="AP31" s="266"/>
+      <c r="AQ31" s="266"/>
+      <c r="AR31" s="267"/>
+      <c r="AS31" s="265"/>
+      <c r="AT31" s="266"/>
+      <c r="AU31" s="266"/>
+      <c r="AV31" s="266"/>
+      <c r="AW31" s="267"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
-      <c r="B32" s="281"/>
-      <c r="C32" s="282"/>
-      <c r="D32" s="283"/>
-      <c r="E32" s="273"/>
-      <c r="F32" s="273"/>
-      <c r="G32" s="273"/>
-      <c r="H32" s="273"/>
-      <c r="I32" s="273"/>
-      <c r="J32" s="274"/>
-      <c r="K32" s="275"/>
-      <c r="L32" s="276"/>
-      <c r="M32" s="295"/>
-      <c r="N32" s="285"/>
-      <c r="O32" s="285"/>
-      <c r="P32" s="285"/>
-      <c r="Q32" s="285"/>
-      <c r="R32" s="286"/>
-      <c r="S32" s="271"/>
-      <c r="T32" s="271"/>
-      <c r="U32" s="271"/>
-      <c r="V32" s="287"/>
-      <c r="W32" s="288"/>
-      <c r="X32" s="288"/>
-      <c r="Y32" s="288"/>
-      <c r="Z32" s="288"/>
-      <c r="AA32" s="288"/>
-      <c r="AB32" s="288"/>
-      <c r="AC32" s="288"/>
-      <c r="AD32" s="288"/>
-      <c r="AE32" s="288"/>
-      <c r="AF32" s="288"/>
-      <c r="AG32" s="288"/>
-      <c r="AH32" s="288"/>
-      <c r="AI32" s="288"/>
-      <c r="AJ32" s="288"/>
-      <c r="AK32" s="288"/>
-      <c r="AL32" s="288"/>
-      <c r="AM32" s="289"/>
-      <c r="AN32" s="290"/>
-      <c r="AO32" s="291"/>
-      <c r="AP32" s="291"/>
-      <c r="AQ32" s="291"/>
-      <c r="AR32" s="292"/>
-      <c r="AS32" s="290"/>
-      <c r="AT32" s="291"/>
-      <c r="AU32" s="291"/>
-      <c r="AV32" s="291"/>
-      <c r="AW32" s="292"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="269"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="271"/>
+      <c r="G32" s="271"/>
+      <c r="H32" s="271"/>
+      <c r="I32" s="271"/>
+      <c r="J32" s="272"/>
+      <c r="K32" s="273"/>
+      <c r="L32" s="274"/>
+      <c r="M32" s="282"/>
+      <c r="N32" s="283"/>
+      <c r="O32" s="283"/>
+      <c r="P32" s="283"/>
+      <c r="Q32" s="283"/>
+      <c r="R32" s="284"/>
+      <c r="S32" s="278"/>
+      <c r="T32" s="278"/>
+      <c r="U32" s="278"/>
+      <c r="V32" s="279"/>
+      <c r="W32" s="280"/>
+      <c r="X32" s="280"/>
+      <c r="Y32" s="280"/>
+      <c r="Z32" s="280"/>
+      <c r="AA32" s="280"/>
+      <c r="AB32" s="280"/>
+      <c r="AC32" s="280"/>
+      <c r="AD32" s="280"/>
+      <c r="AE32" s="280"/>
+      <c r="AF32" s="280"/>
+      <c r="AG32" s="280"/>
+      <c r="AH32" s="280"/>
+      <c r="AI32" s="280"/>
+      <c r="AJ32" s="280"/>
+      <c r="AK32" s="280"/>
+      <c r="AL32" s="280"/>
+      <c r="AM32" s="281"/>
+      <c r="AN32" s="265"/>
+      <c r="AO32" s="266"/>
+      <c r="AP32" s="266"/>
+      <c r="AQ32" s="266"/>
+      <c r="AR32" s="267"/>
+      <c r="AS32" s="265"/>
+      <c r="AT32" s="266"/>
+      <c r="AU32" s="266"/>
+      <c r="AV32" s="266"/>
+      <c r="AW32" s="267"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="281"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="283"/>
-      <c r="E33" s="273"/>
-      <c r="F33" s="273"/>
-      <c r="G33" s="273"/>
-      <c r="H33" s="273"/>
-      <c r="I33" s="273"/>
-      <c r="J33" s="274"/>
-      <c r="K33" s="275"/>
-      <c r="L33" s="276"/>
-      <c r="M33" s="295"/>
-      <c r="N33" s="285"/>
-      <c r="O33" s="285"/>
-      <c r="P33" s="285"/>
-      <c r="Q33" s="285"/>
-      <c r="R33" s="286"/>
-      <c r="S33" s="271"/>
-      <c r="T33" s="271"/>
-      <c r="U33" s="271"/>
-      <c r="V33" s="287"/>
-      <c r="W33" s="288"/>
-      <c r="X33" s="288"/>
-      <c r="Y33" s="288"/>
-      <c r="Z33" s="288"/>
-      <c r="AA33" s="288"/>
-      <c r="AB33" s="288"/>
-      <c r="AC33" s="288"/>
-      <c r="AD33" s="288"/>
-      <c r="AE33" s="288"/>
-      <c r="AF33" s="288"/>
-      <c r="AG33" s="288"/>
-      <c r="AH33" s="288"/>
-      <c r="AI33" s="288"/>
-      <c r="AJ33" s="288"/>
-      <c r="AK33" s="288"/>
-      <c r="AL33" s="288"/>
-      <c r="AM33" s="289"/>
-      <c r="AN33" s="290"/>
-      <c r="AO33" s="291"/>
-      <c r="AP33" s="291"/>
-      <c r="AQ33" s="291"/>
-      <c r="AR33" s="292"/>
-      <c r="AS33" s="290"/>
-      <c r="AT33" s="291"/>
-      <c r="AU33" s="291"/>
-      <c r="AV33" s="291"/>
-      <c r="AW33" s="292"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="271"/>
+      <c r="F33" s="271"/>
+      <c r="G33" s="271"/>
+      <c r="H33" s="271"/>
+      <c r="I33" s="271"/>
+      <c r="J33" s="272"/>
+      <c r="K33" s="273"/>
+      <c r="L33" s="274"/>
+      <c r="M33" s="282"/>
+      <c r="N33" s="283"/>
+      <c r="O33" s="283"/>
+      <c r="P33" s="283"/>
+      <c r="Q33" s="283"/>
+      <c r="R33" s="284"/>
+      <c r="S33" s="278"/>
+      <c r="T33" s="278"/>
+      <c r="U33" s="278"/>
+      <c r="V33" s="279"/>
+      <c r="W33" s="280"/>
+      <c r="X33" s="280"/>
+      <c r="Y33" s="280"/>
+      <c r="Z33" s="280"/>
+      <c r="AA33" s="280"/>
+      <c r="AB33" s="280"/>
+      <c r="AC33" s="280"/>
+      <c r="AD33" s="280"/>
+      <c r="AE33" s="280"/>
+      <c r="AF33" s="280"/>
+      <c r="AG33" s="280"/>
+      <c r="AH33" s="280"/>
+      <c r="AI33" s="280"/>
+      <c r="AJ33" s="280"/>
+      <c r="AK33" s="280"/>
+      <c r="AL33" s="280"/>
+      <c r="AM33" s="281"/>
+      <c r="AN33" s="265"/>
+      <c r="AO33" s="266"/>
+      <c r="AP33" s="266"/>
+      <c r="AQ33" s="266"/>
+      <c r="AR33" s="267"/>
+      <c r="AS33" s="265"/>
+      <c r="AT33" s="266"/>
+      <c r="AU33" s="266"/>
+      <c r="AV33" s="266"/>
+      <c r="AW33" s="267"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="281"/>
-      <c r="C34" s="282"/>
-      <c r="D34" s="283"/>
-      <c r="E34" s="273"/>
-      <c r="F34" s="273"/>
-      <c r="G34" s="273"/>
-      <c r="H34" s="273"/>
-      <c r="I34" s="273"/>
-      <c r="J34" s="274"/>
-      <c r="K34" s="275"/>
-      <c r="L34" s="276"/>
-      <c r="M34" s="299"/>
-      <c r="N34" s="300"/>
-      <c r="O34" s="300"/>
-      <c r="P34" s="300"/>
-      <c r="Q34" s="300"/>
-      <c r="R34" s="301"/>
-      <c r="S34" s="271"/>
-      <c r="T34" s="271"/>
-      <c r="U34" s="271"/>
-      <c r="V34" s="287"/>
-      <c r="W34" s="288"/>
-      <c r="X34" s="288"/>
-      <c r="Y34" s="288"/>
-      <c r="Z34" s="288"/>
-      <c r="AA34" s="288"/>
-      <c r="AB34" s="288"/>
-      <c r="AC34" s="288"/>
-      <c r="AD34" s="288"/>
-      <c r="AE34" s="288"/>
-      <c r="AF34" s="288"/>
-      <c r="AG34" s="288"/>
-      <c r="AH34" s="288"/>
-      <c r="AI34" s="288"/>
-      <c r="AJ34" s="288"/>
-      <c r="AK34" s="288"/>
-      <c r="AL34" s="288"/>
-      <c r="AM34" s="289"/>
-      <c r="AN34" s="290"/>
-      <c r="AO34" s="291"/>
-      <c r="AP34" s="291"/>
-      <c r="AQ34" s="291"/>
-      <c r="AR34" s="292"/>
-      <c r="AS34" s="290"/>
-      <c r="AT34" s="291"/>
-      <c r="AU34" s="291"/>
-      <c r="AV34" s="291"/>
-      <c r="AW34" s="292"/>
+      <c r="B34" s="268"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="270"/>
+      <c r="E34" s="271"/>
+      <c r="F34" s="271"/>
+      <c r="G34" s="271"/>
+      <c r="H34" s="271"/>
+      <c r="I34" s="271"/>
+      <c r="J34" s="272"/>
+      <c r="K34" s="273"/>
+      <c r="L34" s="274"/>
+      <c r="M34" s="275"/>
+      <c r="N34" s="276"/>
+      <c r="O34" s="276"/>
+      <c r="P34" s="276"/>
+      <c r="Q34" s="276"/>
+      <c r="R34" s="277"/>
+      <c r="S34" s="278"/>
+      <c r="T34" s="278"/>
+      <c r="U34" s="278"/>
+      <c r="V34" s="279"/>
+      <c r="W34" s="280"/>
+      <c r="X34" s="280"/>
+      <c r="Y34" s="280"/>
+      <c r="Z34" s="280"/>
+      <c r="AA34" s="280"/>
+      <c r="AB34" s="280"/>
+      <c r="AC34" s="280"/>
+      <c r="AD34" s="280"/>
+      <c r="AE34" s="280"/>
+      <c r="AF34" s="280"/>
+      <c r="AG34" s="280"/>
+      <c r="AH34" s="280"/>
+      <c r="AI34" s="280"/>
+      <c r="AJ34" s="280"/>
+      <c r="AK34" s="280"/>
+      <c r="AL34" s="280"/>
+      <c r="AM34" s="281"/>
+      <c r="AN34" s="265"/>
+      <c r="AO34" s="266"/>
+      <c r="AP34" s="266"/>
+      <c r="AQ34" s="266"/>
+      <c r="AR34" s="267"/>
+      <c r="AS34" s="265"/>
+      <c r="AT34" s="266"/>
+      <c r="AU34" s="266"/>
+      <c r="AV34" s="266"/>
+      <c r="AW34" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -10769,239 +11002,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11161,11 +11161,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="306"/>
-      <c r="AP2" s="307"/>
-      <c r="AQ2" s="307"/>
-      <c r="AR2" s="307"/>
-      <c r="AS2" s="308"/>
+      <c r="AO2" s="305"/>
+      <c r="AP2" s="306"/>
+      <c r="AQ2" s="306"/>
+      <c r="AR2" s="306"/>
+      <c r="AS2" s="307"/>
       <c r="AT2" s="33" t="s">
         <v>26</v>
       </c>
@@ -11174,14 +11174,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="309"/>
-      <c r="BA2" s="310"/>
-      <c r="BB2" s="310"/>
-      <c r="BC2" s="310"/>
-      <c r="BD2" s="310"/>
-      <c r="BE2" s="310"/>
-      <c r="BF2" s="310"/>
-      <c r="BG2" s="311"/>
+      <c r="AZ2" s="308"/>
+      <c r="BA2" s="309"/>
+      <c r="BB2" s="309"/>
+      <c r="BC2" s="309"/>
+      <c r="BD2" s="309"/>
+      <c r="BE2" s="309"/>
+      <c r="BF2" s="309"/>
+      <c r="BG2" s="310"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -12997,10 +12997,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="28"/>
-      <c r="B50" s="312" t="s">
+      <c r="B50" s="313" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="313"/>
+      <c r="C50" s="314"/>
       <c r="D50" s="75" t="s">
         <v>77</v>
       </c>
@@ -13083,10 +13083,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
-      <c r="B51" s="302">
+      <c r="B51" s="315">
         <v>1</v>
       </c>
-      <c r="C51" s="303"/>
+      <c r="C51" s="316"/>
       <c r="D51" s="69" t="s">
         <v>104</v>
       </c>
@@ -13118,16 +13118,16 @@
       <c r="AB51" s="73"/>
       <c r="AC51" s="73"/>
       <c r="AD51" s="74"/>
-      <c r="AE51" s="304" t="s">
+      <c r="AE51" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="AF51" s="305"/>
-      <c r="AG51" s="304"/>
-      <c r="AH51" s="305"/>
-      <c r="AI51" s="304"/>
-      <c r="AJ51" s="305"/>
-      <c r="AK51" s="304"/>
-      <c r="AL51" s="305"/>
+      <c r="AF51" s="312"/>
+      <c r="AG51" s="311"/>
+      <c r="AH51" s="312"/>
+      <c r="AI51" s="311"/>
+      <c r="AJ51" s="312"/>
+      <c r="AK51" s="311"/>
+      <c r="AL51" s="312"/>
       <c r="AM51" s="70" t="s">
         <v>125</v>
       </c>
@@ -13161,10 +13161,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
-      <c r="B52" s="302">
+      <c r="B52" s="315">
         <v>2</v>
       </c>
-      <c r="C52" s="303"/>
+      <c r="C52" s="316"/>
       <c r="D52" s="104" t="s">
         <v>104</v>
       </c>
@@ -13196,16 +13196,16 @@
       <c r="AB52" s="73"/>
       <c r="AC52" s="73"/>
       <c r="AD52" s="105"/>
-      <c r="AE52" s="304" t="s">
+      <c r="AE52" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="AF52" s="305"/>
-      <c r="AG52" s="304"/>
-      <c r="AH52" s="305"/>
-      <c r="AI52" s="304"/>
-      <c r="AJ52" s="305"/>
-      <c r="AK52" s="304"/>
-      <c r="AL52" s="305"/>
+      <c r="AF52" s="312"/>
+      <c r="AG52" s="311"/>
+      <c r="AH52" s="312"/>
+      <c r="AI52" s="311"/>
+      <c r="AJ52" s="312"/>
+      <c r="AK52" s="311"/>
+      <c r="AL52" s="312"/>
       <c r="AM52" s="70" t="s">
         <v>126</v>
       </c>
@@ -13239,10 +13239,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="28"/>
-      <c r="B53" s="302">
+      <c r="B53" s="315">
         <v>3</v>
       </c>
-      <c r="C53" s="303"/>
+      <c r="C53" s="316"/>
       <c r="D53" s="104" t="s">
         <v>105</v>
       </c>
@@ -13274,18 +13274,18 @@
       <c r="AB53" s="73"/>
       <c r="AC53" s="73"/>
       <c r="AD53" s="105"/>
-      <c r="AE53" s="304" t="s">
+      <c r="AE53" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="AF53" s="305"/>
-      <c r="AG53" s="304"/>
-      <c r="AH53" s="305"/>
-      <c r="AI53" s="304" t="s">
+      <c r="AF53" s="312"/>
+      <c r="AG53" s="311"/>
+      <c r="AH53" s="312"/>
+      <c r="AI53" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="AJ53" s="305"/>
-      <c r="AK53" s="304"/>
-      <c r="AL53" s="305"/>
+      <c r="AJ53" s="312"/>
+      <c r="AK53" s="311"/>
+      <c r="AL53" s="312"/>
       <c r="AM53" s="70" t="s">
         <v>127</v>
       </c>
@@ -13319,10 +13319,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="28"/>
-      <c r="B54" s="302">
+      <c r="B54" s="315">
         <v>4</v>
       </c>
-      <c r="C54" s="303"/>
+      <c r="C54" s="316"/>
       <c r="D54" s="104" t="s">
         <v>105</v>
       </c>
@@ -13354,18 +13354,18 @@
       <c r="AB54" s="73"/>
       <c r="AC54" s="73"/>
       <c r="AD54" s="105"/>
-      <c r="AE54" s="304" t="s">
+      <c r="AE54" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="AF54" s="305"/>
-      <c r="AG54" s="304" t="s">
+      <c r="AF54" s="312"/>
+      <c r="AG54" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="AH54" s="305"/>
-      <c r="AI54" s="304"/>
-      <c r="AJ54" s="305"/>
-      <c r="AK54" s="304"/>
-      <c r="AL54" s="305"/>
+      <c r="AH54" s="312"/>
+      <c r="AI54" s="311"/>
+      <c r="AJ54" s="312"/>
+      <c r="AK54" s="311"/>
+      <c r="AL54" s="312"/>
       <c r="AM54" s="70" t="s">
         <v>128</v>
       </c>
@@ -13399,6 +13399,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AK54:AL54"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK51:AL51"/>
@@ -13407,21 +13422,6 @@
     <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13545,20 +13545,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="316">
+      <c r="CD1" s="319">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="CE1" s="317"/>
-      <c r="CF1" s="317"/>
-      <c r="CG1" s="317"/>
-      <c r="CH1" s="317"/>
-      <c r="CI1" s="317"/>
-      <c r="CJ1" s="317"/>
-      <c r="CK1" s="317"/>
-      <c r="CL1" s="317"/>
-      <c r="CM1" s="317"/>
-      <c r="CN1" s="318"/>
+      <c r="CE1" s="320"/>
+      <c r="CF1" s="320"/>
+      <c r="CG1" s="320"/>
+      <c r="CH1" s="320"/>
+      <c r="CI1" s="320"/>
+      <c r="CJ1" s="320"/>
+      <c r="CK1" s="320"/>
+      <c r="CL1" s="320"/>
+      <c r="CM1" s="320"/>
+      <c r="CN1" s="321"/>
       <c r="CO1" s="33" t="s">
         <v>25</v>
       </c>
@@ -13567,23 +13567,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="309" t="str">
+      <c r="CU1" s="308" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="314"/>
-      <c r="CW1" s="314"/>
-      <c r="CX1" s="314"/>
-      <c r="CY1" s="314"/>
-      <c r="CZ1" s="314"/>
-      <c r="DA1" s="314"/>
-      <c r="DB1" s="314"/>
-      <c r="DC1" s="314"/>
-      <c r="DD1" s="314"/>
-      <c r="DE1" s="314"/>
-      <c r="DF1" s="314"/>
-      <c r="DG1" s="314"/>
-      <c r="DH1" s="315"/>
+      <c r="CV1" s="317"/>
+      <c r="CW1" s="317"/>
+      <c r="CX1" s="317"/>
+      <c r="CY1" s="317"/>
+      <c r="CZ1" s="317"/>
+      <c r="DA1" s="317"/>
+      <c r="DB1" s="317"/>
+      <c r="DC1" s="317"/>
+      <c r="DD1" s="317"/>
+      <c r="DE1" s="317"/>
+      <c r="DF1" s="317"/>
+      <c r="DG1" s="317"/>
+      <c r="DH1" s="318"/>
     </row>
     <row r="2" spans="1:113" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -13638,39 +13638,39 @@
       <c r="AQ2" s="82"/>
       <c r="AR2" s="82"/>
       <c r="AS2" s="83"/>
-      <c r="AT2" s="320" t="str">
+      <c r="AT2" s="323" t="str">
         <f>'１．機能概要'!W2</f>
         <v>その他出庫参照・取消</v>
       </c>
-      <c r="AU2" s="321"/>
-      <c r="AV2" s="321"/>
-      <c r="AW2" s="321"/>
-      <c r="AX2" s="321"/>
-      <c r="AY2" s="321"/>
-      <c r="AZ2" s="321"/>
-      <c r="BA2" s="321"/>
-      <c r="BB2" s="321"/>
-      <c r="BC2" s="321"/>
-      <c r="BD2" s="321"/>
-      <c r="BE2" s="321"/>
-      <c r="BF2" s="321"/>
-      <c r="BG2" s="321"/>
-      <c r="BH2" s="321"/>
-      <c r="BI2" s="321"/>
-      <c r="BJ2" s="321"/>
-      <c r="BK2" s="321"/>
-      <c r="BL2" s="321"/>
-      <c r="BM2" s="321"/>
-      <c r="BN2" s="321"/>
-      <c r="BO2" s="321"/>
-      <c r="BP2" s="321"/>
-      <c r="BQ2" s="321"/>
-      <c r="BR2" s="321"/>
-      <c r="BS2" s="321"/>
-      <c r="BT2" s="321"/>
-      <c r="BU2" s="321"/>
-      <c r="BV2" s="321"/>
-      <c r="BW2" s="322"/>
+      <c r="AU2" s="324"/>
+      <c r="AV2" s="324"/>
+      <c r="AW2" s="324"/>
+      <c r="AX2" s="324"/>
+      <c r="AY2" s="324"/>
+      <c r="AZ2" s="324"/>
+      <c r="BA2" s="324"/>
+      <c r="BB2" s="324"/>
+      <c r="BC2" s="324"/>
+      <c r="BD2" s="324"/>
+      <c r="BE2" s="324"/>
+      <c r="BF2" s="324"/>
+      <c r="BG2" s="324"/>
+      <c r="BH2" s="324"/>
+      <c r="BI2" s="324"/>
+      <c r="BJ2" s="324"/>
+      <c r="BK2" s="324"/>
+      <c r="BL2" s="324"/>
+      <c r="BM2" s="324"/>
+      <c r="BN2" s="324"/>
+      <c r="BO2" s="324"/>
+      <c r="BP2" s="324"/>
+      <c r="BQ2" s="324"/>
+      <c r="BR2" s="324"/>
+      <c r="BS2" s="324"/>
+      <c r="BT2" s="324"/>
+      <c r="BU2" s="324"/>
+      <c r="BV2" s="324"/>
+      <c r="BW2" s="325"/>
       <c r="BX2" s="33" t="s">
         <v>24</v>
       </c>
@@ -13679,17 +13679,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="319"/>
-      <c r="CE2" s="314"/>
-      <c r="CF2" s="314"/>
-      <c r="CG2" s="314"/>
-      <c r="CH2" s="314"/>
-      <c r="CI2" s="314"/>
-      <c r="CJ2" s="314"/>
-      <c r="CK2" s="314"/>
-      <c r="CL2" s="314"/>
-      <c r="CM2" s="314"/>
-      <c r="CN2" s="315"/>
+      <c r="CD2" s="322"/>
+      <c r="CE2" s="317"/>
+      <c r="CF2" s="317"/>
+      <c r="CG2" s="317"/>
+      <c r="CH2" s="317"/>
+      <c r="CI2" s="317"/>
+      <c r="CJ2" s="317"/>
+      <c r="CK2" s="317"/>
+      <c r="CL2" s="317"/>
+      <c r="CM2" s="317"/>
+      <c r="CN2" s="318"/>
       <c r="CO2" s="33" t="s">
         <v>26</v>
       </c>
@@ -13698,20 +13698,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="309"/>
-      <c r="CV2" s="314"/>
-      <c r="CW2" s="314"/>
-      <c r="CX2" s="314"/>
-      <c r="CY2" s="314"/>
-      <c r="CZ2" s="314"/>
-      <c r="DA2" s="314"/>
-      <c r="DB2" s="314"/>
-      <c r="DC2" s="314"/>
-      <c r="DD2" s="314"/>
-      <c r="DE2" s="314"/>
-      <c r="DF2" s="314"/>
-      <c r="DG2" s="314"/>
-      <c r="DH2" s="315"/>
+      <c r="CU2" s="308"/>
+      <c r="CV2" s="317"/>
+      <c r="CW2" s="317"/>
+      <c r="CX2" s="317"/>
+      <c r="CY2" s="317"/>
+      <c r="CZ2" s="317"/>
+      <c r="DA2" s="317"/>
+      <c r="DB2" s="317"/>
+      <c r="DC2" s="317"/>
+      <c r="DD2" s="317"/>
+      <c r="DE2" s="317"/>
+      <c r="DF2" s="317"/>
+      <c r="DG2" s="317"/>
+      <c r="DH2" s="318"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="46"/>
@@ -13915,37 +13915,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="264" t="s">
+      <c r="C6" s="298" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="264" t="s">
+      <c r="D6" s="298" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="264" t="s">
+      <c r="E6" s="298" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="264" t="s">
+      <c r="F6" s="298" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="264" t="s">
+      <c r="G6" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="264" t="s">
+      <c r="H6" s="298" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="323" t="s">
+      <c r="I6" s="326" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="323" t="s">
+      <c r="J6" s="326" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="264" t="s">
+      <c r="K6" s="298" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="264" t="s">
+      <c r="L6" s="298" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="264" t="s">
+      <c r="M6" s="298" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="58" t="s">
@@ -13953,24 +13953,24 @@
       </c>
       <c r="O6" s="58"/>
       <c r="P6" s="58"/>
-      <c r="Q6" s="323" t="s">
+      <c r="Q6" s="326" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="323"/>
-      <c r="J7" s="323"/>
-      <c r="K7" s="264"/>
-      <c r="L7" s="264"/>
-      <c r="M7" s="264"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="326"/>
+      <c r="K7" s="298"/>
+      <c r="L7" s="298"/>
+      <c r="M7" s="298"/>
       <c r="N7" s="42" t="s">
         <v>59</v>
       </c>
@@ -13980,7 +13980,7 @@
       <c r="P7" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="323"/>
+      <c r="Q7" s="326"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -14436,37 +14436,37 @@
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="264" t="s">
+      <c r="C19" s="298" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="264" t="s">
+      <c r="D19" s="298" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="264" t="s">
+      <c r="E19" s="298" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="264" t="s">
+      <c r="F19" s="298" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="264" t="s">
+      <c r="G19" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="264" t="s">
+      <c r="H19" s="298" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="324" t="s">
+      <c r="I19" s="327" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="323" t="s">
+      <c r="J19" s="326" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="264" t="s">
+      <c r="K19" s="298" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="264" t="s">
+      <c r="L19" s="298" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="264" t="s">
+      <c r="M19" s="298" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="58" t="s">
@@ -14474,24 +14474,24 @@
       </c>
       <c r="O19" s="58"/>
       <c r="P19" s="58"/>
-      <c r="Q19" s="324" t="s">
+      <c r="Q19" s="327" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="264"/>
-      <c r="D20" s="264"/>
-      <c r="E20" s="264"/>
-      <c r="F20" s="264"/>
-      <c r="G20" s="264"/>
-      <c r="H20" s="264"/>
-      <c r="I20" s="325"/>
-      <c r="J20" s="323"/>
-      <c r="K20" s="264"/>
-      <c r="L20" s="264"/>
-      <c r="M20" s="264"/>
+      <c r="C20" s="298"/>
+      <c r="D20" s="298"/>
+      <c r="E20" s="298"/>
+      <c r="F20" s="298"/>
+      <c r="G20" s="298"/>
+      <c r="H20" s="298"/>
+      <c r="I20" s="328"/>
+      <c r="J20" s="326"/>
+      <c r="K20" s="298"/>
+      <c r="L20" s="298"/>
+      <c r="M20" s="298"/>
       <c r="N20" s="42" t="s">
         <v>59</v>
       </c>
@@ -14501,7 +14501,7 @@
       <c r="P20" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="325"/>
+      <c r="Q20" s="328"/>
     </row>
     <row r="21" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
@@ -14635,37 +14635,37 @@
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="52"/>
-      <c r="C26" s="264" t="s">
+      <c r="C26" s="298" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="264" t="s">
+      <c r="D26" s="298" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="264" t="s">
+      <c r="E26" s="298" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="264" t="s">
+      <c r="F26" s="298" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="264" t="s">
+      <c r="G26" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="264" t="s">
+      <c r="H26" s="298" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="323" t="s">
+      <c r="I26" s="326" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="323" t="s">
+      <c r="J26" s="326" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="264" t="s">
+      <c r="K26" s="298" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="264" t="s">
+      <c r="L26" s="298" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="264" t="s">
+      <c r="M26" s="298" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="58" t="s">
@@ -14673,24 +14673,24 @@
       </c>
       <c r="O26" s="58"/>
       <c r="P26" s="58"/>
-      <c r="Q26" s="323" t="s">
+      <c r="Q26" s="326" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="52"/>
-      <c r="C27" s="264"/>
-      <c r="D27" s="264"/>
-      <c r="E27" s="264"/>
-      <c r="F27" s="264"/>
-      <c r="G27" s="264"/>
-      <c r="H27" s="264"/>
-      <c r="I27" s="323"/>
-      <c r="J27" s="323"/>
-      <c r="K27" s="264"/>
-      <c r="L27" s="264"/>
-      <c r="M27" s="264"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="298"/>
+      <c r="E27" s="298"/>
+      <c r="F27" s="298"/>
+      <c r="G27" s="298"/>
+      <c r="H27" s="298"/>
+      <c r="I27" s="326"/>
+      <c r="J27" s="326"/>
+      <c r="K27" s="298"/>
+      <c r="L27" s="298"/>
+      <c r="M27" s="298"/>
       <c r="N27" s="80" t="s">
         <v>59</v>
       </c>
@@ -14700,7 +14700,7 @@
       <c r="P27" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="Q27" s="323"/>
+      <c r="Q27" s="326"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="120"/>
@@ -15455,30 +15455,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L19:L20"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -15491,6 +15467,30 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15566,14 +15566,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="306">
+      <c r="AI1" s="305">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="321"/>
-      <c r="AK1" s="321"/>
-      <c r="AL1" s="321"/>
-      <c r="AM1" s="322"/>
+      <c r="AJ1" s="324"/>
+      <c r="AK1" s="324"/>
+      <c r="AL1" s="324"/>
+      <c r="AM1" s="325"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -15582,16 +15582,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="309" t="str">
+      <c r="AT1" s="308" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="314"/>
-      <c r="AV1" s="314"/>
-      <c r="AW1" s="314"/>
-      <c r="AX1" s="314"/>
-      <c r="AY1" s="314"/>
-      <c r="AZ1" s="315"/>
+      <c r="AU1" s="317"/>
+      <c r="AV1" s="317"/>
+      <c r="AW1" s="317"/>
+      <c r="AX1" s="317"/>
+      <c r="AY1" s="317"/>
+      <c r="AZ1" s="318"/>
     </row>
     <row r="2" spans="1:52" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -15619,32 +15619,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="320" t="str">
+      <c r="S2" s="323" t="str">
         <f>'１．機能概要'!W2</f>
         <v>その他出庫参照・取消</v>
       </c>
-      <c r="T2" s="321"/>
-      <c r="U2" s="321"/>
-      <c r="V2" s="321"/>
-      <c r="W2" s="321"/>
-      <c r="X2" s="321"/>
-      <c r="Y2" s="321"/>
-      <c r="Z2" s="321"/>
-      <c r="AA2" s="321"/>
-      <c r="AB2" s="321"/>
-      <c r="AC2" s="321"/>
-      <c r="AD2" s="322"/>
+      <c r="T2" s="324"/>
+      <c r="U2" s="324"/>
+      <c r="V2" s="324"/>
+      <c r="W2" s="324"/>
+      <c r="X2" s="324"/>
+      <c r="Y2" s="324"/>
+      <c r="Z2" s="324"/>
+      <c r="AA2" s="324"/>
+      <c r="AB2" s="324"/>
+      <c r="AC2" s="324"/>
+      <c r="AD2" s="325"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="319"/>
-      <c r="AJ2" s="314"/>
-      <c r="AK2" s="314"/>
-      <c r="AL2" s="314"/>
-      <c r="AM2" s="315"/>
+      <c r="AI2" s="322"/>
+      <c r="AJ2" s="317"/>
+      <c r="AK2" s="317"/>
+      <c r="AL2" s="317"/>
+      <c r="AM2" s="318"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -15653,13 +15653,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="309"/>
-      <c r="AU2" s="314"/>
-      <c r="AV2" s="314"/>
-      <c r="AW2" s="314"/>
-      <c r="AX2" s="314"/>
-      <c r="AY2" s="314"/>
-      <c r="AZ2" s="315"/>
+      <c r="AT2" s="308"/>
+      <c r="AU2" s="317"/>
+      <c r="AV2" s="317"/>
+      <c r="AW2" s="317"/>
+      <c r="AX2" s="317"/>
+      <c r="AY2" s="317"/>
+      <c r="AZ2" s="318"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
@@ -19781,7 +19781,7 @@
       <c r="G122" s="60"/>
       <c r="K122" s="23"/>
       <c r="L122" s="115"/>
-      <c r="M122" s="347" t="s">
+      <c r="M122" s="259" t="s">
         <v>431</v>
       </c>
       <c r="N122" s="116"/>
@@ -20564,7 +20564,7 @@
       <c r="F139" s="61"/>
       <c r="G139" s="60"/>
       <c r="K139" s="61"/>
-      <c r="L139" s="348"/>
+      <c r="L139" s="260"/>
       <c r="M139" s="235" t="s">
         <v>432</v>
       </c>
@@ -20574,13 +20574,13 @@
       <c r="Q139" s="235"/>
       <c r="R139" s="235"/>
       <c r="S139" s="235"/>
-      <c r="T139" s="349"/>
-      <c r="U139" s="349"/>
-      <c r="V139" s="349"/>
-      <c r="W139" s="349"/>
-      <c r="X139" s="349"/>
-      <c r="Y139" s="349"/>
-      <c r="Z139" s="349"/>
+      <c r="T139" s="261"/>
+      <c r="U139" s="261"/>
+      <c r="V139" s="261"/>
+      <c r="W139" s="261"/>
+      <c r="X139" s="261"/>
+      <c r="Y139" s="261"/>
+      <c r="Z139" s="261"/>
       <c r="AA139" s="235"/>
       <c r="AB139" s="235"/>
       <c r="AC139" s="235"/>
@@ -21594,14 +21594,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="306">
+      <c r="AI1" s="305">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="321"/>
-      <c r="AK1" s="321"/>
-      <c r="AL1" s="321"/>
-      <c r="AM1" s="322"/>
+      <c r="AJ1" s="324"/>
+      <c r="AK1" s="324"/>
+      <c r="AL1" s="324"/>
+      <c r="AM1" s="325"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -21610,16 +21610,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="309" t="str">
+      <c r="AT1" s="308" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="314"/>
-      <c r="AV1" s="314"/>
-      <c r="AW1" s="314"/>
-      <c r="AX1" s="314"/>
-      <c r="AY1" s="314"/>
-      <c r="AZ1" s="315"/>
+      <c r="AU1" s="317"/>
+      <c r="AV1" s="317"/>
+      <c r="AW1" s="317"/>
+      <c r="AX1" s="317"/>
+      <c r="AY1" s="317"/>
+      <c r="AZ1" s="318"/>
     </row>
     <row r="2" spans="1:52" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -21647,32 +21647,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="320" t="str">
+      <c r="S2" s="323" t="str">
         <f>'１．機能概要'!W2</f>
         <v>その他出庫参照・取消</v>
       </c>
-      <c r="T2" s="321"/>
-      <c r="U2" s="321"/>
-      <c r="V2" s="321"/>
-      <c r="W2" s="321"/>
-      <c r="X2" s="321"/>
-      <c r="Y2" s="321"/>
-      <c r="Z2" s="321"/>
-      <c r="AA2" s="321"/>
-      <c r="AB2" s="321"/>
-      <c r="AC2" s="321"/>
-      <c r="AD2" s="322"/>
+      <c r="T2" s="324"/>
+      <c r="U2" s="324"/>
+      <c r="V2" s="324"/>
+      <c r="W2" s="324"/>
+      <c r="X2" s="324"/>
+      <c r="Y2" s="324"/>
+      <c r="Z2" s="324"/>
+      <c r="AA2" s="324"/>
+      <c r="AB2" s="324"/>
+      <c r="AC2" s="324"/>
+      <c r="AD2" s="325"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="319"/>
-      <c r="AJ2" s="314"/>
-      <c r="AK2" s="314"/>
-      <c r="AL2" s="314"/>
-      <c r="AM2" s="315"/>
+      <c r="AI2" s="322"/>
+      <c r="AJ2" s="317"/>
+      <c r="AK2" s="317"/>
+      <c r="AL2" s="317"/>
+      <c r="AM2" s="318"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -21681,13 +21681,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="309"/>
-      <c r="AU2" s="314"/>
-      <c r="AV2" s="314"/>
-      <c r="AW2" s="314"/>
-      <c r="AX2" s="314"/>
-      <c r="AY2" s="314"/>
-      <c r="AZ2" s="315"/>
+      <c r="AT2" s="308"/>
+      <c r="AU2" s="317"/>
+      <c r="AV2" s="317"/>
+      <c r="AW2" s="317"/>
+      <c r="AX2" s="317"/>
+      <c r="AY2" s="317"/>
+      <c r="AZ2" s="318"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
@@ -23931,14 +23931,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="306">
+      <c r="AI1" s="305">
         <f>変更履歴!E5</f>
         <v>43720</v>
       </c>
-      <c r="AJ1" s="321"/>
-      <c r="AK1" s="321"/>
-      <c r="AL1" s="321"/>
-      <c r="AM1" s="322"/>
+      <c r="AJ1" s="324"/>
+      <c r="AK1" s="324"/>
+      <c r="AL1" s="324"/>
+      <c r="AM1" s="325"/>
       <c r="AN1" s="33" t="s">
         <v>25</v>
       </c>
@@ -23947,16 +23947,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="309" t="str">
+      <c r="AT1" s="308" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="314"/>
-      <c r="AV1" s="314"/>
-      <c r="AW1" s="314"/>
-      <c r="AX1" s="314"/>
-      <c r="AY1" s="314"/>
-      <c r="AZ1" s="315"/>
+      <c r="AU1" s="317"/>
+      <c r="AV1" s="317"/>
+      <c r="AW1" s="317"/>
+      <c r="AX1" s="317"/>
+      <c r="AY1" s="317"/>
+      <c r="AZ1" s="318"/>
     </row>
     <row r="2" spans="1:52" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -23984,32 +23984,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="320" t="str">
+      <c r="S2" s="323" t="str">
         <f>'１．機能概要'!W2</f>
         <v>その他出庫参照・取消</v>
       </c>
-      <c r="T2" s="321"/>
-      <c r="U2" s="321"/>
-      <c r="V2" s="321"/>
-      <c r="W2" s="321"/>
-      <c r="X2" s="321"/>
-      <c r="Y2" s="321"/>
-      <c r="Z2" s="321"/>
-      <c r="AA2" s="321"/>
-      <c r="AB2" s="321"/>
-      <c r="AC2" s="321"/>
-      <c r="AD2" s="322"/>
+      <c r="T2" s="324"/>
+      <c r="U2" s="324"/>
+      <c r="V2" s="324"/>
+      <c r="W2" s="324"/>
+      <c r="X2" s="324"/>
+      <c r="Y2" s="324"/>
+      <c r="Z2" s="324"/>
+      <c r="AA2" s="324"/>
+      <c r="AB2" s="324"/>
+      <c r="AC2" s="324"/>
+      <c r="AD2" s="325"/>
       <c r="AE2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="319"/>
-      <c r="AJ2" s="314"/>
-      <c r="AK2" s="314"/>
-      <c r="AL2" s="314"/>
-      <c r="AM2" s="315"/>
+      <c r="AI2" s="322"/>
+      <c r="AJ2" s="317"/>
+      <c r="AK2" s="317"/>
+      <c r="AL2" s="317"/>
+      <c r="AM2" s="318"/>
       <c r="AN2" s="33" t="s">
         <v>26</v>
       </c>
@@ -24018,13 +24018,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="309"/>
-      <c r="AU2" s="314"/>
-      <c r="AV2" s="314"/>
-      <c r="AW2" s="314"/>
-      <c r="AX2" s="314"/>
-      <c r="AY2" s="314"/>
-      <c r="AZ2" s="315"/>
+      <c r="AT2" s="308"/>
+      <c r="AU2" s="317"/>
+      <c r="AV2" s="317"/>
+      <c r="AW2" s="317"/>
+      <c r="AX2" s="317"/>
+      <c r="AY2" s="317"/>
+      <c r="AZ2" s="318"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
@@ -24435,7 +24435,7 @@
   <dimension ref="B1:CW41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24569,76 +24569,76 @@
       <c r="CW3" s="161"/>
     </row>
     <row r="4" spans="2:101" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="326" t="s">
+      <c r="B4" s="338" t="s">
         <v>368</v>
       </c>
-      <c r="C4" s="327"/>
-      <c r="D4" s="327"/>
-      <c r="E4" s="327"/>
-      <c r="F4" s="327"/>
-      <c r="G4" s="327"/>
-      <c r="H4" s="327"/>
-      <c r="I4" s="327"/>
-      <c r="J4" s="327"/>
-      <c r="K4" s="327"/>
-      <c r="L4" s="327"/>
-      <c r="M4" s="327"/>
-      <c r="N4" s="327"/>
-      <c r="O4" s="327"/>
-      <c r="P4" s="327"/>
-      <c r="Q4" s="327"/>
-      <c r="R4" s="327"/>
-      <c r="S4" s="327"/>
-      <c r="T4" s="327"/>
-      <c r="U4" s="327"/>
-      <c r="V4" s="327"/>
-      <c r="W4" s="327"/>
-      <c r="X4" s="327"/>
-      <c r="Y4" s="327"/>
-      <c r="Z4" s="327"/>
-      <c r="AA4" s="327"/>
-      <c r="AB4" s="327"/>
-      <c r="AC4" s="327"/>
-      <c r="AD4" s="327"/>
-      <c r="AE4" s="327"/>
-      <c r="AF4" s="327"/>
-      <c r="AG4" s="327"/>
-      <c r="AH4" s="327"/>
-      <c r="AI4" s="327"/>
-      <c r="AJ4" s="327"/>
-      <c r="AK4" s="327"/>
-      <c r="AL4" s="327"/>
-      <c r="AM4" s="327"/>
-      <c r="AN4" s="327"/>
-      <c r="AO4" s="327"/>
-      <c r="AP4" s="327"/>
-      <c r="AQ4" s="327"/>
-      <c r="AR4" s="327"/>
-      <c r="AS4" s="327"/>
-      <c r="AT4" s="327"/>
-      <c r="AU4" s="327"/>
-      <c r="AV4" s="327"/>
-      <c r="AW4" s="327"/>
-      <c r="AX4" s="327"/>
-      <c r="AY4" s="327"/>
-      <c r="AZ4" s="327"/>
-      <c r="BA4" s="327"/>
-      <c r="BB4" s="327"/>
-      <c r="BC4" s="327"/>
-      <c r="BD4" s="327"/>
-      <c r="BE4" s="327"/>
-      <c r="BF4" s="327"/>
-      <c r="BG4" s="327"/>
-      <c r="BH4" s="327"/>
-      <c r="BI4" s="327"/>
-      <c r="BJ4" s="327"/>
-      <c r="BK4" s="327"/>
-      <c r="BL4" s="327"/>
-      <c r="BM4" s="327"/>
-      <c r="BN4" s="327"/>
-      <c r="BO4" s="327"/>
-      <c r="BP4" s="327"/>
-      <c r="BQ4" s="328"/>
+      <c r="C4" s="339"/>
+      <c r="D4" s="339"/>
+      <c r="E4" s="339"/>
+      <c r="F4" s="339"/>
+      <c r="G4" s="339"/>
+      <c r="H4" s="339"/>
+      <c r="I4" s="339"/>
+      <c r="J4" s="339"/>
+      <c r="K4" s="339"/>
+      <c r="L4" s="339"/>
+      <c r="M4" s="339"/>
+      <c r="N4" s="339"/>
+      <c r="O4" s="339"/>
+      <c r="P4" s="339"/>
+      <c r="Q4" s="339"/>
+      <c r="R4" s="339"/>
+      <c r="S4" s="339"/>
+      <c r="T4" s="339"/>
+      <c r="U4" s="339"/>
+      <c r="V4" s="339"/>
+      <c r="W4" s="339"/>
+      <c r="X4" s="339"/>
+      <c r="Y4" s="339"/>
+      <c r="Z4" s="339"/>
+      <c r="AA4" s="339"/>
+      <c r="AB4" s="339"/>
+      <c r="AC4" s="339"/>
+      <c r="AD4" s="339"/>
+      <c r="AE4" s="339"/>
+      <c r="AF4" s="339"/>
+      <c r="AG4" s="339"/>
+      <c r="AH4" s="339"/>
+      <c r="AI4" s="339"/>
+      <c r="AJ4" s="339"/>
+      <c r="AK4" s="339"/>
+      <c r="AL4" s="339"/>
+      <c r="AM4" s="339"/>
+      <c r="AN4" s="339"/>
+      <c r="AO4" s="339"/>
+      <c r="AP4" s="339"/>
+      <c r="AQ4" s="339"/>
+      <c r="AR4" s="339"/>
+      <c r="AS4" s="339"/>
+      <c r="AT4" s="339"/>
+      <c r="AU4" s="339"/>
+      <c r="AV4" s="339"/>
+      <c r="AW4" s="339"/>
+      <c r="AX4" s="339"/>
+      <c r="AY4" s="339"/>
+      <c r="AZ4" s="339"/>
+      <c r="BA4" s="339"/>
+      <c r="BB4" s="339"/>
+      <c r="BC4" s="339"/>
+      <c r="BD4" s="339"/>
+      <c r="BE4" s="339"/>
+      <c r="BF4" s="339"/>
+      <c r="BG4" s="339"/>
+      <c r="BH4" s="339"/>
+      <c r="BI4" s="339"/>
+      <c r="BJ4" s="339"/>
+      <c r="BK4" s="339"/>
+      <c r="BL4" s="339"/>
+      <c r="BM4" s="339"/>
+      <c r="BN4" s="339"/>
+      <c r="BO4" s="339"/>
+      <c r="BP4" s="339"/>
+      <c r="BQ4" s="340"/>
       <c r="BR4" s="162"/>
       <c r="BS4" s="163"/>
       <c r="BT4" s="163"/>
@@ -24677,74 +24677,74 @@
       <c r="CW4" s="169"/>
     </row>
     <row r="5" spans="2:101" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="329"/>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="330"/>
-      <c r="K5" s="330"/>
-      <c r="L5" s="330"/>
-      <c r="M5" s="330"/>
-      <c r="N5" s="330"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="330"/>
-      <c r="Q5" s="330"/>
-      <c r="R5" s="330"/>
-      <c r="S5" s="330"/>
-      <c r="T5" s="330"/>
-      <c r="U5" s="330"/>
-      <c r="V5" s="330"/>
-      <c r="W5" s="330"/>
-      <c r="X5" s="330"/>
-      <c r="Y5" s="330"/>
-      <c r="Z5" s="330"/>
-      <c r="AA5" s="330"/>
-      <c r="AB5" s="330"/>
-      <c r="AC5" s="330"/>
-      <c r="AD5" s="330"/>
-      <c r="AE5" s="330"/>
-      <c r="AF5" s="330"/>
-      <c r="AG5" s="330"/>
-      <c r="AH5" s="330"/>
-      <c r="AI5" s="330"/>
-      <c r="AJ5" s="330"/>
-      <c r="AK5" s="330"/>
-      <c r="AL5" s="330"/>
-      <c r="AM5" s="330"/>
-      <c r="AN5" s="330"/>
-      <c r="AO5" s="330"/>
-      <c r="AP5" s="330"/>
-      <c r="AQ5" s="330"/>
-      <c r="AR5" s="330"/>
-      <c r="AS5" s="330"/>
-      <c r="AT5" s="330"/>
-      <c r="AU5" s="330"/>
-      <c r="AV5" s="330"/>
-      <c r="AW5" s="330"/>
-      <c r="AX5" s="330"/>
-      <c r="AY5" s="330"/>
-      <c r="AZ5" s="330"/>
-      <c r="BA5" s="330"/>
-      <c r="BB5" s="330"/>
-      <c r="BC5" s="330"/>
-      <c r="BD5" s="330"/>
-      <c r="BE5" s="330"/>
-      <c r="BF5" s="330"/>
-      <c r="BG5" s="330"/>
-      <c r="BH5" s="330"/>
-      <c r="BI5" s="330"/>
-      <c r="BJ5" s="330"/>
-      <c r="BK5" s="330"/>
-      <c r="BL5" s="330"/>
-      <c r="BM5" s="330"/>
-      <c r="BN5" s="330"/>
-      <c r="BO5" s="330"/>
-      <c r="BP5" s="330"/>
-      <c r="BQ5" s="331"/>
+      <c r="B5" s="341"/>
+      <c r="C5" s="342"/>
+      <c r="D5" s="342"/>
+      <c r="E5" s="342"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="342"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="342"/>
+      <c r="N5" s="342"/>
+      <c r="O5" s="342"/>
+      <c r="P5" s="342"/>
+      <c r="Q5" s="342"/>
+      <c r="R5" s="342"/>
+      <c r="S5" s="342"/>
+      <c r="T5" s="342"/>
+      <c r="U5" s="342"/>
+      <c r="V5" s="342"/>
+      <c r="W5" s="342"/>
+      <c r="X5" s="342"/>
+      <c r="Y5" s="342"/>
+      <c r="Z5" s="342"/>
+      <c r="AA5" s="342"/>
+      <c r="AB5" s="342"/>
+      <c r="AC5" s="342"/>
+      <c r="AD5" s="342"/>
+      <c r="AE5" s="342"/>
+      <c r="AF5" s="342"/>
+      <c r="AG5" s="342"/>
+      <c r="AH5" s="342"/>
+      <c r="AI5" s="342"/>
+      <c r="AJ5" s="342"/>
+      <c r="AK5" s="342"/>
+      <c r="AL5" s="342"/>
+      <c r="AM5" s="342"/>
+      <c r="AN5" s="342"/>
+      <c r="AO5" s="342"/>
+      <c r="AP5" s="342"/>
+      <c r="AQ5" s="342"/>
+      <c r="AR5" s="342"/>
+      <c r="AS5" s="342"/>
+      <c r="AT5" s="342"/>
+      <c r="AU5" s="342"/>
+      <c r="AV5" s="342"/>
+      <c r="AW5" s="342"/>
+      <c r="AX5" s="342"/>
+      <c r="AY5" s="342"/>
+      <c r="AZ5" s="342"/>
+      <c r="BA5" s="342"/>
+      <c r="BB5" s="342"/>
+      <c r="BC5" s="342"/>
+      <c r="BD5" s="342"/>
+      <c r="BE5" s="342"/>
+      <c r="BF5" s="342"/>
+      <c r="BG5" s="342"/>
+      <c r="BH5" s="342"/>
+      <c r="BI5" s="342"/>
+      <c r="BJ5" s="342"/>
+      <c r="BK5" s="342"/>
+      <c r="BL5" s="342"/>
+      <c r="BM5" s="342"/>
+      <c r="BN5" s="342"/>
+      <c r="BO5" s="342"/>
+      <c r="BP5" s="342"/>
+      <c r="BQ5" s="343"/>
       <c r="BR5" s="170"/>
       <c r="BS5" s="171"/>
       <c r="BT5" s="171"/>
@@ -26385,117 +26385,117 @@
     <row r="22" spans="2:101" s="209" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="212"/>
       <c r="C22" s="206"/>
-      <c r="D22" s="332" t="s">
+      <c r="D22" s="344" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="333"/>
-      <c r="F22" s="334"/>
-      <c r="G22" s="338" t="s">
+      <c r="E22" s="345"/>
+      <c r="F22" s="346"/>
+      <c r="G22" s="329" t="s">
         <v>380</v>
       </c>
-      <c r="H22" s="339"/>
-      <c r="I22" s="339"/>
-      <c r="J22" s="340"/>
-      <c r="K22" s="338" t="s">
+      <c r="H22" s="330"/>
+      <c r="I22" s="330"/>
+      <c r="J22" s="331"/>
+      <c r="K22" s="329" t="s">
         <v>381</v>
       </c>
-      <c r="L22" s="339"/>
-      <c r="M22" s="339"/>
-      <c r="N22" s="339"/>
-      <c r="O22" s="339"/>
-      <c r="P22" s="339"/>
-      <c r="Q22" s="339"/>
-      <c r="R22" s="340"/>
-      <c r="S22" s="338" t="s">
+      <c r="L22" s="330"/>
+      <c r="M22" s="330"/>
+      <c r="N22" s="330"/>
+      <c r="O22" s="330"/>
+      <c r="P22" s="330"/>
+      <c r="Q22" s="330"/>
+      <c r="R22" s="331"/>
+      <c r="S22" s="329" t="s">
         <v>382</v>
       </c>
-      <c r="T22" s="339"/>
-      <c r="U22" s="339"/>
-      <c r="V22" s="339"/>
-      <c r="W22" s="339"/>
-      <c r="X22" s="339"/>
-      <c r="Y22" s="339"/>
-      <c r="Z22" s="340"/>
-      <c r="AA22" s="338" t="s">
+      <c r="T22" s="330"/>
+      <c r="U22" s="330"/>
+      <c r="V22" s="330"/>
+      <c r="W22" s="330"/>
+      <c r="X22" s="330"/>
+      <c r="Y22" s="330"/>
+      <c r="Z22" s="331"/>
+      <c r="AA22" s="329" t="s">
         <v>383</v>
       </c>
-      <c r="AB22" s="339"/>
-      <c r="AC22" s="339"/>
-      <c r="AD22" s="339"/>
-      <c r="AE22" s="339"/>
-      <c r="AF22" s="339"/>
-      <c r="AG22" s="339"/>
-      <c r="AH22" s="339"/>
-      <c r="AI22" s="339"/>
-      <c r="AJ22" s="339"/>
-      <c r="AK22" s="339"/>
-      <c r="AL22" s="339"/>
-      <c r="AM22" s="339"/>
-      <c r="AN22" s="339"/>
-      <c r="AO22" s="340"/>
-      <c r="AP22" s="338" t="s">
+      <c r="AB22" s="330"/>
+      <c r="AC22" s="330"/>
+      <c r="AD22" s="330"/>
+      <c r="AE22" s="330"/>
+      <c r="AF22" s="330"/>
+      <c r="AG22" s="330"/>
+      <c r="AH22" s="330"/>
+      <c r="AI22" s="330"/>
+      <c r="AJ22" s="330"/>
+      <c r="AK22" s="330"/>
+      <c r="AL22" s="330"/>
+      <c r="AM22" s="330"/>
+      <c r="AN22" s="330"/>
+      <c r="AO22" s="331"/>
+      <c r="AP22" s="329" t="s">
         <v>384</v>
       </c>
-      <c r="AQ22" s="339"/>
-      <c r="AR22" s="339"/>
-      <c r="AS22" s="339"/>
-      <c r="AT22" s="339"/>
-      <c r="AU22" s="339"/>
-      <c r="AV22" s="339"/>
-      <c r="AW22" s="340"/>
-      <c r="AX22" s="338" t="s">
+      <c r="AQ22" s="330"/>
+      <c r="AR22" s="330"/>
+      <c r="AS22" s="330"/>
+      <c r="AT22" s="330"/>
+      <c r="AU22" s="330"/>
+      <c r="AV22" s="330"/>
+      <c r="AW22" s="331"/>
+      <c r="AX22" s="329" t="s">
         <v>385</v>
       </c>
-      <c r="AY22" s="339"/>
-      <c r="AZ22" s="339"/>
-      <c r="BA22" s="339"/>
-      <c r="BB22" s="339"/>
-      <c r="BC22" s="339"/>
-      <c r="BD22" s="339"/>
-      <c r="BE22" s="339"/>
-      <c r="BF22" s="339"/>
-      <c r="BG22" s="339"/>
-      <c r="BH22" s="339"/>
-      <c r="BI22" s="339"/>
-      <c r="BJ22" s="339"/>
-      <c r="BK22" s="339"/>
-      <c r="BL22" s="339"/>
-      <c r="BM22" s="339"/>
-      <c r="BN22" s="340"/>
-      <c r="BO22" s="338" t="s">
+      <c r="AY22" s="330"/>
+      <c r="AZ22" s="330"/>
+      <c r="BA22" s="330"/>
+      <c r="BB22" s="330"/>
+      <c r="BC22" s="330"/>
+      <c r="BD22" s="330"/>
+      <c r="BE22" s="330"/>
+      <c r="BF22" s="330"/>
+      <c r="BG22" s="330"/>
+      <c r="BH22" s="330"/>
+      <c r="BI22" s="330"/>
+      <c r="BJ22" s="330"/>
+      <c r="BK22" s="330"/>
+      <c r="BL22" s="330"/>
+      <c r="BM22" s="330"/>
+      <c r="BN22" s="331"/>
+      <c r="BO22" s="329" t="s">
         <v>386</v>
       </c>
-      <c r="BP22" s="339"/>
-      <c r="BQ22" s="339"/>
-      <c r="BR22" s="339"/>
-      <c r="BS22" s="339"/>
-      <c r="BT22" s="339"/>
-      <c r="BU22" s="339"/>
-      <c r="BV22" s="340"/>
-      <c r="BW22" s="338" t="s">
+      <c r="BP22" s="330"/>
+      <c r="BQ22" s="330"/>
+      <c r="BR22" s="330"/>
+      <c r="BS22" s="330"/>
+      <c r="BT22" s="330"/>
+      <c r="BU22" s="330"/>
+      <c r="BV22" s="331"/>
+      <c r="BW22" s="329" t="s">
         <v>387</v>
       </c>
-      <c r="BX22" s="339"/>
-      <c r="BY22" s="339"/>
-      <c r="BZ22" s="339"/>
-      <c r="CA22" s="339"/>
-      <c r="CB22" s="339"/>
-      <c r="CC22" s="339"/>
-      <c r="CD22" s="339"/>
-      <c r="CE22" s="339"/>
-      <c r="CF22" s="339"/>
-      <c r="CG22" s="339"/>
-      <c r="CH22" s="339"/>
-      <c r="CI22" s="339"/>
-      <c r="CJ22" s="339"/>
-      <c r="CK22" s="339"/>
-      <c r="CL22" s="339"/>
-      <c r="CM22" s="339"/>
-      <c r="CN22" s="339"/>
-      <c r="CO22" s="339"/>
-      <c r="CP22" s="339"/>
-      <c r="CQ22" s="339"/>
-      <c r="CR22" s="340"/>
+      <c r="BX22" s="330"/>
+      <c r="BY22" s="330"/>
+      <c r="BZ22" s="330"/>
+      <c r="CA22" s="330"/>
+      <c r="CB22" s="330"/>
+      <c r="CC22" s="330"/>
+      <c r="CD22" s="330"/>
+      <c r="CE22" s="330"/>
+      <c r="CF22" s="330"/>
+      <c r="CG22" s="330"/>
+      <c r="CH22" s="330"/>
+      <c r="CI22" s="330"/>
+      <c r="CJ22" s="330"/>
+      <c r="CK22" s="330"/>
+      <c r="CL22" s="330"/>
+      <c r="CM22" s="330"/>
+      <c r="CN22" s="330"/>
+      <c r="CO22" s="330"/>
+      <c r="CP22" s="330"/>
+      <c r="CQ22" s="330"/>
+      <c r="CR22" s="331"/>
       <c r="CS22" s="206"/>
       <c r="CT22" s="206"/>
       <c r="CU22" s="206"/>
@@ -26505,115 +26505,115 @@
     <row r="23" spans="2:101" s="209" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="212"/>
       <c r="C23" s="206"/>
-      <c r="D23" s="335"/>
-      <c r="E23" s="336"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="341" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="348"/>
+      <c r="F23" s="349"/>
+      <c r="G23" s="332" t="s">
         <v>388</v>
       </c>
-      <c r="H23" s="342"/>
-      <c r="I23" s="342"/>
-      <c r="J23" s="343"/>
-      <c r="K23" s="344" t="s">
+      <c r="H23" s="333"/>
+      <c r="I23" s="333"/>
+      <c r="J23" s="334"/>
+      <c r="K23" s="335" t="s">
         <v>389</v>
       </c>
-      <c r="L23" s="345"/>
-      <c r="M23" s="345"/>
-      <c r="N23" s="345"/>
-      <c r="O23" s="345"/>
-      <c r="P23" s="345"/>
-      <c r="Q23" s="345"/>
-      <c r="R23" s="346"/>
-      <c r="S23" s="344" t="s">
+      <c r="L23" s="336"/>
+      <c r="M23" s="336"/>
+      <c r="N23" s="336"/>
+      <c r="O23" s="336"/>
+      <c r="P23" s="336"/>
+      <c r="Q23" s="336"/>
+      <c r="R23" s="337"/>
+      <c r="S23" s="335" t="s">
         <v>390</v>
       </c>
-      <c r="T23" s="345"/>
-      <c r="U23" s="345"/>
-      <c r="V23" s="345"/>
-      <c r="W23" s="345"/>
-      <c r="X23" s="345"/>
-      <c r="Y23" s="345"/>
-      <c r="Z23" s="346"/>
-      <c r="AA23" s="344" t="s">
+      <c r="T23" s="336"/>
+      <c r="U23" s="336"/>
+      <c r="V23" s="336"/>
+      <c r="W23" s="336"/>
+      <c r="X23" s="336"/>
+      <c r="Y23" s="336"/>
+      <c r="Z23" s="337"/>
+      <c r="AA23" s="335" t="s">
         <v>391</v>
       </c>
-      <c r="AB23" s="345"/>
-      <c r="AC23" s="345"/>
-      <c r="AD23" s="345"/>
-      <c r="AE23" s="345"/>
-      <c r="AF23" s="345"/>
-      <c r="AG23" s="345"/>
-      <c r="AH23" s="345"/>
-      <c r="AI23" s="345"/>
-      <c r="AJ23" s="345"/>
-      <c r="AK23" s="345"/>
-      <c r="AL23" s="345"/>
-      <c r="AM23" s="345"/>
-      <c r="AN23" s="345"/>
-      <c r="AO23" s="346"/>
-      <c r="AP23" s="344" t="s">
+      <c r="AB23" s="336"/>
+      <c r="AC23" s="336"/>
+      <c r="AD23" s="336"/>
+      <c r="AE23" s="336"/>
+      <c r="AF23" s="336"/>
+      <c r="AG23" s="336"/>
+      <c r="AH23" s="336"/>
+      <c r="AI23" s="336"/>
+      <c r="AJ23" s="336"/>
+      <c r="AK23" s="336"/>
+      <c r="AL23" s="336"/>
+      <c r="AM23" s="336"/>
+      <c r="AN23" s="336"/>
+      <c r="AO23" s="337"/>
+      <c r="AP23" s="335" t="s">
         <v>392</v>
       </c>
-      <c r="AQ23" s="345"/>
-      <c r="AR23" s="345"/>
-      <c r="AS23" s="345"/>
-      <c r="AT23" s="345"/>
-      <c r="AU23" s="345"/>
-      <c r="AV23" s="345"/>
-      <c r="AW23" s="346"/>
-      <c r="AX23" s="341" t="s">
+      <c r="AQ23" s="336"/>
+      <c r="AR23" s="336"/>
+      <c r="AS23" s="336"/>
+      <c r="AT23" s="336"/>
+      <c r="AU23" s="336"/>
+      <c r="AV23" s="336"/>
+      <c r="AW23" s="337"/>
+      <c r="AX23" s="332" t="s">
         <v>393</v>
       </c>
-      <c r="AY23" s="342"/>
-      <c r="AZ23" s="342"/>
-      <c r="BA23" s="342"/>
-      <c r="BB23" s="342"/>
-      <c r="BC23" s="342"/>
-      <c r="BD23" s="342"/>
-      <c r="BE23" s="342"/>
-      <c r="BF23" s="342"/>
-      <c r="BG23" s="342"/>
-      <c r="BH23" s="342"/>
-      <c r="BI23" s="342"/>
-      <c r="BJ23" s="342"/>
-      <c r="BK23" s="342"/>
-      <c r="BL23" s="342"/>
-      <c r="BM23" s="342"/>
-      <c r="BN23" s="343"/>
-      <c r="BO23" s="344" t="s">
+      <c r="AY23" s="333"/>
+      <c r="AZ23" s="333"/>
+      <c r="BA23" s="333"/>
+      <c r="BB23" s="333"/>
+      <c r="BC23" s="333"/>
+      <c r="BD23" s="333"/>
+      <c r="BE23" s="333"/>
+      <c r="BF23" s="333"/>
+      <c r="BG23" s="333"/>
+      <c r="BH23" s="333"/>
+      <c r="BI23" s="333"/>
+      <c r="BJ23" s="333"/>
+      <c r="BK23" s="333"/>
+      <c r="BL23" s="333"/>
+      <c r="BM23" s="333"/>
+      <c r="BN23" s="334"/>
+      <c r="BO23" s="335" t="s">
         <v>394</v>
       </c>
-      <c r="BP23" s="345"/>
-      <c r="BQ23" s="345"/>
-      <c r="BR23" s="345"/>
-      <c r="BS23" s="345"/>
-      <c r="BT23" s="345"/>
-      <c r="BU23" s="345"/>
-      <c r="BV23" s="346"/>
-      <c r="BW23" s="344" t="s">
+      <c r="BP23" s="336"/>
+      <c r="BQ23" s="336"/>
+      <c r="BR23" s="336"/>
+      <c r="BS23" s="336"/>
+      <c r="BT23" s="336"/>
+      <c r="BU23" s="336"/>
+      <c r="BV23" s="337"/>
+      <c r="BW23" s="335" t="s">
         <v>395</v>
       </c>
-      <c r="BX23" s="345"/>
-      <c r="BY23" s="345"/>
-      <c r="BZ23" s="345"/>
-      <c r="CA23" s="345"/>
-      <c r="CB23" s="345"/>
-      <c r="CC23" s="345"/>
-      <c r="CD23" s="345"/>
-      <c r="CE23" s="345"/>
-      <c r="CF23" s="345"/>
-      <c r="CG23" s="345"/>
-      <c r="CH23" s="345"/>
-      <c r="CI23" s="345"/>
-      <c r="CJ23" s="345"/>
-      <c r="CK23" s="345"/>
-      <c r="CL23" s="345"/>
-      <c r="CM23" s="345"/>
-      <c r="CN23" s="345"/>
-      <c r="CO23" s="345"/>
-      <c r="CP23" s="345"/>
-      <c r="CQ23" s="345"/>
-      <c r="CR23" s="346"/>
+      <c r="BX23" s="336"/>
+      <c r="BY23" s="336"/>
+      <c r="BZ23" s="336"/>
+      <c r="CA23" s="336"/>
+      <c r="CB23" s="336"/>
+      <c r="CC23" s="336"/>
+      <c r="CD23" s="336"/>
+      <c r="CE23" s="336"/>
+      <c r="CF23" s="336"/>
+      <c r="CG23" s="336"/>
+      <c r="CH23" s="336"/>
+      <c r="CI23" s="336"/>
+      <c r="CJ23" s="336"/>
+      <c r="CK23" s="336"/>
+      <c r="CL23" s="336"/>
+      <c r="CM23" s="336"/>
+      <c r="CN23" s="336"/>
+      <c r="CO23" s="336"/>
+      <c r="CP23" s="336"/>
+      <c r="CQ23" s="336"/>
+      <c r="CR23" s="337"/>
       <c r="CS23" s="206"/>
       <c r="CT23" s="206"/>
       <c r="CU23" s="206"/>
@@ -28498,6 +28498,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B4:BQ5"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="AA22:AO22"/>
+    <mergeCell ref="AP22:AW22"/>
+    <mergeCell ref="AX22:BN22"/>
+    <mergeCell ref="BO22:BV22"/>
     <mergeCell ref="BW22:CR22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="K23:R23"/>
@@ -28507,15 +28516,6 @@
     <mergeCell ref="AX23:BN23"/>
     <mergeCell ref="BO23:BV23"/>
     <mergeCell ref="BW23:CR23"/>
-    <mergeCell ref="B4:BQ5"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="AA22:AO22"/>
-    <mergeCell ref="AP22:AW22"/>
-    <mergeCell ref="AX22:BN22"/>
-    <mergeCell ref="BO22:BV22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -28525,6 +28525,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -28682,15 +28691,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -28698,6 +28698,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28715,14 +28723,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
